--- a/Outputs/1. Budget/Grid Search/Output Files/1000000/Output_0_16.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/1000000/Output_0_16.xlsx
@@ -511,7 +511,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>792527.2636529653</v>
+        <v>817771.2815453688</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>17665746.29560159</v>
+        <v>17665746.29560158</v>
       </c>
     </row>
     <row r="9">
@@ -656,10 +656,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>212.2853856434421</v>
       </c>
       <c r="D2" t="n">
         <v>0</v>
@@ -668,64 +668,64 @@
         <v>0</v>
       </c>
       <c r="F2" t="n">
+        <v>0</v>
+      </c>
+      <c r="G2" t="n">
+        <v>0</v>
+      </c>
+      <c r="H2" t="n">
+        <v>0</v>
+      </c>
+      <c r="I2" t="n">
+        <v>0</v>
+      </c>
+      <c r="J2" t="n">
+        <v>0</v>
+      </c>
+      <c r="K2" t="n">
+        <v>0</v>
+      </c>
+      <c r="L2" t="n">
+        <v>0</v>
+      </c>
+      <c r="M2" t="n">
+        <v>0</v>
+      </c>
+      <c r="N2" t="n">
+        <v>0</v>
+      </c>
+      <c r="O2" t="n">
+        <v>0</v>
+      </c>
+      <c r="P2" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q2" t="n">
+        <v>0</v>
+      </c>
+      <c r="R2" t="n">
+        <v>0</v>
+      </c>
+      <c r="S2" t="n">
+        <v>0</v>
+      </c>
+      <c r="T2" t="n">
+        <v>0</v>
+      </c>
+      <c r="U2" t="n">
+        <v>0</v>
+      </c>
+      <c r="V2" t="n">
+        <v>0</v>
+      </c>
+      <c r="W2" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="G2" t="n">
+      <c r="X2" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y2" t="n">
         <v>241.0142888776591</v>
-      </c>
-      <c r="H2" t="n">
-        <v>241.0142888776591</v>
-      </c>
-      <c r="I2" t="n">
-        <v>0</v>
-      </c>
-      <c r="J2" t="n">
-        <v>0</v>
-      </c>
-      <c r="K2" t="n">
-        <v>0</v>
-      </c>
-      <c r="L2" t="n">
-        <v>0</v>
-      </c>
-      <c r="M2" t="n">
-        <v>0</v>
-      </c>
-      <c r="N2" t="n">
-        <v>0</v>
-      </c>
-      <c r="O2" t="n">
-        <v>0</v>
-      </c>
-      <c r="P2" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q2" t="n">
-        <v>0</v>
-      </c>
-      <c r="R2" t="n">
-        <v>0</v>
-      </c>
-      <c r="S2" t="n">
-        <v>0</v>
-      </c>
-      <c r="T2" t="n">
-        <v>0</v>
-      </c>
-      <c r="U2" t="n">
-        <v>0</v>
-      </c>
-      <c r="V2" t="n">
-        <v>0</v>
-      </c>
-      <c r="W2" t="n">
-        <v>0</v>
-      </c>
-      <c r="X2" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y2" t="n">
-        <v>212.285385643442</v>
       </c>
     </row>
     <row r="3">
@@ -735,22 +735,22 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C3" t="n">
         <v>172.7084989883157</v>
       </c>
       <c r="D3" t="n">
-        <v>81.54765439844903</v>
+        <v>0</v>
       </c>
       <c r="E3" t="n">
         <v>157.6450804554009</v>
       </c>
       <c r="F3" t="n">
-        <v>145.0692123933839</v>
+        <v>40.81693599802263</v>
       </c>
       <c r="G3" t="n">
-        <v>137.3435171632106</v>
+        <v>0</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -786,19 +786,19 @@
         <v>0</v>
       </c>
       <c r="S3" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T3" t="n">
         <v>0</v>
       </c>
       <c r="U3" t="n">
-        <v>0</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
       </c>
       <c r="W3" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="X3" t="n">
         <v>0</v>
@@ -896,16 +896,16 @@
         <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>212.285385643442</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="F5" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="G5" t="n">
         <v>0</v>
@@ -938,22 +938,22 @@
         <v>0</v>
       </c>
       <c r="Q5" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>209.0200695862453</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>223.0958495641314</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>102.3382270926889</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
         <v>0</v>
@@ -978,10 +978,10 @@
         <v>0</v>
       </c>
       <c r="D6" t="n">
-        <v>0</v>
+        <v>103.6773811532918</v>
       </c>
       <c r="E6" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F6" t="n">
         <v>0</v>
@@ -990,13 +990,13 @@
         <v>0</v>
       </c>
       <c r="H6" t="n">
-        <v>0</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I6" t="n">
-        <v>0</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J6" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K6" t="n">
         <v>0</v>
@@ -1020,28 +1020,28 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
       </c>
       <c r="T6" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U6" t="n">
-        <v>94.06887257838802</v>
+        <v>0</v>
       </c>
       <c r="V6" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W6" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="X6" t="n">
         <v>0</v>
       </c>
       <c r="Y6" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="7">
@@ -1066,19 +1066,19 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>17.55829564281241</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>93.35918011667277</v>
+        <v>0</v>
       </c>
       <c r="K7" t="n">
-        <v>22.26949182588285</v>
+        <v>0</v>
       </c>
       <c r="L7" t="n">
         <v>0</v>
@@ -1139,64 +1139,64 @@
         <v>0</v>
       </c>
       <c r="E8" t="n">
+        <v>0</v>
+      </c>
+      <c r="F8" t="n">
+        <v>0</v>
+      </c>
+      <c r="G8" t="n">
+        <v>0</v>
+      </c>
+      <c r="H8" t="n">
+        <v>0</v>
+      </c>
+      <c r="I8" t="n">
+        <v>0</v>
+      </c>
+      <c r="J8" t="n">
+        <v>0</v>
+      </c>
+      <c r="K8" t="n">
+        <v>0</v>
+      </c>
+      <c r="L8" t="n">
+        <v>0</v>
+      </c>
+      <c r="M8" t="n">
+        <v>0</v>
+      </c>
+      <c r="N8" t="n">
+        <v>0</v>
+      </c>
+      <c r="O8" t="n">
+        <v>0</v>
+      </c>
+      <c r="P8" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q8" t="n">
+        <v>0</v>
+      </c>
+      <c r="R8" t="n">
+        <v>0</v>
+      </c>
+      <c r="S8" t="n">
+        <v>0</v>
+      </c>
+      <c r="T8" t="n">
+        <v>0</v>
+      </c>
+      <c r="U8" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="F8" t="n">
+      <c r="V8" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="G8" t="n">
+      <c r="W8" t="n">
+        <v>241.0142888776591</v>
+      </c>
+      <c r="X8" t="n">
         <v>212.2853856434421</v>
-      </c>
-      <c r="H8" t="n">
-        <v>241.0142888776591</v>
-      </c>
-      <c r="I8" t="n">
-        <v>0</v>
-      </c>
-      <c r="J8" t="n">
-        <v>0</v>
-      </c>
-      <c r="K8" t="n">
-        <v>0</v>
-      </c>
-      <c r="L8" t="n">
-        <v>0</v>
-      </c>
-      <c r="M8" t="n">
-        <v>0</v>
-      </c>
-      <c r="N8" t="n">
-        <v>0</v>
-      </c>
-      <c r="O8" t="n">
-        <v>0</v>
-      </c>
-      <c r="P8" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q8" t="n">
-        <v>0</v>
-      </c>
-      <c r="R8" t="n">
-        <v>0</v>
-      </c>
-      <c r="S8" t="n">
-        <v>0</v>
-      </c>
-      <c r="T8" t="n">
-        <v>0</v>
-      </c>
-      <c r="U8" t="n">
-        <v>0</v>
-      </c>
-      <c r="V8" t="n">
-        <v>0</v>
-      </c>
-      <c r="W8" t="n">
-        <v>0</v>
-      </c>
-      <c r="X8" t="n">
-        <v>0</v>
       </c>
       <c r="Y8" t="n">
         <v>0</v>
@@ -1212,13 +1212,13 @@
         <v>0</v>
       </c>
       <c r="C9" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D9" t="n">
-        <v>0</v>
+        <v>123.8814522403791</v>
       </c>
       <c r="E9" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F9" t="n">
         <v>0</v>
@@ -1266,16 +1266,16 @@
         <v>200.1647286948216</v>
       </c>
       <c r="U9" t="n">
-        <v>225.9413820809748</v>
+        <v>0</v>
       </c>
       <c r="V9" t="n">
         <v>232.8005871494253</v>
       </c>
       <c r="W9" t="n">
-        <v>118.7764738957966</v>
+        <v>0</v>
       </c>
       <c r="X9" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y9" t="n">
         <v>0</v>
@@ -1309,13 +1309,13 @@
         <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>14.83685490770591</v>
       </c>
       <c r="J10" t="n">
-        <v>0</v>
+        <v>93.35918011667277</v>
       </c>
       <c r="K10" t="n">
-        <v>0</v>
+        <v>22.26949182588285</v>
       </c>
       <c r="L10" t="n">
         <v>0</v>
@@ -1330,13 +1330,13 @@
         <v>0</v>
       </c>
       <c r="P10" t="n">
-        <v>0</v>
+        <v>2.721440735106512</v>
       </c>
       <c r="Q10" t="n">
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>133.186967585368</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
         <v>0</v>
@@ -1367,10 +1367,10 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0</v>
+        <v>276.1565137023555</v>
       </c>
       <c r="C11" t="n">
-        <v>0</v>
+        <v>243.2386572690346</v>
       </c>
       <c r="D11" t="n">
         <v>0</v>
@@ -1379,64 +1379,64 @@
         <v>0</v>
       </c>
       <c r="F11" t="n">
+        <v>0</v>
+      </c>
+      <c r="G11" t="n">
+        <v>0</v>
+      </c>
+      <c r="H11" t="n">
+        <v>0</v>
+      </c>
+      <c r="I11" t="n">
+        <v>0</v>
+      </c>
+      <c r="J11" t="n">
+        <v>0</v>
+      </c>
+      <c r="K11" t="n">
+        <v>0</v>
+      </c>
+      <c r="L11" t="n">
+        <v>0</v>
+      </c>
+      <c r="M11" t="n">
+        <v>0</v>
+      </c>
+      <c r="N11" t="n">
+        <v>0</v>
+      </c>
+      <c r="O11" t="n">
+        <v>0</v>
+      </c>
+      <c r="P11" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q11" t="n">
+        <v>0</v>
+      </c>
+      <c r="R11" t="n">
+        <v>0</v>
+      </c>
+      <c r="S11" t="n">
+        <v>0</v>
+      </c>
+      <c r="T11" t="n">
+        <v>0</v>
+      </c>
+      <c r="U11" t="n">
+        <v>0</v>
+      </c>
+      <c r="V11" t="n">
+        <v>0</v>
+      </c>
+      <c r="W11" t="n">
+        <v>0</v>
+      </c>
+      <c r="X11" t="n">
         <v>276.1565137023555</v>
       </c>
-      <c r="G11" t="n">
+      <c r="Y11" t="n">
         <v>276.1565137023555</v>
-      </c>
-      <c r="H11" t="n">
-        <v>276.1565137023555</v>
-      </c>
-      <c r="I11" t="n">
-        <v>205.0481221176458</v>
-      </c>
-      <c r="J11" t="n">
-        <v>0</v>
-      </c>
-      <c r="K11" t="n">
-        <v>0</v>
-      </c>
-      <c r="L11" t="n">
-        <v>0</v>
-      </c>
-      <c r="M11" t="n">
-        <v>0</v>
-      </c>
-      <c r="N11" t="n">
-        <v>0</v>
-      </c>
-      <c r="O11" t="n">
-        <v>0</v>
-      </c>
-      <c r="P11" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q11" t="n">
-        <v>0</v>
-      </c>
-      <c r="R11" t="n">
-        <v>0</v>
-      </c>
-      <c r="S11" t="n">
-        <v>38.19053515138899</v>
-      </c>
-      <c r="T11" t="n">
-        <v>0</v>
-      </c>
-      <c r="U11" t="n">
-        <v>0</v>
-      </c>
-      <c r="V11" t="n">
-        <v>0</v>
-      </c>
-      <c r="W11" t="n">
-        <v>0</v>
-      </c>
-      <c r="X11" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y11" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="12">
@@ -1446,16 +1446,16 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C12" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D12" t="n">
         <v>0</v>
       </c>
       <c r="E12" t="n">
-        <v>69.31585159621662</v>
+        <v>0</v>
       </c>
       <c r="F12" t="n">
         <v>0</v>
@@ -1503,10 +1503,10 @@
         <v>0</v>
       </c>
       <c r="U12" t="n">
-        <v>0</v>
+        <v>225.9364262421938</v>
       </c>
       <c r="V12" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W12" t="n">
         <v>251.6949831609196</v>
@@ -1515,7 +1515,7 @@
         <v>205.7729852034775</v>
       </c>
       <c r="Y12" t="n">
-        <v>205.6826957773044</v>
+        <v>155.503216620085</v>
       </c>
     </row>
     <row r="13">
@@ -1540,10 +1540,10 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>13.46550985000066</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>161.6656840978772</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
@@ -1570,10 +1570,10 @@
         <v>0</v>
       </c>
       <c r="Q13" t="n">
-        <v>0.6773952840984366</v>
+        <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>174.4537986637794</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
         <v>0</v>
@@ -1604,7 +1604,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>276.1565137023554</v>
+        <v>276.1565137023555</v>
       </c>
       <c r="C14" t="n">
         <v>0</v>
@@ -1613,13 +1613,13 @@
         <v>0</v>
       </c>
       <c r="E14" t="n">
+        <v>276.1565137023555</v>
+      </c>
+      <c r="F14" t="n">
+        <v>276.1565137023555</v>
+      </c>
+      <c r="G14" t="n">
         <v>243.2386572690346</v>
-      </c>
-      <c r="F14" t="n">
-        <v>276.1565137023554</v>
-      </c>
-      <c r="G14" t="n">
-        <v>276.1565137023554</v>
       </c>
       <c r="H14" t="n">
         <v>0</v>
@@ -1686,13 +1686,13 @@
         <v>0</v>
       </c>
       <c r="C15" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D15" t="n">
         <v>0</v>
       </c>
       <c r="E15" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F15" t="n">
         <v>0</v>
@@ -1740,10 +1740,10 @@
         <v>0</v>
       </c>
       <c r="U15" t="n">
-        <v>175.7569470849741</v>
+        <v>0</v>
       </c>
       <c r="V15" t="n">
-        <v>232.8005871494253</v>
+        <v>78.20395479068296</v>
       </c>
       <c r="W15" t="n">
         <v>251.6949831609196</v>
@@ -1807,13 +1807,13 @@
         <v>0</v>
       </c>
       <c r="Q16" t="n">
-        <v>0</v>
+        <v>0.6773952840984366</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>174.4537986637794</v>
       </c>
       <c r="S16" t="n">
-        <v>175.1311939478779</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
         <v>0</v>
@@ -1850,13 +1850,13 @@
         <v>0</v>
       </c>
       <c r="E17" t="n">
-        <v>0</v>
+        <v>243.2386572690346</v>
       </c>
       <c r="F17" t="n">
-        <v>276.1565137023554</v>
+        <v>276.1565137023555</v>
       </c>
       <c r="G17" t="n">
-        <v>276.1565137023554</v>
+        <v>276.1565137023555</v>
       </c>
       <c r="H17" t="n">
         <v>0</v>
@@ -1901,7 +1901,7 @@
         <v>0</v>
       </c>
       <c r="V17" t="n">
-        <v>243.2386572690345</v>
+        <v>0</v>
       </c>
       <c r="W17" t="n">
         <v>0</v>
@@ -1910,7 +1910,7 @@
         <v>0</v>
       </c>
       <c r="Y17" t="n">
-        <v>276.1565137023554</v>
+        <v>276.1565137023555</v>
       </c>
     </row>
     <row r="18">
@@ -1977,7 +1977,7 @@
         <v>0</v>
       </c>
       <c r="U18" t="n">
-        <v>175.7569470849741</v>
+        <v>175.7569470849743</v>
       </c>
       <c r="V18" t="n">
         <v>232.8005871494253</v>
@@ -2044,13 +2044,13 @@
         <v>0</v>
       </c>
       <c r="Q19" t="n">
-        <v>80.87383288310646</v>
+        <v>0</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>94.25736106477147</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
         <v>0</v>
@@ -2059,7 +2059,7 @@
         <v>0</v>
       </c>
       <c r="V19" t="n">
-        <v>0</v>
+        <v>175.1311939478779</v>
       </c>
       <c r="W19" t="n">
         <v>0</v>
@@ -2078,22 +2078,22 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>276.1565137023555</v>
+        <v>0</v>
       </c>
       <c r="C20" t="n">
-        <v>0</v>
+        <v>276.1565137023554</v>
       </c>
       <c r="D20" t="n">
         <v>0</v>
       </c>
       <c r="E20" t="n">
-        <v>276.1565137023555</v>
+        <v>0</v>
       </c>
       <c r="F20" t="n">
-        <v>0</v>
+        <v>276.1565137023554</v>
       </c>
       <c r="G20" t="n">
-        <v>276.1565137023555</v>
+        <v>276.1565137023554</v>
       </c>
       <c r="H20" t="n">
         <v>0</v>
@@ -2132,10 +2132,10 @@
         <v>0</v>
       </c>
       <c r="T20" t="n">
-        <v>222.4795457699687</v>
+        <v>0</v>
       </c>
       <c r="U20" t="n">
-        <v>0</v>
+        <v>243.2386572690345</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
@@ -2144,7 +2144,7 @@
         <v>0</v>
       </c>
       <c r="X20" t="n">
-        <v>20.75911149906596</v>
+        <v>0</v>
       </c>
       <c r="Y20" t="n">
         <v>0</v>
@@ -2214,7 +2214,7 @@
         <v>0</v>
       </c>
       <c r="U21" t="n">
-        <v>225.9364262421938</v>
+        <v>175.7569470849741</v>
       </c>
       <c r="V21" t="n">
         <v>232.8005871494253</v>
@@ -2226,7 +2226,7 @@
         <v>205.7729852034775</v>
       </c>
       <c r="Y21" t="n">
-        <v>155.503216620085</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="22">
@@ -2287,13 +2287,13 @@
         <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>175.1311939478779</v>
       </c>
       <c r="T22" t="n">
         <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>175.1311939478779</v>
+        <v>0</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -2315,7 +2315,7 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>0</v>
+        <v>243.2386572690346</v>
       </c>
       <c r="C23" t="n">
         <v>0</v>
@@ -2324,7 +2324,7 @@
         <v>0</v>
       </c>
       <c r="E23" t="n">
-        <v>276.1565137023555</v>
+        <v>0</v>
       </c>
       <c r="F23" t="n">
         <v>276.1565137023555</v>
@@ -2378,13 +2378,13 @@
         <v>0</v>
       </c>
       <c r="W23" t="n">
-        <v>243.2386572690346</v>
+        <v>0</v>
       </c>
       <c r="X23" t="n">
         <v>0</v>
       </c>
       <c r="Y23" t="n">
-        <v>0</v>
+        <v>276.1565137023555</v>
       </c>
     </row>
     <row r="24">
@@ -2397,7 +2397,7 @@
         <v>0</v>
       </c>
       <c r="C24" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D24" t="n">
         <v>0</v>
@@ -2406,7 +2406,7 @@
         <v>0</v>
       </c>
       <c r="F24" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G24" t="n">
         <v>0</v>
@@ -2448,10 +2448,10 @@
         <v>0</v>
       </c>
       <c r="T24" t="n">
-        <v>0</v>
+        <v>63.66193148057926</v>
       </c>
       <c r="U24" t="n">
-        <v>225.9364262421938</v>
+        <v>0</v>
       </c>
       <c r="V24" t="n">
         <v>232.8005871494253</v>
@@ -2463,7 +2463,7 @@
         <v>205.7729852034775</v>
       </c>
       <c r="Y24" t="n">
-        <v>155.503216620085</v>
+        <v>0</v>
       </c>
     </row>
     <row r="25">
@@ -2473,67 +2473,67 @@
         </is>
       </c>
       <c r="B25" t="n">
+        <v>0</v>
+      </c>
+      <c r="C25" t="n">
+        <v>0</v>
+      </c>
+      <c r="D25" t="n">
+        <v>0</v>
+      </c>
+      <c r="E25" t="n">
+        <v>0</v>
+      </c>
+      <c r="F25" t="n">
+        <v>0</v>
+      </c>
+      <c r="G25" t="n">
+        <v>0</v>
+      </c>
+      <c r="H25" t="n">
+        <v>0</v>
+      </c>
+      <c r="I25" t="n">
+        <v>0</v>
+      </c>
+      <c r="J25" t="n">
+        <v>0</v>
+      </c>
+      <c r="K25" t="n">
+        <v>0</v>
+      </c>
+      <c r="L25" t="n">
+        <v>0</v>
+      </c>
+      <c r="M25" t="n">
+        <v>0</v>
+      </c>
+      <c r="N25" t="n">
+        <v>0</v>
+      </c>
+      <c r="O25" t="n">
+        <v>0</v>
+      </c>
+      <c r="P25" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q25" t="n">
+        <v>0</v>
+      </c>
+      <c r="R25" t="n">
+        <v>0</v>
+      </c>
+      <c r="S25" t="n">
+        <v>0</v>
+      </c>
+      <c r="T25" t="n">
+        <v>0</v>
+      </c>
+      <c r="U25" t="n">
+        <v>0</v>
+      </c>
+      <c r="V25" t="n">
         <v>175.1311939478779</v>
-      </c>
-      <c r="C25" t="n">
-        <v>0</v>
-      </c>
-      <c r="D25" t="n">
-        <v>0</v>
-      </c>
-      <c r="E25" t="n">
-        <v>0</v>
-      </c>
-      <c r="F25" t="n">
-        <v>0</v>
-      </c>
-      <c r="G25" t="n">
-        <v>0</v>
-      </c>
-      <c r="H25" t="n">
-        <v>0</v>
-      </c>
-      <c r="I25" t="n">
-        <v>0</v>
-      </c>
-      <c r="J25" t="n">
-        <v>0</v>
-      </c>
-      <c r="K25" t="n">
-        <v>0</v>
-      </c>
-      <c r="L25" t="n">
-        <v>0</v>
-      </c>
-      <c r="M25" t="n">
-        <v>0</v>
-      </c>
-      <c r="N25" t="n">
-        <v>0</v>
-      </c>
-      <c r="O25" t="n">
-        <v>0</v>
-      </c>
-      <c r="P25" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q25" t="n">
-        <v>0</v>
-      </c>
-      <c r="R25" t="n">
-        <v>0</v>
-      </c>
-      <c r="S25" t="n">
-        <v>0</v>
-      </c>
-      <c r="T25" t="n">
-        <v>0</v>
-      </c>
-      <c r="U25" t="n">
-        <v>0</v>
-      </c>
-      <c r="V25" t="n">
-        <v>0</v>
       </c>
       <c r="W25" t="n">
         <v>0</v>
@@ -2552,22 +2552,22 @@
         </is>
       </c>
       <c r="B26" t="n">
+        <v>0</v>
+      </c>
+      <c r="C26" t="n">
+        <v>0</v>
+      </c>
+      <c r="D26" t="n">
+        <v>0</v>
+      </c>
+      <c r="E26" t="n">
         <v>276.1565137023555</v>
-      </c>
-      <c r="C26" t="n">
-        <v>0</v>
-      </c>
-      <c r="D26" t="n">
-        <v>0</v>
-      </c>
-      <c r="E26" t="n">
-        <v>243.2386572690346</v>
       </c>
       <c r="F26" t="n">
         <v>276.1565137023555</v>
       </c>
       <c r="G26" t="n">
-        <v>0</v>
+        <v>276.1565137023555</v>
       </c>
       <c r="H26" t="n">
         <v>0</v>
@@ -2618,10 +2618,10 @@
         <v>0</v>
       </c>
       <c r="X26" t="n">
-        <v>0</v>
+        <v>243.2386572690346</v>
       </c>
       <c r="Y26" t="n">
-        <v>276.1565137023555</v>
+        <v>0</v>
       </c>
     </row>
     <row r="27">
@@ -2789,25 +2789,25 @@
         </is>
       </c>
       <c r="B29" t="n">
+        <v>0</v>
+      </c>
+      <c r="C29" t="n">
+        <v>0</v>
+      </c>
+      <c r="D29" t="n">
+        <v>0</v>
+      </c>
+      <c r="E29" t="n">
+        <v>243.2386572690346</v>
+      </c>
+      <c r="F29" t="n">
         <v>276.1565137023555</v>
-      </c>
-      <c r="C29" t="n">
-        <v>0</v>
-      </c>
-      <c r="D29" t="n">
-        <v>0</v>
-      </c>
-      <c r="E29" t="n">
-        <v>0</v>
-      </c>
-      <c r="F29" t="n">
-        <v>0</v>
       </c>
       <c r="G29" t="n">
         <v>276.1565137023555</v>
       </c>
       <c r="H29" t="n">
-        <v>0</v>
+        <v>276.1565137023555</v>
       </c>
       <c r="I29" t="n">
         <v>0</v>
@@ -2855,10 +2855,10 @@
         <v>0</v>
       </c>
       <c r="X29" t="n">
-        <v>276.1565137023555</v>
+        <v>0</v>
       </c>
       <c r="Y29" t="n">
-        <v>243.2386572690346</v>
+        <v>0</v>
       </c>
     </row>
     <row r="30">
@@ -2868,10 +2868,10 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C30" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D30" t="n">
         <v>0</v>
@@ -2922,13 +2922,13 @@
         <v>0</v>
       </c>
       <c r="T30" t="n">
-        <v>0</v>
+        <v>69.31585159621655</v>
       </c>
       <c r="U30" t="n">
-        <v>225.9364262421938</v>
+        <v>0</v>
       </c>
       <c r="V30" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W30" t="n">
         <v>251.6949831609196</v>
@@ -2937,7 +2937,7 @@
         <v>205.7729852034775</v>
       </c>
       <c r="Y30" t="n">
-        <v>155.503216620085</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="31">
@@ -2947,61 +2947,61 @@
         </is>
       </c>
       <c r="B31" t="n">
+        <v>0</v>
+      </c>
+      <c r="C31" t="n">
+        <v>0</v>
+      </c>
+      <c r="D31" t="n">
+        <v>0</v>
+      </c>
+      <c r="E31" t="n">
+        <v>0</v>
+      </c>
+      <c r="F31" t="n">
+        <v>0</v>
+      </c>
+      <c r="G31" t="n">
+        <v>0</v>
+      </c>
+      <c r="H31" t="n">
+        <v>0</v>
+      </c>
+      <c r="I31" t="n">
+        <v>0</v>
+      </c>
+      <c r="J31" t="n">
+        <v>0</v>
+      </c>
+      <c r="K31" t="n">
+        <v>0</v>
+      </c>
+      <c r="L31" t="n">
+        <v>0</v>
+      </c>
+      <c r="M31" t="n">
+        <v>0</v>
+      </c>
+      <c r="N31" t="n">
+        <v>0</v>
+      </c>
+      <c r="O31" t="n">
+        <v>0</v>
+      </c>
+      <c r="P31" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q31" t="n">
+        <v>0</v>
+      </c>
+      <c r="R31" t="n">
+        <v>0</v>
+      </c>
+      <c r="S31" t="n">
+        <v>0</v>
+      </c>
+      <c r="T31" t="n">
         <v>175.1311939478779</v>
-      </c>
-      <c r="C31" t="n">
-        <v>0</v>
-      </c>
-      <c r="D31" t="n">
-        <v>0</v>
-      </c>
-      <c r="E31" t="n">
-        <v>0</v>
-      </c>
-      <c r="F31" t="n">
-        <v>0</v>
-      </c>
-      <c r="G31" t="n">
-        <v>0</v>
-      </c>
-      <c r="H31" t="n">
-        <v>0</v>
-      </c>
-      <c r="I31" t="n">
-        <v>0</v>
-      </c>
-      <c r="J31" t="n">
-        <v>0</v>
-      </c>
-      <c r="K31" t="n">
-        <v>0</v>
-      </c>
-      <c r="L31" t="n">
-        <v>0</v>
-      </c>
-      <c r="M31" t="n">
-        <v>0</v>
-      </c>
-      <c r="N31" t="n">
-        <v>0</v>
-      </c>
-      <c r="O31" t="n">
-        <v>0</v>
-      </c>
-      <c r="P31" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q31" t="n">
-        <v>0</v>
-      </c>
-      <c r="R31" t="n">
-        <v>0</v>
-      </c>
-      <c r="S31" t="n">
-        <v>0</v>
-      </c>
-      <c r="T31" t="n">
-        <v>0</v>
       </c>
       <c r="U31" t="n">
         <v>0</v>
@@ -3026,25 +3026,25 @@
         </is>
       </c>
       <c r="B32" t="n">
+        <v>0</v>
+      </c>
+      <c r="C32" t="n">
+        <v>0</v>
+      </c>
+      <c r="D32" t="n">
+        <v>0</v>
+      </c>
+      <c r="E32" t="n">
+        <v>0</v>
+      </c>
+      <c r="F32" t="n">
         <v>276.1565137023555</v>
       </c>
-      <c r="C32" t="n">
+      <c r="G32" t="n">
         <v>276.1565137023555</v>
       </c>
-      <c r="D32" t="n">
-        <v>0</v>
-      </c>
-      <c r="E32" t="n">
-        <v>0</v>
-      </c>
-      <c r="F32" t="n">
-        <v>0</v>
-      </c>
-      <c r="G32" t="n">
-        <v>0</v>
-      </c>
       <c r="H32" t="n">
-        <v>0</v>
+        <v>276.1565137023555</v>
       </c>
       <c r="I32" t="n">
         <v>0</v>
@@ -3089,13 +3089,13 @@
         <v>0</v>
       </c>
       <c r="W32" t="n">
-        <v>0</v>
+        <v>243.2386572690346</v>
       </c>
       <c r="X32" t="n">
-        <v>276.1565137023555</v>
+        <v>0</v>
       </c>
       <c r="Y32" t="n">
-        <v>243.2386572690346</v>
+        <v>0</v>
       </c>
     </row>
     <row r="33">
@@ -3105,16 +3105,16 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C33" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D33" t="n">
         <v>0</v>
       </c>
       <c r="E33" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F33" t="n">
         <v>0</v>
@@ -3159,19 +3159,19 @@
         <v>0</v>
       </c>
       <c r="T33" t="n">
-        <v>0</v>
+        <v>143.202313263019</v>
       </c>
       <c r="U33" t="n">
-        <v>175.7569470849743</v>
+        <v>225.9364262421938</v>
       </c>
       <c r="V33" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W33" t="n">
-        <v>251.6949831609196</v>
+        <v>0</v>
       </c>
       <c r="X33" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y33" t="n">
         <v>205.6826957773044</v>
@@ -3238,22 +3238,22 @@
         <v>0</v>
       </c>
       <c r="T34" t="n">
+        <v>0</v>
+      </c>
+      <c r="U34" t="n">
+        <v>0</v>
+      </c>
+      <c r="V34" t="n">
+        <v>0</v>
+      </c>
+      <c r="W34" t="n">
+        <v>0</v>
+      </c>
+      <c r="X34" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y34" t="n">
         <v>175.1311939478779</v>
-      </c>
-      <c r="U34" t="n">
-        <v>0</v>
-      </c>
-      <c r="V34" t="n">
-        <v>0</v>
-      </c>
-      <c r="W34" t="n">
-        <v>0</v>
-      </c>
-      <c r="X34" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y34" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="35">
@@ -3263,16 +3263,16 @@
         </is>
       </c>
       <c r="B35" t="n">
+        <v>0</v>
+      </c>
+      <c r="C35" t="n">
+        <v>0</v>
+      </c>
+      <c r="D35" t="n">
+        <v>243.2386572690346</v>
+      </c>
+      <c r="E35" t="n">
         <v>276.1565137023555</v>
-      </c>
-      <c r="C35" t="n">
-        <v>0</v>
-      </c>
-      <c r="D35" t="n">
-        <v>0</v>
-      </c>
-      <c r="E35" t="n">
-        <v>243.2386572690346</v>
       </c>
       <c r="F35" t="n">
         <v>276.1565137023555</v>
@@ -3345,7 +3345,7 @@
         <v>0</v>
       </c>
       <c r="C36" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D36" t="n">
         <v>0</v>
@@ -3396,10 +3396,10 @@
         <v>0</v>
       </c>
       <c r="T36" t="n">
-        <v>0</v>
+        <v>199.8611009721718</v>
       </c>
       <c r="U36" t="n">
-        <v>175.7569470849743</v>
+        <v>214.6430281052687</v>
       </c>
       <c r="V36" t="n">
         <v>232.8005871494253</v>
@@ -3408,10 +3408,10 @@
         <v>251.6949831609196</v>
       </c>
       <c r="X36" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y36" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="37">
@@ -3500,73 +3500,73 @@
         </is>
       </c>
       <c r="B38" t="n">
+        <v>276.1565137023555</v>
+      </c>
+      <c r="C38" t="n">
         <v>243.2386572690346</v>
       </c>
-      <c r="C38" t="n">
-        <v>0</v>
-      </c>
       <c r="D38" t="n">
         <v>0</v>
       </c>
       <c r="E38" t="n">
+        <v>0</v>
+      </c>
+      <c r="F38" t="n">
+        <v>0</v>
+      </c>
+      <c r="G38" t="n">
+        <v>0</v>
+      </c>
+      <c r="H38" t="n">
+        <v>0</v>
+      </c>
+      <c r="I38" t="n">
+        <v>0</v>
+      </c>
+      <c r="J38" t="n">
+        <v>0</v>
+      </c>
+      <c r="K38" t="n">
+        <v>0</v>
+      </c>
+      <c r="L38" t="n">
+        <v>0</v>
+      </c>
+      <c r="M38" t="n">
+        <v>0</v>
+      </c>
+      <c r="N38" t="n">
+        <v>0</v>
+      </c>
+      <c r="O38" t="n">
+        <v>0</v>
+      </c>
+      <c r="P38" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q38" t="n">
+        <v>0</v>
+      </c>
+      <c r="R38" t="n">
+        <v>0</v>
+      </c>
+      <c r="S38" t="n">
+        <v>0</v>
+      </c>
+      <c r="T38" t="n">
+        <v>0</v>
+      </c>
+      <c r="U38" t="n">
+        <v>0</v>
+      </c>
+      <c r="V38" t="n">
+        <v>0</v>
+      </c>
+      <c r="W38" t="n">
+        <v>0</v>
+      </c>
+      <c r="X38" t="n">
         <v>276.1565137023555</v>
-      </c>
-      <c r="F38" t="n">
-        <v>276.1565137023555</v>
-      </c>
-      <c r="G38" t="n">
-        <v>0</v>
-      </c>
-      <c r="H38" t="n">
-        <v>0</v>
-      </c>
-      <c r="I38" t="n">
-        <v>0</v>
-      </c>
-      <c r="J38" t="n">
-        <v>0</v>
-      </c>
-      <c r="K38" t="n">
-        <v>0</v>
-      </c>
-      <c r="L38" t="n">
-        <v>0</v>
-      </c>
-      <c r="M38" t="n">
-        <v>0</v>
-      </c>
-      <c r="N38" t="n">
-        <v>0</v>
-      </c>
-      <c r="O38" t="n">
-        <v>0</v>
-      </c>
-      <c r="P38" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q38" t="n">
-        <v>0</v>
-      </c>
-      <c r="R38" t="n">
-        <v>0</v>
-      </c>
-      <c r="S38" t="n">
-        <v>0</v>
-      </c>
-      <c r="T38" t="n">
-        <v>0</v>
-      </c>
-      <c r="U38" t="n">
-        <v>0</v>
-      </c>
-      <c r="V38" t="n">
-        <v>0</v>
-      </c>
-      <c r="W38" t="n">
-        <v>0</v>
-      </c>
-      <c r="X38" t="n">
-        <v>0</v>
       </c>
       <c r="Y38" t="n">
         <v>276.1565137023555</v>
@@ -3579,10 +3579,10 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C39" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D39" t="n">
         <v>0</v>
@@ -3630,13 +3630,13 @@
         <v>0</v>
       </c>
       <c r="S39" t="n">
-        <v>0</v>
+        <v>75.13744640134894</v>
       </c>
       <c r="T39" t="n">
-        <v>182.6211079922058</v>
+        <v>199.8611009721718</v>
       </c>
       <c r="U39" t="n">
-        <v>225.9364262421938</v>
+        <v>0</v>
       </c>
       <c r="V39" t="n">
         <v>0</v>
@@ -3648,7 +3648,7 @@
         <v>205.7729852034775</v>
       </c>
       <c r="Y39" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="40">
@@ -3658,7 +3658,7 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>0</v>
+        <v>175.1311939478779</v>
       </c>
       <c r="C40" t="n">
         <v>0</v>
@@ -3721,7 +3721,7 @@
         <v>0</v>
       </c>
       <c r="W40" t="n">
-        <v>175.1311939478779</v>
+        <v>0</v>
       </c>
       <c r="X40" t="n">
         <v>0</v>
@@ -3746,13 +3746,13 @@
         <v>0</v>
       </c>
       <c r="E41" t="n">
-        <v>0</v>
+        <v>276.1565137023555</v>
       </c>
       <c r="F41" t="n">
         <v>276.1565137023555</v>
       </c>
       <c r="G41" t="n">
-        <v>276.1565137023555</v>
+        <v>0</v>
       </c>
       <c r="H41" t="n">
         <v>0</v>
@@ -3819,13 +3819,13 @@
         <v>0</v>
       </c>
       <c r="C42" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D42" t="n">
         <v>0</v>
       </c>
       <c r="E42" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F42" t="n">
         <v>0</v>
@@ -3873,10 +3873,10 @@
         <v>0</v>
       </c>
       <c r="U42" t="n">
-        <v>175.7569470849743</v>
+        <v>0</v>
       </c>
       <c r="V42" t="n">
-        <v>232.8005871494253</v>
+        <v>78.20395479068296</v>
       </c>
       <c r="W42" t="n">
         <v>251.6949831609196</v>
@@ -3955,10 +3955,10 @@
         <v>0</v>
       </c>
       <c r="V43" t="n">
-        <v>0</v>
+        <v>175.1311939478779</v>
       </c>
       <c r="W43" t="n">
-        <v>175.1311939478779</v>
+        <v>0</v>
       </c>
       <c r="X43" t="n">
         <v>0</v>
@@ -3980,7 +3980,7 @@
         <v>0</v>
       </c>
       <c r="D44" t="n">
-        <v>0</v>
+        <v>243.2386572690346</v>
       </c>
       <c r="E44" t="n">
         <v>276.1565137023555</v>
@@ -3989,7 +3989,7 @@
         <v>276.1565137023555</v>
       </c>
       <c r="G44" t="n">
-        <v>243.2386572690346</v>
+        <v>0</v>
       </c>
       <c r="H44" t="n">
         <v>0</v>
@@ -4053,13 +4053,13 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C45" t="n">
-        <v>119.3855652626935</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D45" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E45" t="n">
         <v>0</v>
@@ -4107,16 +4107,16 @@
         <v>0</v>
       </c>
       <c r="T45" t="n">
-        <v>199.8611009721718</v>
+        <v>0</v>
       </c>
       <c r="U45" t="n">
-        <v>0</v>
+        <v>208.8214333001362</v>
       </c>
       <c r="V45" t="n">
         <v>232.8005871494253</v>
       </c>
       <c r="W45" t="n">
-        <v>0</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X45" t="n">
         <v>0</v>
@@ -4147,10 +4147,10 @@
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>167.9278262653587</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>7.203367682519206</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
         <v>0</v>
@@ -4189,7 +4189,7 @@
         <v>0</v>
       </c>
       <c r="U46" t="n">
-        <v>0</v>
+        <v>175.1311939478779</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -4304,22 +4304,22 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>749.627473042513</v>
+        <v>233.7108255783361</v>
       </c>
       <c r="C2" t="n">
-        <v>749.627473042513</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D2" t="n">
-        <v>749.627473042513</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E2" t="n">
-        <v>749.627473042513</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F2" t="n">
-        <v>506.1786963984129</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G2" t="n">
-        <v>262.7299197543128</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H2" t="n">
         <v>19.28114311021272</v>
@@ -4367,13 +4367,13 @@
         <v>964.0571555106362</v>
       </c>
       <c r="W2" t="n">
-        <v>964.0571555106362</v>
+        <v>720.6083788665362</v>
       </c>
       <c r="X2" t="n">
-        <v>964.0571555106362</v>
+        <v>720.6083788665362</v>
       </c>
       <c r="Y2" t="n">
-        <v>749.627473042513</v>
+        <v>477.1596022224361</v>
       </c>
     </row>
     <row r="3">
@@ -4383,19 +4383,19 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>720.6083788665362</v>
+        <v>394.2008556776262</v>
       </c>
       <c r="C3" t="n">
-        <v>546.1553495854092</v>
+        <v>219.7478263964992</v>
       </c>
       <c r="D3" t="n">
-        <v>463.7839815061678</v>
+        <v>219.7478263964992</v>
       </c>
       <c r="E3" t="n">
-        <v>304.5465265007123</v>
+        <v>60.51037139104366</v>
       </c>
       <c r="F3" t="n">
-        <v>158.0119685275972</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G3" t="n">
         <v>19.28114311021272</v>
@@ -4413,19 +4413,19 @@
         <v>144.6387031680501</v>
       </c>
       <c r="L3" t="n">
-        <v>374.6018090363993</v>
+        <v>234.810827406191</v>
       </c>
       <c r="M3" t="n">
-        <v>613.2059550252818</v>
+        <v>234.810827406191</v>
       </c>
       <c r="N3" t="n">
-        <v>781.4136778972854</v>
+        <v>473.4149733950735</v>
       </c>
       <c r="O3" t="n">
-        <v>781.4136778972854</v>
+        <v>712.019119383956</v>
       </c>
       <c r="P3" t="n">
-        <v>964.0571555106362</v>
+        <v>894.6625969973069</v>
       </c>
       <c r="Q3" t="n">
         <v>964.0571555106362</v>
@@ -4434,25 +4434,25 @@
         <v>964.0571555106362</v>
       </c>
       <c r="S3" t="n">
-        <v>964.0571555106362</v>
+        <v>790.6398109613051</v>
       </c>
       <c r="T3" t="n">
-        <v>964.0571555106362</v>
+        <v>790.6398109613051</v>
       </c>
       <c r="U3" t="n">
-        <v>964.0571555106362</v>
+        <v>562.4161926976942</v>
       </c>
       <c r="V3" t="n">
-        <v>964.0571555106362</v>
+        <v>562.4161926976942</v>
       </c>
       <c r="W3" t="n">
-        <v>720.6083788665362</v>
+        <v>562.4161926976942</v>
       </c>
       <c r="X3" t="n">
-        <v>720.6083788665362</v>
+        <v>562.4161926976942</v>
       </c>
       <c r="Y3" t="n">
-        <v>720.6083788665362</v>
+        <v>562.4161926976942</v>
       </c>
     </row>
     <row r="4">
@@ -4541,16 +4541,16 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>19.28114311021272</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="C5" t="n">
-        <v>19.28114311021272</v>
+        <v>749.627473042513</v>
       </c>
       <c r="D5" t="n">
-        <v>19.28114311021272</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="E5" t="n">
-        <v>19.28114311021272</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="F5" t="n">
         <v>19.28114311021272</v>
@@ -4586,31 +4586,31 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q5" t="n">
-        <v>953.9655401424092</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="R5" t="n">
-        <v>802.5825927271064</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S5" t="n">
-        <v>591.4512093066566</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T5" t="n">
-        <v>366.1018663125844</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U5" t="n">
-        <v>122.6530896684844</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="V5" t="n">
-        <v>19.28114311021272</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="W5" t="n">
-        <v>19.28114311021272</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="X5" t="n">
-        <v>19.28114311021272</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Y5" t="n">
-        <v>19.28114311021272</v>
+        <v>964.0571555106362</v>
       </c>
     </row>
     <row r="6">
@@ -4620,76 +4620,76 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>20.03527576299844</v>
+        <v>486.9119902784999</v>
       </c>
       <c r="C6" t="n">
-        <v>20.03527576299844</v>
+        <v>486.9119902784999</v>
       </c>
       <c r="D6" t="n">
-        <v>20.03527576299844</v>
+        <v>382.1873628509324</v>
       </c>
       <c r="E6" t="n">
-        <v>20.03527576299844</v>
+        <v>222.9499078454769</v>
       </c>
       <c r="F6" t="n">
-        <v>20.03527576299844</v>
+        <v>222.9499078454769</v>
       </c>
       <c r="G6" t="n">
-        <v>20.03527576299844</v>
+        <v>222.9499078454769</v>
       </c>
       <c r="H6" t="n">
-        <v>20.03527576299844</v>
+        <v>109.5807722530562</v>
       </c>
       <c r="I6" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J6" t="n">
         <v>19.28114311021272</v>
       </c>
       <c r="K6" t="n">
-        <v>19.28114311021272</v>
+        <v>144.6387031680501</v>
       </c>
       <c r="L6" t="n">
-        <v>249.2442489785619</v>
+        <v>234.810827406191</v>
       </c>
       <c r="M6" t="n">
-        <v>486.8488635328713</v>
+        <v>473.4149733950735</v>
       </c>
       <c r="N6" t="n">
-        <v>725.4530095217538</v>
+        <v>473.4149733950735</v>
       </c>
       <c r="O6" t="n">
-        <v>964.0571555106362</v>
+        <v>712.019119383956</v>
       </c>
       <c r="P6" t="n">
-        <v>964.0571555106362</v>
+        <v>894.6625969973069</v>
       </c>
       <c r="Q6" t="n">
         <v>964.0571555106362</v>
       </c>
       <c r="R6" t="n">
-        <v>964.0571555106362</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="S6" t="n">
-        <v>964.0571555106362</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="T6" t="n">
-        <v>761.8705608694022</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="U6" t="n">
-        <v>666.8514976589092</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="V6" t="n">
-        <v>431.6993894271665</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="W6" t="n">
-        <v>188.2506127830665</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="X6" t="n">
-        <v>188.2506127830665</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="Y6" t="n">
-        <v>188.2506127830665</v>
+        <v>655.1273272985679</v>
       </c>
     </row>
     <row r="7">
@@ -4714,16 +4714,16 @@
         <v>153.8134336004835</v>
       </c>
       <c r="G7" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H7" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I7" t="n">
-        <v>136.0777814360265</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J7" t="n">
-        <v>41.77557929797318</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="K7" t="n">
         <v>19.28114311021272</v>
@@ -4778,22 +4778,22 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C8" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D8" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E8" t="n">
-        <v>720.6083788665362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F8" t="n">
-        <v>477.1596022224361</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G8" t="n">
-        <v>262.7299197543128</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H8" t="n">
         <v>19.28114311021272</v>
@@ -4835,19 +4835,19 @@
         <v>964.0571555106362</v>
       </c>
       <c r="U8" t="n">
-        <v>964.0571555106362</v>
+        <v>720.6083788665362</v>
       </c>
       <c r="V8" t="n">
-        <v>964.0571555106362</v>
+        <v>477.1596022224361</v>
       </c>
       <c r="W8" t="n">
-        <v>964.0571555106362</v>
+        <v>233.7108255783361</v>
       </c>
       <c r="X8" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="Y8" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="9">
@@ -4857,13 +4857,13 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>178.5185981156682</v>
+        <v>318.8669524321267</v>
       </c>
       <c r="C9" t="n">
-        <v>178.5185981156682</v>
+        <v>144.4139231509997</v>
       </c>
       <c r="D9" t="n">
-        <v>178.5185981156682</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E9" t="n">
         <v>19.28114311021272</v>
@@ -4890,7 +4890,7 @@
         <v>249.2442489785619</v>
       </c>
       <c r="M9" t="n">
-        <v>473.4149733950735</v>
+        <v>249.2442489785619</v>
       </c>
       <c r="N9" t="n">
         <v>473.4149733950735</v>
@@ -4914,19 +4914,19 @@
         <v>761.8705608694022</v>
       </c>
       <c r="U9" t="n">
-        <v>533.6469426057913</v>
+        <v>761.8705608694022</v>
       </c>
       <c r="V9" t="n">
-        <v>298.4948343740486</v>
+        <v>526.7184526376595</v>
       </c>
       <c r="W9" t="n">
-        <v>178.5185981156682</v>
+        <v>526.7184526376595</v>
       </c>
       <c r="X9" t="n">
-        <v>178.5185981156682</v>
+        <v>318.8669524321267</v>
       </c>
       <c r="Y9" t="n">
-        <v>178.5185981156682</v>
+        <v>318.8669524321267</v>
       </c>
     </row>
     <row r="10">
@@ -4936,31 +4936,31 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>19.28114311021272</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="C10" t="n">
-        <v>19.28114311021272</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="D10" t="n">
-        <v>19.28114311021272</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="E10" t="n">
-        <v>19.28114311021272</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="F10" t="n">
-        <v>19.28114311021272</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="G10" t="n">
-        <v>19.28114311021272</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="H10" t="n">
-        <v>19.28114311021272</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="I10" t="n">
-        <v>19.28114311021272</v>
+        <v>136.0777814360265</v>
       </c>
       <c r="J10" t="n">
-        <v>19.28114311021272</v>
+        <v>41.77557929797318</v>
       </c>
       <c r="K10" t="n">
         <v>19.28114311021272</v>
@@ -4978,34 +4978,34 @@
         <v>153.8134336004835</v>
       </c>
       <c r="P10" t="n">
-        <v>153.8134336004835</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="Q10" t="n">
-        <v>153.8134336004835</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="R10" t="n">
-        <v>19.28114311021272</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="S10" t="n">
-        <v>19.28114311021272</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="T10" t="n">
-        <v>19.28114311021272</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="U10" t="n">
-        <v>19.28114311021272</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="V10" t="n">
-        <v>19.28114311021272</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="W10" t="n">
-        <v>19.28114311021272</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="X10" t="n">
-        <v>19.28114311021272</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="Y10" t="n">
-        <v>19.28114311021272</v>
+        <v>151.0645035650224</v>
       </c>
     </row>
     <row r="11">
@@ -5015,34 +5015,34 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>1066.049756676706</v>
+        <v>267.7881344992537</v>
       </c>
       <c r="C11" t="n">
-        <v>1066.049756676706</v>
+        <v>22.09252109618844</v>
       </c>
       <c r="D11" t="n">
-        <v>1066.049756676706</v>
+        <v>22.09252109618844</v>
       </c>
       <c r="E11" t="n">
-        <v>1066.049756676706</v>
+        <v>22.09252109618844</v>
       </c>
       <c r="F11" t="n">
-        <v>787.1037832399832</v>
+        <v>22.09252109618844</v>
       </c>
       <c r="G11" t="n">
-        <v>508.1578098032605</v>
+        <v>22.09252109618844</v>
       </c>
       <c r="H11" t="n">
-        <v>229.2118363665377</v>
+        <v>22.09252109618844</v>
       </c>
       <c r="I11" t="n">
         <v>22.09252109618844</v>
       </c>
       <c r="J11" t="n">
-        <v>22.09252109618842</v>
+        <v>22.09252109618843</v>
       </c>
       <c r="K11" t="n">
-        <v>142.8373253438684</v>
+        <v>142.8373253438683</v>
       </c>
       <c r="L11" t="n">
         <v>344.9085595412869</v>
@@ -5066,25 +5066,25 @@
         <v>1104.626054809422</v>
       </c>
       <c r="S11" t="n">
-        <v>1066.049756676706</v>
+        <v>1104.626054809422</v>
       </c>
       <c r="T11" t="n">
-        <v>1066.049756676706</v>
+        <v>1104.626054809422</v>
       </c>
       <c r="U11" t="n">
-        <v>1066.049756676706</v>
+        <v>1104.626054809422</v>
       </c>
       <c r="V11" t="n">
-        <v>1066.049756676706</v>
+        <v>1104.626054809422</v>
       </c>
       <c r="W11" t="n">
-        <v>1066.049756676706</v>
+        <v>1104.626054809422</v>
       </c>
       <c r="X11" t="n">
-        <v>1066.049756676706</v>
+        <v>825.6800813726992</v>
       </c>
       <c r="Y11" t="n">
-        <v>1066.049756676706</v>
+        <v>546.7341079359765</v>
       </c>
     </row>
     <row r="12">
@@ -5094,13 +5094,13 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>266.5615620906656</v>
+        <v>22.09252109618844</v>
       </c>
       <c r="C12" t="n">
-        <v>92.10853280953856</v>
+        <v>22.09252109618844</v>
       </c>
       <c r="D12" t="n">
-        <v>92.10853280953856</v>
+        <v>22.09252109618844</v>
       </c>
       <c r="E12" t="n">
         <v>22.09252109618844</v>
@@ -5118,25 +5118,25 @@
         <v>22.09252109618844</v>
       </c>
       <c r="J12" t="n">
-        <v>22.09252109618844</v>
+        <v>28.39914141318535</v>
       </c>
       <c r="K12" t="n">
-        <v>22.09252109618844</v>
+        <v>28.39914141318535</v>
       </c>
       <c r="L12" t="n">
-        <v>252.0556269645376</v>
+        <v>274.5546080058863</v>
       </c>
       <c r="M12" t="n">
-        <v>399.8342145467769</v>
+        <v>547.9495565712182</v>
       </c>
       <c r="N12" t="n">
-        <v>673.2291631121088</v>
+        <v>759.2151904085662</v>
       </c>
       <c r="O12" t="n">
-        <v>921.9825771960711</v>
+        <v>1025.71200399185</v>
       </c>
       <c r="P12" t="n">
-        <v>1104.626054809422</v>
+        <v>1025.71200399185</v>
       </c>
       <c r="Q12" t="n">
         <v>1104.626054809422</v>
@@ -5151,19 +5151,19 @@
         <v>1104.626054809422</v>
       </c>
       <c r="U12" t="n">
-        <v>1104.626054809422</v>
+        <v>876.4074424435696</v>
       </c>
       <c r="V12" t="n">
-        <v>1104.626054809422</v>
+        <v>641.2553342118269</v>
       </c>
       <c r="W12" t="n">
-        <v>850.3886980812204</v>
+        <v>387.0179774836253</v>
       </c>
       <c r="X12" t="n">
-        <v>642.5371978756875</v>
+        <v>179.1664772780925</v>
       </c>
       <c r="Y12" t="n">
-        <v>434.7768991107336</v>
+        <v>22.09252109618844</v>
       </c>
     </row>
     <row r="13">
@@ -5173,22 +5173,22 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>22.09252109618844</v>
+        <v>198.9927170031358</v>
       </c>
       <c r="C13" t="n">
-        <v>22.09252109618844</v>
+        <v>198.9927170031358</v>
       </c>
       <c r="D13" t="n">
-        <v>22.09252109618844</v>
+        <v>198.9927170031358</v>
       </c>
       <c r="E13" t="n">
-        <v>22.09252109618844</v>
+        <v>198.9927170031358</v>
       </c>
       <c r="F13" t="n">
-        <v>22.09252109618844</v>
+        <v>198.9927170031358</v>
       </c>
       <c r="G13" t="n">
-        <v>22.09252109618844</v>
+        <v>185.391191902125</v>
       </c>
       <c r="H13" t="n">
         <v>22.09252109618844</v>
@@ -5218,31 +5218,31 @@
         <v>198.9927170031358</v>
       </c>
       <c r="Q13" t="n">
-        <v>198.3084793424303</v>
+        <v>198.9927170031358</v>
       </c>
       <c r="R13" t="n">
-        <v>22.09252109618844</v>
+        <v>198.9927170031358</v>
       </c>
       <c r="S13" t="n">
-        <v>22.09252109618844</v>
+        <v>198.9927170031358</v>
       </c>
       <c r="T13" t="n">
-        <v>22.09252109618844</v>
+        <v>198.9927170031358</v>
       </c>
       <c r="U13" t="n">
-        <v>22.09252109618844</v>
+        <v>198.9927170031358</v>
       </c>
       <c r="V13" t="n">
-        <v>22.09252109618844</v>
+        <v>198.9927170031358</v>
       </c>
       <c r="W13" t="n">
-        <v>22.09252109618844</v>
+        <v>198.9927170031358</v>
       </c>
       <c r="X13" t="n">
-        <v>22.09252109618844</v>
+        <v>198.9927170031358</v>
       </c>
       <c r="Y13" t="n">
-        <v>22.09252109618844</v>
+        <v>198.9927170031358</v>
       </c>
     </row>
     <row r="14">
@@ -5252,46 +5252,46 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>825.6800813726991</v>
+        <v>825.6800813726992</v>
       </c>
       <c r="C14" t="n">
-        <v>825.6800813726991</v>
+        <v>825.6800813726992</v>
       </c>
       <c r="D14" t="n">
-        <v>825.6800813726991</v>
+        <v>825.6800813726992</v>
       </c>
       <c r="E14" t="n">
-        <v>579.9844679696338</v>
+        <v>546.7341079359765</v>
       </c>
       <c r="F14" t="n">
-        <v>301.0384945329111</v>
+        <v>267.7881344992537</v>
       </c>
       <c r="G14" t="n">
-        <v>22.09252109618843</v>
+        <v>22.09252109618844</v>
       </c>
       <c r="H14" t="n">
-        <v>22.09252109618843</v>
+        <v>22.09252109618844</v>
       </c>
       <c r="I14" t="n">
-        <v>22.09252109618843</v>
+        <v>22.09252109618844</v>
       </c>
       <c r="J14" t="n">
-        <v>22.09252109618845</v>
+        <v>22.09252109618844</v>
       </c>
       <c r="K14" t="n">
         <v>142.8373253438683</v>
       </c>
       <c r="L14" t="n">
-        <v>344.9085595412868</v>
+        <v>344.9085595412869</v>
       </c>
       <c r="M14" t="n">
-        <v>586.3582880173955</v>
+        <v>586.3582880173956</v>
       </c>
       <c r="N14" t="n">
-        <v>817.082927982354</v>
+        <v>817.0829279823542</v>
       </c>
       <c r="O14" t="n">
-        <v>989.7620250901061</v>
+        <v>989.7620250901064</v>
       </c>
       <c r="P14" t="n">
         <v>1099.465256491931</v>
@@ -5331,49 +5331,49 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>22.09252109618843</v>
+        <v>355.783005382771</v>
       </c>
       <c r="C15" t="n">
-        <v>22.09252109618843</v>
+        <v>181.329976101644</v>
       </c>
       <c r="D15" t="n">
-        <v>22.09252109618843</v>
+        <v>181.329976101644</v>
       </c>
       <c r="E15" t="n">
-        <v>22.09252109618843</v>
+        <v>22.09252109618844</v>
       </c>
       <c r="F15" t="n">
-        <v>22.09252109618843</v>
+        <v>22.09252109618844</v>
       </c>
       <c r="G15" t="n">
-        <v>22.09252109618843</v>
+        <v>22.09252109618844</v>
       </c>
       <c r="H15" t="n">
-        <v>22.09252109618843</v>
+        <v>22.09252109618844</v>
       </c>
       <c r="I15" t="n">
-        <v>22.09252109618843</v>
+        <v>22.09252109618844</v>
       </c>
       <c r="J15" t="n">
-        <v>28.39914141318534</v>
+        <v>22.09252109618844</v>
       </c>
       <c r="K15" t="n">
-        <v>28.39914141318534</v>
+        <v>22.09252109618844</v>
       </c>
       <c r="L15" t="n">
-        <v>274.5546080058863</v>
+        <v>252.0556269645376</v>
       </c>
       <c r="M15" t="n">
-        <v>547.9495565712182</v>
+        <v>525.4505755298695</v>
       </c>
       <c r="N15" t="n">
-        <v>821.34450513655</v>
+        <v>580.0744699105992</v>
       </c>
       <c r="O15" t="n">
-        <v>852.5880186827417</v>
+        <v>828.8278839945615</v>
       </c>
       <c r="P15" t="n">
-        <v>1035.231496296092</v>
+        <v>1025.71200399185</v>
       </c>
       <c r="Q15" t="n">
         <v>1104.626054809422</v>
@@ -5388,19 +5388,19 @@
         <v>1104.626054809422</v>
       </c>
       <c r="U15" t="n">
-        <v>927.0937850266196</v>
+        <v>1104.626054809422</v>
       </c>
       <c r="V15" t="n">
-        <v>691.9416767948768</v>
+        <v>1025.632161081459</v>
       </c>
       <c r="W15" t="n">
-        <v>437.7043200666752</v>
+        <v>771.3948043532578</v>
       </c>
       <c r="X15" t="n">
-        <v>229.8528198611423</v>
+        <v>563.5433041477249</v>
       </c>
       <c r="Y15" t="n">
-        <v>22.09252109618843</v>
+        <v>355.783005382771</v>
       </c>
     </row>
     <row r="16">
@@ -5410,34 +5410,34 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>22.09252109618843</v>
+        <v>22.09252109618844</v>
       </c>
       <c r="C16" t="n">
-        <v>22.09252109618843</v>
+        <v>22.09252109618844</v>
       </c>
       <c r="D16" t="n">
-        <v>22.09252109618843</v>
+        <v>22.09252109618844</v>
       </c>
       <c r="E16" t="n">
-        <v>22.09252109618843</v>
+        <v>22.09252109618844</v>
       </c>
       <c r="F16" t="n">
-        <v>22.09252109618843</v>
+        <v>22.09252109618844</v>
       </c>
       <c r="G16" t="n">
-        <v>22.09252109618843</v>
+        <v>22.09252109618844</v>
       </c>
       <c r="H16" t="n">
-        <v>22.09252109618843</v>
+        <v>22.09252109618844</v>
       </c>
       <c r="I16" t="n">
-        <v>22.09252109618843</v>
+        <v>22.09252109618844</v>
       </c>
       <c r="J16" t="n">
-        <v>22.09252109618843</v>
+        <v>22.09252109618844</v>
       </c>
       <c r="K16" t="n">
-        <v>22.09252109618843</v>
+        <v>22.09252109618844</v>
       </c>
       <c r="L16" t="n">
         <v>58.70189726492714</v>
@@ -5455,31 +5455,31 @@
         <v>198.9927170031358</v>
       </c>
       <c r="Q16" t="n">
-        <v>198.9927170031358</v>
+        <v>198.3084793424303</v>
       </c>
       <c r="R16" t="n">
-        <v>198.9927170031358</v>
+        <v>22.09252109618844</v>
       </c>
       <c r="S16" t="n">
-        <v>22.09252109618843</v>
+        <v>22.09252109618844</v>
       </c>
       <c r="T16" t="n">
-        <v>22.09252109618843</v>
+        <v>22.09252109618844</v>
       </c>
       <c r="U16" t="n">
-        <v>22.09252109618843</v>
+        <v>22.09252109618844</v>
       </c>
       <c r="V16" t="n">
-        <v>22.09252109618843</v>
+        <v>22.09252109618844</v>
       </c>
       <c r="W16" t="n">
-        <v>22.09252109618843</v>
+        <v>22.09252109618844</v>
       </c>
       <c r="X16" t="n">
-        <v>22.09252109618843</v>
+        <v>22.09252109618844</v>
       </c>
       <c r="Y16" t="n">
-        <v>22.09252109618843</v>
+        <v>22.09252109618844</v>
       </c>
     </row>
     <row r="17">
@@ -5489,46 +5489,46 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>579.9844679696338</v>
+        <v>825.6800813726992</v>
       </c>
       <c r="C17" t="n">
-        <v>579.9844679696338</v>
+        <v>825.6800813726992</v>
       </c>
       <c r="D17" t="n">
-        <v>579.9844679696338</v>
+        <v>825.6800813726992</v>
       </c>
       <c r="E17" t="n">
-        <v>579.9844679696338</v>
+        <v>579.9844679696339</v>
       </c>
       <c r="F17" t="n">
-        <v>301.0384945329111</v>
+        <v>301.0384945329112</v>
       </c>
       <c r="G17" t="n">
-        <v>22.09252109618843</v>
+        <v>22.09252109618844</v>
       </c>
       <c r="H17" t="n">
-        <v>22.09252109618843</v>
+        <v>22.09252109618844</v>
       </c>
       <c r="I17" t="n">
-        <v>22.09252109618843</v>
+        <v>22.09252109618844</v>
       </c>
       <c r="J17" t="n">
-        <v>22.09252109618843</v>
+        <v>22.09252109618853</v>
       </c>
       <c r="K17" t="n">
-        <v>142.8373253438683</v>
+        <v>142.8373253438685</v>
       </c>
       <c r="L17" t="n">
-        <v>344.9085595412868</v>
+        <v>344.908559541287</v>
       </c>
       <c r="M17" t="n">
-        <v>586.3582880173956</v>
+        <v>586.3582880173958</v>
       </c>
       <c r="N17" t="n">
-        <v>817.0829279823541</v>
+        <v>817.0829279823544</v>
       </c>
       <c r="O17" t="n">
-        <v>989.7620250901062</v>
+        <v>989.7620250901065</v>
       </c>
       <c r="P17" t="n">
         <v>1099.465256491931</v>
@@ -5549,16 +5549,16 @@
         <v>1104.626054809422</v>
       </c>
       <c r="V17" t="n">
-        <v>858.9304414063565</v>
+        <v>1104.626054809422</v>
       </c>
       <c r="W17" t="n">
-        <v>858.9304414063565</v>
+        <v>1104.626054809422</v>
       </c>
       <c r="X17" t="n">
-        <v>858.9304414063565</v>
+        <v>1104.626054809422</v>
       </c>
       <c r="Y17" t="n">
-        <v>579.9844679696338</v>
+        <v>825.6800813726992</v>
       </c>
     </row>
     <row r="18">
@@ -5568,49 +5568,49 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>22.09252109618843</v>
+        <v>22.09252109618844</v>
       </c>
       <c r="C18" t="n">
-        <v>22.09252109618843</v>
+        <v>22.09252109618844</v>
       </c>
       <c r="D18" t="n">
-        <v>22.09252109618843</v>
+        <v>22.09252109618844</v>
       </c>
       <c r="E18" t="n">
-        <v>22.09252109618843</v>
+        <v>22.09252109618844</v>
       </c>
       <c r="F18" t="n">
-        <v>22.09252109618843</v>
+        <v>22.09252109618844</v>
       </c>
       <c r="G18" t="n">
-        <v>22.09252109618843</v>
+        <v>22.09252109618844</v>
       </c>
       <c r="H18" t="n">
-        <v>22.09252109618843</v>
+        <v>22.09252109618844</v>
       </c>
       <c r="I18" t="n">
-        <v>22.09252109618843</v>
+        <v>22.09252109618844</v>
       </c>
       <c r="J18" t="n">
-        <v>22.09252109618843</v>
+        <v>28.39914141318536</v>
       </c>
       <c r="K18" t="n">
-        <v>100.4765501650984</v>
+        <v>28.39914141318536</v>
       </c>
       <c r="L18" t="n">
-        <v>330.4396560334475</v>
+        <v>274.5546080058864</v>
       </c>
       <c r="M18" t="n">
-        <v>603.8346045987794</v>
+        <v>547.9495565712183</v>
       </c>
       <c r="N18" t="n">
-        <v>603.8346045987794</v>
+        <v>594.3151122945369</v>
       </c>
       <c r="O18" t="n">
-        <v>852.5880186827417</v>
+        <v>843.0685263784992</v>
       </c>
       <c r="P18" t="n">
-        <v>1035.231496296092</v>
+        <v>1025.71200399185</v>
       </c>
       <c r="Q18" t="n">
         <v>1104.626054809422</v>
@@ -5628,16 +5628,16 @@
         <v>927.0937850266196</v>
       </c>
       <c r="V18" t="n">
-        <v>691.9416767948768</v>
+        <v>691.9416767948769</v>
       </c>
       <c r="W18" t="n">
         <v>437.7043200666752</v>
       </c>
       <c r="X18" t="n">
-        <v>229.8528198611423</v>
+        <v>229.8528198611424</v>
       </c>
       <c r="Y18" t="n">
-        <v>22.09252109618843</v>
+        <v>22.09252109618844</v>
       </c>
     </row>
     <row r="19">
@@ -5647,37 +5647,37 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>22.09252109618843</v>
+        <v>22.09252109618844</v>
       </c>
       <c r="C19" t="n">
-        <v>22.09252109618843</v>
+        <v>22.09252109618844</v>
       </c>
       <c r="D19" t="n">
-        <v>22.09252109618843</v>
+        <v>22.09252109618844</v>
       </c>
       <c r="E19" t="n">
-        <v>22.09252109618843</v>
+        <v>22.09252109618844</v>
       </c>
       <c r="F19" t="n">
-        <v>22.09252109618843</v>
+        <v>22.09252109618844</v>
       </c>
       <c r="G19" t="n">
-        <v>22.09252109618843</v>
+        <v>22.09252109618844</v>
       </c>
       <c r="H19" t="n">
-        <v>22.09252109618843</v>
+        <v>22.09252109618844</v>
       </c>
       <c r="I19" t="n">
-        <v>22.09252109618843</v>
+        <v>22.09252109618844</v>
       </c>
       <c r="J19" t="n">
-        <v>22.09252109618843</v>
+        <v>22.09252109618844</v>
       </c>
       <c r="K19" t="n">
-        <v>22.09252109618843</v>
+        <v>22.09252109618844</v>
       </c>
       <c r="L19" t="n">
-        <v>58.70189726492715</v>
+        <v>58.70189726492717</v>
       </c>
       <c r="M19" t="n">
         <v>107.6904745160687</v>
@@ -5692,31 +5692,31 @@
         <v>198.9927170031359</v>
       </c>
       <c r="Q19" t="n">
-        <v>117.3019767171697</v>
+        <v>198.9927170031359</v>
       </c>
       <c r="R19" t="n">
-        <v>117.3019767171697</v>
+        <v>198.9927170031359</v>
       </c>
       <c r="S19" t="n">
-        <v>22.09252109618843</v>
+        <v>198.9927170031359</v>
       </c>
       <c r="T19" t="n">
-        <v>22.09252109618843</v>
+        <v>198.9927170031359</v>
       </c>
       <c r="U19" t="n">
-        <v>22.09252109618843</v>
+        <v>198.9927170031359</v>
       </c>
       <c r="V19" t="n">
-        <v>22.09252109618843</v>
+        <v>22.09252109618844</v>
       </c>
       <c r="W19" t="n">
-        <v>22.09252109618843</v>
+        <v>22.09252109618844</v>
       </c>
       <c r="X19" t="n">
-        <v>22.09252109618843</v>
+        <v>22.09252109618844</v>
       </c>
       <c r="Y19" t="n">
-        <v>22.09252109618843</v>
+        <v>22.09252109618844</v>
       </c>
     </row>
     <row r="20">
@@ -5726,46 +5726,46 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>579.9844679696339</v>
+        <v>858.9304414063565</v>
       </c>
       <c r="C20" t="n">
-        <v>579.9844679696339</v>
+        <v>579.9844679696338</v>
       </c>
       <c r="D20" t="n">
-        <v>579.9844679696339</v>
+        <v>579.9844679696338</v>
       </c>
       <c r="E20" t="n">
-        <v>301.0384945329112</v>
+        <v>579.9844679696338</v>
       </c>
       <c r="F20" t="n">
-        <v>301.0384945329112</v>
+        <v>301.0384945329111</v>
       </c>
       <c r="G20" t="n">
-        <v>22.09252109618844</v>
+        <v>22.09252109618843</v>
       </c>
       <c r="H20" t="n">
-        <v>22.09252109618844</v>
+        <v>22.09252109618843</v>
       </c>
       <c r="I20" t="n">
-        <v>22.09252109618844</v>
+        <v>22.09252109618843</v>
       </c>
       <c r="J20" t="n">
-        <v>22.09252109618843</v>
+        <v>22.09252109618842</v>
       </c>
       <c r="K20" t="n">
         <v>142.8373253438683</v>
       </c>
       <c r="L20" t="n">
-        <v>344.9085595412868</v>
+        <v>344.9085595412869</v>
       </c>
       <c r="M20" t="n">
         <v>586.3582880173956</v>
       </c>
       <c r="N20" t="n">
-        <v>817.0829279823542</v>
+        <v>817.082927982354</v>
       </c>
       <c r="O20" t="n">
-        <v>989.7620250901064</v>
+        <v>989.7620250901062</v>
       </c>
       <c r="P20" t="n">
         <v>1099.465256491931</v>
@@ -5780,22 +5780,22 @@
         <v>1104.626054809422</v>
       </c>
       <c r="T20" t="n">
-        <v>879.8992409003627</v>
+        <v>1104.626054809422</v>
       </c>
       <c r="U20" t="n">
-        <v>879.8992409003627</v>
+        <v>858.9304414063565</v>
       </c>
       <c r="V20" t="n">
-        <v>879.8992409003627</v>
+        <v>858.9304414063565</v>
       </c>
       <c r="W20" t="n">
-        <v>879.8992409003627</v>
+        <v>858.9304414063565</v>
       </c>
       <c r="X20" t="n">
-        <v>858.9304414063566</v>
+        <v>858.9304414063565</v>
       </c>
       <c r="Y20" t="n">
-        <v>858.9304414063566</v>
+        <v>858.9304414063565</v>
       </c>
     </row>
     <row r="21">
@@ -5805,49 +5805,49 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>22.09252109618844</v>
+        <v>22.09252109618843</v>
       </c>
       <c r="C21" t="n">
-        <v>22.09252109618844</v>
+        <v>22.09252109618843</v>
       </c>
       <c r="D21" t="n">
-        <v>22.09252109618844</v>
+        <v>22.09252109618843</v>
       </c>
       <c r="E21" t="n">
-        <v>22.09252109618844</v>
+        <v>22.09252109618843</v>
       </c>
       <c r="F21" t="n">
-        <v>22.09252109618844</v>
+        <v>22.09252109618843</v>
       </c>
       <c r="G21" t="n">
-        <v>22.09252109618844</v>
+        <v>22.09252109618843</v>
       </c>
       <c r="H21" t="n">
-        <v>22.09252109618844</v>
+        <v>22.09252109618843</v>
       </c>
       <c r="I21" t="n">
-        <v>22.09252109618844</v>
+        <v>22.09252109618843</v>
       </c>
       <c r="J21" t="n">
-        <v>22.09252109618844</v>
+        <v>22.09252109618843</v>
       </c>
       <c r="K21" t="n">
-        <v>22.09252109618844</v>
+        <v>147.4500811540258</v>
       </c>
       <c r="L21" t="n">
-        <v>252.0556269645376</v>
+        <v>377.413187022375</v>
       </c>
       <c r="M21" t="n">
-        <v>525.4505755298695</v>
+        <v>385.5935721628391</v>
       </c>
       <c r="N21" t="n">
-        <v>571.8505627155204</v>
+        <v>658.9885207281709</v>
       </c>
       <c r="O21" t="n">
-        <v>838.3473762988042</v>
+        <v>907.7419348121332</v>
       </c>
       <c r="P21" t="n">
-        <v>1035.231496296093</v>
+        <v>1104.626054809422</v>
       </c>
       <c r="Q21" t="n">
         <v>1104.626054809422</v>
@@ -5862,19 +5862,19 @@
         <v>1104.626054809422</v>
       </c>
       <c r="U21" t="n">
-        <v>876.4074424435696</v>
+        <v>927.0937850266196</v>
       </c>
       <c r="V21" t="n">
-        <v>641.2553342118269</v>
+        <v>691.9416767948768</v>
       </c>
       <c r="W21" t="n">
-        <v>387.0179774836253</v>
+        <v>437.7043200666752</v>
       </c>
       <c r="X21" t="n">
-        <v>179.1664772780925</v>
+        <v>229.8528198611423</v>
       </c>
       <c r="Y21" t="n">
-        <v>22.09252109618844</v>
+        <v>22.09252109618843</v>
       </c>
     </row>
     <row r="22">
@@ -5884,76 +5884,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>22.09252109618844</v>
+        <v>927.7258589024743</v>
       </c>
       <c r="C22" t="n">
-        <v>22.09252109618844</v>
+        <v>927.7258589024743</v>
       </c>
       <c r="D22" t="n">
-        <v>22.09252109618844</v>
+        <v>927.7258589024743</v>
       </c>
       <c r="E22" t="n">
-        <v>22.09252109618844</v>
+        <v>927.7258589024743</v>
       </c>
       <c r="F22" t="n">
-        <v>22.09252109618844</v>
+        <v>927.7258589024743</v>
       </c>
       <c r="G22" t="n">
-        <v>22.09252109618844</v>
+        <v>927.7258589024743</v>
       </c>
       <c r="H22" t="n">
-        <v>22.09252109618844</v>
+        <v>927.7258589024743</v>
       </c>
       <c r="I22" t="n">
-        <v>22.09252109618844</v>
+        <v>927.7258589024743</v>
       </c>
       <c r="J22" t="n">
-        <v>22.09252109618844</v>
+        <v>927.7258589024743</v>
       </c>
       <c r="K22" t="n">
-        <v>22.09252109618844</v>
+        <v>927.7258589024743</v>
       </c>
       <c r="L22" t="n">
-        <v>58.70189726492715</v>
+        <v>964.335235071213</v>
       </c>
       <c r="M22" t="n">
-        <v>107.6904745160687</v>
+        <v>1013.323812322354</v>
       </c>
       <c r="N22" t="n">
-        <v>160.9488293168851</v>
+        <v>1066.582167123171</v>
       </c>
       <c r="O22" t="n">
-        <v>194.1252445754623</v>
+        <v>1099.758582381748</v>
       </c>
       <c r="P22" t="n">
-        <v>198.9927170031359</v>
+        <v>1104.626054809422</v>
       </c>
       <c r="Q22" t="n">
-        <v>198.9927170031359</v>
+        <v>1104.626054809422</v>
       </c>
       <c r="R22" t="n">
-        <v>198.9927170031359</v>
+        <v>1104.626054809422</v>
       </c>
       <c r="S22" t="n">
-        <v>198.9927170031359</v>
+        <v>927.7258589024743</v>
       </c>
       <c r="T22" t="n">
-        <v>198.9927170031359</v>
+        <v>927.7258589024743</v>
       </c>
       <c r="U22" t="n">
-        <v>22.09252109618844</v>
+        <v>927.7258589024743</v>
       </c>
       <c r="V22" t="n">
-        <v>22.09252109618844</v>
+        <v>927.7258589024743</v>
       </c>
       <c r="W22" t="n">
-        <v>22.09252109618844</v>
+        <v>927.7258589024743</v>
       </c>
       <c r="X22" t="n">
-        <v>22.09252109618844</v>
+        <v>927.7258589024743</v>
       </c>
       <c r="Y22" t="n">
-        <v>22.09252109618844</v>
+        <v>927.7258589024743</v>
       </c>
     </row>
     <row r="23">
@@ -5963,13 +5963,13 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>858.9304414063566</v>
+        <v>579.9844679696339</v>
       </c>
       <c r="C23" t="n">
-        <v>858.9304414063566</v>
+        <v>579.9844679696339</v>
       </c>
       <c r="D23" t="n">
-        <v>858.9304414063566</v>
+        <v>579.9844679696339</v>
       </c>
       <c r="E23" t="n">
         <v>579.9844679696339</v>
@@ -5987,7 +5987,7 @@
         <v>22.09252109618844</v>
       </c>
       <c r="J23" t="n">
-        <v>22.09252109618844</v>
+        <v>22.09252109618843</v>
       </c>
       <c r="K23" t="n">
         <v>142.8373253438683</v>
@@ -6002,7 +6002,7 @@
         <v>817.0829279823542</v>
       </c>
       <c r="O23" t="n">
-        <v>989.7620250901064</v>
+        <v>989.7620250901066</v>
       </c>
       <c r="P23" t="n">
         <v>1099.465256491931</v>
@@ -6026,13 +6026,13 @@
         <v>1104.626054809422</v>
       </c>
       <c r="W23" t="n">
-        <v>858.9304414063566</v>
+        <v>1104.626054809422</v>
       </c>
       <c r="X23" t="n">
-        <v>858.9304414063566</v>
+        <v>1104.626054809422</v>
       </c>
       <c r="Y23" t="n">
-        <v>858.9304414063566</v>
+        <v>825.6800813726992</v>
       </c>
     </row>
     <row r="24">
@@ -6042,16 +6042,16 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>22.09252109618844</v>
+        <v>343.0801083504305</v>
       </c>
       <c r="C24" t="n">
-        <v>22.09252109618844</v>
+        <v>168.6270790693035</v>
       </c>
       <c r="D24" t="n">
-        <v>22.09252109618844</v>
+        <v>168.6270790693035</v>
       </c>
       <c r="E24" t="n">
-        <v>22.09252109618844</v>
+        <v>168.6270790693035</v>
       </c>
       <c r="F24" t="n">
         <v>22.09252109618844</v>
@@ -6069,22 +6069,22 @@
         <v>22.09252109618844</v>
       </c>
       <c r="K24" t="n">
-        <v>22.09252109618844</v>
+        <v>147.4500811540258</v>
       </c>
       <c r="L24" t="n">
-        <v>268.2479876888895</v>
+        <v>377.413187022375</v>
       </c>
       <c r="M24" t="n">
-        <v>330.4396560334477</v>
+        <v>641.2451212288496</v>
       </c>
       <c r="N24" t="n">
-        <v>603.8346045987796</v>
+        <v>641.2451212288496</v>
       </c>
       <c r="O24" t="n">
-        <v>852.5880186827419</v>
+        <v>907.7419348121334</v>
       </c>
       <c r="P24" t="n">
-        <v>1035.231496296093</v>
+        <v>1104.626054809422</v>
       </c>
       <c r="Q24" t="n">
         <v>1104.626054809422</v>
@@ -6096,22 +6096,22 @@
         <v>1104.626054809422</v>
       </c>
       <c r="T24" t="n">
-        <v>1104.626054809422</v>
+        <v>1040.321073515908</v>
       </c>
       <c r="U24" t="n">
-        <v>876.4074424435696</v>
+        <v>1040.321073515908</v>
       </c>
       <c r="V24" t="n">
-        <v>641.2553342118269</v>
+        <v>805.1689652841649</v>
       </c>
       <c r="W24" t="n">
-        <v>387.0179774836253</v>
+        <v>550.9316085559633</v>
       </c>
       <c r="X24" t="n">
-        <v>179.1664772780925</v>
+        <v>343.0801083504305</v>
       </c>
       <c r="Y24" t="n">
-        <v>22.09252109618844</v>
+        <v>343.0801083504305</v>
       </c>
     </row>
     <row r="25">
@@ -6181,16 +6181,16 @@
         <v>198.9927170031359</v>
       </c>
       <c r="V25" t="n">
-        <v>198.9927170031359</v>
+        <v>22.09252109618844</v>
       </c>
       <c r="W25" t="n">
-        <v>198.9927170031359</v>
+        <v>22.09252109618844</v>
       </c>
       <c r="X25" t="n">
-        <v>198.9927170031359</v>
+        <v>22.09252109618844</v>
       </c>
       <c r="Y25" t="n">
-        <v>198.9927170031359</v>
+        <v>22.09252109618844</v>
       </c>
     </row>
     <row r="26">
@@ -6200,19 +6200,19 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>546.7341079359765</v>
+        <v>858.9304414063566</v>
       </c>
       <c r="C26" t="n">
-        <v>546.7341079359765</v>
+        <v>858.9304414063566</v>
       </c>
       <c r="D26" t="n">
-        <v>546.7341079359765</v>
+        <v>858.9304414063566</v>
       </c>
       <c r="E26" t="n">
+        <v>579.9844679696339</v>
+      </c>
+      <c r="F26" t="n">
         <v>301.0384945329112</v>
-      </c>
-      <c r="F26" t="n">
-        <v>22.09252109618844</v>
       </c>
       <c r="G26" t="n">
         <v>22.09252109618844</v>
@@ -6224,7 +6224,7 @@
         <v>22.09252109618844</v>
       </c>
       <c r="J26" t="n">
-        <v>22.09252109618843</v>
+        <v>22.09252109618842</v>
       </c>
       <c r="K26" t="n">
         <v>142.8373253438683</v>
@@ -6266,10 +6266,10 @@
         <v>1104.626054809422</v>
       </c>
       <c r="X26" t="n">
-        <v>1104.626054809422</v>
+        <v>858.9304414063566</v>
       </c>
       <c r="Y26" t="n">
-        <v>825.6800813726992</v>
+        <v>858.9304414063566</v>
       </c>
     </row>
     <row r="27">
@@ -6306,22 +6306,22 @@
         <v>22.09252109618844</v>
       </c>
       <c r="K27" t="n">
-        <v>86.23590778116085</v>
+        <v>159.4923828364511</v>
       </c>
       <c r="L27" t="n">
-        <v>316.19901364951</v>
+        <v>405.6478494291521</v>
       </c>
       <c r="M27" t="n">
-        <v>589.5939622148419</v>
+        <v>655.4857636127873</v>
       </c>
       <c r="N27" t="n">
-        <v>589.5939622148419</v>
+        <v>655.4857636127873</v>
       </c>
       <c r="O27" t="n">
-        <v>838.3473762988042</v>
+        <v>921.9825771960711</v>
       </c>
       <c r="P27" t="n">
-        <v>1035.231496296093</v>
+        <v>1104.626054809422</v>
       </c>
       <c r="Q27" t="n">
         <v>1104.626054809422</v>
@@ -6437,22 +6437,22 @@
         </is>
       </c>
       <c r="B29" t="n">
+        <v>1104.626054809422</v>
+      </c>
+      <c r="C29" t="n">
+        <v>1104.626054809422</v>
+      </c>
+      <c r="D29" t="n">
+        <v>1104.626054809422</v>
+      </c>
+      <c r="E29" t="n">
+        <v>858.9304414063566</v>
+      </c>
+      <c r="F29" t="n">
+        <v>579.9844679696339</v>
+      </c>
+      <c r="G29" t="n">
         <v>301.0384945329112</v>
-      </c>
-      <c r="C29" t="n">
-        <v>301.0384945329112</v>
-      </c>
-      <c r="D29" t="n">
-        <v>301.0384945329112</v>
-      </c>
-      <c r="E29" t="n">
-        <v>301.0384945329112</v>
-      </c>
-      <c r="F29" t="n">
-        <v>301.0384945329112</v>
-      </c>
-      <c r="G29" t="n">
-        <v>22.09252109618844</v>
       </c>
       <c r="H29" t="n">
         <v>22.09252109618844</v>
@@ -6467,7 +6467,7 @@
         <v>142.8373253438683</v>
       </c>
       <c r="L29" t="n">
-        <v>344.9085595412868</v>
+        <v>344.9085595412869</v>
       </c>
       <c r="M29" t="n">
         <v>586.3582880173956</v>
@@ -6503,10 +6503,10 @@
         <v>1104.626054809422</v>
       </c>
       <c r="X29" t="n">
-        <v>825.6800813726992</v>
+        <v>1104.626054809422</v>
       </c>
       <c r="Y29" t="n">
-        <v>579.9844679696339</v>
+        <v>1104.626054809422</v>
       </c>
     </row>
     <row r="30">
@@ -6516,7 +6516,7 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>22.09252109618844</v>
+        <v>196.5455503773155</v>
       </c>
       <c r="C30" t="n">
         <v>22.09252109618844</v>
@@ -6540,25 +6540,25 @@
         <v>22.09252109618844</v>
       </c>
       <c r="J30" t="n">
-        <v>22.09252109618844</v>
+        <v>28.39914141318535</v>
       </c>
       <c r="K30" t="n">
-        <v>159.4923828364511</v>
+        <v>165.799003153448</v>
       </c>
       <c r="L30" t="n">
-        <v>405.6478494291521</v>
+        <v>411.954469746149</v>
       </c>
       <c r="M30" t="n">
-        <v>603.8346045987796</v>
+        <v>562.3310704112777</v>
       </c>
       <c r="N30" t="n">
-        <v>603.8346045987796</v>
+        <v>562.3310704112777</v>
       </c>
       <c r="O30" t="n">
-        <v>852.5880186827419</v>
+        <v>828.8278839945615</v>
       </c>
       <c r="P30" t="n">
-        <v>1035.231496296093</v>
+        <v>1025.71200399185</v>
       </c>
       <c r="Q30" t="n">
         <v>1104.626054809422</v>
@@ -6570,22 +6570,22 @@
         <v>1104.626054809422</v>
       </c>
       <c r="T30" t="n">
-        <v>1104.626054809422</v>
+        <v>1034.610043096072</v>
       </c>
       <c r="U30" t="n">
-        <v>876.4074424435696</v>
+        <v>1034.610043096072</v>
       </c>
       <c r="V30" t="n">
-        <v>641.2553342118269</v>
+        <v>1034.610043096072</v>
       </c>
       <c r="W30" t="n">
-        <v>387.0179774836253</v>
+        <v>780.3726863678703</v>
       </c>
       <c r="X30" t="n">
-        <v>179.1664772780925</v>
+        <v>572.5211861623375</v>
       </c>
       <c r="Y30" t="n">
-        <v>22.09252109618844</v>
+        <v>364.7608873973835</v>
       </c>
     </row>
     <row r="31">
@@ -6595,76 +6595,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>927.7258589024746</v>
+        <v>22.09252109618844</v>
       </c>
       <c r="C31" t="n">
-        <v>927.7258589024746</v>
+        <v>22.09252109618844</v>
       </c>
       <c r="D31" t="n">
-        <v>927.7258589024746</v>
+        <v>22.09252109618844</v>
       </c>
       <c r="E31" t="n">
-        <v>927.7258589024746</v>
+        <v>22.09252109618844</v>
       </c>
       <c r="F31" t="n">
-        <v>927.7258589024746</v>
+        <v>22.09252109618844</v>
       </c>
       <c r="G31" t="n">
-        <v>927.7258589024746</v>
+        <v>22.09252109618844</v>
       </c>
       <c r="H31" t="n">
-        <v>927.7258589024746</v>
+        <v>22.09252109618844</v>
       </c>
       <c r="I31" t="n">
-        <v>927.7258589024746</v>
+        <v>22.09252109618844</v>
       </c>
       <c r="J31" t="n">
-        <v>927.7258589024746</v>
+        <v>22.09252109618844</v>
       </c>
       <c r="K31" t="n">
-        <v>927.7258589024746</v>
+        <v>22.09252109618844</v>
       </c>
       <c r="L31" t="n">
-        <v>964.3352350712132</v>
+        <v>58.70189726492715</v>
       </c>
       <c r="M31" t="n">
-        <v>1013.323812322355</v>
+        <v>107.6904745160687</v>
       </c>
       <c r="N31" t="n">
-        <v>1066.582167123171</v>
+        <v>160.9488293168851</v>
       </c>
       <c r="O31" t="n">
-        <v>1099.758582381748</v>
+        <v>194.1252445754623</v>
       </c>
       <c r="P31" t="n">
-        <v>1104.626054809422</v>
+        <v>198.9927170031359</v>
       </c>
       <c r="Q31" t="n">
-        <v>1104.626054809422</v>
+        <v>198.9927170031359</v>
       </c>
       <c r="R31" t="n">
-        <v>1104.626054809422</v>
+        <v>198.9927170031359</v>
       </c>
       <c r="S31" t="n">
-        <v>1104.626054809422</v>
+        <v>198.9927170031359</v>
       </c>
       <c r="T31" t="n">
-        <v>1104.626054809422</v>
+        <v>22.09252109618844</v>
       </c>
       <c r="U31" t="n">
-        <v>1104.626054809422</v>
+        <v>22.09252109618844</v>
       </c>
       <c r="V31" t="n">
-        <v>1104.626054809422</v>
+        <v>22.09252109618844</v>
       </c>
       <c r="W31" t="n">
-        <v>1104.626054809422</v>
+        <v>22.09252109618844</v>
       </c>
       <c r="X31" t="n">
-        <v>1104.626054809422</v>
+        <v>22.09252109618844</v>
       </c>
       <c r="Y31" t="n">
-        <v>1104.626054809422</v>
+        <v>22.09252109618844</v>
       </c>
     </row>
     <row r="32">
@@ -6674,22 +6674,22 @@
         </is>
       </c>
       <c r="B32" t="n">
+        <v>858.9304414063566</v>
+      </c>
+      <c r="C32" t="n">
+        <v>858.9304414063566</v>
+      </c>
+      <c r="D32" t="n">
+        <v>858.9304414063566</v>
+      </c>
+      <c r="E32" t="n">
+        <v>858.9304414063566</v>
+      </c>
+      <c r="F32" t="n">
+        <v>579.9844679696339</v>
+      </c>
+      <c r="G32" t="n">
         <v>301.0384945329112</v>
-      </c>
-      <c r="C32" t="n">
-        <v>22.09252109618844</v>
-      </c>
-      <c r="D32" t="n">
-        <v>22.09252109618844</v>
-      </c>
-      <c r="E32" t="n">
-        <v>22.09252109618844</v>
-      </c>
-      <c r="F32" t="n">
-        <v>22.09252109618844</v>
-      </c>
-      <c r="G32" t="n">
-        <v>22.09252109618844</v>
       </c>
       <c r="H32" t="n">
         <v>22.09252109618844</v>
@@ -6698,22 +6698,22 @@
         <v>22.09252109618844</v>
       </c>
       <c r="J32" t="n">
-        <v>22.09252109618844</v>
+        <v>22.09252109618853</v>
       </c>
       <c r="K32" t="n">
-        <v>142.8373253438683</v>
+        <v>142.8373253438684</v>
       </c>
       <c r="L32" t="n">
-        <v>344.9085595412869</v>
+        <v>344.908559541287</v>
       </c>
       <c r="M32" t="n">
-        <v>586.3582880173956</v>
+        <v>586.3582880173958</v>
       </c>
       <c r="N32" t="n">
-        <v>817.0829279823542</v>
+        <v>817.0829279823544</v>
       </c>
       <c r="O32" t="n">
-        <v>989.7620250901064</v>
+        <v>989.7620250901065</v>
       </c>
       <c r="P32" t="n">
         <v>1099.465256491931</v>
@@ -6737,13 +6737,13 @@
         <v>1104.626054809422</v>
       </c>
       <c r="W32" t="n">
-        <v>1104.626054809422</v>
+        <v>858.9304414063566</v>
       </c>
       <c r="X32" t="n">
-        <v>825.6800813726992</v>
+        <v>858.9304414063566</v>
       </c>
       <c r="Y32" t="n">
-        <v>579.9844679696339</v>
+        <v>858.9304414063566</v>
       </c>
     </row>
     <row r="33">
@@ -6753,13 +6753,13 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>22.09252109618844</v>
+        <v>355.783005382771</v>
       </c>
       <c r="C33" t="n">
-        <v>22.09252109618844</v>
+        <v>181.329976101644</v>
       </c>
       <c r="D33" t="n">
-        <v>22.09252109618844</v>
+        <v>181.329976101644</v>
       </c>
       <c r="E33" t="n">
         <v>22.09252109618844</v>
@@ -6777,25 +6777,25 @@
         <v>22.09252109618844</v>
       </c>
       <c r="J33" t="n">
-        <v>22.09252109618844</v>
+        <v>28.39914141318535</v>
       </c>
       <c r="K33" t="n">
-        <v>22.09252109618844</v>
+        <v>42.78065525324476</v>
       </c>
       <c r="L33" t="n">
-        <v>268.2479876888895</v>
+        <v>288.9361218459458</v>
       </c>
       <c r="M33" t="n">
-        <v>541.6429362542214</v>
+        <v>562.3310704112777</v>
       </c>
       <c r="N33" t="n">
-        <v>815.0378848195533</v>
+        <v>562.3310704112777</v>
       </c>
       <c r="O33" t="n">
-        <v>1081.534698402837</v>
+        <v>828.8278839945615</v>
       </c>
       <c r="P33" t="n">
-        <v>1081.534698402837</v>
+        <v>1025.71200399185</v>
       </c>
       <c r="Q33" t="n">
         <v>1104.626054809422</v>
@@ -6807,22 +6807,22 @@
         <v>1104.626054809422</v>
       </c>
       <c r="T33" t="n">
-        <v>1104.626054809422</v>
+        <v>959.9772535336451</v>
       </c>
       <c r="U33" t="n">
-        <v>927.0937850266196</v>
+        <v>731.7586411677928</v>
       </c>
       <c r="V33" t="n">
-        <v>691.9416767948769</v>
+        <v>731.7586411677928</v>
       </c>
       <c r="W33" t="n">
-        <v>437.7043200666752</v>
+        <v>731.7586411677928</v>
       </c>
       <c r="X33" t="n">
-        <v>229.8528198611424</v>
+        <v>731.7586411677928</v>
       </c>
       <c r="Y33" t="n">
-        <v>22.09252109618844</v>
+        <v>523.9983424028389</v>
       </c>
     </row>
     <row r="34">
@@ -6832,76 +6832,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>927.7258589024746</v>
+        <v>22.09252109618844</v>
       </c>
       <c r="C34" t="n">
-        <v>927.7258589024746</v>
+        <v>22.09252109618844</v>
       </c>
       <c r="D34" t="n">
-        <v>927.7258589024746</v>
+        <v>22.09252109618844</v>
       </c>
       <c r="E34" t="n">
-        <v>927.7258589024746</v>
+        <v>22.09252109618844</v>
       </c>
       <c r="F34" t="n">
-        <v>927.7258589024746</v>
+        <v>22.09252109618844</v>
       </c>
       <c r="G34" t="n">
-        <v>927.7258589024746</v>
+        <v>22.09252109618844</v>
       </c>
       <c r="H34" t="n">
-        <v>927.7258589024746</v>
+        <v>22.09252109618844</v>
       </c>
       <c r="I34" t="n">
-        <v>927.7258589024746</v>
+        <v>22.09252109618844</v>
       </c>
       <c r="J34" t="n">
-        <v>927.7258589024746</v>
+        <v>22.09252109618844</v>
       </c>
       <c r="K34" t="n">
-        <v>927.7258589024746</v>
+        <v>22.09252109618844</v>
       </c>
       <c r="L34" t="n">
-        <v>964.3352350712132</v>
+        <v>58.70189726492715</v>
       </c>
       <c r="M34" t="n">
-        <v>1013.323812322355</v>
+        <v>107.6904745160687</v>
       </c>
       <c r="N34" t="n">
-        <v>1066.582167123171</v>
+        <v>160.9488293168851</v>
       </c>
       <c r="O34" t="n">
-        <v>1099.758582381748</v>
+        <v>194.1252445754623</v>
       </c>
       <c r="P34" t="n">
-        <v>1104.626054809422</v>
+        <v>198.9927170031359</v>
       </c>
       <c r="Q34" t="n">
-        <v>1104.626054809422</v>
+        <v>198.9927170031359</v>
       </c>
       <c r="R34" t="n">
-        <v>1104.626054809422</v>
+        <v>198.9927170031359</v>
       </c>
       <c r="S34" t="n">
-        <v>1104.626054809422</v>
+        <v>198.9927170031359</v>
       </c>
       <c r="T34" t="n">
-        <v>927.7258589024746</v>
+        <v>198.9927170031359</v>
       </c>
       <c r="U34" t="n">
-        <v>927.7258589024746</v>
+        <v>198.9927170031359</v>
       </c>
       <c r="V34" t="n">
-        <v>927.7258589024746</v>
+        <v>198.9927170031359</v>
       </c>
       <c r="W34" t="n">
-        <v>927.7258589024746</v>
+        <v>198.9927170031359</v>
       </c>
       <c r="X34" t="n">
-        <v>927.7258589024746</v>
+        <v>198.9927170031359</v>
       </c>
       <c r="Y34" t="n">
-        <v>927.7258589024746</v>
+        <v>22.09252109618844</v>
       </c>
     </row>
     <row r="35">
@@ -6911,13 +6911,13 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>825.6800813726992</v>
+        <v>1104.626054809422</v>
       </c>
       <c r="C35" t="n">
-        <v>825.6800813726992</v>
+        <v>1104.626054809422</v>
       </c>
       <c r="D35" t="n">
-        <v>825.6800813726992</v>
+        <v>858.9304414063566</v>
       </c>
       <c r="E35" t="n">
         <v>579.9844679696339</v>
@@ -6944,7 +6944,7 @@
         <v>344.9085595412869</v>
       </c>
       <c r="M35" t="n">
-        <v>586.3582880173956</v>
+        <v>586.3582880173957</v>
       </c>
       <c r="N35" t="n">
         <v>817.0829279823542</v>
@@ -6990,7 +6990,7 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>22.09252109618844</v>
+        <v>196.5455503773155</v>
       </c>
       <c r="C36" t="n">
         <v>22.09252109618844</v>
@@ -7017,22 +7017,22 @@
         <v>22.09252109618844</v>
       </c>
       <c r="K36" t="n">
-        <v>159.4923828364511</v>
+        <v>147.4500811540258</v>
       </c>
       <c r="L36" t="n">
-        <v>389.4554887048002</v>
+        <v>393.6055477467269</v>
       </c>
       <c r="M36" t="n">
-        <v>658.9885207281711</v>
+        <v>393.6055477467269</v>
       </c>
       <c r="N36" t="n">
-        <v>658.9885207281711</v>
+        <v>571.8505627155204</v>
       </c>
       <c r="O36" t="n">
-        <v>907.7419348121334</v>
+        <v>838.3473762988042</v>
       </c>
       <c r="P36" t="n">
-        <v>1104.626054809422</v>
+        <v>1035.231496296093</v>
       </c>
       <c r="Q36" t="n">
         <v>1104.626054809422</v>
@@ -7044,22 +7044,22 @@
         <v>1104.626054809422</v>
       </c>
       <c r="T36" t="n">
-        <v>1104.626054809422</v>
+        <v>902.7461548375312</v>
       </c>
       <c r="U36" t="n">
-        <v>927.0937850266196</v>
+        <v>685.9350153372598</v>
       </c>
       <c r="V36" t="n">
-        <v>691.9416767948769</v>
+        <v>450.7829071055171</v>
       </c>
       <c r="W36" t="n">
-        <v>437.7043200666752</v>
+        <v>196.5455503773155</v>
       </c>
       <c r="X36" t="n">
-        <v>229.8528198611424</v>
+        <v>196.5455503773155</v>
       </c>
       <c r="Y36" t="n">
-        <v>22.09252109618844</v>
+        <v>196.5455503773155</v>
       </c>
     </row>
     <row r="37">
@@ -7148,16 +7148,16 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>579.9844679696339</v>
+        <v>267.7881344992537</v>
       </c>
       <c r="C38" t="n">
-        <v>579.9844679696339</v>
+        <v>22.09252109618844</v>
       </c>
       <c r="D38" t="n">
-        <v>579.9844679696339</v>
+        <v>22.09252109618844</v>
       </c>
       <c r="E38" t="n">
-        <v>301.0384945329112</v>
+        <v>22.09252109618844</v>
       </c>
       <c r="F38" t="n">
         <v>22.09252109618844</v>
@@ -7172,22 +7172,22 @@
         <v>22.09252109618844</v>
       </c>
       <c r="J38" t="n">
-        <v>22.09252109618844</v>
+        <v>22.09252109618842</v>
       </c>
       <c r="K38" t="n">
-        <v>142.8373253438684</v>
+        <v>142.8373253438683</v>
       </c>
       <c r="L38" t="n">
-        <v>344.908559541287</v>
+        <v>344.9085595412868</v>
       </c>
       <c r="M38" t="n">
-        <v>586.3582880173958</v>
+        <v>586.3582880173956</v>
       </c>
       <c r="N38" t="n">
-        <v>817.0829279823544</v>
+        <v>817.0829279823542</v>
       </c>
       <c r="O38" t="n">
-        <v>989.7620250901065</v>
+        <v>989.7620250901064</v>
       </c>
       <c r="P38" t="n">
         <v>1099.465256491931</v>
@@ -7214,10 +7214,10 @@
         <v>1104.626054809422</v>
       </c>
       <c r="X38" t="n">
-        <v>1104.626054809422</v>
+        <v>825.6800813726992</v>
       </c>
       <c r="Y38" t="n">
-        <v>825.6800813726992</v>
+        <v>546.7341079359765</v>
       </c>
     </row>
     <row r="39">
@@ -7227,7 +7227,7 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>22.09252109618844</v>
+        <v>196.5455503773155</v>
       </c>
       <c r="C39" t="n">
         <v>22.09252109618844</v>
@@ -7251,22 +7251,22 @@
         <v>22.09252109618844</v>
       </c>
       <c r="J39" t="n">
-        <v>28.39914141318535</v>
+        <v>22.09252109618844</v>
       </c>
       <c r="K39" t="n">
-        <v>165.799003153448</v>
+        <v>22.09252109618844</v>
       </c>
       <c r="L39" t="n">
-        <v>411.954469746149</v>
+        <v>268.2479876888895</v>
       </c>
       <c r="M39" t="n">
-        <v>411.954469746149</v>
+        <v>288.9361218459458</v>
       </c>
       <c r="N39" t="n">
-        <v>685.3494183114809</v>
+        <v>562.3310704112777</v>
       </c>
       <c r="O39" t="n">
-        <v>951.8462318947647</v>
+        <v>828.8278839945615</v>
       </c>
       <c r="P39" t="n">
         <v>1025.71200399185</v>
@@ -7278,25 +7278,25 @@
         <v>1104.626054809422</v>
       </c>
       <c r="S39" t="n">
-        <v>1104.626054809422</v>
+        <v>1028.729644303009</v>
       </c>
       <c r="T39" t="n">
-        <v>920.1602891607292</v>
+        <v>826.849744331118</v>
       </c>
       <c r="U39" t="n">
-        <v>691.9416767948769</v>
+        <v>826.849744331118</v>
       </c>
       <c r="V39" t="n">
-        <v>691.9416767948769</v>
+        <v>826.849744331118</v>
       </c>
       <c r="W39" t="n">
-        <v>437.7043200666752</v>
+        <v>572.6123876029163</v>
       </c>
       <c r="X39" t="n">
-        <v>229.8528198611424</v>
+        <v>364.7608873973835</v>
       </c>
       <c r="Y39" t="n">
-        <v>22.09252109618844</v>
+        <v>364.7608873973835</v>
       </c>
     </row>
     <row r="40">
@@ -7369,13 +7369,13 @@
         <v>198.9927170031359</v>
       </c>
       <c r="W40" t="n">
-        <v>22.09252109618844</v>
+        <v>198.9927170031359</v>
       </c>
       <c r="X40" t="n">
-        <v>22.09252109618844</v>
+        <v>198.9927170031359</v>
       </c>
       <c r="Y40" t="n">
-        <v>22.09252109618844</v>
+        <v>198.9927170031359</v>
       </c>
     </row>
     <row r="41">
@@ -7394,10 +7394,10 @@
         <v>579.9844679696339</v>
       </c>
       <c r="E41" t="n">
-        <v>579.9844679696339</v>
+        <v>301.0384945329112</v>
       </c>
       <c r="F41" t="n">
-        <v>301.0384945329112</v>
+        <v>22.09252109618844</v>
       </c>
       <c r="G41" t="n">
         <v>22.09252109618844</v>
@@ -7409,19 +7409,19 @@
         <v>22.09252109618844</v>
       </c>
       <c r="J41" t="n">
-        <v>22.09252109618844</v>
+        <v>22.09252109618842</v>
       </c>
       <c r="K41" t="n">
-        <v>142.8373253438684</v>
+        <v>142.8373253438683</v>
       </c>
       <c r="L41" t="n">
-        <v>344.9085595412869</v>
+        <v>344.908559541287</v>
       </c>
       <c r="M41" t="n">
-        <v>586.3582880173957</v>
+        <v>586.3582880173958</v>
       </c>
       <c r="N41" t="n">
-        <v>817.0829279823544</v>
+        <v>817.0829279823545</v>
       </c>
       <c r="O41" t="n">
         <v>989.7620250901065</v>
@@ -7464,13 +7464,13 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>22.09252109618844</v>
+        <v>355.783005382771</v>
       </c>
       <c r="C42" t="n">
-        <v>22.09252109618844</v>
+        <v>181.329976101644</v>
       </c>
       <c r="D42" t="n">
-        <v>22.09252109618844</v>
+        <v>181.329976101644</v>
       </c>
       <c r="E42" t="n">
         <v>22.09252109618844</v>
@@ -7494,19 +7494,19 @@
         <v>159.4923828364511</v>
       </c>
       <c r="L42" t="n">
-        <v>389.4554887048002</v>
+        <v>405.6478494291521</v>
       </c>
       <c r="M42" t="n">
-        <v>603.8346045987796</v>
+        <v>405.6478494291521</v>
       </c>
       <c r="N42" t="n">
-        <v>603.8346045987796</v>
+        <v>673.2291631121088</v>
       </c>
       <c r="O42" t="n">
-        <v>852.5880186827419</v>
+        <v>921.9825771960711</v>
       </c>
       <c r="P42" t="n">
-        <v>1035.231496296093</v>
+        <v>1104.626054809422</v>
       </c>
       <c r="Q42" t="n">
         <v>1104.626054809422</v>
@@ -7521,19 +7521,19 @@
         <v>1104.626054809422</v>
       </c>
       <c r="U42" t="n">
-        <v>927.0937850266196</v>
+        <v>1104.626054809422</v>
       </c>
       <c r="V42" t="n">
-        <v>691.9416767948769</v>
+        <v>1025.632161081459</v>
       </c>
       <c r="W42" t="n">
-        <v>437.7043200666752</v>
+        <v>771.3948043532578</v>
       </c>
       <c r="X42" t="n">
-        <v>229.8528198611424</v>
+        <v>563.5433041477249</v>
       </c>
       <c r="Y42" t="n">
-        <v>22.09252109618844</v>
+        <v>355.783005382771</v>
       </c>
     </row>
     <row r="43">
@@ -7603,7 +7603,7 @@
         <v>198.9927170031359</v>
       </c>
       <c r="V43" t="n">
-        <v>198.9927170031359</v>
+        <v>22.09252109618844</v>
       </c>
       <c r="W43" t="n">
         <v>22.09252109618844</v>
@@ -7628,13 +7628,13 @@
         <v>825.6800813726992</v>
       </c>
       <c r="D44" t="n">
-        <v>825.6800813726992</v>
+        <v>579.9844679696339</v>
       </c>
       <c r="E44" t="n">
-        <v>546.7341079359765</v>
+        <v>301.0384945329112</v>
       </c>
       <c r="F44" t="n">
-        <v>267.7881344992537</v>
+        <v>22.09252109618844</v>
       </c>
       <c r="G44" t="n">
         <v>22.09252109618844</v>
@@ -7646,22 +7646,22 @@
         <v>22.09252109618844</v>
       </c>
       <c r="J44" t="n">
-        <v>22.09252109618846</v>
+        <v>22.09252109618842</v>
       </c>
       <c r="K44" t="n">
-        <v>142.8373253438684</v>
+        <v>142.8373253438683</v>
       </c>
       <c r="L44" t="n">
-        <v>344.9085595412869</v>
+        <v>344.908559541287</v>
       </c>
       <c r="M44" t="n">
-        <v>586.3582880173957</v>
+        <v>586.3582880173958</v>
       </c>
       <c r="N44" t="n">
-        <v>817.0829279823544</v>
+        <v>817.0829279823545</v>
       </c>
       <c r="O44" t="n">
-        <v>989.7620250901066</v>
+        <v>989.7620250901065</v>
       </c>
       <c r="P44" t="n">
         <v>1099.465256491931</v>
@@ -7701,10 +7701,10 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>291.6184108207665</v>
+        <v>196.5455503773155</v>
       </c>
       <c r="C45" t="n">
-        <v>171.0269307574397</v>
+        <v>22.09252109618844</v>
       </c>
       <c r="D45" t="n">
         <v>22.09252109618844</v>
@@ -7728,19 +7728,19 @@
         <v>22.09252109618844</v>
       </c>
       <c r="K45" t="n">
-        <v>147.4500811540258</v>
+        <v>159.4923828364511</v>
       </c>
       <c r="L45" t="n">
-        <v>377.413187022375</v>
+        <v>405.6478494291521</v>
       </c>
       <c r="M45" t="n">
-        <v>650.8081355877068</v>
+        <v>405.6478494291521</v>
       </c>
       <c r="N45" t="n">
-        <v>650.8081355877068</v>
+        <v>673.2291631121088</v>
       </c>
       <c r="O45" t="n">
-        <v>907.7419348121334</v>
+        <v>921.9825771960711</v>
       </c>
       <c r="P45" t="n">
         <v>1104.626054809422</v>
@@ -7755,22 +7755,22 @@
         <v>1104.626054809422</v>
       </c>
       <c r="T45" t="n">
-        <v>902.7461548375312</v>
+        <v>1104.626054809422</v>
       </c>
       <c r="U45" t="n">
-        <v>902.7461548375312</v>
+        <v>893.6953141022136</v>
       </c>
       <c r="V45" t="n">
-        <v>667.5940466057884</v>
+        <v>658.543205870471</v>
       </c>
       <c r="W45" t="n">
-        <v>667.5940466057884</v>
+        <v>404.3058491422694</v>
       </c>
       <c r="X45" t="n">
-        <v>667.5940466057884</v>
+        <v>404.3058491422694</v>
       </c>
       <c r="Y45" t="n">
-        <v>459.8337478408345</v>
+        <v>196.5455503773155</v>
       </c>
     </row>
     <row r="46">
@@ -7780,76 +7780,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>1104.626054809422</v>
+        <v>22.09252109618844</v>
       </c>
       <c r="C46" t="n">
-        <v>1104.626054809422</v>
+        <v>22.09252109618844</v>
       </c>
       <c r="D46" t="n">
-        <v>1104.626054809422</v>
+        <v>22.09252109618844</v>
       </c>
       <c r="E46" t="n">
-        <v>1104.626054809422</v>
+        <v>22.09252109618844</v>
       </c>
       <c r="F46" t="n">
-        <v>1104.626054809422</v>
+        <v>22.09252109618844</v>
       </c>
       <c r="G46" t="n">
-        <v>935.0019878747162</v>
+        <v>22.09252109618844</v>
       </c>
       <c r="H46" t="n">
-        <v>927.7258589024746</v>
+        <v>22.09252109618844</v>
       </c>
       <c r="I46" t="n">
-        <v>927.7258589024746</v>
+        <v>22.09252109618844</v>
       </c>
       <c r="J46" t="n">
-        <v>927.7258589024746</v>
+        <v>22.09252109618844</v>
       </c>
       <c r="K46" t="n">
-        <v>927.7258589024746</v>
+        <v>22.09252109618844</v>
       </c>
       <c r="L46" t="n">
-        <v>964.3352350712132</v>
+        <v>58.70189726492715</v>
       </c>
       <c r="M46" t="n">
-        <v>1013.323812322355</v>
+        <v>107.6904745160687</v>
       </c>
       <c r="N46" t="n">
-        <v>1066.582167123171</v>
+        <v>160.9488293168851</v>
       </c>
       <c r="O46" t="n">
-        <v>1099.758582381748</v>
+        <v>194.1252445754623</v>
       </c>
       <c r="P46" t="n">
-        <v>1104.626054809422</v>
+        <v>198.9927170031359</v>
       </c>
       <c r="Q46" t="n">
-        <v>1104.626054809422</v>
+        <v>198.9927170031359</v>
       </c>
       <c r="R46" t="n">
-        <v>1104.626054809422</v>
+        <v>198.9927170031359</v>
       </c>
       <c r="S46" t="n">
-        <v>1104.626054809422</v>
+        <v>198.9927170031359</v>
       </c>
       <c r="T46" t="n">
-        <v>1104.626054809422</v>
+        <v>198.9927170031359</v>
       </c>
       <c r="U46" t="n">
-        <v>1104.626054809422</v>
+        <v>22.09252109618844</v>
       </c>
       <c r="V46" t="n">
-        <v>1104.626054809422</v>
+        <v>22.09252109618844</v>
       </c>
       <c r="W46" t="n">
-        <v>1104.626054809422</v>
+        <v>22.09252109618844</v>
       </c>
       <c r="X46" t="n">
-        <v>1104.626054809422</v>
+        <v>22.09252109618844</v>
       </c>
       <c r="Y46" t="n">
-        <v>1104.626054809422</v>
+        <v>22.09252109618844</v>
       </c>
     </row>
   </sheetData>
@@ -8061,22 +8061,22 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L3" t="n">
-        <v>370.8403453034592</v>
+        <v>229.6373335557741</v>
       </c>
       <c r="M3" t="n">
-        <v>383.1483227996774</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N3" t="n">
-        <v>301.2485028631349</v>
+        <v>372.3560009609923</v>
       </c>
       <c r="O3" t="n">
-        <v>142.5962444444444</v>
+        <v>383.6105333221035</v>
       </c>
       <c r="P3" t="n">
         <v>318.4627686399372</v>
       </c>
       <c r="Q3" t="n">
-        <v>139.9817740860215</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R3" t="n">
         <v>45.52166981132082</v>
@@ -8295,25 +8295,25 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K6" t="n">
-        <v>137.841438974359</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L6" t="n">
-        <v>370.8403453034592</v>
+        <v>229.6373335557741</v>
       </c>
       <c r="M6" t="n">
-        <v>382.1386950879875</v>
+        <v>383.1483227996774</v>
       </c>
       <c r="N6" t="n">
-        <v>372.3560009609923</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O6" t="n">
         <v>383.6105333221035</v>
       </c>
       <c r="P6" t="n">
-        <v>133.9744074143302</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q6" t="n">
-        <v>139.9817740860215</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R6" t="n">
         <v>45.52166981132082</v>
@@ -8538,10 +8538,10 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M9" t="n">
-        <v>368.5691090902119</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N9" t="n">
-        <v>131.3417120833333</v>
+        <v>357.7767872515269</v>
       </c>
       <c r="O9" t="n">
         <v>383.6105333221035</v>
@@ -8766,7 +8766,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J12" t="n">
-        <v>119.7207117878867</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K12" t="n">
         <v>125.6774978810001</v>
@@ -8775,19 +8775,19 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M12" t="n">
-        <v>291.4053345101389</v>
+        <v>418.2905476243738</v>
       </c>
       <c r="N12" t="n">
-        <v>407.4982257856888</v>
+        <v>344.7413422220686</v>
       </c>
       <c r="O12" t="n">
         <v>393.8623192767295</v>
       </c>
       <c r="P12" t="n">
-        <v>318.4627686399372</v>
+        <v>119.5899201578276</v>
       </c>
       <c r="Q12" t="n">
-        <v>139.9817740860215</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R12" t="n">
         <v>45.52166981132082</v>
@@ -9012,13 +9012,13 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M15" t="n">
-        <v>418.2905476243737</v>
+        <v>418.2905476243738</v>
       </c>
       <c r="N15" t="n">
-        <v>407.4982257856888</v>
+        <v>186.5173629729592</v>
       </c>
       <c r="O15" t="n">
-        <v>174.1553490365573</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P15" t="n">
         <v>318.4627686399372</v>
@@ -9240,19 +9240,19 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J18" t="n">
-        <v>119.7207117878867</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K18" t="n">
-        <v>217.0172259126519</v>
+        <v>125.6774978810001</v>
       </c>
       <c r="L18" t="n">
         <v>370.8403453034592</v>
       </c>
       <c r="M18" t="n">
-        <v>418.2905476243737</v>
+        <v>418.2905476243738</v>
       </c>
       <c r="N18" t="n">
-        <v>131.3417120833333</v>
+        <v>178.1756067533521</v>
       </c>
       <c r="O18" t="n">
         <v>393.8623192767295</v>
@@ -9480,16 +9480,16 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K21" t="n">
-        <v>125.6774978810001</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L21" t="n">
         <v>370.8403453034592</v>
       </c>
       <c r="M21" t="n">
-        <v>418.2905476243738</v>
+        <v>150.3970492154164</v>
       </c>
       <c r="N21" t="n">
-        <v>178.2103860082331</v>
+        <v>407.4982257856888</v>
       </c>
       <c r="O21" t="n">
         <v>393.8623192767295</v>
@@ -9498,7 +9498,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q21" t="n">
-        <v>210.0772877358491</v>
+        <v>130.3661252938571</v>
       </c>
       <c r="R21" t="n">
         <v>45.52166981132082</v>
@@ -9714,19 +9714,19 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J24" t="n">
-        <v>126.0910353404088</v>
+        <v>119.7207117878867</v>
       </c>
       <c r="K24" t="n">
-        <v>125.6774978810001</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L24" t="n">
         <v>370.8403453034592</v>
       </c>
       <c r="M24" t="n">
-        <v>204.9539009367236</v>
+        <v>408.6309371608816</v>
       </c>
       <c r="N24" t="n">
-        <v>407.4982257856888</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O24" t="n">
         <v>393.8623192767295</v>
@@ -9735,7 +9735,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q24" t="n">
-        <v>210.0772877358491</v>
+        <v>130.3661252938571</v>
       </c>
       <c r="R24" t="n">
         <v>45.52166981132082</v>
@@ -9954,13 +9954,13 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K27" t="n">
-        <v>202.6327386561493</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L27" t="n">
         <v>370.8403453034592</v>
       </c>
       <c r="M27" t="n">
-        <v>418.2905476243738</v>
+        <v>394.4955634004377</v>
       </c>
       <c r="N27" t="n">
         <v>131.3417120833333</v>
@@ -9972,7 +9972,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q27" t="n">
-        <v>210.0772877358491</v>
+        <v>130.3661252938571</v>
       </c>
       <c r="R27" t="n">
         <v>45.52166981132082</v>
@@ -10188,7 +10188,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J30" t="n">
-        <v>119.7207117878867</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K30" t="n">
         <v>264.4652370125786</v>
@@ -10197,10 +10197,10 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M30" t="n">
-        <v>342.3226755075006</v>
+        <v>294.029590149421</v>
       </c>
       <c r="N30" t="n">
-        <v>131.3417120833333</v>
+        <v>111.7499598249992</v>
       </c>
       <c r="O30" t="n">
         <v>393.8623192767295</v>
@@ -10428,7 +10428,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K33" t="n">
-        <v>125.6774978810001</v>
+        <v>140.2042795376258</v>
       </c>
       <c r="L33" t="n">
         <v>370.8403453034592</v>
@@ -10437,16 +10437,16 @@
         <v>418.2905476243738</v>
       </c>
       <c r="N33" t="n">
-        <v>407.4982257856888</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O33" t="n">
         <v>393.8623192767295</v>
       </c>
       <c r="P33" t="n">
-        <v>119.5899201578276</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q33" t="n">
-        <v>153.6907277247511</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R33" t="n">
         <v>45.52166981132082</v>
@@ -10671,10 +10671,10 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M36" t="n">
-        <v>414.3896218244132</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N36" t="n">
-        <v>131.3417120833333</v>
+        <v>311.3871817487812</v>
       </c>
       <c r="O36" t="n">
         <v>393.8623192767295</v>
@@ -10683,7 +10683,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q36" t="n">
-        <v>130.3661252938572</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R36" t="n">
         <v>45.52166981132082</v>
@@ -10902,13 +10902,13 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K39" t="n">
-        <v>264.4652370125786</v>
+        <v>125.6774978810001</v>
       </c>
       <c r="L39" t="n">
         <v>370.8403453034592</v>
       </c>
       <c r="M39" t="n">
-        <v>142.1340339220183</v>
+        <v>163.0311391311661</v>
       </c>
       <c r="N39" t="n">
         <v>407.4982257856888</v>
@@ -10917,7 +10917,7 @@
         <v>393.8623192767295</v>
       </c>
       <c r="P39" t="n">
-        <v>194.2018111649844</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q39" t="n">
         <v>210.0772877358491</v>
@@ -11136,7 +11136,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J42" t="n">
-        <v>119.7207117878867</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K42" t="n">
         <v>264.4652370125786</v>
@@ -11145,10 +11145,10 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M42" t="n">
-        <v>358.6785954310884</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N42" t="n">
-        <v>131.3417120833333</v>
+        <v>401.6258673186431</v>
       </c>
       <c r="O42" t="n">
         <v>393.8623192767295</v>
@@ -11157,7 +11157,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q42" t="n">
-        <v>210.0772877358491</v>
+        <v>130.3661252938571</v>
       </c>
       <c r="R42" t="n">
         <v>45.52166981132082</v>
@@ -11382,10 +11382,10 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M45" t="n">
-        <v>418.2905476243738</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N45" t="n">
-        <v>131.3417120833333</v>
+        <v>401.6258673186431</v>
       </c>
       <c r="O45" t="n">
         <v>393.8623192767295</v>
@@ -11394,7 +11394,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q45" t="n">
-        <v>130.3661252938572</v>
+        <v>130.3661252938571</v>
       </c>
       <c r="R45" t="n">
         <v>45.52166981132082</v>
@@ -22544,10 +22544,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>382.7338416634806</v>
+        <v>141.7195527858215</v>
       </c>
       <c r="C2" t="n">
-        <v>365.2728917710076</v>
+        <v>152.9875061275654</v>
       </c>
       <c r="D2" t="n">
         <v>354.683041620683</v>
@@ -22556,13 +22556,13 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
-        <v>165.8617568640524</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G2" t="n">
-        <v>174.288448637476</v>
+        <v>415.302737515135</v>
       </c>
       <c r="H2" t="n">
-        <v>98.46051323810809</v>
+        <v>339.4748021157671</v>
       </c>
       <c r="I2" t="n">
         <v>210.4758895704059</v>
@@ -22607,13 +22607,13 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
-        <v>349.240968717413</v>
+        <v>108.226679839754</v>
       </c>
       <c r="X2" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>173.9525530126116</v>
+        <v>145.2236497783945</v>
       </c>
     </row>
     <row r="3">
@@ -22623,22 +22623,22 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>65.89741116618973</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E3" t="n">
         <v>0</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>104.2522763953612</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H3" t="n">
         <v>112.2354442364965</v>
@@ -22674,19 +22674,19 @@
         <v>100.1578341526431</v>
       </c>
       <c r="S3" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T3" t="n">
         <v>200.1647286948216</v>
       </c>
       <c r="U3" t="n">
-        <v>225.9413820809748</v>
+        <v>0</v>
       </c>
       <c r="V3" t="n">
         <v>232.8005871494253</v>
       </c>
       <c r="W3" t="n">
-        <v>10.68069428326055</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X3" t="n">
         <v>205.7729852034775</v>
@@ -22784,16 +22784,16 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
-        <v>365.2728917710076</v>
+        <v>152.9875061275656</v>
       </c>
       <c r="D5" t="n">
-        <v>354.683041620683</v>
+        <v>113.6687527430239</v>
       </c>
       <c r="E5" t="n">
-        <v>381.9303700722618</v>
+        <v>140.9160811946027</v>
       </c>
       <c r="F5" t="n">
-        <v>406.8760457417114</v>
+        <v>165.8617568640524</v>
       </c>
       <c r="G5" t="n">
         <v>415.302737515135</v>
@@ -22826,22 +22826,22 @@
         <v>0</v>
       </c>
       <c r="Q5" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R5" t="n">
-        <v>0</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>223.0958495641314</v>
       </c>
       <c r="U5" t="n">
-        <v>10.33136403017744</v>
+        <v>251.3456529078365</v>
       </c>
       <c r="V5" t="n">
-        <v>225.414031377446</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
         <v>349.240968717413</v>
@@ -22866,10 +22866,10 @@
         <v>172.7084989883157</v>
       </c>
       <c r="D6" t="n">
-        <v>147.4450655646388</v>
+        <v>43.76768441134693</v>
       </c>
       <c r="E6" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F6" t="n">
         <v>145.0692123933839</v>
@@ -22878,13 +22878,13 @@
         <v>137.3435171632106</v>
       </c>
       <c r="H6" t="n">
-        <v>112.2354442364965</v>
+        <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>89.39663285141508</v>
+        <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K6" t="n">
         <v>0</v>
@@ -22908,28 +22908,28 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S6" t="n">
         <v>171.6831711038378</v>
       </c>
       <c r="T6" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U6" t="n">
-        <v>131.8725095025868</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V6" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W6" t="n">
-        <v>10.68069428326055</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X6" t="n">
         <v>205.7729852034775</v>
       </c>
       <c r="Y6" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7">
@@ -22954,19 +22954,19 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
-        <v>167.9909793584588</v>
+        <v>34.80401177309074</v>
       </c>
       <c r="H7" t="n">
         <v>162.2271725074396</v>
       </c>
       <c r="I7" t="n">
-        <v>137.8921792844459</v>
+        <v>155.4504749272583</v>
       </c>
       <c r="J7" t="n">
-        <v>0</v>
+        <v>93.35918011667277</v>
       </c>
       <c r="K7" t="n">
-        <v>0</v>
+        <v>22.26949182588285</v>
       </c>
       <c r="L7" t="n">
         <v>0</v>
@@ -23027,16 +23027,16 @@
         <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>140.9160811946027</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>165.8617568640524</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G8" t="n">
-        <v>203.0173518716929</v>
+        <v>415.302737515135</v>
       </c>
       <c r="H8" t="n">
-        <v>98.46051323810809</v>
+        <v>339.4748021157671</v>
       </c>
       <c r="I8" t="n">
         <v>210.4758895704059</v>
@@ -23075,16 +23075,16 @@
         <v>223.0958495641314</v>
       </c>
       <c r="U8" t="n">
-        <v>251.3456529078365</v>
+        <v>10.33136403017744</v>
       </c>
       <c r="V8" t="n">
-        <v>327.7522584701349</v>
+        <v>86.73796959247585</v>
       </c>
       <c r="W8" t="n">
-        <v>349.240968717413</v>
+        <v>108.226679839754</v>
       </c>
       <c r="X8" t="n">
-        <v>369.731100678469</v>
+        <v>157.4457150350269</v>
       </c>
       <c r="Y8" t="n">
         <v>386.2379386560536</v>
@@ -23100,13 +23100,13 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C9" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D9" t="n">
-        <v>147.4450655646388</v>
+        <v>23.56361332425966</v>
       </c>
       <c r="E9" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F9" t="n">
         <v>145.0692123933839</v>
@@ -23154,16 +23154,16 @@
         <v>0</v>
       </c>
       <c r="U9" t="n">
-        <v>0</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
       </c>
       <c r="W9" t="n">
-        <v>132.918509265123</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X9" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y9" t="n">
         <v>205.6826957773044</v>
@@ -23197,13 +23197,13 @@
         <v>162.2271725074396</v>
       </c>
       <c r="I10" t="n">
-        <v>155.4504749272583</v>
+        <v>140.6136200195524</v>
       </c>
       <c r="J10" t="n">
-        <v>93.35918011667277</v>
+        <v>0</v>
       </c>
       <c r="K10" t="n">
-        <v>22.26949182588285</v>
+        <v>0</v>
       </c>
       <c r="L10" t="n">
         <v>0</v>
@@ -23218,13 +23218,13 @@
         <v>0</v>
       </c>
       <c r="P10" t="n">
-        <v>2.721440735106512</v>
+        <v>0</v>
       </c>
       <c r="Q10" t="n">
         <v>86.16204325169439</v>
       </c>
       <c r="R10" t="n">
-        <v>44.10642379180146</v>
+        <v>177.2933913771695</v>
       </c>
       <c r="S10" t="n">
         <v>224.0165980369723</v>
@@ -23255,10 +23255,10 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>382.7338416634806</v>
+        <v>106.5773279611251</v>
       </c>
       <c r="C11" t="n">
-        <v>365.2728917710076</v>
+        <v>122.0342345019729</v>
       </c>
       <c r="D11" t="n">
         <v>354.683041620683</v>
@@ -23267,16 +23267,16 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F11" t="n">
-        <v>130.719532039356</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G11" t="n">
-        <v>139.005434824964</v>
+        <v>415.1619485273195</v>
       </c>
       <c r="H11" t="n">
-        <v>61.87643319194535</v>
+        <v>338.0329468943008</v>
       </c>
       <c r="I11" t="n">
-        <v>0</v>
+        <v>205.0481221176458</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -23306,7 +23306,7 @@
         <v>141.0252816852793</v>
       </c>
       <c r="S11" t="n">
-        <v>167.6213053750089</v>
+        <v>205.8118405263978</v>
       </c>
       <c r="T11" t="n">
         <v>222.4795457699687</v>
@@ -23321,10 +23321,10 @@
         <v>349.240968717413</v>
       </c>
       <c r="X11" t="n">
-        <v>369.731100678469</v>
+        <v>93.57458697611355</v>
       </c>
       <c r="Y11" t="n">
-        <v>386.2379386560536</v>
+        <v>110.0814249536981</v>
       </c>
     </row>
     <row r="12">
@@ -23334,16 +23334,16 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C12" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D12" t="n">
         <v>147.4450655646388</v>
       </c>
       <c r="E12" t="n">
-        <v>88.32922885918433</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F12" t="n">
         <v>145.0692123933839</v>
@@ -23391,10 +23391,10 @@
         <v>199.8611009721718</v>
       </c>
       <c r="U12" t="n">
-        <v>225.9364262421938</v>
+        <v>0</v>
       </c>
       <c r="V12" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W12" t="n">
         <v>0</v>
@@ -23403,7 +23403,7 @@
         <v>0</v>
       </c>
       <c r="Y12" t="n">
-        <v>0</v>
+        <v>50.17947915721936</v>
       </c>
     </row>
     <row r="13">
@@ -23428,10 +23428,10 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>167.9278262653587</v>
+        <v>154.4623164153581</v>
       </c>
       <c r="H13" t="n">
-        <v>161.6656840978772</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
         <v>153.551289182031</v>
@@ -23458,10 +23458,10 @@
         <v>0</v>
       </c>
       <c r="Q13" t="n">
-        <v>80.19643759900802</v>
+        <v>80.87383288310646</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>174.4537986637794</v>
       </c>
       <c r="S13" t="n">
         <v>222.9160118599466</v>
@@ -23501,13 +23501,13 @@
         <v>354.683041620683</v>
       </c>
       <c r="E14" t="n">
-        <v>138.6917128032271</v>
+        <v>105.7738563699063</v>
       </c>
       <c r="F14" t="n">
         <v>130.719532039356</v>
       </c>
       <c r="G14" t="n">
-        <v>139.005434824964</v>
+        <v>171.9232912582848</v>
       </c>
       <c r="H14" t="n">
         <v>338.0329468943008</v>
@@ -23574,13 +23574,13 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C15" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D15" t="n">
         <v>147.4450655646388</v>
       </c>
       <c r="E15" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F15" t="n">
         <v>145.0692123933839</v>
@@ -23628,10 +23628,10 @@
         <v>199.8611009721718</v>
       </c>
       <c r="U15" t="n">
-        <v>50.17947915721973</v>
+        <v>225.9364262421938</v>
       </c>
       <c r="V15" t="n">
-        <v>0</v>
+        <v>154.5966323587423</v>
       </c>
       <c r="W15" t="n">
         <v>0</v>
@@ -23695,13 +23695,13 @@
         <v>0</v>
       </c>
       <c r="Q16" t="n">
-        <v>80.87383288310646</v>
+        <v>80.19643759900802</v>
       </c>
       <c r="R16" t="n">
-        <v>174.4537986637794</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>47.78481791206875</v>
+        <v>222.9160118599466</v>
       </c>
       <c r="T16" t="n">
         <v>227.6757534850358</v>
@@ -23738,7 +23738,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E17" t="n">
-        <v>381.9303700722618</v>
+        <v>138.6917128032271</v>
       </c>
       <c r="F17" t="n">
         <v>130.719532039356</v>
@@ -23789,7 +23789,7 @@
         <v>251.3343897888113</v>
       </c>
       <c r="V17" t="n">
-        <v>84.51360120110039</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W17" t="n">
         <v>349.240968717413</v>
@@ -23798,7 +23798,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y17" t="n">
-        <v>110.0814249536982</v>
+        <v>110.0814249536981</v>
       </c>
     </row>
     <row r="18">
@@ -23856,7 +23856,7 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>95.48084390037957</v>
+        <v>95.48084390037955</v>
       </c>
       <c r="S18" t="n">
         <v>170.2839726213331</v>
@@ -23865,7 +23865,7 @@
         <v>199.8611009721718</v>
       </c>
       <c r="U18" t="n">
-        <v>50.17947915721973</v>
+        <v>50.1794791572195</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -23911,10 +23911,10 @@
         <v>153.551289182031</v>
       </c>
       <c r="J19" t="n">
-        <v>88.89425643449839</v>
+        <v>88.89425643449837</v>
       </c>
       <c r="K19" t="n">
-        <v>14.93225064571201</v>
+        <v>14.93225064571199</v>
       </c>
       <c r="L19" t="n">
         <v>0</v>
@@ -23932,13 +23932,13 @@
         <v>0</v>
       </c>
       <c r="Q19" t="n">
-        <v>0</v>
+        <v>80.87383288310645</v>
       </c>
       <c r="R19" t="n">
         <v>174.4537986637794</v>
       </c>
       <c r="S19" t="n">
-        <v>128.6586507951752</v>
+        <v>222.9160118599466</v>
       </c>
       <c r="T19" t="n">
         <v>227.6757534850358</v>
@@ -23947,7 +23947,7 @@
         <v>286.3155846423218</v>
       </c>
       <c r="V19" t="n">
-        <v>252.137643323828</v>
+        <v>77.00644937595007</v>
       </c>
       <c r="W19" t="n">
         <v>286.522998336591</v>
@@ -23966,19 +23966,19 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>106.5773279611251</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C20" t="n">
-        <v>365.2728917710076</v>
+        <v>89.11637806865212</v>
       </c>
       <c r="D20" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E20" t="n">
-        <v>105.7738563699063</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F20" t="n">
-        <v>406.8760457417114</v>
+        <v>130.719532039356</v>
       </c>
       <c r="G20" t="n">
         <v>139.005434824964</v>
@@ -24020,10 +24020,10 @@
         <v>205.8118405263978</v>
       </c>
       <c r="T20" t="n">
-        <v>0</v>
+        <v>222.4795457699687</v>
       </c>
       <c r="U20" t="n">
-        <v>251.3343897888113</v>
+        <v>8.095732519776732</v>
       </c>
       <c r="V20" t="n">
         <v>327.7522584701349</v>
@@ -24032,7 +24032,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X20" t="n">
-        <v>348.9719891794031</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y20" t="n">
         <v>386.2379386560536</v>
@@ -24102,7 +24102,7 @@
         <v>199.8611009721718</v>
       </c>
       <c r="U21" t="n">
-        <v>0</v>
+        <v>50.17947915721973</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -24114,7 +24114,7 @@
         <v>0</v>
       </c>
       <c r="Y21" t="n">
-        <v>50.17947915721936</v>
+        <v>0</v>
       </c>
     </row>
     <row r="22">
@@ -24151,7 +24151,7 @@
         <v>88.89425643449839</v>
       </c>
       <c r="K22" t="n">
-        <v>14.93225064571201</v>
+        <v>14.932250645712</v>
       </c>
       <c r="L22" t="n">
         <v>0</v>
@@ -24175,13 +24175,13 @@
         <v>174.4537986637794</v>
       </c>
       <c r="S22" t="n">
-        <v>222.9160118599466</v>
+        <v>47.78481791206875</v>
       </c>
       <c r="T22" t="n">
         <v>227.6757534850358</v>
       </c>
       <c r="U22" t="n">
-        <v>111.1843906944439</v>
+        <v>286.3155846423218</v>
       </c>
       <c r="V22" t="n">
         <v>252.137643323828</v>
@@ -24203,7 +24203,7 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>382.7338416634806</v>
+        <v>139.4951843944459</v>
       </c>
       <c r="C23" t="n">
         <v>365.2728917710076</v>
@@ -24212,7 +24212,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E23" t="n">
-        <v>105.7738563699063</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F23" t="n">
         <v>130.719532039356</v>
@@ -24266,13 +24266,13 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W23" t="n">
-        <v>106.0023114483784</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X23" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y23" t="n">
-        <v>386.2379386560536</v>
+        <v>110.0814249536981</v>
       </c>
     </row>
     <row r="24">
@@ -24285,7 +24285,7 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C24" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D24" t="n">
         <v>147.4450655646388</v>
@@ -24294,7 +24294,7 @@
         <v>157.6450804554009</v>
       </c>
       <c r="F24" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G24" t="n">
         <v>137.2681884137393</v>
@@ -24336,10 +24336,10 @@
         <v>170.2839726213331</v>
       </c>
       <c r="T24" t="n">
-        <v>199.8611009721718</v>
+        <v>136.1991694915926</v>
       </c>
       <c r="U24" t="n">
-        <v>0</v>
+        <v>225.9364262421938</v>
       </c>
       <c r="V24" t="n">
         <v>0</v>
@@ -24351,7 +24351,7 @@
         <v>0</v>
       </c>
       <c r="Y24" t="n">
-        <v>50.17947915721936</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="25">
@@ -24361,7 +24361,7 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>4.700786234059393</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
         <v>167.2468210986278</v>
@@ -24388,7 +24388,7 @@
         <v>88.89425643449839</v>
       </c>
       <c r="K25" t="n">
-        <v>14.93225064571201</v>
+        <v>14.932250645712</v>
       </c>
       <c r="L25" t="n">
         <v>0</v>
@@ -24421,7 +24421,7 @@
         <v>286.3155846423218</v>
       </c>
       <c r="V25" t="n">
-        <v>252.137643323828</v>
+        <v>77.0064493759501</v>
       </c>
       <c r="W25" t="n">
         <v>286.522998336591</v>
@@ -24440,7 +24440,7 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>106.5773279611251</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C26" t="n">
         <v>365.2728917710076</v>
@@ -24449,13 +24449,13 @@
         <v>354.683041620683</v>
       </c>
       <c r="E26" t="n">
-        <v>138.6917128032271</v>
+        <v>105.7738563699063</v>
       </c>
       <c r="F26" t="n">
         <v>130.719532039356</v>
       </c>
       <c r="G26" t="n">
-        <v>415.1619485273195</v>
+        <v>139.005434824964</v>
       </c>
       <c r="H26" t="n">
         <v>338.0329468943008</v>
@@ -24506,10 +24506,10 @@
         <v>349.240968717413</v>
       </c>
       <c r="X26" t="n">
-        <v>369.731100678469</v>
+        <v>126.4924434094344</v>
       </c>
       <c r="Y26" t="n">
-        <v>110.0814249536981</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="27">
@@ -24625,7 +24625,7 @@
         <v>88.89425643449839</v>
       </c>
       <c r="K28" t="n">
-        <v>14.93225064571201</v>
+        <v>14.932250645712</v>
       </c>
       <c r="L28" t="n">
         <v>0</v>
@@ -24677,7 +24677,7 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>106.5773279611251</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C29" t="n">
         <v>365.2728917710076</v>
@@ -24686,16 +24686,16 @@
         <v>354.683041620683</v>
       </c>
       <c r="E29" t="n">
-        <v>381.9303700722618</v>
+        <v>138.6917128032271</v>
       </c>
       <c r="F29" t="n">
-        <v>406.8760457417114</v>
+        <v>130.719532039356</v>
       </c>
       <c r="G29" t="n">
         <v>139.005434824964</v>
       </c>
       <c r="H29" t="n">
-        <v>338.0329468943008</v>
+        <v>61.87643319194535</v>
       </c>
       <c r="I29" t="n">
         <v>205.0481221176458</v>
@@ -24743,10 +24743,10 @@
         <v>349.240968717413</v>
       </c>
       <c r="X29" t="n">
-        <v>93.57458697611355</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y29" t="n">
-        <v>142.999281387019</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="30">
@@ -24756,10 +24756,10 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C30" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D30" t="n">
         <v>147.4450655646388</v>
@@ -24810,13 +24810,13 @@
         <v>170.2839726213331</v>
       </c>
       <c r="T30" t="n">
-        <v>199.8611009721718</v>
+        <v>130.5452493759553</v>
       </c>
       <c r="U30" t="n">
-        <v>0</v>
+        <v>225.9364262421938</v>
       </c>
       <c r="V30" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W30" t="n">
         <v>0</v>
@@ -24825,7 +24825,7 @@
         <v>0</v>
       </c>
       <c r="Y30" t="n">
-        <v>50.17947915721936</v>
+        <v>0</v>
       </c>
     </row>
     <row r="31">
@@ -24835,7 +24835,7 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>4.700786234059422</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C31" t="n">
         <v>167.2468210986278</v>
@@ -24862,7 +24862,7 @@
         <v>88.89425643449839</v>
       </c>
       <c r="K31" t="n">
-        <v>14.93225064571201</v>
+        <v>14.932250645712</v>
       </c>
       <c r="L31" t="n">
         <v>0</v>
@@ -24889,7 +24889,7 @@
         <v>222.9160118599466</v>
       </c>
       <c r="T31" t="n">
-        <v>227.6757534850358</v>
+        <v>52.54455953715788</v>
       </c>
       <c r="U31" t="n">
         <v>286.3155846423218</v>
@@ -24914,10 +24914,10 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>106.5773279611251</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C32" t="n">
-        <v>89.11637806865207</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D32" t="n">
         <v>354.683041620683</v>
@@ -24926,13 +24926,13 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F32" t="n">
-        <v>406.8760457417114</v>
+        <v>130.719532039356</v>
       </c>
       <c r="G32" t="n">
-        <v>415.1619485273195</v>
+        <v>139.005434824964</v>
       </c>
       <c r="H32" t="n">
-        <v>338.0329468943008</v>
+        <v>61.87643319194535</v>
       </c>
       <c r="I32" t="n">
         <v>205.0481221176458</v>
@@ -24977,13 +24977,13 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W32" t="n">
-        <v>349.240968717413</v>
+        <v>106.0023114483784</v>
       </c>
       <c r="X32" t="n">
-        <v>93.57458697611355</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y32" t="n">
-        <v>142.999281387019</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="33">
@@ -24993,16 +24993,16 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C33" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D33" t="n">
         <v>147.4450655646388</v>
       </c>
       <c r="E33" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F33" t="n">
         <v>145.0692123933839</v>
@@ -25047,19 +25047,19 @@
         <v>170.2839726213331</v>
       </c>
       <c r="T33" t="n">
-        <v>199.8611009721718</v>
+        <v>56.65878770915282</v>
       </c>
       <c r="U33" t="n">
-        <v>50.1794791572195</v>
+        <v>0</v>
       </c>
       <c r="V33" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W33" t="n">
-        <v>0</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X33" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y33" t="n">
         <v>0</v>
@@ -25099,7 +25099,7 @@
         <v>88.89425643449839</v>
       </c>
       <c r="K34" t="n">
-        <v>14.93225064571201</v>
+        <v>14.932250645712</v>
       </c>
       <c r="L34" t="n">
         <v>0</v>
@@ -25126,7 +25126,7 @@
         <v>222.9160118599466</v>
       </c>
       <c r="T34" t="n">
-        <v>52.54455953715791</v>
+        <v>227.6757534850358</v>
       </c>
       <c r="U34" t="n">
         <v>286.3155846423218</v>
@@ -25141,7 +25141,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y34" t="n">
-        <v>218.5846533520948</v>
+        <v>43.45345940421689</v>
       </c>
     </row>
     <row r="35">
@@ -25151,16 +25151,16 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>106.5773279611251</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C35" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D35" t="n">
-        <v>354.683041620683</v>
+        <v>111.4443843516483</v>
       </c>
       <c r="E35" t="n">
-        <v>138.6917128032271</v>
+        <v>105.7738563699063</v>
       </c>
       <c r="F35" t="n">
         <v>130.719532039356</v>
@@ -25233,7 +25233,7 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C36" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D36" t="n">
         <v>147.4450655646388</v>
@@ -25284,10 +25284,10 @@
         <v>170.2839726213331</v>
       </c>
       <c r="T36" t="n">
-        <v>199.8611009721718</v>
+        <v>0</v>
       </c>
       <c r="U36" t="n">
-        <v>50.1794791572195</v>
+        <v>11.29339813692511</v>
       </c>
       <c r="V36" t="n">
         <v>0</v>
@@ -25296,10 +25296,10 @@
         <v>0</v>
       </c>
       <c r="X36" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y36" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="37">
@@ -25336,7 +25336,7 @@
         <v>88.89425643449839</v>
       </c>
       <c r="K37" t="n">
-        <v>14.93225064571201</v>
+        <v>14.932250645712</v>
       </c>
       <c r="L37" t="n">
         <v>0</v>
@@ -25388,19 +25388,19 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>139.4951843944459</v>
+        <v>106.5773279611251</v>
       </c>
       <c r="C38" t="n">
-        <v>365.2728917710076</v>
+        <v>122.0342345019729</v>
       </c>
       <c r="D38" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E38" t="n">
-        <v>105.7738563699063</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F38" t="n">
-        <v>130.719532039356</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G38" t="n">
         <v>415.1619485273195</v>
@@ -25454,7 +25454,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X38" t="n">
-        <v>369.731100678469</v>
+        <v>93.57458697611355</v>
       </c>
       <c r="Y38" t="n">
         <v>110.0814249536981</v>
@@ -25467,10 +25467,10 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C39" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D39" t="n">
         <v>147.4450655646388</v>
@@ -25518,13 +25518,13 @@
         <v>95.48084390037957</v>
       </c>
       <c r="S39" t="n">
-        <v>170.2839726213331</v>
+        <v>95.1465262199842</v>
       </c>
       <c r="T39" t="n">
-        <v>17.23999297996608</v>
+        <v>0</v>
       </c>
       <c r="U39" t="n">
-        <v>0</v>
+        <v>225.9364262421938</v>
       </c>
       <c r="V39" t="n">
         <v>232.8005871494253</v>
@@ -25536,7 +25536,7 @@
         <v>0</v>
       </c>
       <c r="Y39" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="40">
@@ -25546,7 +25546,7 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>179.8319801819373</v>
+        <v>4.700786234059393</v>
       </c>
       <c r="C40" t="n">
         <v>167.2468210986278</v>
@@ -25573,7 +25573,7 @@
         <v>88.89425643449839</v>
       </c>
       <c r="K40" t="n">
-        <v>14.93225064571201</v>
+        <v>14.932250645712</v>
       </c>
       <c r="L40" t="n">
         <v>0</v>
@@ -25609,7 +25609,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W40" t="n">
-        <v>111.3918043887131</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X40" t="n">
         <v>225.7096553890372</v>
@@ -25634,13 +25634,13 @@
         <v>354.683041620683</v>
       </c>
       <c r="E41" t="n">
-        <v>381.9303700722618</v>
+        <v>105.7738563699063</v>
       </c>
       <c r="F41" t="n">
         <v>130.719532039356</v>
       </c>
       <c r="G41" t="n">
-        <v>139.005434824964</v>
+        <v>415.1619485273195</v>
       </c>
       <c r="H41" t="n">
         <v>338.0329468943008</v>
@@ -25707,13 +25707,13 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C42" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D42" t="n">
         <v>147.4450655646388</v>
       </c>
       <c r="E42" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F42" t="n">
         <v>145.0692123933839</v>
@@ -25761,10 +25761,10 @@
         <v>199.8611009721718</v>
       </c>
       <c r="U42" t="n">
-        <v>50.1794791572195</v>
+        <v>225.9364262421938</v>
       </c>
       <c r="V42" t="n">
-        <v>0</v>
+        <v>154.5966323587423</v>
       </c>
       <c r="W42" t="n">
         <v>0</v>
@@ -25810,7 +25810,7 @@
         <v>88.89425643449839</v>
       </c>
       <c r="K43" t="n">
-        <v>14.93225064571201</v>
+        <v>14.932250645712</v>
       </c>
       <c r="L43" t="n">
         <v>0</v>
@@ -25843,10 +25843,10 @@
         <v>286.3155846423218</v>
       </c>
       <c r="V43" t="n">
-        <v>252.137643323828</v>
+        <v>77.0064493759501</v>
       </c>
       <c r="W43" t="n">
-        <v>111.3918043887131</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X43" t="n">
         <v>225.7096553890372</v>
@@ -25868,7 +25868,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D44" t="n">
-        <v>354.683041620683</v>
+        <v>111.4443843516483</v>
       </c>
       <c r="E44" t="n">
         <v>105.7738563699063</v>
@@ -25877,7 +25877,7 @@
         <v>130.719532039356</v>
       </c>
       <c r="G44" t="n">
-        <v>171.9232912582848</v>
+        <v>415.1619485273195</v>
       </c>
       <c r="H44" t="n">
         <v>338.0329468943008</v>
@@ -25941,13 +25941,13 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C45" t="n">
-        <v>53.32293372562225</v>
+        <v>0</v>
       </c>
       <c r="D45" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E45" t="n">
         <v>157.6450804554009</v>
@@ -25995,16 +25995,16 @@
         <v>170.2839726213331</v>
       </c>
       <c r="T45" t="n">
-        <v>0</v>
+        <v>199.8611009721718</v>
       </c>
       <c r="U45" t="n">
-        <v>225.9364262421938</v>
+        <v>17.1149929420576</v>
       </c>
       <c r="V45" t="n">
         <v>0</v>
       </c>
       <c r="W45" t="n">
-        <v>251.6949831609196</v>
+        <v>0</v>
       </c>
       <c r="X45" t="n">
         <v>205.7729852034775</v>
@@ -26035,10 +26035,10 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>167.9278262653587</v>
       </c>
       <c r="H46" t="n">
-        <v>154.462316415358</v>
+        <v>161.6656840978772</v>
       </c>
       <c r="I46" t="n">
         <v>153.551289182031</v>
@@ -26047,7 +26047,7 @@
         <v>88.89425643449839</v>
       </c>
       <c r="K46" t="n">
-        <v>14.93225064571201</v>
+        <v>14.932250645712</v>
       </c>
       <c r="L46" t="n">
         <v>0</v>
@@ -26077,7 +26077,7 @@
         <v>227.6757534850358</v>
       </c>
       <c r="U46" t="n">
-        <v>286.3155846423218</v>
+        <v>111.1843906944439</v>
       </c>
       <c r="V46" t="n">
         <v>252.137643323828</v>
@@ -26123,7 +26123,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>448633.8158345977</v>
+        <v>448633.8158345978</v>
       </c>
     </row>
     <row r="3">
@@ -26131,7 +26131,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>448633.8158345976</v>
+        <v>448633.8158345978</v>
       </c>
     </row>
     <row r="4">
@@ -26139,7 +26139,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>448633.8158345978</v>
+        <v>448633.8158345977</v>
       </c>
     </row>
     <row r="5">
@@ -26163,7 +26163,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>478390.949385258</v>
+        <v>478390.9493852579</v>
       </c>
     </row>
     <row r="8">
@@ -26171,7 +26171,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>478390.949385258</v>
+        <v>478390.9493852579</v>
       </c>
     </row>
     <row r="9">
@@ -26187,7 +26187,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>478390.949385258</v>
+        <v>478390.9493852581</v>
       </c>
     </row>
     <row r="11">
@@ -26195,7 +26195,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>478390.9493852581</v>
+        <v>478390.949385258</v>
       </c>
     </row>
     <row r="12">
@@ -26219,7 +26219,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>478390.9493852581</v>
+        <v>478390.949385258</v>
       </c>
     </row>
     <row r="15">
@@ -26235,7 +26235,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>478390.949385258</v>
+        <v>478390.9493852579</v>
       </c>
     </row>
   </sheetData>
@@ -26317,7 +26317,7 @@
         <v>132928.5380250659</v>
       </c>
       <c r="D2" t="n">
-        <v>132928.5380250659</v>
+        <v>132928.538025066</v>
       </c>
       <c r="E2" t="n">
         <v>141745.4664845208</v>
@@ -26335,10 +26335,10 @@
         <v>141745.4664845208</v>
       </c>
       <c r="J2" t="n">
+        <v>141745.4664845208</v>
+      </c>
+      <c r="K2" t="n">
         <v>141745.4664845207</v>
-      </c>
-      <c r="K2" t="n">
-        <v>141745.4664845208</v>
       </c>
       <c r="L2" t="n">
         <v>141745.4664845208</v>
@@ -26350,7 +26350,7 @@
         <v>141745.4664845208</v>
       </c>
       <c r="O2" t="n">
-        <v>141745.4664845207</v>
+        <v>141745.4664845208</v>
       </c>
       <c r="P2" t="n">
         <v>141745.4664845208</v>
@@ -26363,7 +26363,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>80769.43153154773</v>
+        <v>80769.43153154774</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26430,7 +26430,7 @@
         <v>206.5374179011836</v>
       </c>
       <c r="G4" t="n">
-        <v>206.5374179011836</v>
+        <v>206.5374179011837</v>
       </c>
       <c r="H4" t="n">
         <v>206.5374179011836</v>
@@ -26454,7 +26454,7 @@
         <v>206.5374179011836</v>
       </c>
       <c r="O4" t="n">
-        <v>206.5374179011837</v>
+        <v>206.5374179011836</v>
       </c>
       <c r="P4" t="n">
         <v>206.5374179011836</v>
@@ -26479,13 +26479,13 @@
         <v>17553.77951678015</v>
       </c>
       <c r="F5" t="n">
+        <v>17553.77951678015</v>
+      </c>
+      <c r="G5" t="n">
+        <v>17553.77951678015</v>
+      </c>
+      <c r="H5" t="n">
         <v>17553.77951678014</v>
-      </c>
-      <c r="G5" t="n">
-        <v>17553.77951678014</v>
-      </c>
-      <c r="H5" t="n">
-        <v>17553.77951678015</v>
       </c>
       <c r="I5" t="n">
         <v>17553.77951678015</v>
@@ -26519,16 +26519,16 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>3698.305232052517</v>
+        <v>3698.305232052502</v>
       </c>
       <c r="C6" t="n">
-        <v>84467.73676360029</v>
+        <v>84467.73676360025</v>
       </c>
       <c r="D6" t="n">
-        <v>84467.73676360026</v>
+        <v>84467.73676360033</v>
       </c>
       <c r="E6" t="n">
-        <v>85356.26842060382</v>
+        <v>85356.2684206038</v>
       </c>
       <c r="F6" t="n">
         <v>123985.1495498394</v>
@@ -26543,13 +26543,13 @@
         <v>123985.1495498394</v>
       </c>
       <c r="J6" t="n">
-        <v>60925.20695073317</v>
+        <v>60925.20695073321</v>
       </c>
       <c r="K6" t="n">
         <v>123985.1495498394</v>
       </c>
       <c r="L6" t="n">
-        <v>123985.1495498394</v>
+        <v>123985.1495498395</v>
       </c>
       <c r="M6" t="n">
         <v>115227.5665546258</v>
@@ -26750,7 +26750,7 @@
         <v>35.02126071912532</v>
       </c>
       <c r="G3" t="n">
-        <v>35.02126071912534</v>
+        <v>35.0212607191254</v>
       </c>
       <c r="H3" t="n">
         <v>35.02126071912534</v>
@@ -26799,13 +26799,13 @@
         <v>276.1565137023555</v>
       </c>
       <c r="F4" t="n">
+        <v>276.1565137023555</v>
+      </c>
+      <c r="G4" t="n">
+        <v>276.1565137023555</v>
+      </c>
+      <c r="H4" t="n">
         <v>276.1565137023554</v>
-      </c>
-      <c r="G4" t="n">
-        <v>276.1565137023554</v>
-      </c>
-      <c r="H4" t="n">
-        <v>276.1565137023555</v>
       </c>
       <c r="I4" t="n">
         <v>276.1565137023555</v>
@@ -31753,13 +31753,13 @@
         <v>0.1407889878155791</v>
       </c>
       <c r="H11" t="n">
-        <v>1.441855221466299</v>
+        <v>1.4418552214663</v>
       </c>
       <c r="I11" t="n">
-        <v>5.427767452760117</v>
+        <v>5.427767452760118</v>
       </c>
       <c r="J11" t="n">
-        <v>11.94928935461251</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K11" t="n">
         <v>17.90888720884598</v>
@@ -31768,28 +31768,28 @@
         <v>22.21755819470701</v>
       </c>
       <c r="M11" t="n">
-        <v>24.72131435677231</v>
+        <v>24.72131435677232</v>
       </c>
       <c r="N11" t="n">
-        <v>25.12133106840333</v>
+        <v>25.12133106840334</v>
       </c>
       <c r="O11" t="n">
-        <v>23.72136057081216</v>
+        <v>23.72136057081217</v>
       </c>
       <c r="P11" t="n">
-        <v>20.24563243411505</v>
+        <v>20.24563243411506</v>
       </c>
       <c r="Q11" t="n">
-        <v>15.20362680796962</v>
+        <v>15.20362680796963</v>
       </c>
       <c r="R11" t="n">
-        <v>8.843836255870375</v>
+        <v>8.843836255870377</v>
       </c>
       <c r="S11" t="n">
-        <v>3.208229059847511</v>
+        <v>3.208229059847512</v>
       </c>
       <c r="T11" t="n">
-        <v>0.6163037941626976</v>
+        <v>0.6163037941626978</v>
       </c>
       <c r="U11" t="n">
         <v>0.01126311902524632</v>
@@ -31829,22 +31829,22 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>0.07532874947132616</v>
+        <v>0.07532874947132617</v>
       </c>
       <c r="H12" t="n">
-        <v>0.7275171330520185</v>
+        <v>0.7275171330520186</v>
       </c>
       <c r="I12" t="n">
-        <v>2.593555628727677</v>
+        <v>2.593555628727678</v>
       </c>
       <c r="J12" t="n">
-        <v>7.116914878779986</v>
+        <v>7.116914878779988</v>
       </c>
       <c r="K12" t="n">
         <v>12.16394109335884</v>
       </c>
       <c r="L12" t="n">
-        <v>0</v>
+        <v>16.35591992358773</v>
       </c>
       <c r="M12" t="n">
         <v>0</v>
@@ -31853,16 +31853,16 @@
         <v>0</v>
       </c>
       <c r="O12" t="n">
-        <v>0</v>
+        <v>17.92262575689049</v>
       </c>
       <c r="P12" t="n">
-        <v>0</v>
+        <v>14.38448725650263</v>
       </c>
       <c r="Q12" t="n">
-        <v>0</v>
+        <v>9.615648792164373</v>
       </c>
       <c r="R12" t="n">
-        <v>4.676990252263567</v>
+        <v>4.676990252263568</v>
       </c>
       <c r="S12" t="n">
         <v>1.399198482504676</v>
@@ -31871,7 +31871,7 @@
         <v>0.3036277226497751</v>
       </c>
       <c r="U12" t="n">
-        <v>0.004955838781008301</v>
+        <v>0.004955838781008303</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31908,49 +31908,49 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>0.06315309310006204</v>
+        <v>0.06315309310006205</v>
       </c>
       <c r="H13" t="n">
-        <v>0.5614884095623701</v>
+        <v>0.5614884095623702</v>
       </c>
       <c r="I13" t="n">
         <v>1.899185745227321</v>
       </c>
       <c r="J13" t="n">
-        <v>4.464923682174386</v>
+        <v>4.464923682174387</v>
       </c>
       <c r="K13" t="n">
-        <v>7.337241180170842</v>
+        <v>7.337241180170844</v>
       </c>
       <c r="L13" t="n">
-        <v>9.38914258689468</v>
+        <v>9.389142586894682</v>
       </c>
       <c r="M13" t="n">
-        <v>9.899534402948815</v>
+        <v>9.899534402948817</v>
       </c>
       <c r="N13" t="n">
-        <v>9.664145601394045</v>
+        <v>9.664145601394047</v>
       </c>
       <c r="O13" t="n">
-        <v>8.926402650179682</v>
+        <v>8.926402650179684</v>
       </c>
       <c r="P13" t="n">
-        <v>7.638079550938409</v>
+        <v>7.638079550938411</v>
       </c>
       <c r="Q13" t="n">
-        <v>5.288210368587922</v>
+        <v>5.288210368587923</v>
       </c>
       <c r="R13" t="n">
-        <v>2.839592713390061</v>
+        <v>2.839592713390062</v>
       </c>
       <c r="S13" t="n">
         <v>1.100586177025626</v>
       </c>
       <c r="T13" t="n">
-        <v>0.2698359432457195</v>
+        <v>0.2698359432457196</v>
       </c>
       <c r="U13" t="n">
-        <v>0.003444714169094297</v>
+        <v>0.003444714169094298</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31990,13 +31990,13 @@
         <v>0.1407889878155791</v>
       </c>
       <c r="H14" t="n">
-        <v>1.441855221466299</v>
+        <v>1.4418552214663</v>
       </c>
       <c r="I14" t="n">
-        <v>5.427767452760117</v>
+        <v>5.427767452760118</v>
       </c>
       <c r="J14" t="n">
-        <v>11.94928935461251</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K14" t="n">
         <v>17.90888720884598</v>
@@ -32005,28 +32005,28 @@
         <v>22.21755819470701</v>
       </c>
       <c r="M14" t="n">
-        <v>24.72131435677231</v>
+        <v>24.72131435677232</v>
       </c>
       <c r="N14" t="n">
-        <v>25.12133106840333</v>
+        <v>25.12133106840334</v>
       </c>
       <c r="O14" t="n">
-        <v>23.72136057081216</v>
+        <v>23.72136057081217</v>
       </c>
       <c r="P14" t="n">
-        <v>20.24563243411505</v>
+        <v>20.24563243411506</v>
       </c>
       <c r="Q14" t="n">
-        <v>15.20362680796962</v>
+        <v>15.20362680796963</v>
       </c>
       <c r="R14" t="n">
-        <v>8.843836255870375</v>
+        <v>8.843836255870377</v>
       </c>
       <c r="S14" t="n">
-        <v>3.208229059847511</v>
+        <v>3.208229059847512</v>
       </c>
       <c r="T14" t="n">
-        <v>0.6163037941626976</v>
+        <v>0.6163037941626978</v>
       </c>
       <c r="U14" t="n">
         <v>0.01126311902524632</v>
@@ -32066,22 +32066,22 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>0.07532874947132616</v>
+        <v>0.07532874947132617</v>
       </c>
       <c r="H15" t="n">
-        <v>0.7275171330520185</v>
+        <v>0.7275171330520186</v>
       </c>
       <c r="I15" t="n">
-        <v>2.593555628727677</v>
+        <v>2.593555628727678</v>
       </c>
       <c r="J15" t="n">
-        <v>7.116914878779986</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K15" t="n">
         <v>12.16394109335884</v>
       </c>
       <c r="L15" t="n">
-        <v>16.35591992358773</v>
+        <v>0</v>
       </c>
       <c r="M15" t="n">
         <v>0</v>
@@ -32093,13 +32093,13 @@
         <v>0</v>
       </c>
       <c r="P15" t="n">
-        <v>0</v>
+        <v>14.38448725650263</v>
       </c>
       <c r="Q15" t="n">
-        <v>0</v>
+        <v>9.615648792164373</v>
       </c>
       <c r="R15" t="n">
-        <v>4.676990252263567</v>
+        <v>4.676990252263568</v>
       </c>
       <c r="S15" t="n">
         <v>1.399198482504676</v>
@@ -32108,7 +32108,7 @@
         <v>0.3036277226497751</v>
       </c>
       <c r="U15" t="n">
-        <v>0.004955838781008301</v>
+        <v>0.004955838781008303</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -32145,49 +32145,49 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>0.06315309310006204</v>
+        <v>0.06315309310006205</v>
       </c>
       <c r="H16" t="n">
-        <v>0.5614884095623701</v>
+        <v>0.5614884095623702</v>
       </c>
       <c r="I16" t="n">
         <v>1.899185745227321</v>
       </c>
       <c r="J16" t="n">
-        <v>4.464923682174386</v>
+        <v>4.464923682174387</v>
       </c>
       <c r="K16" t="n">
-        <v>7.337241180170842</v>
+        <v>7.337241180170844</v>
       </c>
       <c r="L16" t="n">
-        <v>9.38914258689468</v>
+        <v>9.389142586894682</v>
       </c>
       <c r="M16" t="n">
-        <v>9.899534402948815</v>
+        <v>9.899534402948817</v>
       </c>
       <c r="N16" t="n">
-        <v>9.664145601394045</v>
+        <v>9.664145601394047</v>
       </c>
       <c r="O16" t="n">
-        <v>8.926402650179682</v>
+        <v>8.926402650179684</v>
       </c>
       <c r="P16" t="n">
-        <v>7.638079550938409</v>
+        <v>7.638079550938411</v>
       </c>
       <c r="Q16" t="n">
-        <v>5.288210368587922</v>
+        <v>5.288210368587923</v>
       </c>
       <c r="R16" t="n">
-        <v>2.839592713390061</v>
+        <v>2.839592713390062</v>
       </c>
       <c r="S16" t="n">
         <v>1.100586177025626</v>
       </c>
       <c r="T16" t="n">
-        <v>0.2698359432457195</v>
+        <v>0.2698359432457196</v>
       </c>
       <c r="U16" t="n">
-        <v>0.003444714169094297</v>
+        <v>0.003444714169094298</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32224,49 +32224,49 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>0.1407889878155791</v>
+        <v>0.1407889878155794</v>
       </c>
       <c r="H17" t="n">
-        <v>1.4418552214663</v>
+        <v>1.441855221466303</v>
       </c>
       <c r="I17" t="n">
-        <v>5.42776745276012</v>
+        <v>5.42776745276013</v>
       </c>
       <c r="J17" t="n">
-        <v>11.94928935461252</v>
+        <v>11.94928935461254</v>
       </c>
       <c r="K17" t="n">
-        <v>17.90888720884599</v>
+        <v>17.90888720884602</v>
       </c>
       <c r="L17" t="n">
-        <v>22.21755819470702</v>
+        <v>22.21755819470706</v>
       </c>
       <c r="M17" t="n">
-        <v>24.72131435677233</v>
+        <v>24.72131435677237</v>
       </c>
       <c r="N17" t="n">
-        <v>25.12133106840334</v>
+        <v>25.12133106840339</v>
       </c>
       <c r="O17" t="n">
-        <v>23.72136057081218</v>
+        <v>23.72136057081222</v>
       </c>
       <c r="P17" t="n">
-        <v>20.24563243411507</v>
+        <v>20.2456324341151</v>
       </c>
       <c r="Q17" t="n">
-        <v>15.20362680796963</v>
+        <v>15.20362680796966</v>
       </c>
       <c r="R17" t="n">
-        <v>8.84383625587038</v>
+        <v>8.843836255870396</v>
       </c>
       <c r="S17" t="n">
-        <v>3.208229059847513</v>
+        <v>3.208229059847519</v>
       </c>
       <c r="T17" t="n">
-        <v>0.616303794162698</v>
+        <v>0.6163037941626991</v>
       </c>
       <c r="U17" t="n">
-        <v>0.01126311902524633</v>
+        <v>0.01126311902524635</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -32303,22 +32303,22 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>0.0753287494713262</v>
+        <v>0.07532874947132634</v>
       </c>
       <c r="H18" t="n">
-        <v>0.7275171330520189</v>
+        <v>0.7275171330520203</v>
       </c>
       <c r="I18" t="n">
-        <v>2.593555628727679</v>
+        <v>2.593555628727684</v>
       </c>
       <c r="J18" t="n">
-        <v>7.116914878779991</v>
+        <v>7.116914878780004</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>12.16394109335887</v>
       </c>
       <c r="L18" t="n">
-        <v>0</v>
+        <v>16.35591992358777</v>
       </c>
       <c r="M18" t="n">
         <v>0</v>
@@ -32333,19 +32333,19 @@
         <v>0</v>
       </c>
       <c r="Q18" t="n">
-        <v>0</v>
+        <v>9.615648792164395</v>
       </c>
       <c r="R18" t="n">
-        <v>4.676990252263571</v>
+        <v>4.676990252263579</v>
       </c>
       <c r="S18" t="n">
-        <v>1.399198482504676</v>
+        <v>1.399198482504679</v>
       </c>
       <c r="T18" t="n">
-        <v>0.3036277226497752</v>
+        <v>0.3036277226497758</v>
       </c>
       <c r="U18" t="n">
-        <v>0.004955838781008305</v>
+        <v>0.004955838781008313</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -32382,49 +32382,49 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>0.06315309310006208</v>
+        <v>0.06315309310006219</v>
       </c>
       <c r="H19" t="n">
-        <v>0.5614884095623704</v>
+        <v>0.5614884095623716</v>
       </c>
       <c r="I19" t="n">
-        <v>1.899185745227322</v>
+        <v>1.899185745227325</v>
       </c>
       <c r="J19" t="n">
-        <v>4.464923682174389</v>
+        <v>4.464923682174397</v>
       </c>
       <c r="K19" t="n">
-        <v>7.337241180170847</v>
+        <v>7.33724118017086</v>
       </c>
       <c r="L19" t="n">
-        <v>9.389142586894685</v>
+        <v>9.389142586894703</v>
       </c>
       <c r="M19" t="n">
-        <v>9.89953440294882</v>
+        <v>9.899534402948838</v>
       </c>
       <c r="N19" t="n">
-        <v>9.664145601394052</v>
+        <v>9.664145601394068</v>
       </c>
       <c r="O19" t="n">
-        <v>8.926402650179687</v>
+        <v>8.926402650179703</v>
       </c>
       <c r="P19" t="n">
-        <v>7.638079550938414</v>
+        <v>7.638079550938428</v>
       </c>
       <c r="Q19" t="n">
-        <v>5.288210368587926</v>
+        <v>5.288210368587936</v>
       </c>
       <c r="R19" t="n">
-        <v>2.839592713390063</v>
+        <v>2.839592713390068</v>
       </c>
       <c r="S19" t="n">
-        <v>1.100586177025627</v>
+        <v>1.100586177025629</v>
       </c>
       <c r="T19" t="n">
-        <v>0.2698359432457197</v>
+        <v>0.2698359432457202</v>
       </c>
       <c r="U19" t="n">
-        <v>0.003444714169094299</v>
+        <v>0.003444714169094305</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32461,13 +32461,13 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>0.1407889878155791</v>
+        <v>0.1407889878155792</v>
       </c>
       <c r="H20" t="n">
-        <v>1.4418552214663</v>
+        <v>1.441855221466301</v>
       </c>
       <c r="I20" t="n">
-        <v>5.42776745276012</v>
+        <v>5.427767452760121</v>
       </c>
       <c r="J20" t="n">
         <v>11.94928935461252</v>
@@ -32476,13 +32476,13 @@
         <v>17.90888720884599</v>
       </c>
       <c r="L20" t="n">
-        <v>22.21755819470702</v>
+        <v>22.21755819470703</v>
       </c>
       <c r="M20" t="n">
         <v>24.72131435677233</v>
       </c>
       <c r="N20" t="n">
-        <v>25.12133106840334</v>
+        <v>25.12133106840335</v>
       </c>
       <c r="O20" t="n">
         <v>23.72136057081218</v>
@@ -32491,16 +32491,16 @@
         <v>20.24563243411507</v>
       </c>
       <c r="Q20" t="n">
-        <v>15.20362680796963</v>
+        <v>15.20362680796964</v>
       </c>
       <c r="R20" t="n">
-        <v>8.84383625587038</v>
+        <v>8.843836255870382</v>
       </c>
       <c r="S20" t="n">
         <v>3.208229059847513</v>
       </c>
       <c r="T20" t="n">
-        <v>0.616303794162698</v>
+        <v>0.6163037941626981</v>
       </c>
       <c r="U20" t="n">
         <v>0.01126311902524633</v>
@@ -32540,10 +32540,10 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>0.0753287494713262</v>
+        <v>0.07532874947132621</v>
       </c>
       <c r="H21" t="n">
-        <v>0.7275171330520189</v>
+        <v>0.727517133052019</v>
       </c>
       <c r="I21" t="n">
         <v>2.593555628727679</v>
@@ -32552,7 +32552,7 @@
         <v>0.7465913262578567</v>
       </c>
       <c r="K21" t="n">
-        <v>12.16394109335885</v>
+        <v>0</v>
       </c>
       <c r="L21" t="n">
         <v>0</v>
@@ -32564,25 +32564,25 @@
         <v>0</v>
       </c>
       <c r="O21" t="n">
-        <v>17.92262575689049</v>
+        <v>0</v>
       </c>
       <c r="P21" t="n">
-        <v>14.38448725650263</v>
+        <v>14.38448725650264</v>
       </c>
       <c r="Q21" t="n">
-        <v>0</v>
+        <v>9.615648792164379</v>
       </c>
       <c r="R21" t="n">
-        <v>4.676990252263571</v>
+        <v>4.676990252263572</v>
       </c>
       <c r="S21" t="n">
-        <v>1.399198482504676</v>
+        <v>1.399198482504677</v>
       </c>
       <c r="T21" t="n">
-        <v>0.3036277226497752</v>
+        <v>0.3036277226497753</v>
       </c>
       <c r="U21" t="n">
-        <v>0.004955838781008305</v>
+        <v>0.004955838781008306</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -32619,40 +32619,40 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>0.06315309310006208</v>
+        <v>0.06315309310006209</v>
       </c>
       <c r="H22" t="n">
-        <v>0.5614884095623704</v>
+        <v>0.5614884095623707</v>
       </c>
       <c r="I22" t="n">
         <v>1.899185745227322</v>
       </c>
       <c r="J22" t="n">
-        <v>4.464923682174389</v>
+        <v>4.46492368217439</v>
       </c>
       <c r="K22" t="n">
-        <v>7.337241180170847</v>
+        <v>7.337241180170849</v>
       </c>
       <c r="L22" t="n">
-        <v>9.389142586894685</v>
+        <v>9.389142586894687</v>
       </c>
       <c r="M22" t="n">
-        <v>9.89953440294882</v>
+        <v>9.899534402948822</v>
       </c>
       <c r="N22" t="n">
-        <v>9.664145601394052</v>
+        <v>9.664145601394054</v>
       </c>
       <c r="O22" t="n">
-        <v>8.926402650179687</v>
+        <v>8.926402650179689</v>
       </c>
       <c r="P22" t="n">
-        <v>7.638079550938414</v>
+        <v>7.638079550938415</v>
       </c>
       <c r="Q22" t="n">
-        <v>5.288210368587926</v>
+        <v>5.288210368587927</v>
       </c>
       <c r="R22" t="n">
-        <v>2.839592713390063</v>
+        <v>2.839592713390064</v>
       </c>
       <c r="S22" t="n">
         <v>1.100586177025627</v>
@@ -32661,7 +32661,7 @@
         <v>0.2698359432457197</v>
       </c>
       <c r="U22" t="n">
-        <v>0.003444714169094299</v>
+        <v>0.0034447141690943</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32698,13 +32698,13 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>0.1407889878155791</v>
+        <v>0.1407889878155792</v>
       </c>
       <c r="H23" t="n">
-        <v>1.4418552214663</v>
+        <v>1.441855221466301</v>
       </c>
       <c r="I23" t="n">
-        <v>5.42776745276012</v>
+        <v>5.427767452760121</v>
       </c>
       <c r="J23" t="n">
         <v>11.94928935461252</v>
@@ -32713,13 +32713,13 @@
         <v>17.90888720884599</v>
       </c>
       <c r="L23" t="n">
-        <v>22.21755819470702</v>
+        <v>22.21755819470703</v>
       </c>
       <c r="M23" t="n">
         <v>24.72131435677233</v>
       </c>
       <c r="N23" t="n">
-        <v>25.12133106840334</v>
+        <v>25.12133106840335</v>
       </c>
       <c r="O23" t="n">
         <v>23.72136057081218</v>
@@ -32728,16 +32728,16 @@
         <v>20.24563243411507</v>
       </c>
       <c r="Q23" t="n">
-        <v>15.20362680796963</v>
+        <v>15.20362680796964</v>
       </c>
       <c r="R23" t="n">
-        <v>8.84383625587038</v>
+        <v>8.843836255870382</v>
       </c>
       <c r="S23" t="n">
         <v>3.208229059847513</v>
       </c>
       <c r="T23" t="n">
-        <v>0.616303794162698</v>
+        <v>0.6163037941626981</v>
       </c>
       <c r="U23" t="n">
         <v>0.01126311902524633</v>
@@ -32777,22 +32777,22 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>0.0753287494713262</v>
+        <v>0.07532874947132621</v>
       </c>
       <c r="H24" t="n">
-        <v>0.7275171330520189</v>
+        <v>0.727517133052019</v>
       </c>
       <c r="I24" t="n">
         <v>2.593555628727679</v>
       </c>
       <c r="J24" t="n">
-        <v>0.7465913262578567</v>
+        <v>7.116914878779992</v>
       </c>
       <c r="K24" t="n">
-        <v>12.16394109335885</v>
+        <v>0</v>
       </c>
       <c r="L24" t="n">
-        <v>16.35591992358773</v>
+        <v>0</v>
       </c>
       <c r="M24" t="n">
         <v>0</v>
@@ -32801,25 +32801,25 @@
         <v>0</v>
       </c>
       <c r="O24" t="n">
-        <v>0</v>
+        <v>17.9226257568905</v>
       </c>
       <c r="P24" t="n">
-        <v>0</v>
+        <v>14.38448725650264</v>
       </c>
       <c r="Q24" t="n">
-        <v>0</v>
+        <v>9.615648792164379</v>
       </c>
       <c r="R24" t="n">
-        <v>4.676990252263571</v>
+        <v>4.676990252263572</v>
       </c>
       <c r="S24" t="n">
-        <v>1.399198482504676</v>
+        <v>1.399198482504677</v>
       </c>
       <c r="T24" t="n">
-        <v>0.3036277226497752</v>
+        <v>0.3036277226497753</v>
       </c>
       <c r="U24" t="n">
-        <v>0.004955838781008305</v>
+        <v>0.004955838781008306</v>
       </c>
       <c r="V24" t="n">
         <v>0</v>
@@ -32856,40 +32856,40 @@
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>0.06315309310006208</v>
+        <v>0.06315309310006209</v>
       </c>
       <c r="H25" t="n">
-        <v>0.5614884095623704</v>
+        <v>0.5614884095623707</v>
       </c>
       <c r="I25" t="n">
         <v>1.899185745227322</v>
       </c>
       <c r="J25" t="n">
-        <v>4.464923682174389</v>
+        <v>4.46492368217439</v>
       </c>
       <c r="K25" t="n">
-        <v>7.337241180170847</v>
+        <v>7.337241180170849</v>
       </c>
       <c r="L25" t="n">
-        <v>9.389142586894685</v>
+        <v>9.389142586894687</v>
       </c>
       <c r="M25" t="n">
-        <v>9.89953440294882</v>
+        <v>9.899534402948822</v>
       </c>
       <c r="N25" t="n">
-        <v>9.664145601394052</v>
+        <v>9.664145601394054</v>
       </c>
       <c r="O25" t="n">
-        <v>8.926402650179687</v>
+        <v>8.926402650179689</v>
       </c>
       <c r="P25" t="n">
-        <v>7.638079550938414</v>
+        <v>7.638079550938415</v>
       </c>
       <c r="Q25" t="n">
-        <v>5.288210368587926</v>
+        <v>5.288210368587927</v>
       </c>
       <c r="R25" t="n">
-        <v>2.839592713390063</v>
+        <v>2.839592713390064</v>
       </c>
       <c r="S25" t="n">
         <v>1.100586177025627</v>
@@ -32898,7 +32898,7 @@
         <v>0.2698359432457197</v>
       </c>
       <c r="U25" t="n">
-        <v>0.003444714169094299</v>
+        <v>0.0034447141690943</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -32935,13 +32935,13 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>0.1407889878155791</v>
+        <v>0.1407889878155792</v>
       </c>
       <c r="H26" t="n">
-        <v>1.4418552214663</v>
+        <v>1.441855221466301</v>
       </c>
       <c r="I26" t="n">
-        <v>5.42776745276012</v>
+        <v>5.427767452760121</v>
       </c>
       <c r="J26" t="n">
         <v>11.94928935461252</v>
@@ -32950,13 +32950,13 @@
         <v>17.90888720884599</v>
       </c>
       <c r="L26" t="n">
-        <v>22.21755819470702</v>
+        <v>22.21755819470703</v>
       </c>
       <c r="M26" t="n">
         <v>24.72131435677233</v>
       </c>
       <c r="N26" t="n">
-        <v>25.12133106840334</v>
+        <v>25.12133106840335</v>
       </c>
       <c r="O26" t="n">
         <v>23.72136057081218</v>
@@ -32965,16 +32965,16 @@
         <v>20.24563243411507</v>
       </c>
       <c r="Q26" t="n">
-        <v>15.20362680796963</v>
+        <v>15.20362680796964</v>
       </c>
       <c r="R26" t="n">
-        <v>8.84383625587038</v>
+        <v>8.843836255870382</v>
       </c>
       <c r="S26" t="n">
         <v>3.208229059847513</v>
       </c>
       <c r="T26" t="n">
-        <v>0.616303794162698</v>
+        <v>0.6163037941626981</v>
       </c>
       <c r="U26" t="n">
         <v>0.01126311902524633</v>
@@ -33014,10 +33014,10 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>0.0753287494713262</v>
+        <v>0.07532874947132621</v>
       </c>
       <c r="H27" t="n">
-        <v>0.7275171330520189</v>
+        <v>0.727517133052019</v>
       </c>
       <c r="I27" t="n">
         <v>2.593555628727679</v>
@@ -33026,10 +33026,10 @@
         <v>0.7465913262578567</v>
       </c>
       <c r="K27" t="n">
-        <v>0</v>
+        <v>12.16394109335885</v>
       </c>
       <c r="L27" t="n">
-        <v>0</v>
+        <v>16.35591992358774</v>
       </c>
       <c r="M27" t="n">
         <v>0</v>
@@ -33038,25 +33038,25 @@
         <v>0</v>
       </c>
       <c r="O27" t="n">
-        <v>0</v>
+        <v>17.9226257568905</v>
       </c>
       <c r="P27" t="n">
-        <v>14.38448725650263</v>
+        <v>0</v>
       </c>
       <c r="Q27" t="n">
-        <v>0</v>
+        <v>9.615648792164379</v>
       </c>
       <c r="R27" t="n">
-        <v>4.676990252263571</v>
+        <v>4.676990252263572</v>
       </c>
       <c r="S27" t="n">
-        <v>1.399198482504676</v>
+        <v>1.399198482504677</v>
       </c>
       <c r="T27" t="n">
-        <v>0.3036277226497752</v>
+        <v>0.3036277226497753</v>
       </c>
       <c r="U27" t="n">
-        <v>0.004955838781008305</v>
+        <v>0.004955838781008306</v>
       </c>
       <c r="V27" t="n">
         <v>0</v>
@@ -33093,40 +33093,40 @@
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>0.06315309310006208</v>
+        <v>0.06315309310006209</v>
       </c>
       <c r="H28" t="n">
-        <v>0.5614884095623704</v>
+        <v>0.5614884095623707</v>
       </c>
       <c r="I28" t="n">
         <v>1.899185745227322</v>
       </c>
       <c r="J28" t="n">
-        <v>4.464923682174389</v>
+        <v>4.46492368217439</v>
       </c>
       <c r="K28" t="n">
-        <v>7.337241180170847</v>
+        <v>7.337241180170849</v>
       </c>
       <c r="L28" t="n">
-        <v>9.389142586894685</v>
+        <v>9.389142586894687</v>
       </c>
       <c r="M28" t="n">
-        <v>9.89953440294882</v>
+        <v>9.899534402948822</v>
       </c>
       <c r="N28" t="n">
-        <v>9.664145601394052</v>
+        <v>9.664145601394054</v>
       </c>
       <c r="O28" t="n">
-        <v>8.926402650179687</v>
+        <v>8.926402650179689</v>
       </c>
       <c r="P28" t="n">
-        <v>7.638079550938414</v>
+        <v>7.638079550938415</v>
       </c>
       <c r="Q28" t="n">
-        <v>5.288210368587926</v>
+        <v>5.288210368587927</v>
       </c>
       <c r="R28" t="n">
-        <v>2.839592713390063</v>
+        <v>2.839592713390064</v>
       </c>
       <c r="S28" t="n">
         <v>1.100586177025627</v>
@@ -33135,7 +33135,7 @@
         <v>0.2698359432457197</v>
       </c>
       <c r="U28" t="n">
-        <v>0.003444714169094299</v>
+        <v>0.0034447141690943</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33172,13 +33172,13 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>0.1407889878155791</v>
+        <v>0.1407889878155792</v>
       </c>
       <c r="H29" t="n">
-        <v>1.4418552214663</v>
+        <v>1.441855221466301</v>
       </c>
       <c r="I29" t="n">
-        <v>5.42776745276012</v>
+        <v>5.427767452760121</v>
       </c>
       <c r="J29" t="n">
         <v>11.94928935461252</v>
@@ -33187,13 +33187,13 @@
         <v>17.90888720884599</v>
       </c>
       <c r="L29" t="n">
-        <v>22.21755819470702</v>
+        <v>22.21755819470703</v>
       </c>
       <c r="M29" t="n">
         <v>24.72131435677233</v>
       </c>
       <c r="N29" t="n">
-        <v>25.12133106840334</v>
+        <v>25.12133106840335</v>
       </c>
       <c r="O29" t="n">
         <v>23.72136057081218</v>
@@ -33202,16 +33202,16 @@
         <v>20.24563243411507</v>
       </c>
       <c r="Q29" t="n">
-        <v>15.20362680796963</v>
+        <v>15.20362680796964</v>
       </c>
       <c r="R29" t="n">
-        <v>8.84383625587038</v>
+        <v>8.843836255870382</v>
       </c>
       <c r="S29" t="n">
         <v>3.208229059847513</v>
       </c>
       <c r="T29" t="n">
-        <v>0.616303794162698</v>
+        <v>0.6163037941626981</v>
       </c>
       <c r="U29" t="n">
         <v>0.01126311902524633</v>
@@ -33251,49 +33251,49 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>0.0753287494713262</v>
+        <v>0.07532874947132621</v>
       </c>
       <c r="H30" t="n">
-        <v>0.7275171330520189</v>
+        <v>0.727517133052019</v>
       </c>
       <c r="I30" t="n">
         <v>2.593555628727679</v>
       </c>
       <c r="J30" t="n">
-        <v>7.116914878779991</v>
+        <v>7.116914878779992</v>
       </c>
       <c r="K30" t="n">
         <v>12.16394109335885</v>
       </c>
       <c r="L30" t="n">
-        <v>16.35591992358773</v>
+        <v>16.35591992358774</v>
       </c>
       <c r="M30" t="n">
         <v>0</v>
       </c>
       <c r="N30" t="n">
-        <v>0</v>
+        <v>19.59175225833409</v>
       </c>
       <c r="O30" t="n">
-        <v>0</v>
+        <v>17.9226257568905</v>
       </c>
       <c r="P30" t="n">
-        <v>0</v>
+        <v>14.38448725650264</v>
       </c>
       <c r="Q30" t="n">
-        <v>0</v>
+        <v>9.615648792164379</v>
       </c>
       <c r="R30" t="n">
-        <v>4.676990252263571</v>
+        <v>4.676990252263572</v>
       </c>
       <c r="S30" t="n">
-        <v>1.399198482504676</v>
+        <v>1.399198482504677</v>
       </c>
       <c r="T30" t="n">
-        <v>0.3036277226497752</v>
+        <v>0.3036277226497753</v>
       </c>
       <c r="U30" t="n">
-        <v>0.004955838781008305</v>
+        <v>0.004955838781008306</v>
       </c>
       <c r="V30" t="n">
         <v>0</v>
@@ -33330,40 +33330,40 @@
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>0.06315309310006208</v>
+        <v>0.06315309310006209</v>
       </c>
       <c r="H31" t="n">
-        <v>0.5614884095623704</v>
+        <v>0.5614884095623707</v>
       </c>
       <c r="I31" t="n">
         <v>1.899185745227322</v>
       </c>
       <c r="J31" t="n">
-        <v>4.464923682174389</v>
+        <v>4.46492368217439</v>
       </c>
       <c r="K31" t="n">
-        <v>7.337241180170847</v>
+        <v>7.337241180170849</v>
       </c>
       <c r="L31" t="n">
-        <v>9.389142586894685</v>
+        <v>9.389142586894687</v>
       </c>
       <c r="M31" t="n">
-        <v>9.89953440294882</v>
+        <v>9.899534402948822</v>
       </c>
       <c r="N31" t="n">
-        <v>9.664145601394052</v>
+        <v>9.664145601394054</v>
       </c>
       <c r="O31" t="n">
-        <v>8.926402650179687</v>
+        <v>8.926402650179689</v>
       </c>
       <c r="P31" t="n">
-        <v>7.638079550938414</v>
+        <v>7.638079550938415</v>
       </c>
       <c r="Q31" t="n">
-        <v>5.288210368587926</v>
+        <v>5.288210368587927</v>
       </c>
       <c r="R31" t="n">
-        <v>2.839592713390063</v>
+        <v>2.839592713390064</v>
       </c>
       <c r="S31" t="n">
         <v>1.100586177025627</v>
@@ -33372,7 +33372,7 @@
         <v>0.2698359432457197</v>
       </c>
       <c r="U31" t="n">
-        <v>0.003444714169094299</v>
+        <v>0.0034447141690943</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -33409,13 +33409,13 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>0.1407889878155791</v>
+        <v>0.1407889878155792</v>
       </c>
       <c r="H32" t="n">
-        <v>1.4418552214663</v>
+        <v>1.441855221466301</v>
       </c>
       <c r="I32" t="n">
-        <v>5.42776745276012</v>
+        <v>5.427767452760121</v>
       </c>
       <c r="J32" t="n">
         <v>11.94928935461252</v>
@@ -33424,13 +33424,13 @@
         <v>17.90888720884599</v>
       </c>
       <c r="L32" t="n">
-        <v>22.21755819470702</v>
+        <v>22.21755819470703</v>
       </c>
       <c r="M32" t="n">
         <v>24.72131435677233</v>
       </c>
       <c r="N32" t="n">
-        <v>25.12133106840334</v>
+        <v>25.12133106840335</v>
       </c>
       <c r="O32" t="n">
         <v>23.72136057081218</v>
@@ -33439,16 +33439,16 @@
         <v>20.24563243411507</v>
       </c>
       <c r="Q32" t="n">
-        <v>15.20362680796963</v>
+        <v>15.20362680796964</v>
       </c>
       <c r="R32" t="n">
-        <v>8.84383625587038</v>
+        <v>8.843836255870382</v>
       </c>
       <c r="S32" t="n">
         <v>3.208229059847513</v>
       </c>
       <c r="T32" t="n">
-        <v>0.616303794162698</v>
+        <v>0.6163037941626981</v>
       </c>
       <c r="U32" t="n">
         <v>0.01126311902524633</v>
@@ -33488,22 +33488,22 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>0.0753287494713262</v>
+        <v>0.07532874947132621</v>
       </c>
       <c r="H33" t="n">
-        <v>0.7275171330520189</v>
+        <v>0.727517133052019</v>
       </c>
       <c r="I33" t="n">
         <v>2.593555628727679</v>
       </c>
       <c r="J33" t="n">
-        <v>0.7465913262578567</v>
+        <v>7.116914878779992</v>
       </c>
       <c r="K33" t="n">
         <v>12.16394109335885</v>
       </c>
       <c r="L33" t="n">
-        <v>16.35591992358773</v>
+        <v>16.35591992358774</v>
       </c>
       <c r="M33" t="n">
         <v>0</v>
@@ -33512,25 +33512,25 @@
         <v>0</v>
       </c>
       <c r="O33" t="n">
-        <v>17.92262575689049</v>
+        <v>17.9226257568905</v>
       </c>
       <c r="P33" t="n">
-        <v>14.38448725650263</v>
+        <v>14.38448725650264</v>
       </c>
       <c r="Q33" t="n">
-        <v>9.615648792164377</v>
+        <v>9.615648792164379</v>
       </c>
       <c r="R33" t="n">
-        <v>4.676990252263571</v>
+        <v>4.676990252263572</v>
       </c>
       <c r="S33" t="n">
-        <v>1.399198482504676</v>
+        <v>1.399198482504677</v>
       </c>
       <c r="T33" t="n">
-        <v>0.3036277226497752</v>
+        <v>0.3036277226497753</v>
       </c>
       <c r="U33" t="n">
-        <v>0.004955838781008305</v>
+        <v>0.004955838781008306</v>
       </c>
       <c r="V33" t="n">
         <v>0</v>
@@ -33567,40 +33567,40 @@
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>0.06315309310006208</v>
+        <v>0.06315309310006209</v>
       </c>
       <c r="H34" t="n">
-        <v>0.5614884095623704</v>
+        <v>0.5614884095623707</v>
       </c>
       <c r="I34" t="n">
         <v>1.899185745227322</v>
       </c>
       <c r="J34" t="n">
-        <v>4.464923682174389</v>
+        <v>4.46492368217439</v>
       </c>
       <c r="K34" t="n">
-        <v>7.337241180170847</v>
+        <v>7.337241180170849</v>
       </c>
       <c r="L34" t="n">
-        <v>9.389142586894685</v>
+        <v>9.389142586894687</v>
       </c>
       <c r="M34" t="n">
-        <v>9.89953440294882</v>
+        <v>9.899534402948822</v>
       </c>
       <c r="N34" t="n">
-        <v>9.664145601394052</v>
+        <v>9.664145601394054</v>
       </c>
       <c r="O34" t="n">
-        <v>8.926402650179687</v>
+        <v>8.926402650179689</v>
       </c>
       <c r="P34" t="n">
-        <v>7.638079550938414</v>
+        <v>7.638079550938415</v>
       </c>
       <c r="Q34" t="n">
-        <v>5.288210368587926</v>
+        <v>5.288210368587927</v>
       </c>
       <c r="R34" t="n">
-        <v>2.839592713390063</v>
+        <v>2.839592713390064</v>
       </c>
       <c r="S34" t="n">
         <v>1.100586177025627</v>
@@ -33609,7 +33609,7 @@
         <v>0.2698359432457197</v>
       </c>
       <c r="U34" t="n">
-        <v>0.003444714169094299</v>
+        <v>0.0034447141690943</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33646,13 +33646,13 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>0.1407889878155791</v>
+        <v>0.1407889878155792</v>
       </c>
       <c r="H35" t="n">
-        <v>1.4418552214663</v>
+        <v>1.441855221466301</v>
       </c>
       <c r="I35" t="n">
-        <v>5.42776745276012</v>
+        <v>5.427767452760121</v>
       </c>
       <c r="J35" t="n">
         <v>11.94928935461252</v>
@@ -33661,13 +33661,13 @@
         <v>17.90888720884599</v>
       </c>
       <c r="L35" t="n">
-        <v>22.21755819470702</v>
+        <v>22.21755819470703</v>
       </c>
       <c r="M35" t="n">
         <v>24.72131435677233</v>
       </c>
       <c r="N35" t="n">
-        <v>25.12133106840334</v>
+        <v>25.12133106840335</v>
       </c>
       <c r="O35" t="n">
         <v>23.72136057081218</v>
@@ -33676,16 +33676,16 @@
         <v>20.24563243411507</v>
       </c>
       <c r="Q35" t="n">
-        <v>15.20362680796963</v>
+        <v>15.20362680796964</v>
       </c>
       <c r="R35" t="n">
-        <v>8.84383625587038</v>
+        <v>8.843836255870382</v>
       </c>
       <c r="S35" t="n">
         <v>3.208229059847513</v>
       </c>
       <c r="T35" t="n">
-        <v>0.616303794162698</v>
+        <v>0.6163037941626981</v>
       </c>
       <c r="U35" t="n">
         <v>0.01126311902524633</v>
@@ -33725,10 +33725,10 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>0.0753287494713262</v>
+        <v>0.07532874947132621</v>
       </c>
       <c r="H36" t="n">
-        <v>0.7275171330520189</v>
+        <v>0.727517133052019</v>
       </c>
       <c r="I36" t="n">
         <v>2.593555628727679</v>
@@ -33737,10 +33737,10 @@
         <v>0.7465913262578567</v>
       </c>
       <c r="K36" t="n">
-        <v>12.16394109335885</v>
+        <v>0</v>
       </c>
       <c r="L36" t="n">
-        <v>0</v>
+        <v>16.35591992358774</v>
       </c>
       <c r="M36" t="n">
         <v>0</v>
@@ -33749,25 +33749,25 @@
         <v>0</v>
       </c>
       <c r="O36" t="n">
-        <v>0</v>
+        <v>17.9226257568905</v>
       </c>
       <c r="P36" t="n">
-        <v>14.38448725650263</v>
+        <v>14.38448725650264</v>
       </c>
       <c r="Q36" t="n">
-        <v>9.615648792164377</v>
+        <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>4.676990252263571</v>
+        <v>4.676990252263572</v>
       </c>
       <c r="S36" t="n">
-        <v>1.399198482504676</v>
+        <v>1.399198482504677</v>
       </c>
       <c r="T36" t="n">
-        <v>0.3036277226497752</v>
+        <v>0.3036277226497753</v>
       </c>
       <c r="U36" t="n">
-        <v>0.004955838781008305</v>
+        <v>0.004955838781008306</v>
       </c>
       <c r="V36" t="n">
         <v>0</v>
@@ -33804,40 +33804,40 @@
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>0.06315309310006208</v>
+        <v>0.06315309310006209</v>
       </c>
       <c r="H37" t="n">
-        <v>0.5614884095623704</v>
+        <v>0.5614884095623707</v>
       </c>
       <c r="I37" t="n">
         <v>1.899185745227322</v>
       </c>
       <c r="J37" t="n">
-        <v>4.464923682174389</v>
+        <v>4.46492368217439</v>
       </c>
       <c r="K37" t="n">
-        <v>7.337241180170847</v>
+        <v>7.337241180170849</v>
       </c>
       <c r="L37" t="n">
-        <v>9.389142586894685</v>
+        <v>9.389142586894687</v>
       </c>
       <c r="M37" t="n">
-        <v>9.89953440294882</v>
+        <v>9.899534402948822</v>
       </c>
       <c r="N37" t="n">
-        <v>9.664145601394052</v>
+        <v>9.664145601394054</v>
       </c>
       <c r="O37" t="n">
-        <v>8.926402650179687</v>
+        <v>8.926402650179689</v>
       </c>
       <c r="P37" t="n">
-        <v>7.638079550938414</v>
+        <v>7.638079550938415</v>
       </c>
       <c r="Q37" t="n">
-        <v>5.288210368587926</v>
+        <v>5.288210368587927</v>
       </c>
       <c r="R37" t="n">
-        <v>2.839592713390063</v>
+        <v>2.839592713390064</v>
       </c>
       <c r="S37" t="n">
         <v>1.100586177025627</v>
@@ -33846,7 +33846,7 @@
         <v>0.2698359432457197</v>
       </c>
       <c r="U37" t="n">
-        <v>0.003444714169094299</v>
+        <v>0.0034447141690943</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -33883,13 +33883,13 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>0.1407889878155791</v>
+        <v>0.1407889878155792</v>
       </c>
       <c r="H38" t="n">
-        <v>1.4418552214663</v>
+        <v>1.441855221466301</v>
       </c>
       <c r="I38" t="n">
-        <v>5.42776745276012</v>
+        <v>5.427767452760121</v>
       </c>
       <c r="J38" t="n">
         <v>11.94928935461252</v>
@@ -33898,13 +33898,13 @@
         <v>17.90888720884599</v>
       </c>
       <c r="L38" t="n">
-        <v>22.21755819470702</v>
+        <v>22.21755819470703</v>
       </c>
       <c r="M38" t="n">
         <v>24.72131435677233</v>
       </c>
       <c r="N38" t="n">
-        <v>25.12133106840334</v>
+        <v>25.12133106840335</v>
       </c>
       <c r="O38" t="n">
         <v>23.72136057081218</v>
@@ -33913,16 +33913,16 @@
         <v>20.24563243411507</v>
       </c>
       <c r="Q38" t="n">
-        <v>15.20362680796963</v>
+        <v>15.20362680796964</v>
       </c>
       <c r="R38" t="n">
-        <v>8.84383625587038</v>
+        <v>8.843836255870382</v>
       </c>
       <c r="S38" t="n">
         <v>3.208229059847513</v>
       </c>
       <c r="T38" t="n">
-        <v>0.616303794162698</v>
+        <v>0.6163037941626981</v>
       </c>
       <c r="U38" t="n">
         <v>0.01126311902524633</v>
@@ -33962,22 +33962,22 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>0.0753287494713262</v>
+        <v>0.07532874947132621</v>
       </c>
       <c r="H39" t="n">
-        <v>0.7275171330520189</v>
+        <v>0.727517133052019</v>
       </c>
       <c r="I39" t="n">
         <v>2.593555628727679</v>
       </c>
       <c r="J39" t="n">
-        <v>7.116914878779991</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K39" t="n">
         <v>12.16394109335885</v>
       </c>
       <c r="L39" t="n">
-        <v>16.35591992358773</v>
+        <v>16.35591992358774</v>
       </c>
       <c r="M39" t="n">
         <v>0</v>
@@ -33986,25 +33986,25 @@
         <v>0</v>
       </c>
       <c r="O39" t="n">
-        <v>17.92262575689049</v>
+        <v>17.9226257568905</v>
       </c>
       <c r="P39" t="n">
-        <v>14.38448725650263</v>
+        <v>14.38448725650264</v>
       </c>
       <c r="Q39" t="n">
-        <v>9.615648792164377</v>
+        <v>9.615648792164379</v>
       </c>
       <c r="R39" t="n">
-        <v>4.676990252263571</v>
+        <v>4.676990252263572</v>
       </c>
       <c r="S39" t="n">
-        <v>1.399198482504676</v>
+        <v>1.399198482504677</v>
       </c>
       <c r="T39" t="n">
-        <v>0.3036277226497752</v>
+        <v>0.3036277226497753</v>
       </c>
       <c r="U39" t="n">
-        <v>0.004955838781008305</v>
+        <v>0.004955838781008306</v>
       </c>
       <c r="V39" t="n">
         <v>0</v>
@@ -34041,40 +34041,40 @@
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>0.06315309310006208</v>
+        <v>0.06315309310006209</v>
       </c>
       <c r="H40" t="n">
-        <v>0.5614884095623704</v>
+        <v>0.5614884095623707</v>
       </c>
       <c r="I40" t="n">
         <v>1.899185745227322</v>
       </c>
       <c r="J40" t="n">
-        <v>4.464923682174389</v>
+        <v>4.46492368217439</v>
       </c>
       <c r="K40" t="n">
-        <v>7.337241180170847</v>
+        <v>7.337241180170849</v>
       </c>
       <c r="L40" t="n">
-        <v>9.389142586894685</v>
+        <v>9.389142586894687</v>
       </c>
       <c r="M40" t="n">
-        <v>9.89953440294882</v>
+        <v>9.899534402948822</v>
       </c>
       <c r="N40" t="n">
-        <v>9.664145601394052</v>
+        <v>9.664145601394054</v>
       </c>
       <c r="O40" t="n">
-        <v>8.926402650179687</v>
+        <v>8.926402650179689</v>
       </c>
       <c r="P40" t="n">
-        <v>7.638079550938414</v>
+        <v>7.638079550938415</v>
       </c>
       <c r="Q40" t="n">
-        <v>5.288210368587926</v>
+        <v>5.288210368587927</v>
       </c>
       <c r="R40" t="n">
-        <v>2.839592713390063</v>
+        <v>2.839592713390064</v>
       </c>
       <c r="S40" t="n">
         <v>1.100586177025627</v>
@@ -34083,7 +34083,7 @@
         <v>0.2698359432457197</v>
       </c>
       <c r="U40" t="n">
-        <v>0.003444714169094299</v>
+        <v>0.0034447141690943</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34120,28 +34120,28 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>0.1407889878155791</v>
+        <v>0.1407889878155792</v>
       </c>
       <c r="H41" t="n">
-        <v>1.4418552214663</v>
+        <v>1.441855221466301</v>
       </c>
       <c r="I41" t="n">
-        <v>5.42776745276012</v>
+        <v>5.427767452760121</v>
       </c>
       <c r="J41" t="n">
         <v>11.94928935461252</v>
       </c>
       <c r="K41" t="n">
-        <v>17.90888720884611</v>
+        <v>17.90888720884599</v>
       </c>
       <c r="L41" t="n">
-        <v>22.21755819470702</v>
+        <v>22.21755819470703</v>
       </c>
       <c r="M41" t="n">
         <v>24.72131435677233</v>
       </c>
       <c r="N41" t="n">
-        <v>25.12133106840334</v>
+        <v>25.12133106840335</v>
       </c>
       <c r="O41" t="n">
         <v>23.72136057081218</v>
@@ -34150,16 +34150,16 @@
         <v>20.24563243411507</v>
       </c>
       <c r="Q41" t="n">
-        <v>15.20362680796963</v>
+        <v>15.20362680796964</v>
       </c>
       <c r="R41" t="n">
-        <v>8.84383625587038</v>
+        <v>8.843836255870382</v>
       </c>
       <c r="S41" t="n">
         <v>3.208229059847513</v>
       </c>
       <c r="T41" t="n">
-        <v>0.616303794162698</v>
+        <v>0.6163037941626981</v>
       </c>
       <c r="U41" t="n">
         <v>0.01126311902524633</v>
@@ -34199,22 +34199,22 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>0.0753287494713262</v>
+        <v>0.07532874947132621</v>
       </c>
       <c r="H42" t="n">
-        <v>0.7275171330520189</v>
+        <v>0.727517133052019</v>
       </c>
       <c r="I42" t="n">
         <v>2.593555628727679</v>
       </c>
       <c r="J42" t="n">
-        <v>7.116914878779991</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K42" t="n">
         <v>12.16394109335885</v>
       </c>
       <c r="L42" t="n">
-        <v>0</v>
+        <v>16.35591992358774</v>
       </c>
       <c r="M42" t="n">
         <v>0</v>
@@ -34229,19 +34229,19 @@
         <v>0</v>
       </c>
       <c r="Q42" t="n">
-        <v>0</v>
+        <v>9.615648792164379</v>
       </c>
       <c r="R42" t="n">
-        <v>4.676990252263571</v>
+        <v>4.676990252263572</v>
       </c>
       <c r="S42" t="n">
-        <v>1.399198482504676</v>
+        <v>1.399198482504677</v>
       </c>
       <c r="T42" t="n">
-        <v>0.3036277226497752</v>
+        <v>0.3036277226497753</v>
       </c>
       <c r="U42" t="n">
-        <v>0.004955838781008305</v>
+        <v>0.004955838781008306</v>
       </c>
       <c r="V42" t="n">
         <v>0</v>
@@ -34278,40 +34278,40 @@
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>0.06315309310006208</v>
+        <v>0.06315309310006209</v>
       </c>
       <c r="H43" t="n">
-        <v>0.5614884095623704</v>
+        <v>0.5614884095623707</v>
       </c>
       <c r="I43" t="n">
         <v>1.899185745227322</v>
       </c>
       <c r="J43" t="n">
-        <v>4.464923682174389</v>
+        <v>4.46492368217439</v>
       </c>
       <c r="K43" t="n">
-        <v>7.337241180170847</v>
+        <v>7.337241180170849</v>
       </c>
       <c r="L43" t="n">
-        <v>9.389142586894685</v>
+        <v>9.389142586894687</v>
       </c>
       <c r="M43" t="n">
-        <v>9.89953440294882</v>
+        <v>9.899534402948822</v>
       </c>
       <c r="N43" t="n">
-        <v>9.664145601394052</v>
+        <v>9.664145601394054</v>
       </c>
       <c r="O43" t="n">
-        <v>8.926402650179687</v>
+        <v>8.926402650179689</v>
       </c>
       <c r="P43" t="n">
-        <v>7.638079550938414</v>
+        <v>7.638079550938415</v>
       </c>
       <c r="Q43" t="n">
-        <v>5.288210368587926</v>
+        <v>5.288210368587927</v>
       </c>
       <c r="R43" t="n">
-        <v>2.839592713390063</v>
+        <v>2.839592713390064</v>
       </c>
       <c r="S43" t="n">
         <v>1.100586177025627</v>
@@ -34320,7 +34320,7 @@
         <v>0.2698359432457197</v>
       </c>
       <c r="U43" t="n">
-        <v>0.003444714169094299</v>
+        <v>0.0034447141690943</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34357,13 +34357,13 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>0.1407889878155791</v>
+        <v>0.1407889878155792</v>
       </c>
       <c r="H44" t="n">
-        <v>1.4418552214663</v>
+        <v>1.441855221466301</v>
       </c>
       <c r="I44" t="n">
-        <v>5.42776745276012</v>
+        <v>5.427767452760121</v>
       </c>
       <c r="J44" t="n">
         <v>11.94928935461252</v>
@@ -34372,13 +34372,13 @@
         <v>17.90888720884599</v>
       </c>
       <c r="L44" t="n">
-        <v>22.21755819470702</v>
+        <v>22.21755819470703</v>
       </c>
       <c r="M44" t="n">
         <v>24.72131435677233</v>
       </c>
       <c r="N44" t="n">
-        <v>25.12133106840334</v>
+        <v>25.12133106840335</v>
       </c>
       <c r="O44" t="n">
         <v>23.72136057081218</v>
@@ -34387,16 +34387,16 @@
         <v>20.24563243411507</v>
       </c>
       <c r="Q44" t="n">
-        <v>15.20362680796963</v>
+        <v>15.20362680796964</v>
       </c>
       <c r="R44" t="n">
-        <v>8.84383625587038</v>
+        <v>8.843836255870382</v>
       </c>
       <c r="S44" t="n">
         <v>3.208229059847513</v>
       </c>
       <c r="T44" t="n">
-        <v>0.616303794162698</v>
+        <v>0.6163037941626981</v>
       </c>
       <c r="U44" t="n">
         <v>0.01126311902524633</v>
@@ -34436,10 +34436,10 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>0.0753287494713262</v>
+        <v>0.07532874947132621</v>
       </c>
       <c r="H45" t="n">
-        <v>0.7275171330520189</v>
+        <v>0.727517133052019</v>
       </c>
       <c r="I45" t="n">
         <v>2.593555628727679</v>
@@ -34448,10 +34448,10 @@
         <v>0.7465913262578567</v>
       </c>
       <c r="K45" t="n">
-        <v>0</v>
+        <v>12.16394109335885</v>
       </c>
       <c r="L45" t="n">
-        <v>0</v>
+        <v>16.35591992358774</v>
       </c>
       <c r="M45" t="n">
         <v>0</v>
@@ -34460,25 +34460,25 @@
         <v>0</v>
       </c>
       <c r="O45" t="n">
-        <v>8.263015293398325</v>
+        <v>0</v>
       </c>
       <c r="P45" t="n">
-        <v>14.38448725650263</v>
+        <v>0</v>
       </c>
       <c r="Q45" t="n">
-        <v>9.615648792164377</v>
+        <v>9.615648792164379</v>
       </c>
       <c r="R45" t="n">
-        <v>4.676990252263571</v>
+        <v>4.676990252263572</v>
       </c>
       <c r="S45" t="n">
-        <v>1.399198482504676</v>
+        <v>1.399198482504677</v>
       </c>
       <c r="T45" t="n">
-        <v>0.3036277226497752</v>
+        <v>0.3036277226497753</v>
       </c>
       <c r="U45" t="n">
-        <v>0.004955838781008305</v>
+        <v>0.004955838781008306</v>
       </c>
       <c r="V45" t="n">
         <v>0</v>
@@ -34515,40 +34515,40 @@
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>0.06315309310006208</v>
+        <v>0.06315309310006209</v>
       </c>
       <c r="H46" t="n">
-        <v>0.5614884095623704</v>
+        <v>0.5614884095623707</v>
       </c>
       <c r="I46" t="n">
         <v>1.899185745227322</v>
       </c>
       <c r="J46" t="n">
-        <v>4.464923682174389</v>
+        <v>4.46492368217439</v>
       </c>
       <c r="K46" t="n">
-        <v>7.337241180170847</v>
+        <v>7.337241180170849</v>
       </c>
       <c r="L46" t="n">
-        <v>9.389142586894685</v>
+        <v>9.389142586894687</v>
       </c>
       <c r="M46" t="n">
-        <v>9.89953440294882</v>
+        <v>9.899534402948822</v>
       </c>
       <c r="N46" t="n">
-        <v>9.664145601394052</v>
+        <v>9.664145601394054</v>
       </c>
       <c r="O46" t="n">
-        <v>8.926402650179687</v>
+        <v>8.926402650179689</v>
       </c>
       <c r="P46" t="n">
-        <v>7.638079550938414</v>
+        <v>7.638079550938415</v>
       </c>
       <c r="Q46" t="n">
-        <v>5.288210368587926</v>
+        <v>5.288210368587927</v>
       </c>
       <c r="R46" t="n">
-        <v>2.839592713390063</v>
+        <v>2.839592713390064</v>
       </c>
       <c r="S46" t="n">
         <v>1.100586177025627</v>
@@ -34557,7 +34557,7 @@
         <v>0.2698359432457197</v>
       </c>
       <c r="U46" t="n">
-        <v>0.003444714169094299</v>
+        <v>0.0034447141690943</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -34781,22 +34781,22 @@
         <v>126.6237980382196</v>
       </c>
       <c r="L3" t="n">
-        <v>232.285965523585</v>
+        <v>91.0829537758999</v>
       </c>
       <c r="M3" t="n">
+        <v>0</v>
+      </c>
+      <c r="N3" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="N3" t="n">
-        <v>169.9067907798016</v>
-      </c>
       <c r="O3" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="P3" t="n">
         <v>184.4883612256069</v>
       </c>
       <c r="Q3" t="n">
-        <v>0</v>
+        <v>70.09551364982758</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -35015,25 +35015,25 @@
         <v>0</v>
       </c>
       <c r="K6" t="n">
-        <v>0</v>
+        <v>126.6237980382196</v>
       </c>
       <c r="L6" t="n">
-        <v>232.285965523585</v>
+        <v>91.0829537758999</v>
       </c>
       <c r="M6" t="n">
-        <v>240.0046611659691</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="N6" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="O6" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="P6" t="n">
-        <v>0</v>
+        <v>184.4883612256069</v>
       </c>
       <c r="Q6" t="n">
-        <v>0</v>
+        <v>70.09551364982758</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35258,10 +35258,10 @@
         <v>232.285965523585</v>
       </c>
       <c r="M9" t="n">
+        <v>0</v>
+      </c>
+      <c r="N9" t="n">
         <v>226.4350751681936</v>
-      </c>
-      <c r="N9" t="n">
-        <v>0</v>
       </c>
       <c r="O9" t="n">
         <v>241.0142888776591</v>
@@ -35428,7 +35428,7 @@
         <v>110.8113448503282</v>
       </c>
       <c r="Q11" t="n">
-        <v>5.212927593424819</v>
+        <v>5.212927593424821</v>
       </c>
       <c r="R11" t="n">
         <v>0</v>
@@ -35486,28 +35486,28 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>0</v>
+        <v>6.370323552522131</v>
       </c>
       <c r="K12" t="n">
         <v>0</v>
       </c>
       <c r="L12" t="n">
-        <v>232.285965523585</v>
+        <v>248.6418854471727</v>
       </c>
       <c r="M12" t="n">
-        <v>149.2713005881205</v>
+        <v>276.1565137023555</v>
       </c>
       <c r="N12" t="n">
-        <v>276.1565137023555</v>
+        <v>213.3996301387353</v>
       </c>
       <c r="O12" t="n">
-        <v>251.2660748322851</v>
+        <v>269.1887005891756</v>
       </c>
       <c r="P12" t="n">
-        <v>184.4883612256069</v>
+        <v>0</v>
       </c>
       <c r="Q12" t="n">
-        <v>0</v>
+        <v>79.71116244199196</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35583,7 +35583,7 @@
         <v>33.51153056421936</v>
       </c>
       <c r="P13" t="n">
-        <v>4.916638815831897</v>
+        <v>4.916638815831899</v>
       </c>
       <c r="Q13" t="n">
         <v>0</v>
@@ -35665,7 +35665,7 @@
         <v>110.8113448503282</v>
       </c>
       <c r="Q14" t="n">
-        <v>5.212927593424819</v>
+        <v>5.212927593424821</v>
       </c>
       <c r="R14" t="n">
         <v>0</v>
@@ -35723,28 +35723,28 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>6.370323552522129</v>
+        <v>0</v>
       </c>
       <c r="K15" t="n">
         <v>0</v>
       </c>
       <c r="L15" t="n">
-        <v>248.6418854471727</v>
+        <v>232.285965523585</v>
       </c>
       <c r="M15" t="n">
-        <v>276.1565137023554</v>
+        <v>276.1565137023555</v>
       </c>
       <c r="N15" t="n">
-        <v>276.1565137023554</v>
+        <v>55.17565088962593</v>
       </c>
       <c r="O15" t="n">
-        <v>31.55910459211283</v>
+        <v>251.2660748322851</v>
       </c>
       <c r="P15" t="n">
-        <v>184.4883612256069</v>
+        <v>198.8728484821096</v>
       </c>
       <c r="Q15" t="n">
-        <v>70.09551364982758</v>
+        <v>79.71116244199196</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35820,7 +35820,7 @@
         <v>33.51153056421936</v>
       </c>
       <c r="P16" t="n">
-        <v>4.916638815831897</v>
+        <v>4.916638815831899</v>
       </c>
       <c r="Q16" t="n">
         <v>0</v>
@@ -35887,7 +35887,7 @@
         <v>121.9644487350302</v>
       </c>
       <c r="L17" t="n">
-        <v>204.1123577751702</v>
+        <v>204.1123577751703</v>
       </c>
       <c r="M17" t="n">
         <v>243.8886146223321</v>
@@ -35902,7 +35902,7 @@
         <v>110.8113448503282</v>
       </c>
       <c r="Q17" t="n">
-        <v>5.212927593424828</v>
+        <v>5.212927593424855</v>
       </c>
       <c r="R17" t="n">
         <v>0</v>
@@ -35960,19 +35960,19 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>6.370323552522147</v>
       </c>
       <c r="K18" t="n">
-        <v>79.17578693829289</v>
+        <v>0</v>
       </c>
       <c r="L18" t="n">
-        <v>232.285965523585</v>
+        <v>248.6418854471728</v>
       </c>
       <c r="M18" t="n">
-        <v>276.1565137023554</v>
+        <v>276.1565137023555</v>
       </c>
       <c r="N18" t="n">
-        <v>0</v>
+        <v>46.83389467001879</v>
       </c>
       <c r="O18" t="n">
         <v>251.2660748322851</v>
@@ -35981,7 +35981,7 @@
         <v>184.4883612256069</v>
       </c>
       <c r="Q18" t="n">
-        <v>70.09551364982758</v>
+        <v>79.71116244199197</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36045,19 +36045,19 @@
         <v>0</v>
       </c>
       <c r="L19" t="n">
-        <v>36.97916784721082</v>
+        <v>36.97916784721085</v>
       </c>
       <c r="M19" t="n">
-        <v>49.4834113647894</v>
+        <v>49.48341136478943</v>
       </c>
       <c r="N19" t="n">
-        <v>53.79631798062265</v>
+        <v>53.79631798062266</v>
       </c>
       <c r="O19" t="n">
-        <v>33.51153056421936</v>
+        <v>33.51153056421938</v>
       </c>
       <c r="P19" t="n">
-        <v>4.916638815831902</v>
+        <v>4.916638815831916</v>
       </c>
       <c r="Q19" t="n">
         <v>0</v>
@@ -36139,7 +36139,7 @@
         <v>110.8113448503282</v>
       </c>
       <c r="Q20" t="n">
-        <v>5.212927593424828</v>
+        <v>5.212927593424832</v>
       </c>
       <c r="R20" t="n">
         <v>0</v>
@@ -36200,25 +36200,25 @@
         <v>0</v>
       </c>
       <c r="K21" t="n">
-        <v>0</v>
+        <v>126.6237980382196</v>
       </c>
       <c r="L21" t="n">
         <v>232.285965523585</v>
       </c>
       <c r="M21" t="n">
-        <v>276.1565137023555</v>
+        <v>8.263015293398048</v>
       </c>
       <c r="N21" t="n">
-        <v>46.86867392489984</v>
+        <v>276.1565137023554</v>
       </c>
       <c r="O21" t="n">
-        <v>269.1887005891756</v>
+        <v>251.2660748322851</v>
       </c>
       <c r="P21" t="n">
         <v>198.8728484821096</v>
       </c>
       <c r="Q21" t="n">
-        <v>70.09551364982758</v>
+        <v>0</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36285,7 +36285,7 @@
         <v>36.97916784721082</v>
       </c>
       <c r="M22" t="n">
-        <v>49.4834113647894</v>
+        <v>49.48341136478941</v>
       </c>
       <c r="N22" t="n">
         <v>53.79631798062265</v>
@@ -36294,7 +36294,7 @@
         <v>33.51153056421936</v>
       </c>
       <c r="P22" t="n">
-        <v>4.916638815831902</v>
+        <v>4.916638815831903</v>
       </c>
       <c r="Q22" t="n">
         <v>0</v>
@@ -36376,7 +36376,7 @@
         <v>110.8113448503282</v>
       </c>
       <c r="Q23" t="n">
-        <v>5.212927593424828</v>
+        <v>5.212927593424832</v>
       </c>
       <c r="R23" t="n">
         <v>0</v>
@@ -36437,25 +36437,25 @@
         <v>0</v>
       </c>
       <c r="K24" t="n">
-        <v>0</v>
+        <v>126.6237980382196</v>
       </c>
       <c r="L24" t="n">
-        <v>248.6418854471727</v>
+        <v>232.285965523585</v>
       </c>
       <c r="M24" t="n">
-        <v>62.8198670147053</v>
+        <v>266.4969032388632</v>
       </c>
       <c r="N24" t="n">
-        <v>276.1565137023555</v>
+        <v>0</v>
       </c>
       <c r="O24" t="n">
-        <v>251.2660748322851</v>
+        <v>269.1887005891756</v>
       </c>
       <c r="P24" t="n">
-        <v>184.4883612256069</v>
+        <v>198.8728484821096</v>
       </c>
       <c r="Q24" t="n">
-        <v>70.09551364982758</v>
+        <v>0</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -36522,7 +36522,7 @@
         <v>36.97916784721082</v>
       </c>
       <c r="M25" t="n">
-        <v>49.4834113647894</v>
+        <v>49.48341136478941</v>
       </c>
       <c r="N25" t="n">
         <v>53.79631798062265</v>
@@ -36531,7 +36531,7 @@
         <v>33.51153056421936</v>
       </c>
       <c r="P25" t="n">
-        <v>4.916638815831902</v>
+        <v>4.916638815831903</v>
       </c>
       <c r="Q25" t="n">
         <v>0</v>
@@ -36613,7 +36613,7 @@
         <v>110.8113448503282</v>
       </c>
       <c r="Q26" t="n">
-        <v>5.212927593424828</v>
+        <v>5.212927593424832</v>
       </c>
       <c r="R26" t="n">
         <v>0</v>
@@ -36674,25 +36674,25 @@
         <v>0</v>
       </c>
       <c r="K27" t="n">
-        <v>64.79129968179032</v>
+        <v>138.7877391315785</v>
       </c>
       <c r="L27" t="n">
-        <v>232.285965523585</v>
+        <v>248.6418854471727</v>
       </c>
       <c r="M27" t="n">
-        <v>276.1565137023555</v>
+        <v>252.3615294784194</v>
       </c>
       <c r="N27" t="n">
         <v>0</v>
       </c>
       <c r="O27" t="n">
-        <v>251.2660748322851</v>
+        <v>269.1887005891756</v>
       </c>
       <c r="P27" t="n">
-        <v>198.8728484821096</v>
+        <v>184.4883612256069</v>
       </c>
       <c r="Q27" t="n">
-        <v>70.09551364982758</v>
+        <v>0</v>
       </c>
       <c r="R27" t="n">
         <v>0</v>
@@ -36759,7 +36759,7 @@
         <v>36.97916784721082</v>
       </c>
       <c r="M28" t="n">
-        <v>49.4834113647894</v>
+        <v>49.48341136478941</v>
       </c>
       <c r="N28" t="n">
         <v>53.79631798062265</v>
@@ -36768,7 +36768,7 @@
         <v>33.51153056421936</v>
       </c>
       <c r="P28" t="n">
-        <v>4.916638815831902</v>
+        <v>4.916638815831903</v>
       </c>
       <c r="Q28" t="n">
         <v>0</v>
@@ -36850,7 +36850,7 @@
         <v>110.8113448503282</v>
       </c>
       <c r="Q29" t="n">
-        <v>5.212927593424828</v>
+        <v>5.212927593424832</v>
       </c>
       <c r="R29" t="n">
         <v>0</v>
@@ -36908,7 +36908,7 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>0</v>
+        <v>6.370323552522136</v>
       </c>
       <c r="K30" t="n">
         <v>138.7877391315785</v>
@@ -36917,19 +36917,19 @@
         <v>248.6418854471727</v>
       </c>
       <c r="M30" t="n">
-        <v>200.1886415854823</v>
+        <v>151.8955562274027</v>
       </c>
       <c r="N30" t="n">
         <v>0</v>
       </c>
       <c r="O30" t="n">
-        <v>251.2660748322851</v>
+        <v>269.1887005891756</v>
       </c>
       <c r="P30" t="n">
-        <v>184.4883612256069</v>
+        <v>198.8728484821096</v>
       </c>
       <c r="Q30" t="n">
-        <v>70.09551364982758</v>
+        <v>79.71116244199196</v>
       </c>
       <c r="R30" t="n">
         <v>0</v>
@@ -36996,7 +36996,7 @@
         <v>36.97916784721082</v>
       </c>
       <c r="M31" t="n">
-        <v>49.4834113647894</v>
+        <v>49.48341136478941</v>
       </c>
       <c r="N31" t="n">
         <v>53.79631798062265</v>
@@ -37005,7 +37005,7 @@
         <v>33.51153056421936</v>
       </c>
       <c r="P31" t="n">
-        <v>4.916638815831902</v>
+        <v>4.916638815831903</v>
       </c>
       <c r="Q31" t="n">
         <v>0</v>
@@ -37087,7 +37087,7 @@
         <v>110.8113448503282</v>
       </c>
       <c r="Q32" t="n">
-        <v>5.212927593424828</v>
+        <v>5.212927593424832</v>
       </c>
       <c r="R32" t="n">
         <v>0</v>
@@ -37145,10 +37145,10 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>0</v>
+        <v>6.370323552522136</v>
       </c>
       <c r="K33" t="n">
-        <v>0</v>
+        <v>14.52678165662567</v>
       </c>
       <c r="L33" t="n">
         <v>248.6418854471727</v>
@@ -37157,16 +37157,16 @@
         <v>276.1565137023555</v>
       </c>
       <c r="N33" t="n">
-        <v>276.1565137023555</v>
+        <v>0</v>
       </c>
       <c r="O33" t="n">
         <v>269.1887005891756</v>
       </c>
       <c r="P33" t="n">
-        <v>0</v>
+        <v>198.8728484821096</v>
       </c>
       <c r="Q33" t="n">
-        <v>23.3246024308939</v>
+        <v>79.71116244199196</v>
       </c>
       <c r="R33" t="n">
         <v>0</v>
@@ -37233,7 +37233,7 @@
         <v>36.97916784721082</v>
       </c>
       <c r="M34" t="n">
-        <v>49.4834113647894</v>
+        <v>49.48341136478941</v>
       </c>
       <c r="N34" t="n">
         <v>53.79631798062265</v>
@@ -37242,7 +37242,7 @@
         <v>33.51153056421936</v>
       </c>
       <c r="P34" t="n">
-        <v>4.916638815831902</v>
+        <v>4.916638815831903</v>
       </c>
       <c r="Q34" t="n">
         <v>0</v>
@@ -37324,7 +37324,7 @@
         <v>110.8113448503282</v>
       </c>
       <c r="Q35" t="n">
-        <v>5.212927593424828</v>
+        <v>5.212927593424832</v>
       </c>
       <c r="R35" t="n">
         <v>0</v>
@@ -37385,25 +37385,25 @@
         <v>0</v>
       </c>
       <c r="K36" t="n">
-        <v>138.7877391315785</v>
+        <v>126.6237980382196</v>
       </c>
       <c r="L36" t="n">
-        <v>232.285965523585</v>
+        <v>248.6418854471727</v>
       </c>
       <c r="M36" t="n">
-        <v>272.2555879023948</v>
+        <v>0</v>
       </c>
       <c r="N36" t="n">
-        <v>0</v>
+        <v>180.045469665448</v>
       </c>
       <c r="O36" t="n">
-        <v>251.2660748322851</v>
+        <v>269.1887005891756</v>
       </c>
       <c r="P36" t="n">
         <v>198.8728484821096</v>
       </c>
       <c r="Q36" t="n">
-        <v>0</v>
+        <v>70.09551364982758</v>
       </c>
       <c r="R36" t="n">
         <v>0</v>
@@ -37470,7 +37470,7 @@
         <v>36.97916784721082</v>
       </c>
       <c r="M37" t="n">
-        <v>49.4834113647894</v>
+        <v>49.48341136478941</v>
       </c>
       <c r="N37" t="n">
         <v>53.79631798062265</v>
@@ -37479,7 +37479,7 @@
         <v>33.51153056421936</v>
       </c>
       <c r="P37" t="n">
-        <v>4.916638815831902</v>
+        <v>4.916638815831903</v>
       </c>
       <c r="Q37" t="n">
         <v>0</v>
@@ -37561,7 +37561,7 @@
         <v>110.8113448503282</v>
       </c>
       <c r="Q38" t="n">
-        <v>5.212927593424828</v>
+        <v>5.212927593424832</v>
       </c>
       <c r="R38" t="n">
         <v>0</v>
@@ -37619,16 +37619,16 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>6.370323552522134</v>
+        <v>0</v>
       </c>
       <c r="K39" t="n">
-        <v>138.7877391315785</v>
+        <v>0</v>
       </c>
       <c r="L39" t="n">
         <v>248.6418854471727</v>
       </c>
       <c r="M39" t="n">
-        <v>0</v>
+        <v>20.89710520914779</v>
       </c>
       <c r="N39" t="n">
         <v>276.1565137023555</v>
@@ -37637,7 +37637,7 @@
         <v>269.1887005891756</v>
       </c>
       <c r="P39" t="n">
-        <v>74.61189100715683</v>
+        <v>198.8728484821096</v>
       </c>
       <c r="Q39" t="n">
         <v>79.71116244199196</v>
@@ -37707,7 +37707,7 @@
         <v>36.97916784721082</v>
       </c>
       <c r="M40" t="n">
-        <v>49.4834113647894</v>
+        <v>49.48341136478941</v>
       </c>
       <c r="N40" t="n">
         <v>53.79631798062265</v>
@@ -37716,7 +37716,7 @@
         <v>33.51153056421936</v>
       </c>
       <c r="P40" t="n">
-        <v>4.916638815831902</v>
+        <v>4.916638815831903</v>
       </c>
       <c r="Q40" t="n">
         <v>0</v>
@@ -37780,7 +37780,7 @@
         <v>0</v>
       </c>
       <c r="K41" t="n">
-        <v>121.9644487350303</v>
+        <v>121.9644487350302</v>
       </c>
       <c r="L41" t="n">
         <v>204.1123577751702</v>
@@ -37798,7 +37798,7 @@
         <v>110.8113448503282</v>
       </c>
       <c r="Q41" t="n">
-        <v>5.212927593424828</v>
+        <v>5.212927593424832</v>
       </c>
       <c r="R41" t="n">
         <v>0</v>
@@ -37862,13 +37862,13 @@
         <v>138.7877391315785</v>
       </c>
       <c r="L42" t="n">
-        <v>232.285965523585</v>
+        <v>248.6418854471727</v>
       </c>
       <c r="M42" t="n">
-        <v>216.5445615090701</v>
+        <v>0</v>
       </c>
       <c r="N42" t="n">
-        <v>0</v>
+        <v>270.2841552353098</v>
       </c>
       <c r="O42" t="n">
         <v>251.2660748322851</v>
@@ -37877,7 +37877,7 @@
         <v>184.4883612256069</v>
       </c>
       <c r="Q42" t="n">
-        <v>70.09551364982758</v>
+        <v>0</v>
       </c>
       <c r="R42" t="n">
         <v>0</v>
@@ -37944,7 +37944,7 @@
         <v>36.97916784721082</v>
       </c>
       <c r="M43" t="n">
-        <v>49.4834113647894</v>
+        <v>49.48341136478941</v>
       </c>
       <c r="N43" t="n">
         <v>53.79631798062265</v>
@@ -37953,7 +37953,7 @@
         <v>33.51153056421936</v>
       </c>
       <c r="P43" t="n">
-        <v>4.916638815831902</v>
+        <v>4.916638815831903</v>
       </c>
       <c r="Q43" t="n">
         <v>0</v>
@@ -38035,7 +38035,7 @@
         <v>110.8113448503282</v>
       </c>
       <c r="Q44" t="n">
-        <v>5.212927593424828</v>
+        <v>5.212927593424832</v>
       </c>
       <c r="R44" t="n">
         <v>0</v>
@@ -38096,22 +38096,22 @@
         <v>0</v>
       </c>
       <c r="K45" t="n">
-        <v>126.6237980382196</v>
+        <v>138.7877391315785</v>
       </c>
       <c r="L45" t="n">
-        <v>232.285965523585</v>
+        <v>248.6418854471727</v>
       </c>
       <c r="M45" t="n">
-        <v>276.1565137023555</v>
+        <v>0</v>
       </c>
       <c r="N45" t="n">
-        <v>0</v>
+        <v>270.2841552353098</v>
       </c>
       <c r="O45" t="n">
-        <v>259.5290901256834</v>
+        <v>251.2660748322851</v>
       </c>
       <c r="P45" t="n">
-        <v>198.8728484821096</v>
+        <v>184.4883612256069</v>
       </c>
       <c r="Q45" t="n">
         <v>0</v>
@@ -38181,7 +38181,7 @@
         <v>36.97916784721082</v>
       </c>
       <c r="M46" t="n">
-        <v>49.4834113647894</v>
+        <v>49.48341136478941</v>
       </c>
       <c r="N46" t="n">
         <v>53.79631798062265</v>
@@ -38190,7 +38190,7 @@
         <v>33.51153056421936</v>
       </c>
       <c r="P46" t="n">
-        <v>4.916638815831902</v>
+        <v>4.916638815831903</v>
       </c>
       <c r="Q46" t="n">
         <v>0</v>

--- a/Outputs/1. Budget/Grid Search/Output Files/1000000/Output_0_16.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/1000000/Output_0_16.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>825580.4649464823</v>
+        <v>757146.5514982929</v>
       </c>
     </row>
     <row r="7">
@@ -513,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>248900.3287795761</v>
+        <v>206468.4800970358</v>
       </c>
     </row>
     <row r="8">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>10947499.6809952</v>
+        <v>10947499.68099519</v>
       </c>
     </row>
     <row r="9">
@@ -543,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>8069060.157833984</v>
+        <v>8069060.157833982</v>
       </c>
     </row>
     <row r="11">
@@ -658,7 +658,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
@@ -670,64 +670,64 @@
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>220.8837963815379</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="G2" t="n">
+        <v>212.2853856434421</v>
+      </c>
+      <c r="H2" t="n">
+        <v>0</v>
+      </c>
+      <c r="I2" t="n">
+        <v>0</v>
+      </c>
+      <c r="J2" t="n">
+        <v>0</v>
+      </c>
+      <c r="K2" t="n">
+        <v>0</v>
+      </c>
+      <c r="L2" t="n">
+        <v>0</v>
+      </c>
+      <c r="M2" t="n">
+        <v>0</v>
+      </c>
+      <c r="N2" t="n">
+        <v>0</v>
+      </c>
+      <c r="O2" t="n">
+        <v>0</v>
+      </c>
+      <c r="P2" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q2" t="n">
+        <v>0</v>
+      </c>
+      <c r="R2" t="n">
+        <v>0</v>
+      </c>
+      <c r="S2" t="n">
+        <v>0</v>
+      </c>
+      <c r="T2" t="n">
+        <v>0</v>
+      </c>
+      <c r="U2" t="n">
+        <v>0</v>
+      </c>
+      <c r="V2" t="n">
+        <v>0</v>
+      </c>
+      <c r="W2" t="n">
+        <v>0</v>
+      </c>
+      <c r="X2" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y2" t="n">
         <v>241.0142888776591</v>
-      </c>
-      <c r="H2" t="n">
-        <v>241.0142888776591</v>
-      </c>
-      <c r="I2" t="n">
-        <v>210.4758895704059</v>
-      </c>
-      <c r="J2" t="n">
-        <v>11.94928935461252</v>
-      </c>
-      <c r="K2" t="n">
-        <v>0</v>
-      </c>
-      <c r="L2" t="n">
-        <v>0</v>
-      </c>
-      <c r="M2" t="n">
-        <v>0</v>
-      </c>
-      <c r="N2" t="n">
-        <v>0</v>
-      </c>
-      <c r="O2" t="n">
-        <v>0</v>
-      </c>
-      <c r="P2" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q2" t="n">
-        <v>9.990699214544804</v>
-      </c>
-      <c r="R2" t="n">
-        <v>0</v>
-      </c>
-      <c r="S2" t="n">
-        <v>0</v>
-      </c>
-      <c r="T2" t="n">
-        <v>0</v>
-      </c>
-      <c r="U2" t="n">
-        <v>0</v>
-      </c>
-      <c r="V2" t="n">
-        <v>0</v>
-      </c>
-      <c r="W2" t="n">
-        <v>0</v>
-      </c>
-      <c r="X2" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y2" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -737,10 +737,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C3" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
@@ -752,16 +752,16 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>67.60868499044867</v>
+        <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>112.2354442364965</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>89.39663285141508</v>
+        <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -785,7 +785,7 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -797,16 +797,16 @@
         <v>225.9413820809748</v>
       </c>
       <c r="V3" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W3" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="X3" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y3" t="n">
-        <v>0</v>
+        <v>29.79900896488263</v>
       </c>
     </row>
     <row r="4">
@@ -837,13 +837,13 @@
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>17.55829564281241</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>93.35918011667277</v>
+        <v>0</v>
       </c>
       <c r="K4" t="n">
-        <v>22.26949182588285</v>
+        <v>0</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
@@ -873,7 +873,7 @@
         <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -913,58 +913,58 @@
         <v>241.0142888776591</v>
       </c>
       <c r="H5" t="n">
+        <v>0</v>
+      </c>
+      <c r="I5" t="n">
+        <v>0</v>
+      </c>
+      <c r="J5" t="n">
+        <v>11.94928935461252</v>
+      </c>
+      <c r="K5" t="n">
+        <v>0</v>
+      </c>
+      <c r="L5" t="n">
+        <v>0</v>
+      </c>
+      <c r="M5" t="n">
+        <v>0</v>
+      </c>
+      <c r="N5" t="n">
+        <v>0</v>
+      </c>
+      <c r="O5" t="n">
+        <v>0</v>
+      </c>
+      <c r="P5" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q5" t="n">
+        <v>9.990699214544804</v>
+      </c>
+      <c r="R5" t="n">
+        <v>0</v>
+      </c>
+      <c r="S5" t="n">
+        <v>190.3453970742849</v>
+      </c>
+      <c r="T5" t="n">
+        <v>0</v>
+      </c>
+      <c r="U5" t="n">
+        <v>0</v>
+      </c>
+      <c r="V5" t="n">
+        <v>0</v>
+      </c>
+      <c r="W5" t="n">
+        <v>0</v>
+      </c>
+      <c r="X5" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y5" t="n">
         <v>241.0142888776591</v>
-      </c>
-      <c r="I5" t="n">
-        <v>210.4758895704059</v>
-      </c>
-      <c r="J5" t="n">
-        <v>1.809496073036188</v>
-      </c>
-      <c r="K5" t="n">
-        <v>0</v>
-      </c>
-      <c r="L5" t="n">
-        <v>0</v>
-      </c>
-      <c r="M5" t="n">
-        <v>0</v>
-      </c>
-      <c r="N5" t="n">
-        <v>0</v>
-      </c>
-      <c r="O5" t="n">
-        <v>0</v>
-      </c>
-      <c r="P5" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q5" t="n">
-        <v>0</v>
-      </c>
-      <c r="R5" t="n">
-        <v>0</v>
-      </c>
-      <c r="S5" t="n">
-        <v>0</v>
-      </c>
-      <c r="T5" t="n">
-        <v>0</v>
-      </c>
-      <c r="U5" t="n">
-        <v>0</v>
-      </c>
-      <c r="V5" t="n">
-        <v>0</v>
-      </c>
-      <c r="W5" t="n">
-        <v>0</v>
-      </c>
-      <c r="X5" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y5" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -974,31 +974,31 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C6" t="n">
         <v>0</v>
       </c>
       <c r="D6" t="n">
-        <v>126.358590200387</v>
+        <v>0</v>
       </c>
       <c r="E6" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F6" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>137.3435171632106</v>
+        <v>0</v>
       </c>
       <c r="H6" t="n">
-        <v>112.2354442364965</v>
+        <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>89.39663285141508</v>
+        <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K6" t="n">
         <v>0</v>
@@ -1031,19 +1031,19 @@
         <v>0</v>
       </c>
       <c r="U6" t="n">
-        <v>0</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V6" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W6" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="X6" t="n">
-        <v>0</v>
+        <v>29.88929839105575</v>
       </c>
       <c r="Y6" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="7">
@@ -1074,10 +1074,10 @@
         <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>39.82778746869526</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>93.35918011667277</v>
+        <v>0</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -1116,7 +1116,7 @@
         <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="X7" t="n">
         <v>0</v>
@@ -1132,7 +1132,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>202.2946864288972</v>
       </c>
       <c r="C8" t="n">
         <v>0</v>
@@ -1144,10 +1144,10 @@
         <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="G8" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
@@ -1177,7 +1177,7 @@
         <v>0</v>
       </c>
       <c r="Q8" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R8" t="n">
         <v>0</v>
@@ -1186,22 +1186,22 @@
         <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>212.285385643442</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
         <v>0</v>
       </c>
       <c r="V8" t="n">
+        <v>0</v>
+      </c>
+      <c r="W8" t="n">
+        <v>0</v>
+      </c>
+      <c r="X8" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y8" t="n">
         <v>241.0142888776591</v>
-      </c>
-      <c r="W8" t="n">
-        <v>241.0142888776591</v>
-      </c>
-      <c r="X8" t="n">
-        <v>241.0142888776591</v>
-      </c>
-      <c r="Y8" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -1214,7 +1214,7 @@
         <v>0</v>
       </c>
       <c r="C9" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D9" t="n">
         <v>0</v>
@@ -1259,7 +1259,7 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>89.23479522590742</v>
+        <v>0</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
@@ -1271,16 +1271,16 @@
         <v>225.9413820809748</v>
       </c>
       <c r="V9" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W9" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="X9" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y9" t="n">
-        <v>205.6826957773044</v>
+        <v>29.05241763862477</v>
       </c>
     </row>
     <row r="10">
@@ -1305,49 +1305,49 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
+        <v>0</v>
+      </c>
+      <c r="H10" t="n">
+        <v>0</v>
+      </c>
+      <c r="I10" t="n">
+        <v>0</v>
+      </c>
+      <c r="J10" t="n">
+        <v>0</v>
+      </c>
+      <c r="K10" t="n">
+        <v>0</v>
+      </c>
+      <c r="L10" t="n">
+        <v>0</v>
+      </c>
+      <c r="M10" t="n">
+        <v>0</v>
+      </c>
+      <c r="N10" t="n">
+        <v>0</v>
+      </c>
+      <c r="O10" t="n">
+        <v>0</v>
+      </c>
+      <c r="P10" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q10" t="n">
+        <v>0</v>
+      </c>
+      <c r="R10" t="n">
+        <v>0</v>
+      </c>
+      <c r="S10" t="n">
+        <v>0</v>
+      </c>
+      <c r="T10" t="n">
+        <v>0</v>
+      </c>
+      <c r="U10" t="n">
         <v>133.186967585368</v>
-      </c>
-      <c r="H10" t="n">
-        <v>0</v>
-      </c>
-      <c r="I10" t="n">
-        <v>0</v>
-      </c>
-      <c r="J10" t="n">
-        <v>0</v>
-      </c>
-      <c r="K10" t="n">
-        <v>0</v>
-      </c>
-      <c r="L10" t="n">
-        <v>0</v>
-      </c>
-      <c r="M10" t="n">
-        <v>0</v>
-      </c>
-      <c r="N10" t="n">
-        <v>0</v>
-      </c>
-      <c r="O10" t="n">
-        <v>0</v>
-      </c>
-      <c r="P10" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q10" t="n">
-        <v>0</v>
-      </c>
-      <c r="R10" t="n">
-        <v>0</v>
-      </c>
-      <c r="S10" t="n">
-        <v>0</v>
-      </c>
-      <c r="T10" t="n">
-        <v>0</v>
-      </c>
-      <c r="U10" t="n">
-        <v>0</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -1375,22 +1375,22 @@
         <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E11" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F11" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G11" t="n">
-        <v>413.784170020795</v>
+        <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1417,13 +1417,13 @@
         <v>0</v>
       </c>
       <c r="R11" t="n">
-        <v>54.47840257481172</v>
+        <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U11" t="n">
         <v>251.2241675082893</v>
@@ -1432,13 +1432,13 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W11" t="n">
-        <v>295.9408816142887</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X11" t="n">
-        <v>0</v>
+        <v>158.8292573193321</v>
       </c>
       <c r="Y11" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="12">
@@ -1451,7 +1451,7 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C12" t="n">
-        <v>172.7084989883149</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D12" t="n">
         <v>147.4450655646388</v>
@@ -1469,7 +1469,7 @@
         <v>104.3883541553076</v>
       </c>
       <c r="I12" t="n">
-        <v>61.42221998250819</v>
+        <v>61.42221998250818</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -1496,10 +1496,10 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>49.71123688229332</v>
+        <v>49.71123688229331</v>
       </c>
       <c r="S12" t="n">
-        <v>156.5912426325231</v>
+        <v>156.5912426325226</v>
       </c>
       <c r="T12" t="n">
         <v>196.8897623984489</v>
@@ -1542,7 +1542,7 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>167.3098022590509</v>
+        <v>94.63926978364032</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
@@ -1572,25 +1572,25 @@
         <v>0</v>
       </c>
       <c r="Q13" t="n">
-        <v>29.12274995491431</v>
+        <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>146.6651919801579</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>212.1455389500189</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>112.200859218067</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>0</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
         <v>0</v>
@@ -1609,22 +1609,22 @@
         <v>0</v>
       </c>
       <c r="C14" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D14" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E14" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F14" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G14" t="n">
         <v>413.784170020795</v>
       </c>
       <c r="H14" t="n">
-        <v>86.85288031511124</v>
+        <v>0</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -1654,25 +1654,25 @@
         <v>0</v>
       </c>
       <c r="R14" t="n">
-        <v>54.47840257481175</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U14" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V14" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W14" t="n">
-        <v>349.240968717413</v>
+        <v>86.78276998556255</v>
       </c>
       <c r="X14" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y14" t="n">
         <v>386.2379386560536</v>
@@ -1706,7 +1706,7 @@
         <v>104.3883541553076</v>
       </c>
       <c r="I15" t="n">
-        <v>61.4222199825082</v>
+        <v>61.42221998250818</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -1733,7 +1733,7 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>49.71123688229206</v>
+        <v>49.71123688229296</v>
       </c>
       <c r="S15" t="n">
         <v>156.5912426325231</v>
@@ -1770,13 +1770,13 @@
         <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>78.40333552909871</v>
       </c>
       <c r="E16" t="n">
         <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
         <v>0</v>
@@ -1809,19 +1809,19 @@
         <v>0</v>
       </c>
       <c r="Q16" t="n">
-        <v>29.12274995491433</v>
+        <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>146.6651919801579</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>212.1455389500189</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
         <v>225.0351054580843</v>
       </c>
       <c r="U16" t="n">
-        <v>54.47555601903365</v>
+        <v>0</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -1833,7 +1833,7 @@
         <v>0</v>
       </c>
       <c r="Y16" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="17">
@@ -1843,25 +1843,25 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C17" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D17" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E17" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F17" t="n">
-        <v>406.8760457417114</v>
+        <v>100.1875746692273</v>
       </c>
       <c r="G17" t="n">
         <v>413.784170020795</v>
       </c>
       <c r="H17" t="n">
-        <v>57.30159287878445</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
@@ -1894,25 +1894,25 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T17" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U17" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V17" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W17" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X17" t="n">
         <v>0</v>
       </c>
       <c r="Y17" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18">
@@ -1943,7 +1943,7 @@
         <v>104.3883541553076</v>
       </c>
       <c r="I18" t="n">
-        <v>61.4222199825082</v>
+        <v>61.42221998250818</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -1970,7 +1970,7 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>49.71123688229334</v>
+        <v>49.71123688229296</v>
       </c>
       <c r="S18" t="n">
         <v>156.5912426325231</v>
@@ -1979,7 +1979,7 @@
         <v>196.8897623984489</v>
       </c>
       <c r="U18" t="n">
-        <v>225.8879277888678</v>
+        <v>225.8879277888686</v>
       </c>
       <c r="V18" t="n">
         <v>232.8005871494253</v>
@@ -2001,22 +2001,22 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D19" t="n">
         <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>102.6386299168219</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
@@ -2049,10 +2049,10 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>146.6651919801578</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>194.513007553545</v>
       </c>
       <c r="T19" t="n">
         <v>0</v>
@@ -2061,7 +2061,7 @@
         <v>0</v>
       </c>
       <c r="V19" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W19" t="n">
         <v>0</v>
@@ -2080,16 +2080,16 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C20" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D20" t="n">
-        <v>190.8258204459377</v>
+        <v>0</v>
       </c>
       <c r="E20" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F20" t="n">
         <v>406.8760457417114</v>
@@ -2098,10 +2098,10 @@
         <v>413.784170020795</v>
       </c>
       <c r="H20" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -2128,28 +2128,28 @@
         <v>0</v>
       </c>
       <c r="R20" t="n">
-        <v>54.47840257481171</v>
+        <v>54.4784025748117</v>
       </c>
       <c r="S20" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T20" t="n">
         <v>0</v>
       </c>
       <c r="U20" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V20" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W20" t="n">
-        <v>0</v>
+        <v>181.7508773607583</v>
       </c>
       <c r="X20" t="n">
         <v>0</v>
       </c>
       <c r="Y20" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="21">
@@ -2207,7 +2207,7 @@
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>49.71123688229251</v>
+        <v>49.71123688229331</v>
       </c>
       <c r="S21" t="n">
         <v>156.5912426325231</v>
@@ -2238,7 +2238,7 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C22" t="n">
         <v>0</v>
@@ -2250,13 +2250,13 @@
         <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
         <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>156.1708888417951</v>
       </c>
       <c r="I22" t="n">
         <v>0</v>
@@ -2286,22 +2286,22 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>146.6651919801578</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>212.1455389500189</v>
       </c>
       <c r="T22" t="n">
-        <v>225.0351054580843</v>
+        <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>0</v>
+        <v>7.041474567306137</v>
       </c>
       <c r="V22" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W22" t="n">
-        <v>10.43941339835948</v>
+        <v>0</v>
       </c>
       <c r="X22" t="n">
         <v>0</v>
@@ -2323,7 +2323,7 @@
         <v>0</v>
       </c>
       <c r="D23" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E23" t="n">
         <v>381.9303700722618</v>
@@ -2332,7 +2332,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G23" t="n">
-        <v>0</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H23" t="n">
         <v>0</v>
@@ -2365,13 +2365,13 @@
         <v>0</v>
       </c>
       <c r="R23" t="n">
-        <v>54.47840257481171</v>
+        <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T23" t="n">
-        <v>216.4483203576578</v>
+        <v>94.28605601595055</v>
       </c>
       <c r="U23" t="n">
         <v>251.2241675082893</v>
@@ -2380,10 +2380,10 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W23" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X23" t="n">
-        <v>68.16986319857435</v>
+        <v>0</v>
       </c>
       <c r="Y23" t="n">
         <v>386.2379386560536</v>
@@ -2478,7 +2478,7 @@
         <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
         <v>0</v>
@@ -2487,16 +2487,16 @@
         <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>46.36452066793949</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H25" t="n">
-        <v>144.5450396847797</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>134.9656217923382</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2520,13 +2520,13 @@
         <v>0</v>
       </c>
       <c r="Q25" t="n">
-        <v>29.1227499549143</v>
+        <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>146.6651919801579</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>212.1455389500189</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
         <v>0</v>
@@ -2538,7 +2538,7 @@
         <v>0</v>
       </c>
       <c r="W25" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X25" t="n">
         <v>0</v>
@@ -2554,7 +2554,7 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C26" t="n">
         <v>0</v>
@@ -2563,7 +2563,7 @@
         <v>0</v>
       </c>
       <c r="E26" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F26" t="n">
         <v>406.8760457417114</v>
@@ -2572,10 +2572,10 @@
         <v>413.784170020795</v>
       </c>
       <c r="H26" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -2611,7 +2611,7 @@
         <v>0</v>
       </c>
       <c r="U26" t="n">
-        <v>43.53636164073672</v>
+        <v>198.2175085914299</v>
       </c>
       <c r="V26" t="n">
         <v>327.7522584701349</v>
@@ -2620,10 +2620,10 @@
         <v>349.240968717413</v>
       </c>
       <c r="X26" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y26" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="27">
@@ -2654,7 +2654,7 @@
         <v>104.3883541553076</v>
       </c>
       <c r="I27" t="n">
-        <v>61.42221998250796</v>
+        <v>61.4222199825084</v>
       </c>
       <c r="J27" t="n">
         <v>0</v>
@@ -2715,13 +2715,13 @@
         <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
         <v>0</v>
@@ -2730,7 +2730,7 @@
         <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>156.1708888417951</v>
       </c>
       <c r="I28" t="n">
         <v>0</v>
@@ -2766,13 +2766,13 @@
         <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>225.0351054580843</v>
+        <v>48.97699675700475</v>
       </c>
       <c r="U28" t="n">
-        <v>286.2818742419777</v>
+        <v>0</v>
       </c>
       <c r="V28" t="n">
-        <v>156.1271626621471</v>
+        <v>0</v>
       </c>
       <c r="W28" t="n">
         <v>0</v>
@@ -2794,13 +2794,13 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C29" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D29" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E29" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F29" t="n">
         <v>406.8760457417114</v>
@@ -2809,7 +2809,7 @@
         <v>413.784170020795</v>
       </c>
       <c r="H29" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I29" t="n">
         <v>0</v>
@@ -2839,28 +2839,28 @@
         <v>0</v>
       </c>
       <c r="R29" t="n">
-        <v>0</v>
+        <v>54.4784025748117</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
       </c>
       <c r="T29" t="n">
-        <v>0</v>
+        <v>42.83366755569753</v>
       </c>
       <c r="U29" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V29" t="n">
         <v>0</v>
       </c>
       <c r="W29" t="n">
-        <v>311.4936872159404</v>
+        <v>0</v>
       </c>
       <c r="X29" t="n">
         <v>0</v>
       </c>
       <c r="Y29" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="30">
@@ -2958,16 +2958,16 @@
         <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>79.32920716089187</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
         <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>156.1708888417951</v>
       </c>
       <c r="I31" t="n">
         <v>0</v>
@@ -3009,13 +3009,13 @@
         <v>0</v>
       </c>
       <c r="V31" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W31" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X31" t="n">
-        <v>128.7835007017899</v>
+        <v>0</v>
       </c>
       <c r="Y31" t="n">
         <v>0</v>
@@ -3034,16 +3034,16 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D32" t="n">
-        <v>0</v>
+        <v>334.1169017826965</v>
       </c>
       <c r="E32" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F32" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G32" t="n">
-        <v>0</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H32" t="n">
         <v>0</v>
@@ -3088,13 +3088,13 @@
         <v>0</v>
       </c>
       <c r="V32" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W32" t="n">
-        <v>323.9918595228955</v>
+        <v>0</v>
       </c>
       <c r="X32" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y32" t="n">
         <v>386.2379386560536</v>
@@ -3195,22 +3195,22 @@
         <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>118.96213358952</v>
+        <v>27.23382699312513</v>
       </c>
       <c r="H34" t="n">
-        <v>156.1708888417951</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
         <v>134.9656217923382</v>
       </c>
       <c r="J34" t="n">
-        <v>45.19995918853699</v>
+        <v>0</v>
       </c>
       <c r="K34" t="n">
         <v>0</v>
@@ -3234,7 +3234,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>146.6651919801578</v>
       </c>
       <c r="S34" t="n">
         <v>212.1455389500189</v>
@@ -3274,7 +3274,7 @@
         <v>0</v>
       </c>
       <c r="E35" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F35" t="n">
         <v>406.8760457417114</v>
@@ -3283,7 +3283,7 @@
         <v>413.784170020795</v>
       </c>
       <c r="H35" t="n">
-        <v>0</v>
+        <v>100.7645774914518</v>
       </c>
       <c r="I35" t="n">
         <v>0</v>
@@ -3313,7 +3313,7 @@
         <v>0</v>
       </c>
       <c r="R35" t="n">
-        <v>0</v>
+        <v>54.4784025748117</v>
       </c>
       <c r="S35" t="n">
         <v>174.4157128089715</v>
@@ -3322,16 +3322,16 @@
         <v>0</v>
       </c>
       <c r="U35" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V35" t="n">
-        <v>219.5718016343162</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W35" t="n">
         <v>0</v>
       </c>
       <c r="X35" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y35" t="n">
         <v>386.2379386560536</v>
@@ -3395,7 +3395,7 @@
         <v>49.71123688229331</v>
       </c>
       <c r="S36" t="n">
-        <v>156.591242632523</v>
+        <v>156.5912426325231</v>
       </c>
       <c r="T36" t="n">
         <v>196.8897623984489</v>
@@ -3423,28 +3423,28 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>9.764863467406773</v>
+        <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
         <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>92.00803688215818</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3483,13 +3483,13 @@
         <v>0</v>
       </c>
       <c r="V37" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W37" t="n">
         <v>0</v>
       </c>
       <c r="X37" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y37" t="n">
         <v>0</v>
@@ -3505,7 +3505,7 @@
         <v>0</v>
       </c>
       <c r="C38" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D38" t="n">
         <v>0</v>
@@ -3514,16 +3514,16 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F38" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G38" t="n">
-        <v>227.9969626997665</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H38" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -3550,16 +3550,16 @@
         <v>0</v>
       </c>
       <c r="R38" t="n">
-        <v>54.4784025748117</v>
+        <v>0</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
       </c>
       <c r="T38" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U38" t="n">
-        <v>0</v>
+        <v>215.5278181602331</v>
       </c>
       <c r="V38" t="n">
         <v>327.7522584701349</v>
@@ -3596,7 +3596,7 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G39" t="n">
-        <v>136.5310119231965</v>
+        <v>136.5310119231968</v>
       </c>
       <c r="H39" t="n">
         <v>104.3883541553076</v>
@@ -3632,7 +3632,7 @@
         <v>49.71123688229331</v>
       </c>
       <c r="S39" t="n">
-        <v>156.591242632523</v>
+        <v>156.5912426325231</v>
       </c>
       <c r="T39" t="n">
         <v>196.8897623984489</v>
@@ -3666,19 +3666,19 @@
         <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
         <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>14.82811972447753</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
         <v>0</v>
@@ -3708,13 +3708,13 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S40" t="n">
         <v>212.1455389500189</v>
       </c>
       <c r="T40" t="n">
-        <v>0</v>
+        <v>162.1994487854631</v>
       </c>
       <c r="U40" t="n">
         <v>0</v>
@@ -3739,10 +3739,10 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C41" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D41" t="n">
         <v>0</v>
@@ -3757,10 +3757,10 @@
         <v>413.784170020795</v>
       </c>
       <c r="H41" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I41" t="n">
-        <v>144.025838395864</v>
+        <v>0</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -3787,19 +3787,19 @@
         <v>0</v>
       </c>
       <c r="R41" t="n">
-        <v>54.4784025748117</v>
+        <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T41" t="n">
-        <v>216.4483203576578</v>
+        <v>201.8547795715937</v>
       </c>
       <c r="U41" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V41" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W41" t="n">
         <v>0</v>
@@ -3808,7 +3808,7 @@
         <v>0</v>
       </c>
       <c r="Y41" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="42">
@@ -3906,16 +3906,16 @@
         <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>129.0246247964035</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>7.041474567305912</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>156.1708888417951</v>
       </c>
       <c r="I43" t="n">
         <v>0</v>
@@ -3945,19 +3945,19 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S43" t="n">
-        <v>0</v>
+        <v>212.1455389500189</v>
       </c>
       <c r="T43" t="n">
         <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>286.2818742419777</v>
+        <v>0</v>
       </c>
       <c r="V43" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W43" t="n">
         <v>0</v>
@@ -3976,16 +3976,16 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C44" t="n">
         <v>0</v>
       </c>
       <c r="D44" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E44" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F44" t="n">
         <v>406.8760457417114</v>
@@ -3997,7 +3997,7 @@
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -4027,25 +4027,25 @@
         <v>54.47840257481171</v>
       </c>
       <c r="S44" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T44" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U44" t="n">
-        <v>251.2241675082893</v>
+        <v>67.07659785038074</v>
       </c>
       <c r="V44" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W44" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X44" t="n">
-        <v>90.35535684952156</v>
+        <v>0</v>
       </c>
       <c r="Y44" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="45">
@@ -4140,7 +4140,7 @@
         <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
         <v>0</v>
@@ -4155,7 +4155,7 @@
         <v>156.1708888417951</v>
       </c>
       <c r="I46" t="n">
-        <v>134.9656217923382</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4182,16 +4182,16 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>76.3759062602239</v>
       </c>
       <c r="S46" t="n">
-        <v>212.1455389500189</v>
+        <v>0</v>
       </c>
       <c r="T46" t="n">
-        <v>164.1620927780565</v>
+        <v>0</v>
       </c>
       <c r="U46" t="n">
-        <v>0</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -4306,28 +4306,28 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>953.9655401424092</v>
+        <v>477.1596022224361</v>
       </c>
       <c r="C2" t="n">
-        <v>953.9655401424092</v>
+        <v>477.1596022224361</v>
       </c>
       <c r="D2" t="n">
-        <v>953.9655401424092</v>
+        <v>477.1596022224361</v>
       </c>
       <c r="E2" t="n">
-        <v>953.9655401424092</v>
+        <v>477.1596022224361</v>
       </c>
       <c r="F2" t="n">
-        <v>730.8505943024719</v>
+        <v>233.7108255783361</v>
       </c>
       <c r="G2" t="n">
-        <v>487.4018176583718</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H2" t="n">
-        <v>243.9530410142718</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I2" t="n">
-        <v>31.35113235729607</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J2" t="n">
         <v>19.28114311021272</v>
@@ -4351,31 +4351,31 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q2" t="n">
-        <v>953.9655401424092</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="R2" t="n">
-        <v>953.9655401424092</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S2" t="n">
-        <v>953.9655401424092</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T2" t="n">
-        <v>953.9655401424092</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U2" t="n">
-        <v>953.9655401424092</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="V2" t="n">
-        <v>953.9655401424092</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="W2" t="n">
-        <v>953.9655401424092</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="X2" t="n">
-        <v>953.9655401424092</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Y2" t="n">
-        <v>953.9655401424092</v>
+        <v>720.6083788665362</v>
       </c>
     </row>
     <row r="3">
@@ -4385,28 +4385,28 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>466.4486707798429</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C3" t="n">
-        <v>291.9956414987158</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D3" t="n">
-        <v>291.9956414987158</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E3" t="n">
-        <v>291.9956414987158</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F3" t="n">
-        <v>291.9956414987158</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G3" t="n">
-        <v>223.7040404982626</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H3" t="n">
-        <v>110.334904905842</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I3" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J3" t="n">
         <v>19.28114311021272</v>
@@ -4415,46 +4415,46 @@
         <v>144.6387031680501</v>
       </c>
       <c r="L3" t="n">
-        <v>234.810827406191</v>
+        <v>374.6018090363993</v>
       </c>
       <c r="M3" t="n">
-        <v>473.4149733950735</v>
+        <v>486.8488635328713</v>
       </c>
       <c r="N3" t="n">
-        <v>712.019119383956</v>
+        <v>725.4530095217538</v>
       </c>
       <c r="O3" t="n">
-        <v>712.019119383956</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="P3" t="n">
-        <v>894.6625969973069</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q3" t="n">
         <v>964.0571555106362</v>
       </c>
       <c r="R3" t="n">
-        <v>862.8876260635219</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S3" t="n">
-        <v>862.8876260635219</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T3" t="n">
-        <v>862.8876260635219</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U3" t="n">
-        <v>634.6640077999109</v>
+        <v>735.8335372470253</v>
       </c>
       <c r="V3" t="n">
-        <v>634.6640077999109</v>
+        <v>500.6814290152826</v>
       </c>
       <c r="W3" t="n">
-        <v>634.6640077999109</v>
+        <v>257.2326523711826</v>
       </c>
       <c r="X3" t="n">
-        <v>634.6640077999109</v>
+        <v>49.38115216564972</v>
       </c>
       <c r="Y3" t="n">
-        <v>634.6640077999109</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="4">
@@ -4464,31 +4464,31 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C4" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D4" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E4" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F4" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G4" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H4" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I4" t="n">
-        <v>136.0777814360265</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J4" t="n">
-        <v>41.77557929797318</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="K4" t="n">
         <v>19.28114311021272</v>
@@ -4521,19 +4521,19 @@
         <v>153.8134336004835</v>
       </c>
       <c r="U4" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="V4" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="W4" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="X4" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="Y4" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="5">
@@ -4543,28 +4543,28 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>964.0571555106362</v>
+        <v>518.2486856454962</v>
       </c>
       <c r="C5" t="n">
-        <v>964.0571555106362</v>
+        <v>518.2486856454962</v>
       </c>
       <c r="D5" t="n">
-        <v>964.0571555106362</v>
+        <v>518.2486856454962</v>
       </c>
       <c r="E5" t="n">
-        <v>964.0571555106362</v>
+        <v>518.2486856454962</v>
       </c>
       <c r="F5" t="n">
-        <v>720.6083788665362</v>
+        <v>274.7999090013961</v>
       </c>
       <c r="G5" t="n">
-        <v>477.1596022224361</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="H5" t="n">
-        <v>233.7108255783361</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="I5" t="n">
-        <v>21.10891692136039</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="J5" t="n">
         <v>19.28114311021272</v>
@@ -4588,31 +4588,31 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q5" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="R5" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="S5" t="n">
-        <v>964.0571555106362</v>
+        <v>761.6974622895962</v>
       </c>
       <c r="T5" t="n">
-        <v>964.0571555106362</v>
+        <v>761.6974622895962</v>
       </c>
       <c r="U5" t="n">
-        <v>964.0571555106362</v>
+        <v>761.6974622895962</v>
       </c>
       <c r="V5" t="n">
-        <v>964.0571555106362</v>
+        <v>761.6974622895962</v>
       </c>
       <c r="W5" t="n">
-        <v>964.0571555106362</v>
+        <v>761.6974622895962</v>
       </c>
       <c r="X5" t="n">
-        <v>964.0571555106362</v>
+        <v>761.6974622895962</v>
       </c>
       <c r="Y5" t="n">
-        <v>964.0571555106362</v>
+        <v>518.2486856454962</v>
       </c>
     </row>
     <row r="6">
@@ -4622,28 +4622,28 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>795.8418184905681</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C6" t="n">
-        <v>795.8418184905681</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D6" t="n">
-        <v>668.2068788942177</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E6" t="n">
-        <v>508.9694238887622</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F6" t="n">
-        <v>362.4348659156472</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G6" t="n">
-        <v>223.7040404982626</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H6" t="n">
-        <v>110.334904905842</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I6" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J6" t="n">
         <v>19.28114311021272</v>
@@ -4652,10 +4652,10 @@
         <v>144.6387031680501</v>
       </c>
       <c r="L6" t="n">
-        <v>144.6387031680501</v>
+        <v>374.6018090363993</v>
       </c>
       <c r="M6" t="n">
-        <v>383.2428491569326</v>
+        <v>542.809531908403</v>
       </c>
       <c r="N6" t="n">
         <v>542.809531908403</v>
@@ -4679,19 +4679,19 @@
         <v>964.0571555106362</v>
       </c>
       <c r="U6" t="n">
-        <v>964.0571555106362</v>
+        <v>735.8335372470253</v>
       </c>
       <c r="V6" t="n">
-        <v>964.0571555106362</v>
+        <v>500.6814290152826</v>
       </c>
       <c r="W6" t="n">
-        <v>964.0571555106362</v>
+        <v>257.2326523711826</v>
       </c>
       <c r="X6" t="n">
-        <v>964.0571555106362</v>
+        <v>227.0414418751666</v>
       </c>
       <c r="Y6" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="7">
@@ -4701,28 +4701,28 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C7" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D7" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E7" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F7" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G7" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H7" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I7" t="n">
-        <v>113.583345248266</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J7" t="n">
         <v>19.28114311021272</v>
@@ -4764,13 +4764,13 @@
         <v>153.8134336004835</v>
       </c>
       <c r="W7" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="X7" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="Y7" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="8">
@@ -4780,19 +4780,19 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>19.28114311021272</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="C8" t="n">
-        <v>19.28114311021272</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="D8" t="n">
-        <v>19.28114311021272</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="E8" t="n">
-        <v>19.28114311021272</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="F8" t="n">
-        <v>19.28114311021272</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="G8" t="n">
         <v>19.28114311021272</v>
@@ -4825,31 +4825,31 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q8" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="R8" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="S8" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="T8" t="n">
-        <v>749.627473042513</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="U8" t="n">
-        <v>749.627473042513</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="V8" t="n">
-        <v>506.1786963984129</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="W8" t="n">
-        <v>262.7299197543128</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="X8" t="n">
-        <v>19.28114311021272</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="Y8" t="n">
-        <v>19.28114311021272</v>
+        <v>710.516763498309</v>
       </c>
     </row>
     <row r="9">
@@ -4859,7 +4859,7 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>194.4883050441255</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="C9" t="n">
         <v>20.03527576299844</v>
@@ -4892,43 +4892,43 @@
         <v>374.6018090363993</v>
       </c>
       <c r="M9" t="n">
-        <v>542.809531908403</v>
+        <v>473.4149733950735</v>
       </c>
       <c r="N9" t="n">
-        <v>542.809531908403</v>
+        <v>473.4149733950735</v>
       </c>
       <c r="O9" t="n">
-        <v>781.4136778972854</v>
+        <v>712.019119383956</v>
       </c>
       <c r="P9" t="n">
-        <v>964.0571555106362</v>
+        <v>894.6625969973069</v>
       </c>
       <c r="Q9" t="n">
         <v>964.0571555106362</v>
       </c>
       <c r="R9" t="n">
-        <v>873.9209987167903</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S9" t="n">
-        <v>873.9209987167903</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T9" t="n">
-        <v>873.9209987167903</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U9" t="n">
-        <v>645.6973804531794</v>
+        <v>735.8335372470253</v>
       </c>
       <c r="V9" t="n">
-        <v>645.6973804531794</v>
+        <v>500.6814290152826</v>
       </c>
       <c r="W9" t="n">
-        <v>402.2486038090794</v>
+        <v>257.2326523711826</v>
       </c>
       <c r="X9" t="n">
-        <v>402.2486038090794</v>
+        <v>49.38115216564972</v>
       </c>
       <c r="Y9" t="n">
-        <v>194.4883050441255</v>
+        <v>20.03527576299844</v>
       </c>
     </row>
     <row r="10">
@@ -4938,19 +4938,19 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C10" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D10" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E10" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F10" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G10" t="n">
         <v>19.28114311021272</v>
@@ -4995,19 +4995,19 @@
         <v>153.8134336004835</v>
       </c>
       <c r="U10" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="V10" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="W10" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="X10" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="Y10" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="11">
@@ -5017,37 +5017,37 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>1363.553390680693</v>
+        <v>1208.982837814967</v>
       </c>
       <c r="C11" t="n">
-        <v>1363.553390680693</v>
+        <v>1208.982837814967</v>
       </c>
       <c r="D11" t="n">
-        <v>1363.553390680693</v>
+        <v>850.7171392082162</v>
       </c>
       <c r="E11" t="n">
-        <v>1363.553390680693</v>
+        <v>464.928886609972</v>
       </c>
       <c r="F11" t="n">
-        <v>952.5674858910851</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="G11" t="n">
-        <v>534.603677789272</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H11" t="n">
-        <v>207.4089578252748</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I11" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J11" t="n">
         <v>169.7108380533141</v>
       </c>
       <c r="K11" t="n">
-        <v>463.9616490733125</v>
+        <v>463.9616490733126</v>
       </c>
       <c r="L11" t="n">
-        <v>881.2824271224074</v>
+        <v>881.2824271224075</v>
       </c>
       <c r="M11" t="n">
         <v>1362.238747280443</v>
@@ -5065,28 +5065,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R11" t="n">
-        <v>2642.120401548715</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="S11" t="n">
-        <v>2465.942913862885</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="T11" t="n">
-        <v>2247.308246834948</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="U11" t="n">
-        <v>1993.54646147304</v>
+        <v>2443.387305656314</v>
       </c>
       <c r="V11" t="n">
-        <v>1662.483574129469</v>
+        <v>2112.324418312743</v>
       </c>
       <c r="W11" t="n">
-        <v>1363.553390680693</v>
+        <v>1759.555763042629</v>
       </c>
       <c r="X11" t="n">
-        <v>1363.553390680693</v>
+        <v>1599.122169790778</v>
       </c>
       <c r="Y11" t="n">
-        <v>1363.553390680693</v>
+        <v>1208.982837814967</v>
       </c>
     </row>
     <row r="12">
@@ -5096,7 +5096,7 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>988.4979752170825</v>
+        <v>988.4979752170833</v>
       </c>
       <c r="C12" t="n">
         <v>814.0449459359563</v>
@@ -5117,7 +5117,7 @@
         <v>115.9856282673424</v>
       </c>
       <c r="I12" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J12" t="n">
         <v>129.2001442204943</v>
@@ -5147,22 +5147,22 @@
         <v>2646.935720430047</v>
       </c>
       <c r="S12" t="n">
-        <v>2488.762748073963</v>
+        <v>2488.762748073964</v>
       </c>
       <c r="T12" t="n">
-        <v>2289.884200196742</v>
+        <v>2289.884200196743</v>
       </c>
       <c r="U12" t="n">
         <v>2061.714576167582</v>
       </c>
       <c r="V12" t="n">
-        <v>1826.562467935839</v>
+        <v>1826.56246793584</v>
       </c>
       <c r="W12" t="n">
-        <v>1572.325111207637</v>
+        <v>1572.325111207638</v>
       </c>
       <c r="X12" t="n">
-        <v>1364.473611002104</v>
+        <v>1364.473611002105</v>
       </c>
       <c r="Y12" t="n">
         <v>1156.713312237151</v>
@@ -5175,31 +5175,31 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>222.942782082032</v>
+        <v>149.5382038240415</v>
       </c>
       <c r="C13" t="n">
-        <v>222.942782082032</v>
+        <v>149.5382038240415</v>
       </c>
       <c r="D13" t="n">
-        <v>222.942782082032</v>
+        <v>149.5382038240415</v>
       </c>
       <c r="E13" t="n">
-        <v>222.942782082032</v>
+        <v>149.5382038240415</v>
       </c>
       <c r="F13" t="n">
-        <v>222.942782082032</v>
+        <v>149.5382038240415</v>
       </c>
       <c r="G13" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H13" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I13" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J13" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K13" t="n">
         <v>110.2451748866326</v>
@@ -5220,31 +5220,31 @@
         <v>728.1289842064342</v>
       </c>
       <c r="Q13" t="n">
-        <v>698.7120650600561</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="R13" t="n">
-        <v>550.5654064942401</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="S13" t="n">
-        <v>336.2769833124028</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="T13" t="n">
-        <v>222.942782082032</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="U13" t="n">
-        <v>222.942782082032</v>
+        <v>438.9553738610022</v>
       </c>
       <c r="V13" t="n">
-        <v>222.942782082032</v>
+        <v>438.9553738610022</v>
       </c>
       <c r="W13" t="n">
-        <v>222.942782082032</v>
+        <v>149.5382038240415</v>
       </c>
       <c r="X13" t="n">
-        <v>222.942782082032</v>
+        <v>149.5382038240415</v>
       </c>
       <c r="Y13" t="n">
-        <v>222.942782082032</v>
+        <v>149.5382038240415</v>
       </c>
     </row>
     <row r="14">
@@ -5254,76 +5254,76 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>1314.38774159731</v>
+        <v>1241.158393318536</v>
       </c>
       <c r="C14" t="n">
-        <v>945.4252246568979</v>
+        <v>1241.158393318536</v>
       </c>
       <c r="D14" t="n">
-        <v>945.4252246568979</v>
+        <v>882.8926947117852</v>
       </c>
       <c r="E14" t="n">
-        <v>559.6369720586536</v>
+        <v>882.8926947117852</v>
       </c>
       <c r="F14" t="n">
-        <v>559.6369720586536</v>
+        <v>471.9067899221776</v>
       </c>
       <c r="G14" t="n">
-        <v>141.6731639568404</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H14" t="n">
-        <v>53.94298182036443</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I14" t="n">
-        <v>53.94298182036443</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J14" t="n">
-        <v>169.7108380533141</v>
+        <v>169.7108380533142</v>
       </c>
       <c r="K14" t="n">
-        <v>463.9616490733125</v>
+        <v>463.9616490733126</v>
       </c>
       <c r="L14" t="n">
-        <v>881.2824271224074</v>
+        <v>881.2824271224079</v>
       </c>
       <c r="M14" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N14" t="n">
-        <v>1836.345445977174</v>
+        <v>1836.345445977175</v>
       </c>
       <c r="O14" t="n">
         <v>2238.843319642689</v>
       </c>
       <c r="P14" t="n">
-        <v>2544.691559791251</v>
+        <v>2544.691559791252</v>
       </c>
       <c r="Q14" t="n">
-        <v>2697.149091018221</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="R14" t="n">
-        <v>2642.120401548715</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="S14" t="n">
-        <v>2642.120401548715</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="T14" t="n">
-        <v>2642.120401548715</v>
+        <v>2423.485734520778</v>
       </c>
       <c r="U14" t="n">
-        <v>2388.358616186806</v>
+        <v>2423.485734520778</v>
       </c>
       <c r="V14" t="n">
-        <v>2057.295728843235</v>
+        <v>2092.422847177208</v>
       </c>
       <c r="W14" t="n">
-        <v>1704.527073573121</v>
+        <v>2004.763483555427</v>
       </c>
       <c r="X14" t="n">
-        <v>1704.527073573121</v>
+        <v>1631.297725294347</v>
       </c>
       <c r="Y14" t="n">
-        <v>1314.38774159731</v>
+        <v>1241.158393318536</v>
       </c>
     </row>
     <row r="15">
@@ -5354,31 +5354,31 @@
         <v>115.9856282673424</v>
       </c>
       <c r="I15" t="n">
-        <v>53.94298182036443</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J15" t="n">
-        <v>129.2001442204942</v>
+        <v>129.2001442204943</v>
       </c>
       <c r="K15" t="n">
-        <v>384.4474646615927</v>
+        <v>384.4474646615928</v>
       </c>
       <c r="L15" t="n">
-        <v>789.0633827572644</v>
+        <v>789.0633827572647</v>
       </c>
       <c r="M15" t="n">
-        <v>1313.210296315295</v>
+        <v>1313.210296315296</v>
       </c>
       <c r="N15" t="n">
-        <v>1866.936832414846</v>
+        <v>1748.695370517453</v>
       </c>
       <c r="O15" t="n">
-        <v>2307.07275543519</v>
+        <v>2188.831293537797</v>
       </c>
       <c r="P15" t="n">
-        <v>2643.317569050019</v>
+        <v>2525.076107152626</v>
       </c>
       <c r="Q15" t="n">
-        <v>2697.149091018221</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="R15" t="n">
         <v>2646.935720430048</v>
@@ -5412,76 +5412,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>53.94298182036443</v>
+        <v>280.0282177315058</v>
       </c>
       <c r="C16" t="n">
-        <v>53.94298182036443</v>
+        <v>280.0282177315058</v>
       </c>
       <c r="D16" t="n">
-        <v>53.94298182036443</v>
+        <v>200.8329293182748</v>
       </c>
       <c r="E16" t="n">
-        <v>53.94298182036443</v>
+        <v>200.8329293182748</v>
       </c>
       <c r="F16" t="n">
-        <v>53.94298182036443</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="G16" t="n">
-        <v>53.94298182036443</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H16" t="n">
-        <v>53.94298182036443</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I16" t="n">
-        <v>53.94298182036443</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J16" t="n">
-        <v>53.94298182036443</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K16" t="n">
-        <v>110.2451748866325</v>
+        <v>110.2451748866326</v>
       </c>
       <c r="L16" t="n">
-        <v>237.8190324477909</v>
+        <v>237.819032447791</v>
       </c>
       <c r="M16" t="n">
-        <v>382.7169011658208</v>
+        <v>382.7169011658209</v>
       </c>
       <c r="N16" t="n">
-        <v>529.6040388502498</v>
+        <v>529.6040388502499</v>
       </c>
       <c r="O16" t="n">
-        <v>649.26178935949</v>
+        <v>649.2617893594901</v>
       </c>
       <c r="P16" t="n">
-        <v>728.1289842064341</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Q16" t="n">
-        <v>698.712065060056</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="R16" t="n">
-        <v>550.5654064942401</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="S16" t="n">
-        <v>336.2769833124028</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="T16" t="n">
-        <v>108.9687959810045</v>
+        <v>500.820796875036</v>
       </c>
       <c r="U16" t="n">
-        <v>53.94298182036443</v>
+        <v>500.820796875036</v>
       </c>
       <c r="V16" t="n">
-        <v>53.94298182036443</v>
+        <v>500.820796875036</v>
       </c>
       <c r="W16" t="n">
-        <v>53.94298182036443</v>
+        <v>500.820796875036</v>
       </c>
       <c r="X16" t="n">
-        <v>53.94298182036443</v>
+        <v>500.820796875036</v>
       </c>
       <c r="Y16" t="n">
-        <v>53.94298182036443</v>
+        <v>280.0282177315058</v>
       </c>
     </row>
     <row r="17">
@@ -5491,34 +5491,34 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>940.7730915590421</v>
+        <v>2013.317548404538</v>
       </c>
       <c r="C17" t="n">
-        <v>940.7730915590421</v>
+        <v>1644.355031464126</v>
       </c>
       <c r="D17" t="n">
-        <v>940.7730915590421</v>
+        <v>1286.089332857376</v>
       </c>
       <c r="E17" t="n">
-        <v>940.7730915590421</v>
+        <v>900.3010802591316</v>
       </c>
       <c r="F17" t="n">
-        <v>529.7871867694346</v>
+        <v>799.1015098861748</v>
       </c>
       <c r="G17" t="n">
-        <v>111.8233786676215</v>
+        <v>381.1377017843616</v>
       </c>
       <c r="H17" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I17" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J17" t="n">
-        <v>169.7108380533143</v>
+        <v>169.7108380533142</v>
       </c>
       <c r="K17" t="n">
-        <v>463.9616490733129</v>
+        <v>463.9616490733127</v>
       </c>
       <c r="L17" t="n">
         <v>881.2824271224076</v>
@@ -5527,40 +5527,40 @@
         <v>1362.238747280443</v>
       </c>
       <c r="N17" t="n">
-        <v>1836.345445977174</v>
+        <v>1836.345445977175</v>
       </c>
       <c r="O17" t="n">
         <v>2238.843319642689</v>
       </c>
       <c r="P17" t="n">
-        <v>2544.691559791252</v>
+        <v>2544.691559791253</v>
       </c>
       <c r="Q17" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="R17" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="S17" t="n">
-        <v>2520.971603332392</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="T17" t="n">
-        <v>2302.336936304455</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="U17" t="n">
-        <v>2048.575150942546</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="V17" t="n">
-        <v>1717.512263598976</v>
+        <v>2366.086203674652</v>
       </c>
       <c r="W17" t="n">
-        <v>1717.512263598976</v>
+        <v>2013.317548404538</v>
       </c>
       <c r="X17" t="n">
-        <v>1717.512263598976</v>
+        <v>2013.317548404538</v>
       </c>
       <c r="Y17" t="n">
-        <v>1327.372931623164</v>
+        <v>2013.317548404538</v>
       </c>
     </row>
     <row r="18">
@@ -5591,40 +5591,40 @@
         <v>115.9856282673424</v>
       </c>
       <c r="I18" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J18" t="n">
-        <v>53.94298182036444</v>
+        <v>129.2001442204943</v>
       </c>
       <c r="K18" t="n">
-        <v>309.1903022614629</v>
+        <v>384.4474646615928</v>
       </c>
       <c r="L18" t="n">
-        <v>713.8062203571346</v>
+        <v>789.0633827572647</v>
       </c>
       <c r="M18" t="n">
-        <v>1237.953133915165</v>
+        <v>1313.210296315296</v>
       </c>
       <c r="N18" t="n">
-        <v>1748.695370517452</v>
+        <v>1866.936832414847</v>
       </c>
       <c r="O18" t="n">
-        <v>2188.831293537796</v>
+        <v>2307.072755435191</v>
       </c>
       <c r="P18" t="n">
-        <v>2525.076107152625</v>
+        <v>2643.31756905002</v>
       </c>
       <c r="Q18" t="n">
         <v>2697.149091018222</v>
       </c>
       <c r="R18" t="n">
-        <v>2646.935720430047</v>
+        <v>2646.935720430048</v>
       </c>
       <c r="S18" t="n">
-        <v>2488.762748073963</v>
+        <v>2488.762748073964</v>
       </c>
       <c r="T18" t="n">
-        <v>2289.884200196742</v>
+        <v>2289.884200196743</v>
       </c>
       <c r="U18" t="n">
         <v>2061.714576167582</v>
@@ -5649,76 +5649,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>473.4444960005472</v>
+        <v>201.8560754027576</v>
       </c>
       <c r="C19" t="n">
-        <v>304.5083130726404</v>
+        <v>201.8560754027576</v>
       </c>
       <c r="D19" t="n">
-        <v>304.5083130726404</v>
+        <v>201.8560754027576</v>
       </c>
       <c r="E19" t="n">
-        <v>304.5083130726404</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="F19" t="n">
-        <v>157.61836557473</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="G19" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H19" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I19" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J19" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K19" t="n">
-        <v>110.2451748866325</v>
+        <v>110.2451748866326</v>
       </c>
       <c r="L19" t="n">
-        <v>237.819032447791</v>
+        <v>237.8190324477911</v>
       </c>
       <c r="M19" t="n">
-        <v>382.7169011658208</v>
+        <v>382.716901165821</v>
       </c>
       <c r="N19" t="n">
-        <v>529.6040388502498</v>
+        <v>529.6040388502502</v>
       </c>
       <c r="O19" t="n">
-        <v>649.26178935949</v>
+        <v>649.2617893594903</v>
       </c>
       <c r="P19" t="n">
-        <v>728.1289842064341</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="Q19" t="n">
-        <v>728.1289842064341</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="R19" t="n">
-        <v>728.1289842064341</v>
+        <v>579.9823256406185</v>
       </c>
       <c r="S19" t="n">
-        <v>728.1289842064341</v>
+        <v>383.5045402329973</v>
       </c>
       <c r="T19" t="n">
-        <v>728.1289842064341</v>
+        <v>383.5045402329973</v>
       </c>
       <c r="U19" t="n">
-        <v>728.1289842064341</v>
+        <v>383.5045402329973</v>
       </c>
       <c r="V19" t="n">
-        <v>473.4444960005472</v>
+        <v>383.5045402329973</v>
       </c>
       <c r="W19" t="n">
-        <v>473.4444960005472</v>
+        <v>383.5045402329973</v>
       </c>
       <c r="X19" t="n">
-        <v>473.4444960005472</v>
+        <v>383.5045402329973</v>
       </c>
       <c r="Y19" t="n">
-        <v>473.4444960005472</v>
+        <v>383.5045402329973</v>
       </c>
     </row>
     <row r="20">
@@ -5728,76 +5728,76 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>2311.057514205144</v>
+        <v>1251.855211652197</v>
       </c>
       <c r="C20" t="n">
-        <v>1942.094997264733</v>
+        <v>882.8926947117852</v>
       </c>
       <c r="D20" t="n">
-        <v>1749.341643278937</v>
+        <v>882.8926947117852</v>
       </c>
       <c r="E20" t="n">
-        <v>1363.553390680693</v>
+        <v>882.8926947117852</v>
       </c>
       <c r="F20" t="n">
-        <v>952.5674858910851</v>
+        <v>471.9067899221776</v>
       </c>
       <c r="G20" t="n">
-        <v>534.603677789272</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H20" t="n">
-        <v>207.4089578252748</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I20" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J20" t="n">
-        <v>169.7108380533141</v>
+        <v>169.7108380533142</v>
       </c>
       <c r="K20" t="n">
-        <v>463.9616490733126</v>
+        <v>463.9616490733127</v>
       </c>
       <c r="L20" t="n">
-        <v>881.2824271224075</v>
+        <v>881.2824271224076</v>
       </c>
       <c r="M20" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N20" t="n">
-        <v>1836.345445977174</v>
+        <v>1836.345445977175</v>
       </c>
       <c r="O20" t="n">
         <v>2238.843319642689</v>
       </c>
       <c r="P20" t="n">
-        <v>2544.691559791252</v>
+        <v>2544.691559791253</v>
       </c>
       <c r="Q20" t="n">
         <v>2697.149091018222</v>
       </c>
       <c r="R20" t="n">
-        <v>2642.120401548715</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="S20" t="n">
-        <v>2642.120401548715</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="T20" t="n">
-        <v>2642.120401548715</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="U20" t="n">
-        <v>2642.120401548715</v>
+        <v>2212.181128500977</v>
       </c>
       <c r="V20" t="n">
-        <v>2311.057514205144</v>
+        <v>2212.181128500977</v>
       </c>
       <c r="W20" t="n">
-        <v>2311.057514205144</v>
+        <v>2028.59438369213</v>
       </c>
       <c r="X20" t="n">
-        <v>2311.057514205144</v>
+        <v>2028.59438369213</v>
       </c>
       <c r="Y20" t="n">
-        <v>2311.057514205144</v>
+        <v>1638.455051716319</v>
       </c>
     </row>
     <row r="21">
@@ -5807,19 +5807,19 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>988.4979752170833</v>
+        <v>988.497975217083</v>
       </c>
       <c r="C21" t="n">
-        <v>814.0449459359563</v>
+        <v>814.044945935956</v>
       </c>
       <c r="D21" t="n">
-        <v>665.1105362747051</v>
+        <v>665.1105362747046</v>
       </c>
       <c r="E21" t="n">
-        <v>505.8730812692495</v>
+        <v>505.873081269249</v>
       </c>
       <c r="F21" t="n">
-        <v>359.3385232961344</v>
+        <v>359.3385232961342</v>
       </c>
       <c r="G21" t="n">
         <v>221.4284102424006</v>
@@ -5828,7 +5828,7 @@
         <v>115.9856282673424</v>
       </c>
       <c r="I21" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J21" t="n">
         <v>129.2001442204943</v>
@@ -5846,28 +5846,28 @@
         <v>1866.936832414847</v>
       </c>
       <c r="O21" t="n">
-        <v>2188.831293537796</v>
+        <v>2307.072755435191</v>
       </c>
       <c r="P21" t="n">
-        <v>2525.076107152625</v>
+        <v>2643.31756905002</v>
       </c>
       <c r="Q21" t="n">
         <v>2697.149091018222</v>
       </c>
       <c r="R21" t="n">
-        <v>2646.935720430048</v>
+        <v>2646.935720430047</v>
       </c>
       <c r="S21" t="n">
-        <v>2488.762748073964</v>
+        <v>2488.762748073963</v>
       </c>
       <c r="T21" t="n">
-        <v>2289.884200196743</v>
+        <v>2289.884200196742</v>
       </c>
       <c r="U21" t="n">
         <v>2061.714576167582</v>
       </c>
       <c r="V21" t="n">
-        <v>1826.56246793584</v>
+        <v>1826.562467935839</v>
       </c>
       <c r="W21" t="n">
         <v>1572.325111207638</v>
@@ -5886,76 +5886,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>53.94298182036444</v>
+        <v>358.5813018857447</v>
       </c>
       <c r="C22" t="n">
-        <v>53.94298182036444</v>
+        <v>358.5813018857447</v>
       </c>
       <c r="D22" t="n">
-        <v>53.94298182036444</v>
+        <v>358.5813018857447</v>
       </c>
       <c r="E22" t="n">
-        <v>53.94298182036444</v>
+        <v>358.5813018857447</v>
       </c>
       <c r="F22" t="n">
-        <v>53.94298182036444</v>
+        <v>211.6913543878343</v>
       </c>
       <c r="G22" t="n">
-        <v>53.94298182036444</v>
+        <v>211.6913543878343</v>
       </c>
       <c r="H22" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I22" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J22" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K22" t="n">
         <v>110.2451748866326</v>
       </c>
       <c r="L22" t="n">
-        <v>237.819032447791</v>
+        <v>237.8190324477911</v>
       </c>
       <c r="M22" t="n">
-        <v>382.7169011658209</v>
+        <v>382.716901165821</v>
       </c>
       <c r="N22" t="n">
-        <v>529.6040388502499</v>
+        <v>529.6040388502502</v>
       </c>
       <c r="O22" t="n">
-        <v>649.2617893594901</v>
+        <v>649.2617893594903</v>
       </c>
       <c r="P22" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="Q22" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="R22" t="n">
-        <v>728.1289842064342</v>
+        <v>579.9823256406185</v>
       </c>
       <c r="S22" t="n">
-        <v>728.1289842064342</v>
+        <v>365.6939024587812</v>
       </c>
       <c r="T22" t="n">
-        <v>500.820796875036</v>
+        <v>365.6939024587812</v>
       </c>
       <c r="U22" t="n">
-        <v>500.820796875036</v>
+        <v>358.5813018857447</v>
       </c>
       <c r="V22" t="n">
-        <v>246.1363086691491</v>
+        <v>358.5813018857447</v>
       </c>
       <c r="W22" t="n">
-        <v>235.5914466506042</v>
+        <v>358.5813018857447</v>
       </c>
       <c r="X22" t="n">
-        <v>235.5914466506042</v>
+        <v>358.5813018857447</v>
       </c>
       <c r="Y22" t="n">
-        <v>235.5914466506042</v>
+        <v>358.5813018857447</v>
       </c>
     </row>
     <row r="23">
@@ -5965,76 +5965,76 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>850.7171392082162</v>
+        <v>1626.94664591678</v>
       </c>
       <c r="C23" t="n">
-        <v>850.7171392082162</v>
+        <v>1626.94664591678</v>
       </c>
       <c r="D23" t="n">
-        <v>850.7171392082162</v>
+        <v>1268.68094731003</v>
       </c>
       <c r="E23" t="n">
-        <v>464.928886609972</v>
+        <v>882.8926947117852</v>
       </c>
       <c r="F23" t="n">
-        <v>53.94298182036445</v>
+        <v>471.9067899221776</v>
       </c>
       <c r="G23" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="H23" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="I23" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J23" t="n">
         <v>169.7108380533141</v>
       </c>
       <c r="K23" t="n">
-        <v>463.9616490733126</v>
+        <v>463.9616490733129</v>
       </c>
       <c r="L23" t="n">
-        <v>881.2824271224075</v>
+        <v>881.2824271224081</v>
       </c>
       <c r="M23" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N23" t="n">
-        <v>1836.345445977174</v>
+        <v>1836.345445977175</v>
       </c>
       <c r="O23" t="n">
         <v>2238.843319642689</v>
       </c>
       <c r="P23" t="n">
-        <v>2544.691559791252</v>
+        <v>2544.691559791253</v>
       </c>
       <c r="Q23" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="R23" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="S23" t="n">
-        <v>2465.942913862886</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="T23" t="n">
-        <v>2247.308246834948</v>
+        <v>2601.910650598071</v>
       </c>
       <c r="U23" t="n">
-        <v>1993.54646147304</v>
+        <v>2348.148865236162</v>
       </c>
       <c r="V23" t="n">
-        <v>1662.48357412947</v>
+        <v>2017.085977892592</v>
       </c>
       <c r="W23" t="n">
-        <v>1309.714918859356</v>
+        <v>2017.085977892592</v>
       </c>
       <c r="X23" t="n">
-        <v>1240.856471184028</v>
+        <v>2017.085977892592</v>
       </c>
       <c r="Y23" t="n">
-        <v>850.7171392082162</v>
+        <v>1626.94664591678</v>
       </c>
     </row>
     <row r="24">
@@ -6044,67 +6044,67 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>988.497975217083</v>
+        <v>988.4979752170833</v>
       </c>
       <c r="C24" t="n">
-        <v>814.044945935956</v>
+        <v>814.0449459359563</v>
       </c>
       <c r="D24" t="n">
-        <v>665.1105362747046</v>
+        <v>665.1105362747051</v>
       </c>
       <c r="E24" t="n">
-        <v>505.873081269249</v>
+        <v>505.8730812692495</v>
       </c>
       <c r="F24" t="n">
-        <v>359.3385232961342</v>
+        <v>359.3385232961344</v>
       </c>
       <c r="G24" t="n">
-        <v>221.4284102424003</v>
+        <v>221.4284102424006</v>
       </c>
       <c r="H24" t="n">
         <v>115.9856282673424</v>
       </c>
       <c r="I24" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J24" t="n">
-        <v>53.94298182036445</v>
+        <v>129.2001442204943</v>
       </c>
       <c r="K24" t="n">
-        <v>309.190302261463</v>
+        <v>384.4474646615928</v>
       </c>
       <c r="L24" t="n">
-        <v>713.8062203571349</v>
+        <v>789.0633827572647</v>
       </c>
       <c r="M24" t="n">
-        <v>1237.953133915166</v>
+        <v>1313.210296315296</v>
       </c>
       <c r="N24" t="n">
-        <v>1791.679670014717</v>
+        <v>1866.936832414847</v>
       </c>
       <c r="O24" t="n">
-        <v>2188.831293537797</v>
+        <v>2307.072755435191</v>
       </c>
       <c r="P24" t="n">
-        <v>2525.076107152626</v>
+        <v>2627.754532504894</v>
       </c>
       <c r="Q24" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="R24" t="n">
-        <v>2646.935720430047</v>
+        <v>2646.935720430048</v>
       </c>
       <c r="S24" t="n">
-        <v>2488.762748073963</v>
+        <v>2488.762748073964</v>
       </c>
       <c r="T24" t="n">
-        <v>2289.884200196742</v>
+        <v>2289.884200196743</v>
       </c>
       <c r="U24" t="n">
         <v>2061.714576167582</v>
       </c>
       <c r="V24" t="n">
-        <v>1826.562467935839</v>
+        <v>1826.56246793584</v>
       </c>
       <c r="W24" t="n">
         <v>1572.325111207638</v>
@@ -6123,76 +6123,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>336.2769833124028</v>
+        <v>438.7118141694738</v>
       </c>
       <c r="C25" t="n">
-        <v>336.2769833124028</v>
+        <v>269.7756312415669</v>
       </c>
       <c r="D25" t="n">
-        <v>336.2769833124028</v>
+        <v>269.7756312415669</v>
       </c>
       <c r="E25" t="n">
-        <v>336.2769833124028</v>
+        <v>269.7756312415669</v>
       </c>
       <c r="F25" t="n">
-        <v>336.2769833124028</v>
+        <v>222.942782082032</v>
       </c>
       <c r="G25" t="n">
-        <v>336.2769833124028</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="H25" t="n">
-        <v>190.2718927217162</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="I25" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J25" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="K25" t="n">
         <v>110.2451748866326</v>
       </c>
       <c r="L25" t="n">
-        <v>237.819032447791</v>
+        <v>237.8190324477911</v>
       </c>
       <c r="M25" t="n">
-        <v>382.7169011658209</v>
+        <v>382.716901165821</v>
       </c>
       <c r="N25" t="n">
-        <v>529.6040388502499</v>
+        <v>529.6040388502502</v>
       </c>
       <c r="O25" t="n">
-        <v>649.2617893594901</v>
+        <v>649.2617893594903</v>
       </c>
       <c r="P25" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="Q25" t="n">
-        <v>698.7120650600561</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="R25" t="n">
-        <v>550.5654064942401</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="S25" t="n">
-        <v>336.2769833124028</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="T25" t="n">
-        <v>336.2769833124028</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="U25" t="n">
-        <v>336.2769833124028</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="V25" t="n">
-        <v>336.2769833124028</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="W25" t="n">
-        <v>336.2769833124028</v>
+        <v>438.7118141694738</v>
       </c>
       <c r="X25" t="n">
-        <v>336.2769833124028</v>
+        <v>438.7118141694738</v>
       </c>
       <c r="Y25" t="n">
-        <v>336.2769833124028</v>
+        <v>438.7118141694738</v>
       </c>
     </row>
     <row r="26">
@@ -6202,76 +6202,76 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>1595.875667274027</v>
+        <v>1036.358670716696</v>
       </c>
       <c r="C26" t="n">
-        <v>1595.875667274027</v>
+        <v>1036.358670716696</v>
       </c>
       <c r="D26" t="n">
-        <v>1595.875667274027</v>
+        <v>1036.358670716696</v>
       </c>
       <c r="E26" t="n">
-        <v>1210.087414675782</v>
+        <v>1036.358670716696</v>
       </c>
       <c r="F26" t="n">
-        <v>799.1015098861748</v>
+        <v>625.3727659270879</v>
       </c>
       <c r="G26" t="n">
-        <v>381.1377017843616</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="H26" t="n">
-        <v>53.94298182036445</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="I26" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J26" t="n">
-        <v>169.7108380533142</v>
+        <v>169.7108380533141</v>
       </c>
       <c r="K26" t="n">
-        <v>463.9616490733126</v>
+        <v>463.9616490733129</v>
       </c>
       <c r="L26" t="n">
-        <v>881.2824271224074</v>
+        <v>881.2824271224077</v>
       </c>
       <c r="M26" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N26" t="n">
-        <v>1836.345445977174</v>
+        <v>1836.345445977175</v>
       </c>
       <c r="O26" t="n">
         <v>2238.843319642689</v>
       </c>
       <c r="P26" t="n">
-        <v>2544.691559791252</v>
+        <v>2544.691559791253</v>
       </c>
       <c r="Q26" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="R26" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="S26" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="T26" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="U26" t="n">
-        <v>2653.172968148791</v>
+        <v>2496.929385370314</v>
       </c>
       <c r="V26" t="n">
-        <v>2322.110080805221</v>
+        <v>2165.866498026743</v>
       </c>
       <c r="W26" t="n">
-        <v>1969.341425535107</v>
+        <v>1813.097842756629</v>
       </c>
       <c r="X26" t="n">
-        <v>1595.875667274027</v>
+        <v>1813.097842756629</v>
       </c>
       <c r="Y26" t="n">
-        <v>1595.875667274027</v>
+        <v>1422.958510780817</v>
       </c>
     </row>
     <row r="27">
@@ -6281,67 +6281,67 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>988.497975217083</v>
+        <v>988.4979752170834</v>
       </c>
       <c r="C27" t="n">
-        <v>814.044945935956</v>
+        <v>814.0449459359564</v>
       </c>
       <c r="D27" t="n">
-        <v>665.1105362747047</v>
+        <v>665.1105362747052</v>
       </c>
       <c r="E27" t="n">
-        <v>505.8730812692492</v>
+        <v>505.8730812692497</v>
       </c>
       <c r="F27" t="n">
-        <v>359.3385232961342</v>
+        <v>359.3385232961347</v>
       </c>
       <c r="G27" t="n">
-        <v>221.4284102424003</v>
+        <v>221.4284102424008</v>
       </c>
       <c r="H27" t="n">
-        <v>115.9856282673422</v>
+        <v>115.9856282673426</v>
       </c>
       <c r="I27" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J27" t="n">
-        <v>129.2001442204943</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="K27" t="n">
-        <v>384.4474646615928</v>
+        <v>309.190302261463</v>
       </c>
       <c r="L27" t="n">
-        <v>789.0633827572647</v>
+        <v>713.8062203571349</v>
       </c>
       <c r="M27" t="n">
-        <v>1313.210296315296</v>
+        <v>1237.953133915166</v>
       </c>
       <c r="N27" t="n">
-        <v>1866.936832414847</v>
+        <v>1791.679670014717</v>
       </c>
       <c r="O27" t="n">
-        <v>2307.072755435191</v>
+        <v>2188.831293537797</v>
       </c>
       <c r="P27" t="n">
-        <v>2643.31756905002</v>
+        <v>2525.076107152626</v>
       </c>
       <c r="Q27" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="R27" t="n">
-        <v>2646.935720430047</v>
+        <v>2646.935720430048</v>
       </c>
       <c r="S27" t="n">
-        <v>2488.762748073963</v>
+        <v>2488.762748073964</v>
       </c>
       <c r="T27" t="n">
-        <v>2289.884200196742</v>
+        <v>2289.884200196743</v>
       </c>
       <c r="U27" t="n">
         <v>2061.714576167582</v>
       </c>
       <c r="V27" t="n">
-        <v>1826.562467935839</v>
+        <v>1826.56246793584</v>
       </c>
       <c r="W27" t="n">
         <v>1572.325111207638</v>
@@ -6350,7 +6350,7 @@
         <v>1364.473611002105</v>
       </c>
       <c r="Y27" t="n">
-        <v>1156.713312237151</v>
+        <v>1156.713312237152</v>
       </c>
     </row>
     <row r="28">
@@ -6360,76 +6360,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>53.94298182036445</v>
+        <v>678.65727031047</v>
       </c>
       <c r="C28" t="n">
-        <v>53.94298182036445</v>
+        <v>509.7210873825632</v>
       </c>
       <c r="D28" t="n">
-        <v>53.94298182036445</v>
+        <v>359.6044479702274</v>
       </c>
       <c r="E28" t="n">
-        <v>53.94298182036445</v>
+        <v>211.6913543878343</v>
       </c>
       <c r="F28" t="n">
-        <v>53.94298182036445</v>
+        <v>211.6913543878343</v>
       </c>
       <c r="G28" t="n">
-        <v>53.94298182036445</v>
+        <v>211.6913543878343</v>
       </c>
       <c r="H28" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="I28" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J28" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="K28" t="n">
         <v>110.2451748866326</v>
       </c>
       <c r="L28" t="n">
-        <v>237.819032447791</v>
+        <v>237.8190324477911</v>
       </c>
       <c r="M28" t="n">
-        <v>382.7169011658209</v>
+        <v>382.716901165821</v>
       </c>
       <c r="N28" t="n">
-        <v>529.6040388502499</v>
+        <v>529.6040388502502</v>
       </c>
       <c r="O28" t="n">
-        <v>649.2617893594901</v>
+        <v>649.2617893594903</v>
       </c>
       <c r="P28" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="Q28" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="R28" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="S28" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="T28" t="n">
-        <v>500.820796875036</v>
+        <v>678.65727031047</v>
       </c>
       <c r="U28" t="n">
-        <v>211.6471865296039</v>
+        <v>678.65727031047</v>
       </c>
       <c r="V28" t="n">
-        <v>53.94298182036445</v>
+        <v>678.65727031047</v>
       </c>
       <c r="W28" t="n">
-        <v>53.94298182036445</v>
+        <v>678.65727031047</v>
       </c>
       <c r="X28" t="n">
-        <v>53.94298182036445</v>
+        <v>678.65727031047</v>
       </c>
       <c r="Y28" t="n">
-        <v>53.94298182036445</v>
+        <v>678.65727031047</v>
       </c>
     </row>
     <row r="29">
@@ -6439,28 +6439,28 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>1995.909162857192</v>
+        <v>1568.353113282533</v>
       </c>
       <c r="C29" t="n">
-        <v>1626.94664591678</v>
+        <v>1568.353113282533</v>
       </c>
       <c r="D29" t="n">
-        <v>1268.68094731003</v>
+        <v>1210.087414675782</v>
       </c>
       <c r="E29" t="n">
-        <v>882.8926947117852</v>
+        <v>1210.087414675782</v>
       </c>
       <c r="F29" t="n">
-        <v>471.9067899221776</v>
+        <v>799.1015098861748</v>
       </c>
       <c r="G29" t="n">
-        <v>53.94298182036445</v>
+        <v>381.1377017843616</v>
       </c>
       <c r="H29" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="I29" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J29" t="n">
         <v>169.7108380533142</v>
@@ -6469,13 +6469,13 @@
         <v>463.9616490733127</v>
       </c>
       <c r="L29" t="n">
-        <v>881.2824271224076</v>
+        <v>881.2824271224075</v>
       </c>
       <c r="M29" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N29" t="n">
-        <v>1836.345445977175</v>
+        <v>1836.345445977174</v>
       </c>
       <c r="O29" t="n">
         <v>2238.843319642689</v>
@@ -6487,28 +6487,28 @@
         <v>2697.149091018223</v>
       </c>
       <c r="R29" t="n">
-        <v>2697.149091018223</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="S29" t="n">
-        <v>2697.149091018223</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="T29" t="n">
-        <v>2697.149091018223</v>
+        <v>2598.854070684375</v>
       </c>
       <c r="U29" t="n">
-        <v>2697.149091018223</v>
+        <v>2345.092285322467</v>
       </c>
       <c r="V29" t="n">
-        <v>2697.149091018223</v>
+        <v>2345.092285322467</v>
       </c>
       <c r="W29" t="n">
-        <v>2382.509002921313</v>
+        <v>2345.092285322467</v>
       </c>
       <c r="X29" t="n">
-        <v>2382.509002921313</v>
+        <v>2345.092285322467</v>
       </c>
       <c r="Y29" t="n">
-        <v>2382.509002921313</v>
+        <v>1954.952953346655</v>
       </c>
     </row>
     <row r="30">
@@ -6518,28 +6518,28 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>988.497975217083</v>
+        <v>988.4979752170833</v>
       </c>
       <c r="C30" t="n">
-        <v>814.044945935956</v>
+        <v>814.0449459359563</v>
       </c>
       <c r="D30" t="n">
-        <v>665.1105362747046</v>
+        <v>665.1105362747051</v>
       </c>
       <c r="E30" t="n">
-        <v>505.873081269249</v>
+        <v>505.8730812692495</v>
       </c>
       <c r="F30" t="n">
-        <v>359.3385232961342</v>
+        <v>359.3385232961344</v>
       </c>
       <c r="G30" t="n">
-        <v>221.4284102424008</v>
+        <v>221.4284102424006</v>
       </c>
       <c r="H30" t="n">
-        <v>115.9856282673427</v>
+        <v>115.9856282673424</v>
       </c>
       <c r="I30" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J30" t="n">
         <v>129.2001442204943</v>
@@ -6548,37 +6548,37 @@
         <v>384.4474646615928</v>
       </c>
       <c r="L30" t="n">
-        <v>670.8219208598706</v>
+        <v>789.0633827572647</v>
       </c>
       <c r="M30" t="n">
-        <v>1194.968834417901</v>
+        <v>1313.210296315296</v>
       </c>
       <c r="N30" t="n">
-        <v>1748.695370517453</v>
+        <v>1866.936832414847</v>
       </c>
       <c r="O30" t="n">
-        <v>2188.831293537797</v>
+        <v>2307.072755435191</v>
       </c>
       <c r="P30" t="n">
-        <v>2525.076107152626</v>
+        <v>2643.31756905002</v>
       </c>
       <c r="Q30" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="R30" t="n">
-        <v>2646.935720430047</v>
+        <v>2646.935720430048</v>
       </c>
       <c r="S30" t="n">
-        <v>2488.762748073963</v>
+        <v>2488.762748073964</v>
       </c>
       <c r="T30" t="n">
-        <v>2289.884200196742</v>
+        <v>2289.884200196743</v>
       </c>
       <c r="U30" t="n">
         <v>2061.714576167582</v>
       </c>
       <c r="V30" t="n">
-        <v>1826.562467935839</v>
+        <v>1826.56246793584</v>
       </c>
       <c r="W30" t="n">
         <v>1572.325111207638</v>
@@ -6597,76 +6597,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>2022.963088632153</v>
+        <v>438.7118141694738</v>
       </c>
       <c r="C31" t="n">
-        <v>2022.963088632153</v>
+        <v>438.7118141694738</v>
       </c>
       <c r="D31" t="n">
-        <v>2022.963088632153</v>
+        <v>438.7118141694738</v>
       </c>
       <c r="E31" t="n">
-        <v>2022.963088632153</v>
+        <v>358.5813018857447</v>
       </c>
       <c r="F31" t="n">
-        <v>2022.963088632153</v>
+        <v>211.6913543878343</v>
       </c>
       <c r="G31" t="n">
-        <v>2022.963088632153</v>
+        <v>211.6913543878343</v>
       </c>
       <c r="H31" t="n">
-        <v>2022.963088632153</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="I31" t="n">
-        <v>2022.963088632153</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J31" t="n">
-        <v>2022.963088632153</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="K31" t="n">
-        <v>2079.265281698421</v>
+        <v>110.2451748866326</v>
       </c>
       <c r="L31" t="n">
-        <v>2206.839139259579</v>
+        <v>237.8190324477911</v>
       </c>
       <c r="M31" t="n">
-        <v>2351.737007977609</v>
+        <v>382.716901165821</v>
       </c>
       <c r="N31" t="n">
-        <v>2498.624145662038</v>
+        <v>529.6040388502502</v>
       </c>
       <c r="O31" t="n">
-        <v>2618.281896171278</v>
+        <v>649.2617893594903</v>
       </c>
       <c r="P31" t="n">
-        <v>2697.149091018222</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="Q31" t="n">
-        <v>2697.149091018222</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="R31" t="n">
-        <v>2697.149091018222</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="S31" t="n">
-        <v>2697.149091018222</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="T31" t="n">
-        <v>2697.149091018222</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="U31" t="n">
-        <v>2697.149091018222</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="V31" t="n">
-        <v>2442.464602812336</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="W31" t="n">
-        <v>2153.047432775375</v>
+        <v>438.7118141694738</v>
       </c>
       <c r="X31" t="n">
-        <v>2022.963088632153</v>
+        <v>438.7118141694738</v>
       </c>
       <c r="Y31" t="n">
-        <v>2022.963088632153</v>
+        <v>438.7118141694738</v>
       </c>
     </row>
     <row r="32">
@@ -6676,19 +6676,19 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>1219.679656148628</v>
+        <v>1589.347031634719</v>
       </c>
       <c r="C32" t="n">
-        <v>850.7171392082163</v>
+        <v>1220.384514694307</v>
       </c>
       <c r="D32" t="n">
-        <v>850.7171392082163</v>
+        <v>882.8926947117852</v>
       </c>
       <c r="E32" t="n">
-        <v>464.928886609972</v>
+        <v>882.8926947117852</v>
       </c>
       <c r="F32" t="n">
-        <v>53.94298182036446</v>
+        <v>471.9067899221776</v>
       </c>
       <c r="G32" t="n">
         <v>53.94298182036446</v>
@@ -6706,7 +6706,7 @@
         <v>463.9616490733127</v>
       </c>
       <c r="L32" t="n">
-        <v>881.2824271224076</v>
+        <v>881.2824271224075</v>
       </c>
       <c r="M32" t="n">
         <v>1362.238747280443</v>
@@ -6736,16 +6736,16 @@
         <v>2697.149091018223</v>
       </c>
       <c r="V32" t="n">
-        <v>2697.149091018223</v>
+        <v>2366.086203674652</v>
       </c>
       <c r="W32" t="n">
-        <v>2369.884586449642</v>
+        <v>2366.086203674652</v>
       </c>
       <c r="X32" t="n">
-        <v>1996.418828188562</v>
+        <v>2366.086203674652</v>
       </c>
       <c r="Y32" t="n">
-        <v>1606.27949621275</v>
+        <v>1975.94687169884</v>
       </c>
     </row>
     <row r="33">
@@ -6782,13 +6782,13 @@
         <v>129.2001442204943</v>
       </c>
       <c r="K33" t="n">
-        <v>266.2060027641992</v>
+        <v>384.4474646615928</v>
       </c>
       <c r="L33" t="n">
-        <v>670.8219208598711</v>
+        <v>789.0633827572647</v>
       </c>
       <c r="M33" t="n">
-        <v>1194.968834417902</v>
+        <v>1313.210296315296</v>
       </c>
       <c r="N33" t="n">
         <v>1748.695370517453</v>
@@ -6834,28 +6834,28 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>513.8405610245972</v>
+        <v>365.6939024587812</v>
       </c>
       <c r="C34" t="n">
-        <v>513.8405610245972</v>
+        <v>365.6939024587812</v>
       </c>
       <c r="D34" t="n">
-        <v>513.8405610245972</v>
+        <v>365.6939024587812</v>
       </c>
       <c r="E34" t="n">
-        <v>513.8405610245972</v>
+        <v>217.7808088763881</v>
       </c>
       <c r="F34" t="n">
-        <v>513.8405610245972</v>
+        <v>217.7808088763881</v>
       </c>
       <c r="G34" t="n">
-        <v>393.6767897220517</v>
+        <v>190.2718927217162</v>
       </c>
       <c r="H34" t="n">
-        <v>235.9284171545819</v>
+        <v>190.2718927217162</v>
       </c>
       <c r="I34" t="n">
-        <v>99.59950625323012</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J34" t="n">
         <v>53.94298182036446</v>
@@ -6882,28 +6882,28 @@
         <v>728.1289842064344</v>
       </c>
       <c r="R34" t="n">
-        <v>728.1289842064344</v>
+        <v>579.9823256406185</v>
       </c>
       <c r="S34" t="n">
-        <v>513.8405610245972</v>
+        <v>365.6939024587812</v>
       </c>
       <c r="T34" t="n">
-        <v>513.8405610245972</v>
+        <v>365.6939024587812</v>
       </c>
       <c r="U34" t="n">
-        <v>513.8405610245972</v>
+        <v>365.6939024587812</v>
       </c>
       <c r="V34" t="n">
-        <v>513.8405610245972</v>
+        <v>365.6939024587812</v>
       </c>
       <c r="W34" t="n">
-        <v>513.8405610245972</v>
+        <v>365.6939024587812</v>
       </c>
       <c r="X34" t="n">
-        <v>513.8405610245972</v>
+        <v>365.6939024587812</v>
       </c>
       <c r="Y34" t="n">
-        <v>513.8405610245972</v>
+        <v>365.6939024587812</v>
       </c>
     </row>
     <row r="35">
@@ -6913,22 +6913,22 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>1268.68094731003</v>
+        <v>984.6750962183021</v>
       </c>
       <c r="C35" t="n">
-        <v>1268.68094731003</v>
+        <v>984.6750962183021</v>
       </c>
       <c r="D35" t="n">
-        <v>1268.68094731003</v>
+        <v>984.6750962183021</v>
       </c>
       <c r="E35" t="n">
-        <v>882.8926947117852</v>
+        <v>984.6750962183021</v>
       </c>
       <c r="F35" t="n">
-        <v>471.9067899221776</v>
+        <v>573.6891914286946</v>
       </c>
       <c r="G35" t="n">
-        <v>53.94298182036446</v>
+        <v>155.7253833268815</v>
       </c>
       <c r="H35" t="n">
         <v>53.94298182036446</v>
@@ -6961,28 +6961,28 @@
         <v>2697.149091018223</v>
       </c>
       <c r="R35" t="n">
-        <v>2697.149091018223</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="S35" t="n">
-        <v>2520.971603332393</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="T35" t="n">
-        <v>2520.971603332393</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="U35" t="n">
-        <v>2267.209817970484</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="V35" t="n">
-        <v>2045.420119349963</v>
+        <v>2134.880026519315</v>
       </c>
       <c r="W35" t="n">
-        <v>2045.420119349963</v>
+        <v>2134.880026519315</v>
       </c>
       <c r="X35" t="n">
-        <v>2045.420119349963</v>
+        <v>1761.414268258236</v>
       </c>
       <c r="Y35" t="n">
-        <v>1655.280787374151</v>
+        <v>1371.274936282424</v>
       </c>
     </row>
     <row r="36">
@@ -7071,76 +7071,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>2032.826587084079</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="C37" t="n">
-        <v>2022.963088632153</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="D37" t="n">
-        <v>2022.963088632153</v>
+        <v>578.0123447940987</v>
       </c>
       <c r="E37" t="n">
-        <v>2022.963088632153</v>
+        <v>430.0992512117056</v>
       </c>
       <c r="F37" t="n">
-        <v>2022.963088632153</v>
+        <v>283.2093037137952</v>
       </c>
       <c r="G37" t="n">
-        <v>2022.963088632153</v>
+        <v>283.2093037137952</v>
       </c>
       <c r="H37" t="n">
-        <v>2022.963088632153</v>
+        <v>190.2718927217162</v>
       </c>
       <c r="I37" t="n">
-        <v>2022.963088632153</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J37" t="n">
-        <v>2022.963088632153</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="K37" t="n">
-        <v>2079.265281698421</v>
+        <v>110.2451748866326</v>
       </c>
       <c r="L37" t="n">
-        <v>2206.83913925958</v>
+        <v>237.8190324477911</v>
       </c>
       <c r="M37" t="n">
-        <v>2351.73700797761</v>
+        <v>382.716901165821</v>
       </c>
       <c r="N37" t="n">
-        <v>2498.624145662039</v>
+        <v>529.6040388502502</v>
       </c>
       <c r="O37" t="n">
-        <v>2618.281896171279</v>
+        <v>649.2617893594903</v>
       </c>
       <c r="P37" t="n">
-        <v>2697.149091018223</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="Q37" t="n">
-        <v>2697.149091018223</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="R37" t="n">
-        <v>2697.149091018223</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="S37" t="n">
-        <v>2697.149091018223</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="T37" t="n">
-        <v>2697.149091018223</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="U37" t="n">
-        <v>2697.149091018223</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="V37" t="n">
-        <v>2442.464602812336</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="W37" t="n">
-        <v>2442.464602812336</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="X37" t="n">
-        <v>2214.475051914319</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="Y37" t="n">
-        <v>2214.475051914319</v>
+        <v>728.1289842064344</v>
       </c>
     </row>
     <row r="38">
@@ -7150,25 +7150,25 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>1366.188433646014</v>
+        <v>1422.14692331494</v>
       </c>
       <c r="C38" t="n">
-        <v>997.2259167056025</v>
+        <v>1422.14692331494</v>
       </c>
       <c r="D38" t="n">
-        <v>997.2259167056025</v>
+        <v>1422.14692331494</v>
       </c>
       <c r="E38" t="n">
-        <v>611.4376641073582</v>
+        <v>1036.358670716696</v>
       </c>
       <c r="F38" t="n">
-        <v>611.4376641073582</v>
+        <v>625.3727659270879</v>
       </c>
       <c r="G38" t="n">
-        <v>381.1377017843616</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="H38" t="n">
-        <v>53.94298182036446</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="I38" t="n">
         <v>53.94298182036446</v>
@@ -7198,28 +7198,28 @@
         <v>2697.149091018223</v>
       </c>
       <c r="R38" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="S38" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="T38" t="n">
-        <v>2423.485734520779</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="U38" t="n">
-        <v>2423.485734520779</v>
+        <v>2479.444224189705</v>
       </c>
       <c r="V38" t="n">
-        <v>2092.422847177208</v>
+        <v>2148.381336846134</v>
       </c>
       <c r="W38" t="n">
-        <v>1739.654191907094</v>
+        <v>1795.61268157602</v>
       </c>
       <c r="X38" t="n">
-        <v>1366.188433646014</v>
+        <v>1422.14692331494</v>
       </c>
       <c r="Y38" t="n">
-        <v>1366.188433646014</v>
+        <v>1422.14692331494</v>
       </c>
     </row>
     <row r="39">
@@ -7229,19 +7229,19 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>988.4979752170833</v>
+        <v>988.4979752170834</v>
       </c>
       <c r="C39" t="n">
-        <v>814.0449459359563</v>
+        <v>814.0449459359564</v>
       </c>
       <c r="D39" t="n">
-        <v>665.1105362747051</v>
+        <v>665.1105362747052</v>
       </c>
       <c r="E39" t="n">
-        <v>505.8730812692495</v>
+        <v>505.8730812692497</v>
       </c>
       <c r="F39" t="n">
-        <v>359.3385232961344</v>
+        <v>359.3385232961347</v>
       </c>
       <c r="G39" t="n">
         <v>221.4284102424006</v>
@@ -7253,25 +7253,25 @@
         <v>53.94298182036446</v>
       </c>
       <c r="J39" t="n">
-        <v>53.94298182036446</v>
+        <v>129.2001442204943</v>
       </c>
       <c r="K39" t="n">
-        <v>309.190302261463</v>
+        <v>384.4474646615928</v>
       </c>
       <c r="L39" t="n">
-        <v>713.8062203571349</v>
+        <v>789.0633827572647</v>
       </c>
       <c r="M39" t="n">
-        <v>1237.953133915166</v>
+        <v>1313.210296315296</v>
       </c>
       <c r="N39" t="n">
-        <v>1791.679670014717</v>
+        <v>1866.936832414847</v>
       </c>
       <c r="O39" t="n">
-        <v>2231.815593035061</v>
+        <v>2307.072755435191</v>
       </c>
       <c r="P39" t="n">
-        <v>2568.06040664989</v>
+        <v>2643.31756905002</v>
       </c>
       <c r="Q39" t="n">
         <v>2697.149091018223</v>
@@ -7298,7 +7298,7 @@
         <v>1364.473611002105</v>
       </c>
       <c r="Y39" t="n">
-        <v>1156.713312237151</v>
+        <v>1156.713312237152</v>
       </c>
     </row>
     <row r="40">
@@ -7308,22 +7308,22 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>513.8405610245972</v>
+        <v>201.8560754027576</v>
       </c>
       <c r="C40" t="n">
-        <v>513.8405610245972</v>
+        <v>201.8560754027576</v>
       </c>
       <c r="D40" t="n">
-        <v>363.7239216122614</v>
+        <v>201.8560754027576</v>
       </c>
       <c r="E40" t="n">
-        <v>215.8108280298683</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="F40" t="n">
-        <v>68.92088053195792</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="G40" t="n">
-        <v>68.92088053195792</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="H40" t="n">
         <v>53.94298182036446</v>
@@ -7338,46 +7338,46 @@
         <v>110.2451748866326</v>
       </c>
       <c r="L40" t="n">
-        <v>237.8190324477911</v>
+        <v>237.819032447791</v>
       </c>
       <c r="M40" t="n">
         <v>382.716901165821</v>
       </c>
       <c r="N40" t="n">
-        <v>529.6040388502502</v>
+        <v>529.60403885025</v>
       </c>
       <c r="O40" t="n">
-        <v>649.2617893594903</v>
+        <v>649.2617893594902</v>
       </c>
       <c r="P40" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064343</v>
       </c>
       <c r="Q40" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064343</v>
       </c>
       <c r="R40" t="n">
-        <v>728.1289842064344</v>
+        <v>579.9823256406182</v>
       </c>
       <c r="S40" t="n">
-        <v>513.8405610245972</v>
+        <v>365.6939024587809</v>
       </c>
       <c r="T40" t="n">
-        <v>513.8405610245972</v>
+        <v>201.8560754027576</v>
       </c>
       <c r="U40" t="n">
-        <v>513.8405610245972</v>
+        <v>201.8560754027576</v>
       </c>
       <c r="V40" t="n">
-        <v>513.8405610245972</v>
+        <v>201.8560754027576</v>
       </c>
       <c r="W40" t="n">
-        <v>513.8405610245972</v>
+        <v>201.8560754027576</v>
       </c>
       <c r="X40" t="n">
-        <v>513.8405610245972</v>
+        <v>201.8560754027576</v>
       </c>
       <c r="Y40" t="n">
-        <v>513.8405610245972</v>
+        <v>201.8560754027576</v>
       </c>
     </row>
     <row r="41">
@@ -7387,37 +7387,37 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>1783.124109094748</v>
+        <v>1595.875667274027</v>
       </c>
       <c r="C41" t="n">
-        <v>1414.161592154336</v>
+        <v>1595.875667274027</v>
       </c>
       <c r="D41" t="n">
-        <v>1414.161592154336</v>
+        <v>1595.875667274027</v>
       </c>
       <c r="E41" t="n">
-        <v>1028.373339556092</v>
+        <v>1210.087414675782</v>
       </c>
       <c r="F41" t="n">
-        <v>617.3874347664846</v>
+        <v>799.1015098861748</v>
       </c>
       <c r="G41" t="n">
-        <v>199.4236266646715</v>
+        <v>381.1377017843616</v>
       </c>
       <c r="H41" t="n">
-        <v>199.4236266646715</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I41" t="n">
         <v>53.94298182036445</v>
       </c>
       <c r="J41" t="n">
-        <v>169.7108380533142</v>
+        <v>169.7108380533139</v>
       </c>
       <c r="K41" t="n">
-        <v>463.9616490733127</v>
+        <v>463.9616490733124</v>
       </c>
       <c r="L41" t="n">
-        <v>881.2824271224076</v>
+        <v>881.2824271224073</v>
       </c>
       <c r="M41" t="n">
         <v>1362.238747280443</v>
@@ -7435,28 +7435,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R41" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="S41" t="n">
-        <v>2642.120401548716</v>
+        <v>2520.971603332393</v>
       </c>
       <c r="T41" t="n">
-        <v>2423.485734520778</v>
+        <v>2317.077886593409</v>
       </c>
       <c r="U41" t="n">
-        <v>2169.72394915887</v>
+        <v>2317.077886593409</v>
       </c>
       <c r="V41" t="n">
-        <v>2169.72394915887</v>
+        <v>1986.014999249838</v>
       </c>
       <c r="W41" t="n">
-        <v>2169.72394915887</v>
+        <v>1986.014999249838</v>
       </c>
       <c r="X41" t="n">
-        <v>2169.72394915887</v>
+        <v>1986.014999249838</v>
       </c>
       <c r="Y41" t="n">
-        <v>2169.72394915887</v>
+        <v>1595.875667274027</v>
       </c>
     </row>
     <row r="42">
@@ -7490,25 +7490,25 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J42" t="n">
-        <v>53.94298182036445</v>
+        <v>129.2001442204943</v>
       </c>
       <c r="K42" t="n">
-        <v>309.190302261463</v>
+        <v>384.4474646615928</v>
       </c>
       <c r="L42" t="n">
-        <v>670.8219208598706</v>
+        <v>789.0633827572647</v>
       </c>
       <c r="M42" t="n">
-        <v>1194.968834417901</v>
+        <v>1313.210296315296</v>
       </c>
       <c r="N42" t="n">
-        <v>1748.695370517453</v>
+        <v>1866.936832414847</v>
       </c>
       <c r="O42" t="n">
-        <v>2188.831293537797</v>
+        <v>2307.072755435191</v>
       </c>
       <c r="P42" t="n">
-        <v>2525.076107152626</v>
+        <v>2643.31756905002</v>
       </c>
       <c r="Q42" t="n">
         <v>2697.149091018222</v>
@@ -7545,22 +7545,22 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>184.2708856551155</v>
+        <v>365.6939024587809</v>
       </c>
       <c r="C43" t="n">
-        <v>184.2708856551155</v>
+        <v>365.6939024587809</v>
       </c>
       <c r="D43" t="n">
-        <v>184.2708856551155</v>
+        <v>365.6939024587809</v>
       </c>
       <c r="E43" t="n">
-        <v>53.94298182036445</v>
+        <v>365.6939024587809</v>
       </c>
       <c r="F43" t="n">
-        <v>53.94298182036445</v>
+        <v>218.8039549608706</v>
       </c>
       <c r="G43" t="n">
-        <v>53.94298182036445</v>
+        <v>211.6913543878343</v>
       </c>
       <c r="H43" t="n">
         <v>53.94298182036445</v>
@@ -7575,46 +7575,46 @@
         <v>110.2451748866326</v>
       </c>
       <c r="L43" t="n">
-        <v>237.8190324477911</v>
+        <v>237.819032447791</v>
       </c>
       <c r="M43" t="n">
-        <v>382.716901165821</v>
+        <v>382.7169011658209</v>
       </c>
       <c r="N43" t="n">
-        <v>529.6040388502502</v>
+        <v>529.6040388502499</v>
       </c>
       <c r="O43" t="n">
-        <v>649.2617893594903</v>
+        <v>649.2617893594901</v>
       </c>
       <c r="P43" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Q43" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="R43" t="n">
-        <v>728.1289842064344</v>
+        <v>579.9823256406182</v>
       </c>
       <c r="S43" t="n">
-        <v>728.1289842064344</v>
+        <v>365.6939024587809</v>
       </c>
       <c r="T43" t="n">
-        <v>728.1289842064344</v>
+        <v>365.6939024587809</v>
       </c>
       <c r="U43" t="n">
-        <v>438.9553738610024</v>
+        <v>365.6939024587809</v>
       </c>
       <c r="V43" t="n">
-        <v>184.2708856551155</v>
+        <v>365.6939024587809</v>
       </c>
       <c r="W43" t="n">
-        <v>184.2708856551155</v>
+        <v>365.6939024587809</v>
       </c>
       <c r="X43" t="n">
-        <v>184.2708856551155</v>
+        <v>365.6939024587809</v>
       </c>
       <c r="Y43" t="n">
-        <v>184.2708856551155</v>
+        <v>365.6939024587809</v>
       </c>
     </row>
     <row r="44">
@@ -7624,76 +7624,76 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>1394.624369323446</v>
+        <v>1268.68094731003</v>
       </c>
       <c r="C44" t="n">
-        <v>1394.624369323446</v>
+        <v>1268.68094731003</v>
       </c>
       <c r="D44" t="n">
-        <v>1036.358670716696</v>
+        <v>1268.68094731003</v>
       </c>
       <c r="E44" t="n">
-        <v>1036.358670716696</v>
+        <v>882.8926947117852</v>
       </c>
       <c r="F44" t="n">
-        <v>625.3727659270879</v>
+        <v>471.9067899221776</v>
       </c>
       <c r="G44" t="n">
-        <v>207.4089578252748</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="H44" t="n">
-        <v>207.4089578252748</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="I44" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J44" t="n">
-        <v>169.7108380533141</v>
+        <v>169.7108380533142</v>
       </c>
       <c r="K44" t="n">
-        <v>463.9616490733126</v>
+        <v>463.9616490733127</v>
       </c>
       <c r="L44" t="n">
-        <v>881.2824271224075</v>
+        <v>881.2824271224076</v>
       </c>
       <c r="M44" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N44" t="n">
-        <v>1836.345445977174</v>
+        <v>1836.345445977175</v>
       </c>
       <c r="O44" t="n">
         <v>2238.843319642689</v>
       </c>
       <c r="P44" t="n">
-        <v>2544.691559791252</v>
+        <v>2544.691559791253</v>
       </c>
       <c r="Q44" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="R44" t="n">
         <v>2642.120401548716</v>
       </c>
       <c r="S44" t="n">
-        <v>2642.120401548716</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="T44" t="n">
-        <v>2423.485734520778</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="U44" t="n">
-        <v>2169.72394915887</v>
+        <v>2398.188774620077</v>
       </c>
       <c r="V44" t="n">
-        <v>1838.661061815299</v>
+        <v>2398.188774620077</v>
       </c>
       <c r="W44" t="n">
-        <v>1485.892406545185</v>
+        <v>2045.420119349963</v>
       </c>
       <c r="X44" t="n">
-        <v>1394.624369323446</v>
+        <v>2045.420119349963</v>
       </c>
       <c r="Y44" t="n">
-        <v>1394.624369323446</v>
+        <v>1655.280787374151</v>
       </c>
     </row>
     <row r="45">
@@ -7703,67 +7703,67 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>988.497975217083</v>
+        <v>988.4979752170833</v>
       </c>
       <c r="C45" t="n">
-        <v>814.044945935956</v>
+        <v>814.0449459359563</v>
       </c>
       <c r="D45" t="n">
-        <v>665.1105362747046</v>
+        <v>665.1105362747051</v>
       </c>
       <c r="E45" t="n">
-        <v>505.873081269249</v>
+        <v>505.8730812692495</v>
       </c>
       <c r="F45" t="n">
-        <v>359.3385232961342</v>
+        <v>359.3385232961344</v>
       </c>
       <c r="G45" t="n">
-        <v>221.4284102424003</v>
+        <v>221.4284102424006</v>
       </c>
       <c r="H45" t="n">
         <v>115.9856282673424</v>
       </c>
       <c r="I45" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J45" t="n">
-        <v>53.94298182036445</v>
+        <v>129.2001442204943</v>
       </c>
       <c r="K45" t="n">
-        <v>309.190302261463</v>
+        <v>384.4474646615928</v>
       </c>
       <c r="L45" t="n">
-        <v>713.8062203571349</v>
+        <v>789.0633827572647</v>
       </c>
       <c r="M45" t="n">
-        <v>1237.953133915166</v>
+        <v>1313.210296315296</v>
       </c>
       <c r="N45" t="n">
-        <v>1748.695370517453</v>
+        <v>1866.936832414847</v>
       </c>
       <c r="O45" t="n">
-        <v>2188.831293537797</v>
+        <v>2307.072755435191</v>
       </c>
       <c r="P45" t="n">
-        <v>2525.076107152626</v>
+        <v>2643.31756905002</v>
       </c>
       <c r="Q45" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="R45" t="n">
-        <v>2646.935720430047</v>
+        <v>2646.935720430048</v>
       </c>
       <c r="S45" t="n">
-        <v>2488.762748073963</v>
+        <v>2488.762748073964</v>
       </c>
       <c r="T45" t="n">
-        <v>2289.884200196742</v>
+        <v>2289.884200196743</v>
       </c>
       <c r="U45" t="n">
         <v>2061.714576167582</v>
       </c>
       <c r="V45" t="n">
-        <v>1826.562467935839</v>
+        <v>1826.56246793584</v>
       </c>
       <c r="W45" t="n">
         <v>1572.325111207638</v>
@@ -7782,76 +7782,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>2317.040372100974</v>
+        <v>361.80799380017</v>
       </c>
       <c r="C46" t="n">
-        <v>2317.040372100974</v>
+        <v>361.80799380017</v>
       </c>
       <c r="D46" t="n">
-        <v>2317.040372100974</v>
+        <v>211.6913543878343</v>
       </c>
       <c r="E46" t="n">
-        <v>2317.040372100974</v>
+        <v>211.6913543878343</v>
       </c>
       <c r="F46" t="n">
-        <v>2317.040372100974</v>
+        <v>211.6913543878343</v>
       </c>
       <c r="G46" t="n">
-        <v>2317.040372100974</v>
+        <v>211.6913543878343</v>
       </c>
       <c r="H46" t="n">
-        <v>2159.291999533505</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="I46" t="n">
-        <v>2022.963088632153</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J46" t="n">
-        <v>2022.963088632153</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="K46" t="n">
-        <v>2079.265281698421</v>
+        <v>110.2451748866326</v>
       </c>
       <c r="L46" t="n">
-        <v>2206.839139259579</v>
+        <v>237.819032447791</v>
       </c>
       <c r="M46" t="n">
-        <v>2351.737007977609</v>
+        <v>382.716901165821</v>
       </c>
       <c r="N46" t="n">
-        <v>2498.624145662038</v>
+        <v>529.60403885025</v>
       </c>
       <c r="O46" t="n">
-        <v>2618.281896171278</v>
+        <v>649.2617893594902</v>
       </c>
       <c r="P46" t="n">
-        <v>2697.149091018222</v>
+        <v>728.1289842064343</v>
       </c>
       <c r="Q46" t="n">
-        <v>2697.149091018222</v>
+        <v>728.1289842064343</v>
       </c>
       <c r="R46" t="n">
-        <v>2697.149091018222</v>
+        <v>650.9816041456021</v>
       </c>
       <c r="S46" t="n">
-        <v>2482.860667836385</v>
+        <v>650.9816041456021</v>
       </c>
       <c r="T46" t="n">
-        <v>2317.040372100974</v>
+        <v>650.9816041456021</v>
       </c>
       <c r="U46" t="n">
-        <v>2317.040372100974</v>
+        <v>361.80799380017</v>
       </c>
       <c r="V46" t="n">
-        <v>2317.040372100974</v>
+        <v>361.80799380017</v>
       </c>
       <c r="W46" t="n">
-        <v>2317.040372100974</v>
+        <v>361.80799380017</v>
       </c>
       <c r="X46" t="n">
-        <v>2317.040372100974</v>
+        <v>361.80799380017</v>
       </c>
       <c r="Y46" t="n">
-        <v>2317.040372100974</v>
+        <v>361.80799380017</v>
       </c>
     </row>
   </sheetData>
@@ -8063,22 +8063,22 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L3" t="n">
-        <v>229.6373335557741</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M3" t="n">
-        <v>383.1483227996774</v>
+        <v>255.5148970497678</v>
       </c>
       <c r="N3" t="n">
         <v>372.3560009609923</v>
       </c>
       <c r="O3" t="n">
-        <v>142.5962444444444</v>
+        <v>383.6105333221035</v>
       </c>
       <c r="P3" t="n">
-        <v>318.4627686399372</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q3" t="n">
-        <v>210.0772877358491</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R3" t="n">
         <v>45.52166981132082</v>
@@ -8300,13 +8300,13 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L6" t="n">
-        <v>138.5543797798742</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M6" t="n">
-        <v>383.1483227996774</v>
+        <v>312.04082470182</v>
       </c>
       <c r="N6" t="n">
-        <v>292.5201795090609</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O6" t="n">
         <v>383.6105333221035</v>
@@ -8540,7 +8540,7 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M9" t="n">
-        <v>312.04082470182</v>
+        <v>241.9453110519923</v>
       </c>
       <c r="N9" t="n">
         <v>131.3417120833333</v>
@@ -8552,7 +8552,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q9" t="n">
-        <v>139.9817740860215</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R9" t="n">
         <v>45.52166981132082</v>
@@ -8789,7 +8789,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q12" t="n">
-        <v>90.64146763747075</v>
+        <v>194.3570488013777</v>
       </c>
       <c r="R12" t="n">
         <v>45.52166981132082</v>
@@ -9026,7 +9026,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q15" t="n">
-        <v>194.3570488013773</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R15" t="n">
         <v>45.52166981132082</v>
@@ -9263,7 +9263,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q18" t="n">
-        <v>210.0772877358491</v>
+        <v>194.3570488013773</v>
       </c>
       <c r="R18" t="n">
         <v>45.52166981132082</v>
@@ -9500,7 +9500,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q21" t="n">
-        <v>210.0772877358491</v>
+        <v>194.3570488013773</v>
       </c>
       <c r="R21" t="n">
         <v>45.52166981132082</v>
@@ -9716,7 +9716,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J24" t="n">
-        <v>50.07369958270193</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K24" t="n">
         <v>264.4652370125786</v>
@@ -9953,7 +9953,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J27" t="n">
-        <v>126.0910353404088</v>
+        <v>50.07369958270192</v>
       </c>
       <c r="K27" t="n">
         <v>264.4652370125786</v>
@@ -9974,7 +9974,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q27" t="n">
-        <v>90.64146763747121</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R27" t="n">
         <v>45.52166981132082</v>
@@ -10211,7 +10211,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q30" t="n">
-        <v>210.0772877358491</v>
+        <v>194.3570488013777</v>
       </c>
       <c r="R30" t="n">
         <v>45.52166981132082</v>
@@ -10685,7 +10685,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q36" t="n">
-        <v>90.64146763747119</v>
+        <v>194.3570488013777</v>
       </c>
       <c r="R36" t="n">
         <v>45.52166981132082</v>
@@ -10901,7 +10901,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J39" t="n">
-        <v>50.07369958270192</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K39" t="n">
         <v>264.4652370125786</v>
@@ -10922,7 +10922,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q39" t="n">
-        <v>210.0772877358491</v>
+        <v>194.3570488013782</v>
       </c>
       <c r="R39" t="n">
         <v>45.52166981132082</v>
@@ -11159,7 +11159,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q42" t="n">
-        <v>210.0772877358491</v>
+        <v>194.3570488013777</v>
       </c>
       <c r="R42" t="n">
         <v>45.52166981132082</v>
@@ -11375,7 +11375,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J45" t="n">
-        <v>50.07369958270193</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K45" t="n">
         <v>264.4652370125786</v>
@@ -11396,7 +11396,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q45" t="n">
-        <v>210.0772877358491</v>
+        <v>194.3570488013782</v>
       </c>
       <c r="R45" t="n">
         <v>45.52166981132082</v>
@@ -22546,7 +22546,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>382.7338416634806</v>
+        <v>141.7195527858215</v>
       </c>
       <c r="C2" t="n">
         <v>365.2728917710076</v>
@@ -22558,19 +22558,19 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
-        <v>185.9922493601736</v>
+        <v>165.8617568640524</v>
       </c>
       <c r="G2" t="n">
-        <v>174.288448637476</v>
+        <v>203.0173518716929</v>
       </c>
       <c r="H2" t="n">
-        <v>98.46051323810809</v>
+        <v>339.4748021157671</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>210.4758895704059</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
@@ -22591,7 +22591,7 @@
         <v>0</v>
       </c>
       <c r="Q2" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R2" t="n">
         <v>149.8691179411497</v>
@@ -22615,7 +22615,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>386.2379386560536</v>
+        <v>145.2236497783945</v>
       </c>
     </row>
     <row r="3">
@@ -22625,10 +22625,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D3" t="n">
         <v>147.4450655646388</v>
@@ -22640,16 +22640,16 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G3" t="n">
-        <v>69.73483217276197</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -22673,7 +22673,7 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S3" t="n">
         <v>171.6831711038378</v>
@@ -22685,16 +22685,16 @@
         <v>0</v>
       </c>
       <c r="V3" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W3" t="n">
-        <v>251.6949831609196</v>
+        <v>10.68069428326055</v>
       </c>
       <c r="X3" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y3" t="n">
-        <v>205.6826957773044</v>
+        <v>175.8836868124217</v>
       </c>
     </row>
     <row r="4">
@@ -22725,13 +22725,13 @@
         <v>162.2271725074396</v>
       </c>
       <c r="I4" t="n">
-        <v>137.8921792844459</v>
+        <v>155.4504749272583</v>
       </c>
       <c r="J4" t="n">
-        <v>0</v>
+        <v>93.35918011667277</v>
       </c>
       <c r="K4" t="n">
-        <v>0</v>
+        <v>22.26949182588285</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
@@ -22761,7 +22761,7 @@
         <v>227.9455894282815</v>
       </c>
       <c r="U4" t="n">
-        <v>286.3190293564909</v>
+        <v>153.1320617711229</v>
       </c>
       <c r="V4" t="n">
         <v>252.137643323828</v>
@@ -22801,13 +22801,13 @@
         <v>174.288448637476</v>
       </c>
       <c r="H5" t="n">
-        <v>98.46051323810809</v>
+        <v>339.4748021157671</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>210.4758895704059</v>
       </c>
       <c r="J5" t="n">
-        <v>10.13979328157633</v>
+        <v>0</v>
       </c>
       <c r="K5" t="n">
         <v>0</v>
@@ -22828,13 +22828,13 @@
         <v>0</v>
       </c>
       <c r="Q5" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R5" t="n">
         <v>149.8691179411497</v>
       </c>
       <c r="S5" t="n">
-        <v>209.0200695862453</v>
+        <v>18.67467251196047</v>
       </c>
       <c r="T5" t="n">
         <v>223.0958495641314</v>
@@ -22852,7 +22852,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>386.2379386560536</v>
+        <v>145.2236497783945</v>
       </c>
     </row>
     <row r="6">
@@ -22862,31 +22862,31 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C6" t="n">
         <v>172.7084989883157</v>
       </c>
       <c r="D6" t="n">
-        <v>21.08647536425178</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E6" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F6" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G6" t="n">
-        <v>0</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H6" t="n">
-        <v>0</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I6" t="n">
-        <v>0</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J6" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K6" t="n">
         <v>0</v>
@@ -22919,19 +22919,19 @@
         <v>200.1647286948216</v>
       </c>
       <c r="U6" t="n">
-        <v>225.9413820809748</v>
+        <v>0</v>
       </c>
       <c r="V6" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W6" t="n">
-        <v>251.6949831609196</v>
+        <v>10.68069428326055</v>
       </c>
       <c r="X6" t="n">
-        <v>205.7729852034775</v>
+        <v>175.8836868124217</v>
       </c>
       <c r="Y6" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7">
@@ -22962,10 +22962,10 @@
         <v>162.2271725074396</v>
       </c>
       <c r="I7" t="n">
-        <v>115.622687458563</v>
+        <v>155.4504749272583</v>
       </c>
       <c r="J7" t="n">
-        <v>0</v>
+        <v>93.35918011667277</v>
       </c>
       <c r="K7" t="n">
         <v>22.26949182588285</v>
@@ -23004,7 +23004,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
-        <v>286.522998336591</v>
+        <v>153.336030751223</v>
       </c>
       <c r="X7" t="n">
         <v>225.7096553890372</v>
@@ -23020,7 +23020,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>382.7338416634806</v>
+        <v>180.4391552345834</v>
       </c>
       <c r="C8" t="n">
         <v>365.2728917710076</v>
@@ -23032,10 +23032,10 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>406.8760457417114</v>
+        <v>165.8617568640524</v>
       </c>
       <c r="G8" t="n">
-        <v>415.302737515135</v>
+        <v>174.288448637476</v>
       </c>
       <c r="H8" t="n">
         <v>339.4748021157671</v>
@@ -23065,7 +23065,7 @@
         <v>0</v>
       </c>
       <c r="Q8" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R8" t="n">
         <v>149.8691179411497</v>
@@ -23074,22 +23074,22 @@
         <v>209.0200695862453</v>
       </c>
       <c r="T8" t="n">
-        <v>10.81046392068936</v>
+        <v>223.0958495641314</v>
       </c>
       <c r="U8" t="n">
         <v>251.3456529078365</v>
       </c>
       <c r="V8" t="n">
-        <v>86.73796959247585</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>108.226679839754</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>128.71681180081</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>386.2379386560536</v>
+        <v>145.2236497783945</v>
       </c>
     </row>
     <row r="9">
@@ -23102,7 +23102,7 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C9" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D9" t="n">
         <v>147.4450655646388</v>
@@ -23147,7 +23147,7 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>10.92303892673571</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S9" t="n">
         <v>171.6831711038378</v>
@@ -23159,16 +23159,16 @@
         <v>0</v>
       </c>
       <c r="V9" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W9" t="n">
         <v>10.68069428326055</v>
       </c>
       <c r="X9" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y9" t="n">
-        <v>0</v>
+        <v>176.6302781386796</v>
       </c>
     </row>
     <row r="10">
@@ -23193,7 +23193,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>34.80401177309074</v>
+        <v>167.9909793584588</v>
       </c>
       <c r="H10" t="n">
         <v>162.2271725074396</v>
@@ -23235,7 +23235,7 @@
         <v>227.9455894282815</v>
       </c>
       <c r="U10" t="n">
-        <v>286.3190293564909</v>
+        <v>153.1320617711229</v>
       </c>
       <c r="V10" t="n">
         <v>252.137643323828</v>
@@ -23263,22 +23263,22 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D11" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E11" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F11" t="n">
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>0</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I11" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -23305,13 +23305,13 @@
         <v>0</v>
       </c>
       <c r="R11" t="n">
-        <v>0</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S11" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T11" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U11" t="n">
         <v>0</v>
@@ -23320,13 +23320,13 @@
         <v>0</v>
       </c>
       <c r="W11" t="n">
-        <v>53.30008710312433</v>
+        <v>0</v>
       </c>
       <c r="X11" t="n">
-        <v>369.731100678469</v>
+        <v>210.9018433591369</v>
       </c>
       <c r="Y11" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12">
@@ -23339,7 +23339,7 @@
         <v>0</v>
       </c>
       <c r="C12" t="n">
-        <v>8.242295734817162e-13</v>
+        <v>0</v>
       </c>
       <c r="D12" t="n">
         <v>0</v>
@@ -23430,16 +23430,16 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>72.6705324754106</v>
       </c>
       <c r="H13" t="n">
         <v>156.1708888417951</v>
       </c>
       <c r="I13" t="n">
-        <v>134.9656217923383</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J13" t="n">
-        <v>45.19995918853701</v>
+        <v>45.199959188537</v>
       </c>
       <c r="K13" t="n">
         <v>0</v>
@@ -23460,25 +23460,25 @@
         <v>0</v>
       </c>
       <c r="Q13" t="n">
-        <v>0</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>212.1455389500189</v>
       </c>
       <c r="T13" t="n">
-        <v>112.8342462400172</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U13" t="n">
-        <v>286.2818742419777</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X13" t="n">
         <v>225.7096553890372</v>
@@ -23497,22 +23497,22 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C14" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D14" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E14" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F14" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G14" t="n">
         <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>237.0698924492459</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I14" t="n">
         <v>151.9313162448613</v>
@@ -23548,19 +23548,19 @@
         <v>174.4157128089715</v>
       </c>
       <c r="T14" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U14" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
       </c>
       <c r="W14" t="n">
-        <v>0</v>
+        <v>262.4581987318505</v>
       </c>
       <c r="X14" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y14" t="n">
         <v>0</v>
@@ -23621,7 +23621,7 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>1.27897692436818e-12</v>
+        <v>0</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -23658,13 +23658,13 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
-        <v>148.6154730182124</v>
+        <v>70.21213748911364</v>
       </c>
       <c r="E16" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
         <v>167.3098022590509</v>
@@ -23673,10 +23673,10 @@
         <v>156.1708888417951</v>
       </c>
       <c r="I16" t="n">
-        <v>134.9656217923383</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J16" t="n">
-        <v>45.19995918853702</v>
+        <v>45.199959188537</v>
       </c>
       <c r="K16" t="n">
         <v>0</v>
@@ -23697,19 +23697,19 @@
         <v>0</v>
       </c>
       <c r="Q16" t="n">
-        <v>0</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>212.1455389500189</v>
       </c>
       <c r="T16" t="n">
         <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>231.8063182229441</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V16" t="n">
         <v>252.137643323828</v>
@@ -23721,7 +23721,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -23731,25 +23731,25 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C17" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D17" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E17" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F17" t="n">
-        <v>0</v>
+        <v>306.6884710724842</v>
       </c>
       <c r="G17" t="n">
         <v>0</v>
       </c>
       <c r="H17" t="n">
-        <v>266.6211798855727</v>
+        <v>0</v>
       </c>
       <c r="I17" t="n">
         <v>151.9313162448613</v>
@@ -23779,28 +23779,28 @@
         <v>0</v>
       </c>
       <c r="R17" t="n">
-        <v>54.47840257481175</v>
+        <v>54.4784025748117</v>
       </c>
       <c r="S17" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T17" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U17" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
       </c>
       <c r="W17" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X17" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y17" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="18">
@@ -23867,7 +23867,7 @@
         <v>0</v>
       </c>
       <c r="U18" t="n">
-        <v>8.242295734817162e-13</v>
+        <v>0</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -23889,31 +23889,31 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>64.671172342229</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H19" t="n">
         <v>156.1708888417951</v>
       </c>
       <c r="I19" t="n">
-        <v>134.9656217923383</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J19" t="n">
-        <v>45.19995918853702</v>
+        <v>45.19995918853699</v>
       </c>
       <c r="K19" t="n">
         <v>0</v>
@@ -23934,13 +23934,13 @@
         <v>0</v>
       </c>
       <c r="Q19" t="n">
-        <v>29.12274995491433</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R19" t="n">
-        <v>146.6651919801579</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>212.1455389500189</v>
+        <v>17.63253139647395</v>
       </c>
       <c r="T19" t="n">
         <v>225.0351054580843</v>
@@ -23949,7 +23949,7 @@
         <v>286.2818742419777</v>
       </c>
       <c r="V19" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W19" t="n">
         <v>286.522998336591</v>
@@ -23968,16 +23968,16 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C20" t="n">
         <v>0</v>
       </c>
       <c r="D20" t="n">
-        <v>163.8572211747452</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E20" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F20" t="n">
         <v>0</v>
@@ -23986,10 +23986,10 @@
         <v>0</v>
       </c>
       <c r="H20" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I20" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -24019,25 +24019,25 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T20" t="n">
         <v>216.4483203576578</v>
       </c>
       <c r="U20" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V20" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W20" t="n">
-        <v>349.240968717413</v>
+        <v>167.4900913566547</v>
       </c>
       <c r="X20" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y20" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21">
@@ -24095,7 +24095,7 @@
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>8.029132914089132e-13</v>
+        <v>0</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -24126,7 +24126,7 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
         <v>167.2468210986278</v>
@@ -24138,19 +24138,19 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
         <v>167.3098022590509</v>
       </c>
       <c r="H22" t="n">
-        <v>156.1708888417951</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
         <v>134.9656217923382</v>
       </c>
       <c r="J22" t="n">
-        <v>45.199959188537</v>
+        <v>45.19995918853699</v>
       </c>
       <c r="K22" t="n">
         <v>0</v>
@@ -24174,22 +24174,22 @@
         <v>29.1227499549143</v>
       </c>
       <c r="R22" t="n">
-        <v>146.6651919801579</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>212.1455389500189</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>0</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U22" t="n">
-        <v>286.2818742419777</v>
+        <v>279.2403996746716</v>
       </c>
       <c r="V22" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W22" t="n">
-        <v>276.0835849382315</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X22" t="n">
         <v>225.7096553890372</v>
@@ -24211,7 +24211,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D23" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E23" t="n">
         <v>0</v>
@@ -24220,7 +24220,7 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>413.784170020795</v>
+        <v>0</v>
       </c>
       <c r="H23" t="n">
         <v>323.9227727643571</v>
@@ -24253,13 +24253,13 @@
         <v>0</v>
       </c>
       <c r="R23" t="n">
-        <v>0</v>
+        <v>54.4784025748117</v>
       </c>
       <c r="S23" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T23" t="n">
-        <v>0</v>
+        <v>122.1622643417072</v>
       </c>
       <c r="U23" t="n">
         <v>0</v>
@@ -24268,10 +24268,10 @@
         <v>0</v>
       </c>
       <c r="W23" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X23" t="n">
-        <v>301.5612374798947</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y23" t="n">
         <v>0</v>
@@ -24366,7 +24366,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D25" t="n">
         <v>148.6154730182124</v>
@@ -24375,19 +24375,19 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
-        <v>145.4210480229312</v>
+        <v>99.05652735499174</v>
       </c>
       <c r="G25" t="n">
-        <v>167.3098022590509</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>11.62584915701547</v>
+        <v>156.1708888417951</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J25" t="n">
-        <v>45.199959188537</v>
+        <v>45.19995918853699</v>
       </c>
       <c r="K25" t="n">
         <v>0</v>
@@ -24408,13 +24408,13 @@
         <v>0</v>
       </c>
       <c r="Q25" t="n">
-        <v>0</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>146.6651919801578</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>212.1455389500189</v>
       </c>
       <c r="T25" t="n">
         <v>225.0351054580843</v>
@@ -24426,7 +24426,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W25" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X25" t="n">
         <v>225.7096553890372</v>
@@ -24442,7 +24442,7 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C26" t="n">
         <v>365.2728917710076</v>
@@ -24451,7 +24451,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E26" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F26" t="n">
         <v>0</v>
@@ -24460,10 +24460,10 @@
         <v>0</v>
       </c>
       <c r="H26" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I26" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -24490,7 +24490,7 @@
         <v>0</v>
       </c>
       <c r="R26" t="n">
-        <v>54.47840257481171</v>
+        <v>54.4784025748117</v>
       </c>
       <c r="S26" t="n">
         <v>174.4157128089715</v>
@@ -24499,7 +24499,7 @@
         <v>216.4483203576578</v>
       </c>
       <c r="U26" t="n">
-        <v>207.6878058675526</v>
+        <v>53.00665891685941</v>
       </c>
       <c r="V26" t="n">
         <v>0</v>
@@ -24508,10 +24508,10 @@
         <v>0</v>
       </c>
       <c r="X26" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y26" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="27">
@@ -24603,13 +24603,13 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
         <v>145.4210480229312</v>
@@ -24618,13 +24618,13 @@
         <v>167.3098022590509</v>
       </c>
       <c r="H28" t="n">
-        <v>156.1708888417951</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
         <v>134.9656217923382</v>
       </c>
       <c r="J28" t="n">
-        <v>45.199959188537</v>
+        <v>45.19995918853699</v>
       </c>
       <c r="K28" t="n">
         <v>0</v>
@@ -24648,19 +24648,19 @@
         <v>29.1227499549143</v>
       </c>
       <c r="R28" t="n">
-        <v>146.6651919801579</v>
+        <v>146.6651919801578</v>
       </c>
       <c r="S28" t="n">
         <v>212.1455389500189</v>
       </c>
       <c r="T28" t="n">
-        <v>0</v>
+        <v>176.0581087010795</v>
       </c>
       <c r="U28" t="n">
-        <v>0</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V28" t="n">
-        <v>96.01048066168093</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W28" t="n">
         <v>286.522998336591</v>
@@ -24682,13 +24682,13 @@
         <v>0</v>
       </c>
       <c r="C29" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D29" t="n">
         <v>0</v>
       </c>
       <c r="E29" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F29" t="n">
         <v>0</v>
@@ -24697,7 +24697,7 @@
         <v>0</v>
       </c>
       <c r="H29" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I29" t="n">
         <v>151.9313162448613</v>
@@ -24727,28 +24727,28 @@
         <v>0</v>
       </c>
       <c r="R29" t="n">
-        <v>54.4784025748117</v>
+        <v>0</v>
       </c>
       <c r="S29" t="n">
         <v>174.4157128089715</v>
       </c>
       <c r="T29" t="n">
-        <v>216.4483203576578</v>
+        <v>173.6146528019603</v>
       </c>
       <c r="U29" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V29" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W29" t="n">
-        <v>37.74728150147263</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X29" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y29" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="30">
@@ -24846,16 +24846,16 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
-        <v>146.4339626465692</v>
+        <v>67.1047554856773</v>
       </c>
       <c r="F31" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
         <v>167.3098022590509</v>
       </c>
       <c r="H31" t="n">
-        <v>156.1708888417951</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
         <v>134.9656217923382</v>
@@ -24897,13 +24897,13 @@
         <v>286.2818742419777</v>
       </c>
       <c r="V31" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W31" t="n">
         <v>0</v>
       </c>
       <c r="X31" t="n">
-        <v>96.92615468724728</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y31" t="n">
         <v>218.5846533520948</v>
@@ -24922,16 +24922,16 @@
         <v>0</v>
       </c>
       <c r="D32" t="n">
-        <v>354.683041620683</v>
+        <v>20.56613983798644</v>
       </c>
       <c r="E32" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F32" t="n">
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>413.784170020795</v>
+        <v>0</v>
       </c>
       <c r="H32" t="n">
         <v>323.9227727643571</v>
@@ -24976,13 +24976,13 @@
         <v>251.2241675082893</v>
       </c>
       <c r="V32" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W32" t="n">
-        <v>25.24910919451753</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X32" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y32" t="n">
         <v>0</v>
@@ -25083,22 +25083,22 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
-        <v>48.34766866953092</v>
+        <v>140.0759752659258</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>156.1708888417951</v>
       </c>
       <c r="I34" t="n">
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>0</v>
+        <v>45.19995918853699</v>
       </c>
       <c r="K34" t="n">
         <v>0</v>
@@ -25122,7 +25122,7 @@
         <v>29.1227499549143</v>
       </c>
       <c r="R34" t="n">
-        <v>146.6651919801578</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
         <v>0</v>
@@ -25162,7 +25162,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E35" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F35" t="n">
         <v>0</v>
@@ -25171,7 +25171,7 @@
         <v>0</v>
       </c>
       <c r="H35" t="n">
-        <v>323.9227727643571</v>
+        <v>223.1581952729053</v>
       </c>
       <c r="I35" t="n">
         <v>151.9313162448613</v>
@@ -25201,7 +25201,7 @@
         <v>0</v>
       </c>
       <c r="R35" t="n">
-        <v>54.4784025748117</v>
+        <v>0</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -25210,16 +25210,16 @@
         <v>216.4483203576578</v>
       </c>
       <c r="U35" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V35" t="n">
-        <v>108.1804568358187</v>
+        <v>0</v>
       </c>
       <c r="W35" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X35" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y35" t="n">
         <v>0</v>
@@ -25311,28 +25311,28 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C37" t="n">
-        <v>157.4819576312211</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
         <v>167.3098022590509</v>
       </c>
       <c r="H37" t="n">
-        <v>156.1708888417951</v>
+        <v>64.16285195963697</v>
       </c>
       <c r="I37" t="n">
-        <v>134.9656217923382</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
         <v>45.19995918853699</v>
@@ -25371,13 +25371,13 @@
         <v>286.2818742419777</v>
       </c>
       <c r="V37" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W37" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X37" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y37" t="n">
         <v>218.5846533520948</v>
@@ -25393,7 +25393,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C38" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D38" t="n">
         <v>354.683041620683</v>
@@ -25402,16 +25402,16 @@
         <v>0</v>
       </c>
       <c r="F38" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>185.7872073210285</v>
+        <v>0</v>
       </c>
       <c r="H38" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I38" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -25438,16 +25438,16 @@
         <v>0</v>
       </c>
       <c r="R38" t="n">
-        <v>0</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S38" t="n">
         <v>174.4157128089715</v>
       </c>
       <c r="T38" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U38" t="n">
-        <v>251.2241675082893</v>
+        <v>35.69634934805617</v>
       </c>
       <c r="V38" t="n">
         <v>0</v>
@@ -25554,25 +25554,25 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
         <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
         <v>167.3098022590509</v>
       </c>
       <c r="H40" t="n">
-        <v>141.3427691173176</v>
+        <v>156.1708888417951</v>
       </c>
       <c r="I40" t="n">
         <v>134.9656217923382</v>
       </c>
       <c r="J40" t="n">
-        <v>45.19995918853699</v>
+        <v>45.199959188537</v>
       </c>
       <c r="K40" t="n">
         <v>0</v>
@@ -25596,13 +25596,13 @@
         <v>29.1227499549143</v>
       </c>
       <c r="R40" t="n">
-        <v>146.6651919801578</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
         <v>0</v>
       </c>
       <c r="T40" t="n">
-        <v>225.0351054580843</v>
+        <v>62.83565667262116</v>
       </c>
       <c r="U40" t="n">
         <v>286.2818742419777</v>
@@ -25627,10 +25627,10 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C41" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D41" t="n">
         <v>354.683041620683</v>
@@ -25645,10 +25645,10 @@
         <v>0</v>
       </c>
       <c r="H41" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>7.905477848997293</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -25675,19 +25675,19 @@
         <v>0</v>
       </c>
       <c r="R41" t="n">
-        <v>0</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S41" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T41" t="n">
-        <v>0</v>
+        <v>14.59354078606407</v>
       </c>
       <c r="U41" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V41" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W41" t="n">
         <v>349.240968717413</v>
@@ -25696,7 +25696,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y41" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="42">
@@ -25794,22 +25794,22 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
-        <v>17.40933785016563</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>167.3098022590509</v>
+        <v>160.268327691745</v>
       </c>
       <c r="H43" t="n">
-        <v>156.1708888417951</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
         <v>134.9656217923382</v>
       </c>
       <c r="J43" t="n">
-        <v>45.19995918853699</v>
+        <v>45.199959188537</v>
       </c>
       <c r="K43" t="n">
         <v>0</v>
@@ -25833,19 +25833,19 @@
         <v>29.1227499549143</v>
       </c>
       <c r="R43" t="n">
-        <v>146.6651919801578</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>212.1455389500189</v>
+        <v>0</v>
       </c>
       <c r="T43" t="n">
         <v>225.0351054580843</v>
       </c>
       <c r="U43" t="n">
-        <v>0</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V43" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W43" t="n">
         <v>286.522998336591</v>
@@ -25864,16 +25864,16 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C44" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D44" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E44" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F44" t="n">
         <v>0</v>
@@ -25885,7 +25885,7 @@
         <v>323.9227727643571</v>
       </c>
       <c r="I44" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -25915,25 +25915,25 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T44" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U44" t="n">
-        <v>0</v>
+        <v>184.1475696579085</v>
       </c>
       <c r="V44" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W44" t="n">
         <v>0</v>
       </c>
       <c r="X44" t="n">
-        <v>279.3757438289475</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y44" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="45">
@@ -26028,7 +26028,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
         <v>146.4339626465692</v>
@@ -26043,7 +26043,7 @@
         <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J46" t="n">
         <v>45.199959188537</v>
@@ -26070,16 +26070,16 @@
         <v>29.1227499549143</v>
       </c>
       <c r="R46" t="n">
-        <v>146.6651919801579</v>
+        <v>70.28928571993396</v>
       </c>
       <c r="S46" t="n">
-        <v>0</v>
+        <v>212.1455389500189</v>
       </c>
       <c r="T46" t="n">
-        <v>60.87301268002781</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U46" t="n">
-        <v>286.2818742419777</v>
+        <v>0</v>
       </c>
       <c r="V46" t="n">
         <v>252.137643323828</v>
@@ -26125,7 +26125,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>448633.8158345978</v>
+        <v>448633.8158345977</v>
       </c>
     </row>
     <row r="3">
@@ -26133,7 +26133,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>448633.8158345978</v>
+        <v>448633.8158345977</v>
       </c>
     </row>
     <row r="4">
@@ -26157,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>780712.0470425456</v>
+        <v>780712.0470425459</v>
       </c>
     </row>
     <row r="7">
@@ -26165,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>780712.0470425456</v>
+        <v>780712.0470425457</v>
       </c>
     </row>
     <row r="8">
@@ -26173,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>780712.0470425454</v>
+        <v>780712.0470425457</v>
       </c>
     </row>
     <row r="9">
@@ -26181,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>780712.0470425459</v>
+        <v>780712.0470425457</v>
       </c>
     </row>
     <row r="10">
@@ -26189,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>780712.0470425457</v>
+        <v>780712.0470425459</v>
       </c>
     </row>
     <row r="11">
@@ -26213,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>780712.0470425457</v>
+        <v>780712.0470425459</v>
       </c>
     </row>
     <row r="14">
@@ -26221,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>780712.047042546</v>
+        <v>780712.0470425457</v>
       </c>
     </row>
     <row r="15">
@@ -26229,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>780712.0470425456</v>
+        <v>780712.0470425457</v>
       </c>
     </row>
     <row r="16">
@@ -26328,10 +26328,10 @@
         <v>231322.0880126061</v>
       </c>
       <c r="G2" t="n">
-        <v>231322.088012606</v>
+        <v>231322.0880126061</v>
       </c>
       <c r="H2" t="n">
-        <v>231322.0880126061</v>
+        <v>231322.0880126062</v>
       </c>
       <c r="I2" t="n">
         <v>231322.0880126061</v>
@@ -26340,22 +26340,22 @@
         <v>231322.0880126061</v>
       </c>
       <c r="K2" t="n">
-        <v>231322.0880126061</v>
+        <v>231322.0880126062</v>
       </c>
       <c r="L2" t="n">
-        <v>231322.0880126061</v>
+        <v>231322.0880126062</v>
       </c>
       <c r="M2" t="n">
         <v>231322.0880126062</v>
       </c>
       <c r="N2" t="n">
-        <v>231322.0880126061</v>
+        <v>231322.0880126062</v>
       </c>
       <c r="O2" t="n">
         <v>231322.0880126061</v>
       </c>
       <c r="P2" t="n">
-        <v>231322.0880126061</v>
+        <v>231322.0880126062</v>
       </c>
     </row>
     <row r="3">
@@ -26374,7 +26374,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>432846.174042996</v>
+        <v>432846.1740429961</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26429,10 +26429,10 @@
         <v>513.1084990597035</v>
       </c>
       <c r="F4" t="n">
-        <v>513.1084990597034</v>
+        <v>513.1084990597035</v>
       </c>
       <c r="G4" t="n">
-        <v>513.1084990597034</v>
+        <v>513.1084990597035</v>
       </c>
       <c r="H4" t="n">
         <v>513.1084990597035</v>
@@ -26447,7 +26447,7 @@
         <v>513.1084990597035</v>
       </c>
       <c r="L4" t="n">
-        <v>513.1084990597036</v>
+        <v>513.1084990597035</v>
       </c>
       <c r="M4" t="n">
         <v>513.1084990597035</v>
@@ -26481,7 +26481,7 @@
         <v>49231.47806340946</v>
       </c>
       <c r="F5" t="n">
-        <v>49231.47806340945</v>
+        <v>49231.47806340946</v>
       </c>
       <c r="G5" t="n">
         <v>49231.47806340946</v>
@@ -26490,13 +26490,13 @@
         <v>49231.47806340946</v>
       </c>
       <c r="I5" t="n">
-        <v>49231.47806340946</v>
+        <v>49231.47806340947</v>
       </c>
       <c r="J5" t="n">
-        <v>49231.47806340946</v>
+        <v>49231.47806340947</v>
       </c>
       <c r="K5" t="n">
-        <v>49231.47806340946</v>
+        <v>49231.47806340947</v>
       </c>
       <c r="L5" t="n">
         <v>49231.47806340947</v>
@@ -26511,7 +26511,7 @@
         <v>49231.47806340946</v>
       </c>
       <c r="P5" t="n">
-        <v>49231.47806340946</v>
+        <v>49231.47806340947</v>
       </c>
     </row>
     <row r="6">
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>3698.305232052517</v>
+        <v>-8519.705387987889</v>
       </c>
       <c r="C6" t="n">
-        <v>84467.73676360026</v>
+        <v>72249.72614355979</v>
       </c>
       <c r="D6" t="n">
-        <v>84467.73676360026</v>
+        <v>72249.72614355976</v>
       </c>
       <c r="E6" t="n">
-        <v>-251268.6725928591</v>
+        <v>-257337.0863386783</v>
       </c>
       <c r="F6" t="n">
-        <v>181577.5014501369</v>
+        <v>175509.0877043177</v>
       </c>
       <c r="G6" t="n">
-        <v>181577.5014501369</v>
+        <v>175509.0877043177</v>
       </c>
       <c r="H6" t="n">
-        <v>181577.5014501369</v>
+        <v>175509.0877043178</v>
       </c>
       <c r="I6" t="n">
-        <v>181577.5014501369</v>
+        <v>175509.0877043177</v>
       </c>
       <c r="J6" t="n">
-        <v>118517.5588510307</v>
+        <v>112449.1451052115</v>
       </c>
       <c r="K6" t="n">
-        <v>181577.5014501369</v>
+        <v>175509.0877043178</v>
       </c>
       <c r="L6" t="n">
-        <v>181577.5014501369</v>
+        <v>175509.0877043178</v>
       </c>
       <c r="M6" t="n">
-        <v>73604.14077607889</v>
+        <v>67535.72703025966</v>
       </c>
       <c r="N6" t="n">
-        <v>181577.5014501369</v>
+        <v>175509.0877043178</v>
       </c>
       <c r="O6" t="n">
-        <v>181577.5014501369</v>
+        <v>175509.0877043177</v>
       </c>
       <c r="P6" t="n">
-        <v>181577.5014501369</v>
+        <v>175509.0877043178</v>
       </c>
     </row>
   </sheetData>
@@ -26749,19 +26749,19 @@
         <v>377.7436642170866</v>
       </c>
       <c r="F3" t="n">
-        <v>377.7436642170865</v>
+        <v>377.7436642170866</v>
       </c>
       <c r="G3" t="n">
-        <v>377.7436642170865</v>
+        <v>377.7436642170867</v>
       </c>
       <c r="H3" t="n">
-        <v>377.7436642170866</v>
+        <v>377.7436642170867</v>
       </c>
       <c r="I3" t="n">
-        <v>377.7436642170866</v>
+        <v>377.7436642170867</v>
       </c>
       <c r="J3" t="n">
-        <v>377.7436642170866</v>
+        <v>377.7436642170867</v>
       </c>
       <c r="K3" t="n">
         <v>377.7436642170867</v>
@@ -26773,10 +26773,10 @@
         <v>377.7436642170867</v>
       </c>
       <c r="N3" t="n">
-        <v>377.7436642170867</v>
+        <v>377.7436642170866</v>
       </c>
       <c r="O3" t="n">
-        <v>377.7436642170867</v>
+        <v>377.7436642170866</v>
       </c>
       <c r="P3" t="n">
         <v>377.7436642170866</v>
@@ -26798,25 +26798,25 @@
         <v>241.0142888776591</v>
       </c>
       <c r="E4" t="n">
-        <v>674.2872727545555</v>
+        <v>674.2872727545556</v>
       </c>
       <c r="F4" t="n">
-        <v>674.2872727545554</v>
+        <v>674.2872727545556</v>
       </c>
       <c r="G4" t="n">
-        <v>674.2872727545555</v>
+        <v>674.2872727545556</v>
       </c>
       <c r="H4" t="n">
-        <v>674.2872727545555</v>
+        <v>674.2872727545556</v>
       </c>
       <c r="I4" t="n">
-        <v>674.2872727545556</v>
+        <v>674.2872727545557</v>
       </c>
       <c r="J4" t="n">
-        <v>674.2872727545556</v>
+        <v>674.2872727545557</v>
       </c>
       <c r="K4" t="n">
-        <v>674.2872727545556</v>
+        <v>674.2872727545557</v>
       </c>
       <c r="L4" t="n">
         <v>674.2872727545557</v>
@@ -26831,7 +26831,7 @@
         <v>674.2872727545556</v>
       </c>
       <c r="P4" t="n">
-        <v>674.2872727545556</v>
+        <v>674.2872727545557</v>
       </c>
     </row>
   </sheetData>
@@ -27020,7 +27020,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>433.2729838768964</v>
+        <v>433.2729838768965</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27044,7 +27044,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>433.2729838768964</v>
+        <v>433.2729838768965</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27266,7 +27266,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>433.2729838768964</v>
+        <v>433.2729838768965</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -31752,13 +31752,13 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>1.518567494340045</v>
+        <v>1.518567494340046</v>
       </c>
       <c r="H11" t="n">
-        <v>15.55202935140999</v>
+        <v>15.55202935141</v>
       </c>
       <c r="I11" t="n">
-        <v>58.54457332554465</v>
+        <v>58.54457332554467</v>
       </c>
       <c r="J11" t="n">
         <v>128.8865178727436</v>
@@ -31776,22 +31776,22 @@
         <v>270.9617944338304</v>
       </c>
       <c r="O11" t="n">
-        <v>255.8615389119865</v>
+        <v>255.8615389119866</v>
       </c>
       <c r="P11" t="n">
-        <v>218.3719038954666</v>
+        <v>218.3719038954667</v>
       </c>
       <c r="Q11" t="n">
         <v>163.9882055044137</v>
       </c>
       <c r="R11" t="n">
-        <v>95.39071536633796</v>
+        <v>95.39071536633797</v>
       </c>
       <c r="S11" t="n">
         <v>34.60435677727382</v>
       </c>
       <c r="T11" t="n">
-        <v>6.647529206473552</v>
+        <v>6.647529206473553</v>
       </c>
       <c r="U11" t="n">
         <v>0.1214853995472036</v>
@@ -31831,16 +31831,16 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>0.8125052400141107</v>
+        <v>0.812505240014111</v>
       </c>
       <c r="H12" t="n">
-        <v>7.847090081188913</v>
+        <v>7.847090081188914</v>
       </c>
       <c r="I12" t="n">
         <v>27.97441286890689</v>
       </c>
       <c r="J12" t="n">
-        <v>76.76392708396475</v>
+        <v>76.76392708396476</v>
       </c>
       <c r="K12" t="n">
         <v>131.2017781649102</v>
@@ -31861,19 +31861,19 @@
         <v>155.1528646479577</v>
       </c>
       <c r="Q12" t="n">
-        <v>103.7155811639065</v>
+        <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>50.44659727034981</v>
+        <v>50.44659727034982</v>
       </c>
       <c r="S12" t="n">
-        <v>15.09192847131472</v>
+        <v>15.09192847131473</v>
       </c>
       <c r="T12" t="n">
         <v>3.274966296372665</v>
       </c>
       <c r="U12" t="n">
-        <v>0.05345429210619152</v>
+        <v>0.05345429210619153</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31910,19 +31910,19 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>0.681177099407861</v>
+        <v>0.6811770994078611</v>
       </c>
       <c r="H13" t="n">
-        <v>6.056283665644441</v>
+        <v>6.056283665644442</v>
       </c>
       <c r="I13" t="n">
-        <v>20.48485313492004</v>
+        <v>20.48485313492005</v>
       </c>
       <c r="J13" t="n">
         <v>48.15922092813577</v>
       </c>
       <c r="K13" t="n">
-        <v>79.14039391302238</v>
+        <v>79.14039391302239</v>
       </c>
       <c r="L13" t="n">
         <v>101.2724571246924</v>
@@ -31934,13 +31934,13 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O13" t="n">
-        <v>96.28128674175842</v>
+        <v>96.28128674175844</v>
       </c>
       <c r="P13" t="n">
-        <v>82.38527391383799</v>
+        <v>82.38527391383801</v>
       </c>
       <c r="Q13" t="n">
-        <v>57.03929329678007</v>
+        <v>57.03929329678008</v>
       </c>
       <c r="R13" t="n">
         <v>30.62819939701163</v>
@@ -31949,7 +31949,7 @@
         <v>11.87105908695336</v>
       </c>
       <c r="T13" t="n">
-        <v>2.910483970197223</v>
+        <v>2.910483970197224</v>
       </c>
       <c r="U13" t="n">
         <v>0.0371551145131561</v>
@@ -31989,46 +31989,46 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>1.518567494340045</v>
+        <v>1.518567494340046</v>
       </c>
       <c r="H14" t="n">
-        <v>15.55202935140999</v>
+        <v>15.55202935141</v>
       </c>
       <c r="I14" t="n">
-        <v>58.54457332554464</v>
+        <v>58.54457332554467</v>
       </c>
       <c r="J14" t="n">
-        <v>128.8865178727435</v>
+        <v>128.8865178727436</v>
       </c>
       <c r="K14" t="n">
-        <v>193.1674799081576</v>
+        <v>193.1674799081577</v>
       </c>
       <c r="L14" t="n">
-        <v>239.6413398630668</v>
+        <v>239.6413398630669</v>
       </c>
       <c r="M14" t="n">
-        <v>266.6471645405366</v>
+        <v>266.6471645405367</v>
       </c>
       <c r="N14" t="n">
-        <v>270.9617944338303</v>
+        <v>270.9617944338304</v>
       </c>
       <c r="O14" t="n">
-        <v>255.8615389119865</v>
+        <v>255.8615389119866</v>
       </c>
       <c r="P14" t="n">
-        <v>218.3719038954665</v>
+        <v>218.3719038954667</v>
       </c>
       <c r="Q14" t="n">
-        <v>163.9882055044136</v>
+        <v>163.9882055044137</v>
       </c>
       <c r="R14" t="n">
-        <v>95.39071536633793</v>
+        <v>95.39071536633797</v>
       </c>
       <c r="S14" t="n">
-        <v>34.60435677727381</v>
+        <v>34.60435677727382</v>
       </c>
       <c r="T14" t="n">
-        <v>6.64752920647355</v>
+        <v>6.647529206473553</v>
       </c>
       <c r="U14" t="n">
         <v>0.1214853995472036</v>
@@ -32068,49 +32068,49 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>0.8125052400141105</v>
+        <v>0.812505240014111</v>
       </c>
       <c r="H15" t="n">
-        <v>7.84709008118891</v>
+        <v>7.847090081188914</v>
       </c>
       <c r="I15" t="n">
-        <v>27.97441286890688</v>
+        <v>27.97441286890689</v>
       </c>
       <c r="J15" t="n">
-        <v>76.76392708396473</v>
+        <v>76.76392708396476</v>
       </c>
       <c r="K15" t="n">
-        <v>131.2017781649101</v>
+        <v>131.2017781649102</v>
       </c>
       <c r="L15" t="n">
-        <v>176.4169820478006</v>
+        <v>176.4169820478007</v>
       </c>
       <c r="M15" t="n">
-        <v>205.8702969983121</v>
+        <v>205.8702969983122</v>
       </c>
       <c r="N15" t="n">
-        <v>211.3190711736699</v>
+        <v>91.88325107529209</v>
       </c>
       <c r="O15" t="n">
-        <v>193.3156655923046</v>
+        <v>193.3156655923047</v>
       </c>
       <c r="P15" t="n">
         <v>155.1528646479577</v>
       </c>
       <c r="Q15" t="n">
-        <v>0</v>
+        <v>103.7155811639065</v>
       </c>
       <c r="R15" t="n">
-        <v>50.44659727034979</v>
+        <v>50.44659727034982</v>
       </c>
       <c r="S15" t="n">
-        <v>15.09192847131472</v>
+        <v>15.09192847131473</v>
       </c>
       <c r="T15" t="n">
-        <v>3.274966296372663</v>
+        <v>3.274966296372665</v>
       </c>
       <c r="U15" t="n">
-        <v>0.0534542921061915</v>
+        <v>0.05345429210619153</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -32147,49 +32147,49 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>0.6811770994078608</v>
+        <v>0.6811770994078611</v>
       </c>
       <c r="H16" t="n">
-        <v>6.056283665644439</v>
+        <v>6.056283665644442</v>
       </c>
       <c r="I16" t="n">
-        <v>20.48485313492004</v>
+        <v>20.48485313492005</v>
       </c>
       <c r="J16" t="n">
-        <v>48.15922092813575</v>
+        <v>48.15922092813577</v>
       </c>
       <c r="K16" t="n">
-        <v>79.14039391302235</v>
+        <v>79.14039391302239</v>
       </c>
       <c r="L16" t="n">
-        <v>101.2724571246923</v>
+        <v>101.2724571246924</v>
       </c>
       <c r="M16" t="n">
-        <v>106.7776065917249</v>
+        <v>106.777606591725</v>
       </c>
       <c r="N16" t="n">
-        <v>104.2386737666593</v>
+        <v>104.2386737666594</v>
       </c>
       <c r="O16" t="n">
-        <v>96.28128674175839</v>
+        <v>96.28128674175844</v>
       </c>
       <c r="P16" t="n">
-        <v>82.38527391383796</v>
+        <v>82.38527391383801</v>
       </c>
       <c r="Q16" t="n">
-        <v>57.03929329678005</v>
+        <v>57.03929329678008</v>
       </c>
       <c r="R16" t="n">
-        <v>30.62819939701162</v>
+        <v>30.62819939701163</v>
       </c>
       <c r="S16" t="n">
-        <v>11.87105908695335</v>
+        <v>11.87105908695336</v>
       </c>
       <c r="T16" t="n">
-        <v>2.910483970197222</v>
+        <v>2.910483970197224</v>
       </c>
       <c r="U16" t="n">
-        <v>0.03715511451315608</v>
+        <v>0.0371551145131561</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32226,46 +32226,46 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>1.518567494340045</v>
+        <v>1.518567494340046</v>
       </c>
       <c r="H17" t="n">
-        <v>15.55202935140999</v>
+        <v>15.55202935141</v>
       </c>
       <c r="I17" t="n">
-        <v>58.54457332554464</v>
+        <v>58.54457332554468</v>
       </c>
       <c r="J17" t="n">
-        <v>128.8865178727435</v>
+        <v>128.8865178727436</v>
       </c>
       <c r="K17" t="n">
-        <v>193.1674799081576</v>
+        <v>193.1674799081578</v>
       </c>
       <c r="L17" t="n">
-        <v>239.6413398630668</v>
+        <v>239.641339863067</v>
       </c>
       <c r="M17" t="n">
-        <v>266.6471645405366</v>
+        <v>266.6471645405368</v>
       </c>
       <c r="N17" t="n">
-        <v>270.9617944338303</v>
+        <v>270.9617944338304</v>
       </c>
       <c r="O17" t="n">
-        <v>255.8615389119865</v>
+        <v>255.8615389119866</v>
       </c>
       <c r="P17" t="n">
-        <v>218.3719038954665</v>
+        <v>218.3719038954667</v>
       </c>
       <c r="Q17" t="n">
-        <v>163.9882055044136</v>
+        <v>163.9882055044137</v>
       </c>
       <c r="R17" t="n">
-        <v>95.39071536633793</v>
+        <v>95.39071536633799</v>
       </c>
       <c r="S17" t="n">
-        <v>34.60435677727381</v>
+        <v>34.60435677727383</v>
       </c>
       <c r="T17" t="n">
-        <v>6.64752920647355</v>
+        <v>6.647529206473554</v>
       </c>
       <c r="U17" t="n">
         <v>0.1214853995472036</v>
@@ -32305,49 +32305,49 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>0.8125052400141105</v>
+        <v>0.8125052400141111</v>
       </c>
       <c r="H18" t="n">
-        <v>7.84709008118891</v>
+        <v>7.847090081188916</v>
       </c>
       <c r="I18" t="n">
-        <v>27.97441286890688</v>
+        <v>27.9744128689069</v>
       </c>
       <c r="J18" t="n">
-        <v>0.7465913262578567</v>
+        <v>76.76392708396477</v>
       </c>
       <c r="K18" t="n">
-        <v>131.2017781649101</v>
+        <v>131.2017781649102</v>
       </c>
       <c r="L18" t="n">
-        <v>176.4169820478006</v>
+        <v>176.4169820478007</v>
       </c>
       <c r="M18" t="n">
-        <v>205.8702969983121</v>
+        <v>205.8702969983122</v>
       </c>
       <c r="N18" t="n">
-        <v>167.900586832999</v>
+        <v>211.31907117367</v>
       </c>
       <c r="O18" t="n">
-        <v>193.3156655923046</v>
+        <v>193.3156655923047</v>
       </c>
       <c r="P18" t="n">
-        <v>155.1528646479577</v>
+        <v>155.1528646479578</v>
       </c>
       <c r="Q18" t="n">
-        <v>103.7155811639065</v>
+        <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>50.44659727034979</v>
+        <v>50.44659727034983</v>
       </c>
       <c r="S18" t="n">
-        <v>15.09192847131472</v>
+        <v>15.09192847131473</v>
       </c>
       <c r="T18" t="n">
-        <v>3.274966296372663</v>
+        <v>3.274966296372666</v>
       </c>
       <c r="U18" t="n">
-        <v>0.0534542921061915</v>
+        <v>0.05345429210619154</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -32384,49 +32384,49 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>0.6811770994078608</v>
+        <v>0.6811770994078612</v>
       </c>
       <c r="H19" t="n">
-        <v>6.056283665644439</v>
+        <v>6.056283665644443</v>
       </c>
       <c r="I19" t="n">
-        <v>20.48485313492004</v>
+        <v>20.48485313492005</v>
       </c>
       <c r="J19" t="n">
-        <v>48.15922092813575</v>
+        <v>48.15922092813578</v>
       </c>
       <c r="K19" t="n">
-        <v>79.14039391302235</v>
+        <v>79.14039391302239</v>
       </c>
       <c r="L19" t="n">
-        <v>101.2724571246923</v>
+        <v>101.2724571246924</v>
       </c>
       <c r="M19" t="n">
-        <v>106.7776065917249</v>
+        <v>106.777606591725</v>
       </c>
       <c r="N19" t="n">
-        <v>104.2386737666593</v>
+        <v>104.2386737666594</v>
       </c>
       <c r="O19" t="n">
-        <v>96.28128674175839</v>
+        <v>96.28128674175845</v>
       </c>
       <c r="P19" t="n">
-        <v>82.38527391383796</v>
+        <v>82.38527391383801</v>
       </c>
       <c r="Q19" t="n">
-        <v>57.03929329678005</v>
+        <v>57.03929329678009</v>
       </c>
       <c r="R19" t="n">
-        <v>30.62819939701162</v>
+        <v>30.62819939701164</v>
       </c>
       <c r="S19" t="n">
-        <v>11.87105908695335</v>
+        <v>11.87105908695336</v>
       </c>
       <c r="T19" t="n">
-        <v>2.910483970197222</v>
+        <v>2.910483970197224</v>
       </c>
       <c r="U19" t="n">
-        <v>0.03715511451315608</v>
+        <v>0.0371551145131561</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32469,19 +32469,19 @@
         <v>15.55202935141</v>
       </c>
       <c r="I20" t="n">
-        <v>58.54457332554467</v>
+        <v>58.54457332554468</v>
       </c>
       <c r="J20" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K20" t="n">
-        <v>193.1674799081577</v>
+        <v>193.1674799081578</v>
       </c>
       <c r="L20" t="n">
-        <v>239.6413398630669</v>
+        <v>239.641339863067</v>
       </c>
       <c r="M20" t="n">
-        <v>266.6471645405367</v>
+        <v>266.6471645405368</v>
       </c>
       <c r="N20" t="n">
         <v>270.9617944338304</v>
@@ -32493,16 +32493,16 @@
         <v>218.3719038954667</v>
       </c>
       <c r="Q20" t="n">
-        <v>163.9882055044137</v>
+        <v>163.9882055044134</v>
       </c>
       <c r="R20" t="n">
-        <v>95.39071536633797</v>
+        <v>95.39071536633799</v>
       </c>
       <c r="S20" t="n">
-        <v>34.60435677727382</v>
+        <v>34.60435677727383</v>
       </c>
       <c r="T20" t="n">
-        <v>6.647529206473553</v>
+        <v>6.647529206473554</v>
       </c>
       <c r="U20" t="n">
         <v>0.1214853995472036</v>
@@ -32542,16 +32542,16 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>0.812505240014111</v>
+        <v>0.8125052400141111</v>
       </c>
       <c r="H21" t="n">
-        <v>7.847090081188914</v>
+        <v>7.847090081188916</v>
       </c>
       <c r="I21" t="n">
-        <v>27.97441286890689</v>
+        <v>27.9744128689069</v>
       </c>
       <c r="J21" t="n">
-        <v>76.76392708396476</v>
+        <v>76.76392708396477</v>
       </c>
       <c r="K21" t="n">
         <v>131.2017781649102</v>
@@ -32566,25 +32566,25 @@
         <v>211.31907117367</v>
       </c>
       <c r="O21" t="n">
-        <v>73.8798454939265</v>
+        <v>193.3156655923047</v>
       </c>
       <c r="P21" t="n">
-        <v>155.1528646479577</v>
+        <v>155.1528646479578</v>
       </c>
       <c r="Q21" t="n">
-        <v>103.7155811639065</v>
+        <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>50.44659727034982</v>
+        <v>50.44659727034983</v>
       </c>
       <c r="S21" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T21" t="n">
-        <v>3.274966296372665</v>
+        <v>3.274966296372666</v>
       </c>
       <c r="U21" t="n">
-        <v>0.05345429210619153</v>
+        <v>0.05345429210619154</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -32621,16 +32621,16 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>0.6811770994078611</v>
+        <v>0.6811770994078612</v>
       </c>
       <c r="H22" t="n">
-        <v>6.056283665644442</v>
+        <v>6.056283665644443</v>
       </c>
       <c r="I22" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J22" t="n">
-        <v>48.15922092813577</v>
+        <v>48.15922092813578</v>
       </c>
       <c r="K22" t="n">
         <v>79.14039391302239</v>
@@ -32645,16 +32645,16 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O22" t="n">
-        <v>96.28128674175844</v>
+        <v>96.28128674175845</v>
       </c>
       <c r="P22" t="n">
         <v>82.38527391383801</v>
       </c>
       <c r="Q22" t="n">
-        <v>57.03929329678008</v>
+        <v>57.03929329678009</v>
       </c>
       <c r="R22" t="n">
-        <v>30.62819939701163</v>
+        <v>30.62819939701164</v>
       </c>
       <c r="S22" t="n">
         <v>11.87105908695336</v>
@@ -32706,19 +32706,19 @@
         <v>15.55202935141</v>
       </c>
       <c r="I23" t="n">
-        <v>58.54457332554467</v>
+        <v>58.54457332554468</v>
       </c>
       <c r="J23" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K23" t="n">
-        <v>193.1674799081577</v>
+        <v>193.1674799081578</v>
       </c>
       <c r="L23" t="n">
-        <v>239.6413398630669</v>
+        <v>239.641339863067</v>
       </c>
       <c r="M23" t="n">
-        <v>266.6471645405367</v>
+        <v>266.6471645405368</v>
       </c>
       <c r="N23" t="n">
         <v>270.9617944338304</v>
@@ -32733,13 +32733,13 @@
         <v>163.9882055044137</v>
       </c>
       <c r="R23" t="n">
-        <v>95.39071536633797</v>
+        <v>95.39071536633799</v>
       </c>
       <c r="S23" t="n">
-        <v>34.60435677727382</v>
+        <v>34.60435677727383</v>
       </c>
       <c r="T23" t="n">
-        <v>6.647529206473553</v>
+        <v>6.647529206473554</v>
       </c>
       <c r="U23" t="n">
         <v>0.1214853995472036</v>
@@ -32779,16 +32779,16 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>0.812505240014111</v>
+        <v>0.8125052400141111</v>
       </c>
       <c r="H24" t="n">
-        <v>7.847090081188914</v>
+        <v>7.847090081188916</v>
       </c>
       <c r="I24" t="n">
-        <v>27.97441286890689</v>
+        <v>27.9744128689069</v>
       </c>
       <c r="J24" t="n">
-        <v>76.76392708396476</v>
+        <v>76.76392708396477</v>
       </c>
       <c r="K24" t="n">
         <v>131.2017781649102</v>
@@ -32803,25 +32803,25 @@
         <v>211.31907117367</v>
       </c>
       <c r="O24" t="n">
-        <v>149.8971812516338</v>
+        <v>193.3156655923047</v>
       </c>
       <c r="P24" t="n">
-        <v>155.1528646479577</v>
+        <v>139.4326257134866</v>
       </c>
       <c r="Q24" t="n">
-        <v>103.7155811639065</v>
+        <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>50.44659727034982</v>
+        <v>50.44659727034983</v>
       </c>
       <c r="S24" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T24" t="n">
-        <v>3.274966296372665</v>
+        <v>3.274966296372666</v>
       </c>
       <c r="U24" t="n">
-        <v>0.05345429210619153</v>
+        <v>0.05345429210619154</v>
       </c>
       <c r="V24" t="n">
         <v>0</v>
@@ -32858,16 +32858,16 @@
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>0.6811770994078611</v>
+        <v>0.6811770994078612</v>
       </c>
       <c r="H25" t="n">
-        <v>6.056283665644442</v>
+        <v>6.056283665644443</v>
       </c>
       <c r="I25" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J25" t="n">
-        <v>48.15922092813577</v>
+        <v>48.15922092813578</v>
       </c>
       <c r="K25" t="n">
         <v>79.14039391302239</v>
@@ -32882,16 +32882,16 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O25" t="n">
-        <v>96.28128674175844</v>
+        <v>96.28128674175845</v>
       </c>
       <c r="P25" t="n">
         <v>82.38527391383801</v>
       </c>
       <c r="Q25" t="n">
-        <v>57.03929329678008</v>
+        <v>57.03929329678009</v>
       </c>
       <c r="R25" t="n">
-        <v>30.62819939701163</v>
+        <v>30.62819939701164</v>
       </c>
       <c r="S25" t="n">
         <v>11.87105908695336</v>
@@ -32943,19 +32943,19 @@
         <v>15.55202935141</v>
       </c>
       <c r="I26" t="n">
-        <v>58.54457332554467</v>
+        <v>58.54457332554468</v>
       </c>
       <c r="J26" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K26" t="n">
-        <v>193.1674799081577</v>
+        <v>193.1674799081578</v>
       </c>
       <c r="L26" t="n">
-        <v>239.6413398630669</v>
+        <v>239.641339863067</v>
       </c>
       <c r="M26" t="n">
-        <v>266.6471645405367</v>
+        <v>266.6471645405368</v>
       </c>
       <c r="N26" t="n">
         <v>270.9617944338304</v>
@@ -32967,16 +32967,16 @@
         <v>218.3719038954667</v>
       </c>
       <c r="Q26" t="n">
-        <v>163.9882055044138</v>
+        <v>163.9882055044137</v>
       </c>
       <c r="R26" t="n">
-        <v>95.39071536633797</v>
+        <v>95.39071536633799</v>
       </c>
       <c r="S26" t="n">
-        <v>34.60435677727382</v>
+        <v>34.60435677727383</v>
       </c>
       <c r="T26" t="n">
-        <v>6.647529206473553</v>
+        <v>6.647529206473554</v>
       </c>
       <c r="U26" t="n">
         <v>0.1214853995472036</v>
@@ -33016,16 +33016,16 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>0.812505240014111</v>
+        <v>0.8125052400141111</v>
       </c>
       <c r="H27" t="n">
-        <v>7.847090081188914</v>
+        <v>7.847090081188916</v>
       </c>
       <c r="I27" t="n">
-        <v>27.97441286890689</v>
+        <v>27.9744128689069</v>
       </c>
       <c r="J27" t="n">
-        <v>76.76392708396476</v>
+        <v>76.76392708396477</v>
       </c>
       <c r="K27" t="n">
         <v>131.2017781649102</v>
@@ -33040,25 +33040,25 @@
         <v>211.31907117367</v>
       </c>
       <c r="O27" t="n">
-        <v>193.3156655923047</v>
+        <v>149.897181251634</v>
       </c>
       <c r="P27" t="n">
-        <v>155.1528646479577</v>
+        <v>155.1528646479578</v>
       </c>
       <c r="Q27" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R27" t="n">
-        <v>50.44659727034982</v>
+        <v>50.44659727034983</v>
       </c>
       <c r="S27" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T27" t="n">
-        <v>3.274966296372665</v>
+        <v>3.274966296372666</v>
       </c>
       <c r="U27" t="n">
-        <v>0.05345429210619153</v>
+        <v>0.05345429210619154</v>
       </c>
       <c r="V27" t="n">
         <v>0</v>
@@ -33095,16 +33095,16 @@
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>0.6811770994078611</v>
+        <v>0.6811770994078612</v>
       </c>
       <c r="H28" t="n">
-        <v>6.056283665644442</v>
+        <v>6.056283665644443</v>
       </c>
       <c r="I28" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J28" t="n">
-        <v>48.15922092813577</v>
+        <v>48.15922092813578</v>
       </c>
       <c r="K28" t="n">
         <v>79.14039391302239</v>
@@ -33119,16 +33119,16 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O28" t="n">
-        <v>96.28128674175844</v>
+        <v>96.28128674175845</v>
       </c>
       <c r="P28" t="n">
         <v>82.38527391383801</v>
       </c>
       <c r="Q28" t="n">
-        <v>57.03929329678008</v>
+        <v>57.03929329678009</v>
       </c>
       <c r="R28" t="n">
-        <v>30.62819939701163</v>
+        <v>30.62819939701164</v>
       </c>
       <c r="S28" t="n">
         <v>11.87105908695336</v>
@@ -33268,7 +33268,7 @@
         <v>131.2017781649102</v>
       </c>
       <c r="L30" t="n">
-        <v>56.98116194942293</v>
+        <v>176.4169820478007</v>
       </c>
       <c r="M30" t="n">
         <v>205.8702969983122</v>
@@ -33283,7 +33283,7 @@
         <v>155.1528646479578</v>
       </c>
       <c r="Q30" t="n">
-        <v>103.7155811639065</v>
+        <v>0</v>
       </c>
       <c r="R30" t="n">
         <v>50.44659727034983</v>
@@ -33502,7 +33502,7 @@
         <v>76.76392708396477</v>
       </c>
       <c r="K33" t="n">
-        <v>11.76595806653279</v>
+        <v>131.2017781649102</v>
       </c>
       <c r="L33" t="n">
         <v>176.4169820478007</v>
@@ -33511,7 +33511,7 @@
         <v>205.8702969983122</v>
       </c>
       <c r="N33" t="n">
-        <v>211.31907117367</v>
+        <v>91.88325107529255</v>
       </c>
       <c r="O33" t="n">
         <v>193.3156655923047</v>
@@ -33757,7 +33757,7 @@
         <v>155.1528646479578</v>
       </c>
       <c r="Q36" t="n">
-        <v>103.7155811639065</v>
+        <v>0</v>
       </c>
       <c r="R36" t="n">
         <v>50.44659727034983</v>
@@ -33891,19 +33891,19 @@
         <v>15.55202935141</v>
       </c>
       <c r="I38" t="n">
-        <v>58.54457332554468</v>
+        <v>58.54457332554467</v>
       </c>
       <c r="J38" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K38" t="n">
-        <v>193.1674799081578</v>
+        <v>193.1674799081577</v>
       </c>
       <c r="L38" t="n">
-        <v>239.641339863067</v>
+        <v>239.6413398630669</v>
       </c>
       <c r="M38" t="n">
-        <v>266.6471645405368</v>
+        <v>266.6471645405367</v>
       </c>
       <c r="N38" t="n">
         <v>270.9617944338304</v>
@@ -33918,13 +33918,13 @@
         <v>163.9882055044137</v>
       </c>
       <c r="R38" t="n">
-        <v>95.39071536633799</v>
+        <v>95.39071536633797</v>
       </c>
       <c r="S38" t="n">
-        <v>34.60435677727383</v>
+        <v>34.60435677727382</v>
       </c>
       <c r="T38" t="n">
-        <v>6.647529206473554</v>
+        <v>6.647529206473553</v>
       </c>
       <c r="U38" t="n">
         <v>0.1214853995472036</v>
@@ -33964,16 +33964,16 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>0.8125052400141111</v>
+        <v>0.812505240014111</v>
       </c>
       <c r="H39" t="n">
-        <v>7.847090081188916</v>
+        <v>7.847090081188914</v>
       </c>
       <c r="I39" t="n">
-        <v>27.9744128689069</v>
+        <v>27.97441286890689</v>
       </c>
       <c r="J39" t="n">
-        <v>76.76392708396477</v>
+        <v>76.76392708396476</v>
       </c>
       <c r="K39" t="n">
         <v>131.2017781649102</v>
@@ -33991,22 +33991,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P39" t="n">
-        <v>155.1528646479578</v>
+        <v>155.1528646479577</v>
       </c>
       <c r="Q39" t="n">
-        <v>60.29709682323551</v>
+        <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>50.44659727034983</v>
+        <v>50.44659727034982</v>
       </c>
       <c r="S39" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T39" t="n">
-        <v>3.274966296372666</v>
+        <v>3.274966296372665</v>
       </c>
       <c r="U39" t="n">
-        <v>0.05345429210619154</v>
+        <v>0.05345429210619153</v>
       </c>
       <c r="V39" t="n">
         <v>0</v>
@@ -34043,16 +34043,16 @@
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>0.6811770994078612</v>
+        <v>0.6811770994078611</v>
       </c>
       <c r="H40" t="n">
-        <v>6.056283665644443</v>
+        <v>6.056283665644442</v>
       </c>
       <c r="I40" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J40" t="n">
-        <v>48.15922092813578</v>
+        <v>48.15922092813577</v>
       </c>
       <c r="K40" t="n">
         <v>79.14039391302239</v>
@@ -34067,16 +34067,16 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O40" t="n">
-        <v>96.28128674175845</v>
+        <v>96.28128674175844</v>
       </c>
       <c r="P40" t="n">
         <v>82.38527391383801</v>
       </c>
       <c r="Q40" t="n">
-        <v>57.03929329678009</v>
+        <v>57.03929329678008</v>
       </c>
       <c r="R40" t="n">
-        <v>30.62819939701164</v>
+        <v>30.62819939701163</v>
       </c>
       <c r="S40" t="n">
         <v>11.87105908695336</v>
@@ -34128,19 +34128,19 @@
         <v>15.55202935141</v>
       </c>
       <c r="I41" t="n">
-        <v>58.54457332554468</v>
+        <v>58.54457332554467</v>
       </c>
       <c r="J41" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K41" t="n">
-        <v>193.1674799081578</v>
+        <v>193.1674799081577</v>
       </c>
       <c r="L41" t="n">
-        <v>239.641339863067</v>
+        <v>239.6413398630669</v>
       </c>
       <c r="M41" t="n">
-        <v>266.6471645405368</v>
+        <v>266.6471645405367</v>
       </c>
       <c r="N41" t="n">
         <v>270.9617944338304</v>
@@ -34155,13 +34155,13 @@
         <v>163.9882055044137</v>
       </c>
       <c r="R41" t="n">
-        <v>95.39071536633799</v>
+        <v>95.39071536633797</v>
       </c>
       <c r="S41" t="n">
-        <v>34.60435677727383</v>
+        <v>34.60435677727382</v>
       </c>
       <c r="T41" t="n">
-        <v>6.647529206473554</v>
+        <v>6.647529206473553</v>
       </c>
       <c r="U41" t="n">
         <v>0.1214853995472036</v>
@@ -34201,22 +34201,22 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>0.8125052400141111</v>
+        <v>0.812505240014111</v>
       </c>
       <c r="H42" t="n">
-        <v>7.847090081188916</v>
+        <v>7.847090081188914</v>
       </c>
       <c r="I42" t="n">
-        <v>27.9744128689069</v>
+        <v>27.97441286890689</v>
       </c>
       <c r="J42" t="n">
-        <v>0.7465913262578567</v>
+        <v>76.76392708396476</v>
       </c>
       <c r="K42" t="n">
         <v>131.2017781649102</v>
       </c>
       <c r="L42" t="n">
-        <v>132.9984977071298</v>
+        <v>176.4169820478007</v>
       </c>
       <c r="M42" t="n">
         <v>205.8702969983122</v>
@@ -34228,22 +34228,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P42" t="n">
-        <v>155.1528646479578</v>
+        <v>155.1528646479577</v>
       </c>
       <c r="Q42" t="n">
-        <v>103.7155811639065</v>
+        <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>50.44659727034983</v>
+        <v>50.44659727034982</v>
       </c>
       <c r="S42" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T42" t="n">
-        <v>3.274966296372666</v>
+        <v>3.274966296372665</v>
       </c>
       <c r="U42" t="n">
-        <v>0.05345429210619154</v>
+        <v>0.05345429210619153</v>
       </c>
       <c r="V42" t="n">
         <v>0</v>
@@ -34280,16 +34280,16 @@
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>0.6811770994078612</v>
+        <v>0.6811770994078611</v>
       </c>
       <c r="H43" t="n">
-        <v>6.056283665644443</v>
+        <v>6.056283665644442</v>
       </c>
       <c r="I43" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J43" t="n">
-        <v>48.15922092813578</v>
+        <v>48.15922092813577</v>
       </c>
       <c r="K43" t="n">
         <v>79.14039391302239</v>
@@ -34304,16 +34304,16 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O43" t="n">
-        <v>96.28128674175845</v>
+        <v>96.28128674175844</v>
       </c>
       <c r="P43" t="n">
         <v>82.38527391383801</v>
       </c>
       <c r="Q43" t="n">
-        <v>57.03929329678009</v>
+        <v>57.03929329678008</v>
       </c>
       <c r="R43" t="n">
-        <v>30.62819939701164</v>
+        <v>30.62819939701163</v>
       </c>
       <c r="S43" t="n">
         <v>11.87105908695336</v>
@@ -34459,7 +34459,7 @@
         <v>205.8702969983122</v>
       </c>
       <c r="N45" t="n">
-        <v>167.900586832999</v>
+        <v>211.31907117367</v>
       </c>
       <c r="O45" t="n">
         <v>193.3156655923047</v>
@@ -34468,7 +34468,7 @@
         <v>155.1528646479577</v>
       </c>
       <c r="Q45" t="n">
-        <v>103.7155811639065</v>
+        <v>0</v>
       </c>
       <c r="R45" t="n">
         <v>50.44659727034982</v>
@@ -34783,22 +34783,22 @@
         <v>126.6237980382196</v>
       </c>
       <c r="L3" t="n">
-        <v>91.0829537758999</v>
+        <v>232.285965523585</v>
       </c>
       <c r="M3" t="n">
-        <v>241.0142888776591</v>
+        <v>113.3808631277495</v>
       </c>
       <c r="N3" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="O3" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="P3" t="n">
-        <v>184.4883612256069</v>
+        <v>0</v>
       </c>
       <c r="Q3" t="n">
-        <v>70.09551364982758</v>
+        <v>0</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -35020,13 +35020,13 @@
         <v>126.6237980382196</v>
       </c>
       <c r="L6" t="n">
-        <v>0</v>
+        <v>232.285965523585</v>
       </c>
       <c r="M6" t="n">
-        <v>241.0142888776591</v>
+        <v>169.9067907798017</v>
       </c>
       <c r="N6" t="n">
-        <v>161.1784674257276</v>
+        <v>0</v>
       </c>
       <c r="O6" t="n">
         <v>241.0142888776591</v>
@@ -35260,7 +35260,7 @@
         <v>232.285965523585</v>
       </c>
       <c r="M9" t="n">
-        <v>169.9067907798017</v>
+        <v>99.81127712997396</v>
       </c>
       <c r="N9" t="n">
         <v>0</v>
@@ -35272,7 +35272,7 @@
         <v>184.4883612256069</v>
       </c>
       <c r="Q9" t="n">
-        <v>0</v>
+        <v>70.09551364982758</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35424,10 +35424,10 @@
         <v>478.8956552492236</v>
       </c>
       <c r="O11" t="n">
-        <v>406.5635087530451</v>
+        <v>406.5635087530452</v>
       </c>
       <c r="P11" t="n">
-        <v>308.9376163116797</v>
+        <v>308.9376163116798</v>
       </c>
       <c r="Q11" t="n">
         <v>153.9975062898689</v>
@@ -35488,7 +35488,7 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>76.01733575770689</v>
+        <v>76.0173357577069</v>
       </c>
       <c r="K12" t="n">
         <v>257.8255762031298</v>
@@ -35503,13 +35503,13 @@
         <v>559.3197334338902</v>
       </c>
       <c r="O12" t="n">
-        <v>444.5817404245897</v>
+        <v>444.5817404245898</v>
       </c>
       <c r="P12" t="n">
         <v>339.6412258735646</v>
       </c>
       <c r="Q12" t="n">
-        <v>54.37527471535575</v>
+        <v>54.37527471535621</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35570,7 +35570,7 @@
         <v>0</v>
       </c>
       <c r="K13" t="n">
-        <v>56.87090208713953</v>
+        <v>56.87090208713954</v>
       </c>
       <c r="L13" t="n">
         <v>128.8624823850085</v>
@@ -35585,7 +35585,7 @@
         <v>120.8664146557981</v>
       </c>
       <c r="P13" t="n">
-        <v>79.66383317873148</v>
+        <v>79.66383317873149</v>
       </c>
       <c r="Q13" t="n">
         <v>0</v>
@@ -35649,25 +35649,25 @@
         <v>116.937228518131</v>
       </c>
       <c r="K14" t="n">
-        <v>297.2230414343418</v>
+        <v>297.2230414343419</v>
       </c>
       <c r="L14" t="n">
-        <v>421.53613944353</v>
+        <v>421.5361394435301</v>
       </c>
       <c r="M14" t="n">
-        <v>485.8144648060963</v>
+        <v>485.8144648060965</v>
       </c>
       <c r="N14" t="n">
-        <v>478.8956552492235</v>
+        <v>478.8956552492236</v>
       </c>
       <c r="O14" t="n">
-        <v>406.5635087530451</v>
+        <v>406.5635087530452</v>
       </c>
       <c r="P14" t="n">
-        <v>308.9376163116797</v>
+        <v>308.9376163116798</v>
       </c>
       <c r="Q14" t="n">
-        <v>153.9975062898688</v>
+        <v>153.9975062898689</v>
       </c>
       <c r="R14" t="n">
         <v>0</v>
@@ -35725,28 +35725,28 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>76.01733575770687</v>
+        <v>76.0173357577069</v>
       </c>
       <c r="K15" t="n">
-        <v>257.8255762031297</v>
+        <v>257.8255762031298</v>
       </c>
       <c r="L15" t="n">
-        <v>408.7029475713856</v>
+        <v>408.7029475713857</v>
       </c>
       <c r="M15" t="n">
-        <v>529.4413268262937</v>
+        <v>529.4413268262938</v>
       </c>
       <c r="N15" t="n">
-        <v>559.3197334338902</v>
+        <v>439.8839133355123</v>
       </c>
       <c r="O15" t="n">
-        <v>444.5817404245897</v>
+        <v>444.5817404245898</v>
       </c>
       <c r="P15" t="n">
         <v>339.6412258735646</v>
       </c>
       <c r="Q15" t="n">
-        <v>54.37527471535575</v>
+        <v>173.8110948137341</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35807,22 +35807,22 @@
         <v>0</v>
       </c>
       <c r="K16" t="n">
-        <v>56.8709020871395</v>
+        <v>56.87090208713954</v>
       </c>
       <c r="L16" t="n">
         <v>128.8624823850085</v>
       </c>
       <c r="M16" t="n">
-        <v>146.3614835535655</v>
+        <v>146.3614835535656</v>
       </c>
       <c r="N16" t="n">
-        <v>148.3708461458879</v>
+        <v>148.370846145888</v>
       </c>
       <c r="O16" t="n">
         <v>120.8664146557981</v>
       </c>
       <c r="P16" t="n">
-        <v>79.66383317873145</v>
+        <v>79.66383317873149</v>
       </c>
       <c r="Q16" t="n">
         <v>0</v>
@@ -35883,28 +35883,28 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>116.937228518131</v>
+        <v>116.9372285181311</v>
       </c>
       <c r="K17" t="n">
-        <v>297.2230414343418</v>
+        <v>297.223041434342</v>
       </c>
       <c r="L17" t="n">
-        <v>421.53613944353</v>
+        <v>421.5361394435302</v>
       </c>
       <c r="M17" t="n">
-        <v>485.8144648060963</v>
+        <v>485.8144648060966</v>
       </c>
       <c r="N17" t="n">
-        <v>478.8956552492235</v>
+        <v>478.8956552492237</v>
       </c>
       <c r="O17" t="n">
-        <v>406.5635087530451</v>
+        <v>406.5635087530452</v>
       </c>
       <c r="P17" t="n">
-        <v>308.9376163116797</v>
+        <v>308.9376163116798</v>
       </c>
       <c r="Q17" t="n">
-        <v>153.9975062898688</v>
+        <v>153.9975062898689</v>
       </c>
       <c r="R17" t="n">
         <v>0</v>
@@ -35962,28 +35962,28 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>76.01733575770692</v>
       </c>
       <c r="K18" t="n">
-        <v>257.8255762031297</v>
+        <v>257.8255762031298</v>
       </c>
       <c r="L18" t="n">
-        <v>408.7029475713856</v>
+        <v>408.7029475713857</v>
       </c>
       <c r="M18" t="n">
-        <v>529.4413268262937</v>
+        <v>529.4413268262938</v>
       </c>
       <c r="N18" t="n">
-        <v>515.9012490932192</v>
+        <v>559.3197334338903</v>
       </c>
       <c r="O18" t="n">
-        <v>444.5817404245897</v>
+        <v>444.5817404245898</v>
       </c>
       <c r="P18" t="n">
-        <v>339.6412258735646</v>
+        <v>339.6412258735647</v>
       </c>
       <c r="Q18" t="n">
-        <v>173.811094813734</v>
+        <v>54.37527471535575</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36044,22 +36044,22 @@
         <v>0</v>
       </c>
       <c r="K19" t="n">
-        <v>56.8709020871395</v>
+        <v>56.87090208713954</v>
       </c>
       <c r="L19" t="n">
         <v>128.8624823850085</v>
       </c>
       <c r="M19" t="n">
-        <v>146.3614835535655</v>
+        <v>146.3614835535656</v>
       </c>
       <c r="N19" t="n">
-        <v>148.3708461458879</v>
+        <v>148.370846145888</v>
       </c>
       <c r="O19" t="n">
         <v>120.8664146557981</v>
       </c>
       <c r="P19" t="n">
-        <v>79.66383317873145</v>
+        <v>79.66383317873149</v>
       </c>
       <c r="Q19" t="n">
         <v>0</v>
@@ -36120,19 +36120,19 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>116.937228518131</v>
+        <v>116.9372285181311</v>
       </c>
       <c r="K20" t="n">
-        <v>297.2230414343419</v>
+        <v>297.223041434342</v>
       </c>
       <c r="L20" t="n">
-        <v>421.5361394435301</v>
+        <v>421.5361394435302</v>
       </c>
       <c r="M20" t="n">
-        <v>485.8144648060965</v>
+        <v>485.8144648060966</v>
       </c>
       <c r="N20" t="n">
-        <v>478.8956552492236</v>
+        <v>478.8956552492237</v>
       </c>
       <c r="O20" t="n">
         <v>406.5635087530452</v>
@@ -36141,7 +36141,7 @@
         <v>308.9376163116798</v>
       </c>
       <c r="Q20" t="n">
-        <v>153.9975062898689</v>
+        <v>153.9975062898686</v>
       </c>
       <c r="R20" t="n">
         <v>0</v>
@@ -36199,7 +36199,7 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>76.0173357577069</v>
+        <v>76.01733575770692</v>
       </c>
       <c r="K21" t="n">
         <v>257.8255762031298</v>
@@ -36211,16 +36211,16 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N21" t="n">
-        <v>559.3197334338902</v>
+        <v>559.3197334338903</v>
       </c>
       <c r="O21" t="n">
-        <v>325.1459203262116</v>
+        <v>444.5817404245898</v>
       </c>
       <c r="P21" t="n">
-        <v>339.6412258735646</v>
+        <v>339.6412258735647</v>
       </c>
       <c r="Q21" t="n">
-        <v>173.8110948137341</v>
+        <v>54.37527471535575</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36357,19 +36357,19 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>116.937228518131</v>
+        <v>116.9372285181311</v>
       </c>
       <c r="K23" t="n">
-        <v>297.2230414343419</v>
+        <v>297.223041434342</v>
       </c>
       <c r="L23" t="n">
-        <v>421.5361394435301</v>
+        <v>421.5361394435302</v>
       </c>
       <c r="M23" t="n">
-        <v>485.8144648060965</v>
+        <v>485.8144648060966</v>
       </c>
       <c r="N23" t="n">
-        <v>478.8956552492236</v>
+        <v>478.8956552492237</v>
       </c>
       <c r="O23" t="n">
         <v>406.5635087530452</v>
@@ -36436,7 +36436,7 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>0</v>
+        <v>76.01733575770692</v>
       </c>
       <c r="K24" t="n">
         <v>257.8255762031298</v>
@@ -36448,16 +36448,16 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N24" t="n">
-        <v>559.3197334338902</v>
+        <v>559.3197334338903</v>
       </c>
       <c r="O24" t="n">
-        <v>401.1632560839189</v>
+        <v>444.5817404245898</v>
       </c>
       <c r="P24" t="n">
-        <v>339.6412258735646</v>
+        <v>323.9209869390935</v>
       </c>
       <c r="Q24" t="n">
-        <v>173.8110948137341</v>
+        <v>70.09551364982758</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -36594,19 +36594,19 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>116.937228518131</v>
+        <v>116.9372285181311</v>
       </c>
       <c r="K26" t="n">
-        <v>297.2230414343419</v>
+        <v>297.223041434342</v>
       </c>
       <c r="L26" t="n">
-        <v>421.5361394435301</v>
+        <v>421.5361394435302</v>
       </c>
       <c r="M26" t="n">
-        <v>485.8144648060965</v>
+        <v>485.8144648060966</v>
       </c>
       <c r="N26" t="n">
-        <v>478.8956552492236</v>
+        <v>478.8956552492237</v>
       </c>
       <c r="O26" t="n">
         <v>406.5635087530452</v>
@@ -36615,7 +36615,7 @@
         <v>308.9376163116798</v>
       </c>
       <c r="Q26" t="n">
-        <v>153.997506289869</v>
+        <v>153.9975062898689</v>
       </c>
       <c r="R26" t="n">
         <v>0</v>
@@ -36673,7 +36673,7 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>76.0173357577069</v>
+        <v>0</v>
       </c>
       <c r="K27" t="n">
         <v>257.8255762031298</v>
@@ -36685,16 +36685,16 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N27" t="n">
-        <v>559.3197334338902</v>
+        <v>559.3197334338903</v>
       </c>
       <c r="O27" t="n">
-        <v>444.5817404245898</v>
+        <v>401.1632560839191</v>
       </c>
       <c r="P27" t="n">
-        <v>339.6412258735646</v>
+        <v>339.6412258735647</v>
       </c>
       <c r="Q27" t="n">
-        <v>54.37527471535621</v>
+        <v>173.8110948137341</v>
       </c>
       <c r="R27" t="n">
         <v>0</v>
@@ -36916,7 +36916,7 @@
         <v>257.8255762031298</v>
       </c>
       <c r="L30" t="n">
-        <v>289.2671274730079</v>
+        <v>408.7029475713857</v>
       </c>
       <c r="M30" t="n">
         <v>529.4413268262938</v>
@@ -36931,7 +36931,7 @@
         <v>339.6412258735647</v>
       </c>
       <c r="Q30" t="n">
-        <v>173.8110948137341</v>
+        <v>54.37527471535621</v>
       </c>
       <c r="R30" t="n">
         <v>0</v>
@@ -37150,7 +37150,7 @@
         <v>76.01733575770692</v>
       </c>
       <c r="K33" t="n">
-        <v>138.3897561047524</v>
+        <v>257.8255762031298</v>
       </c>
       <c r="L33" t="n">
         <v>408.7029475713857</v>
@@ -37159,7 +37159,7 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N33" t="n">
-        <v>559.3197334338903</v>
+        <v>439.8839133355128</v>
       </c>
       <c r="O33" t="n">
         <v>444.5817404245898</v>
@@ -37542,19 +37542,19 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>116.9372285181311</v>
+        <v>116.937228518131</v>
       </c>
       <c r="K38" t="n">
-        <v>297.223041434342</v>
+        <v>297.2230414343419</v>
       </c>
       <c r="L38" t="n">
-        <v>421.5361394435302</v>
+        <v>421.5361394435301</v>
       </c>
       <c r="M38" t="n">
-        <v>485.8144648060966</v>
+        <v>485.8144648060965</v>
       </c>
       <c r="N38" t="n">
-        <v>478.8956552492237</v>
+        <v>478.8956552492236</v>
       </c>
       <c r="O38" t="n">
         <v>406.5635087530452</v>
@@ -37621,7 +37621,7 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>0</v>
+        <v>76.0173357577069</v>
       </c>
       <c r="K39" t="n">
         <v>257.8255762031298</v>
@@ -37633,16 +37633,16 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N39" t="n">
-        <v>559.3197334338903</v>
+        <v>559.3197334338902</v>
       </c>
       <c r="O39" t="n">
         <v>444.5817404245898</v>
       </c>
       <c r="P39" t="n">
-        <v>339.6412258735647</v>
+        <v>339.6412258735646</v>
       </c>
       <c r="Q39" t="n">
-        <v>130.3926104730631</v>
+        <v>54.37527471535667</v>
       </c>
       <c r="R39" t="n">
         <v>0</v>
@@ -37779,19 +37779,19 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>116.9372285181311</v>
+        <v>116.937228518131</v>
       </c>
       <c r="K41" t="n">
-        <v>297.223041434342</v>
+        <v>297.2230414343419</v>
       </c>
       <c r="L41" t="n">
-        <v>421.5361394435302</v>
+        <v>421.5361394435301</v>
       </c>
       <c r="M41" t="n">
-        <v>485.8144648060966</v>
+        <v>485.8144648060965</v>
       </c>
       <c r="N41" t="n">
-        <v>478.8956552492237</v>
+        <v>478.8956552492236</v>
       </c>
       <c r="O41" t="n">
         <v>406.5635087530452</v>
@@ -37858,28 +37858,28 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>0</v>
+        <v>76.0173357577069</v>
       </c>
       <c r="K42" t="n">
         <v>257.8255762031298</v>
       </c>
       <c r="L42" t="n">
-        <v>365.2844632307148</v>
+        <v>408.7029475713857</v>
       </c>
       <c r="M42" t="n">
         <v>529.4413268262938</v>
       </c>
       <c r="N42" t="n">
-        <v>559.3197334338903</v>
+        <v>559.3197334338902</v>
       </c>
       <c r="O42" t="n">
         <v>444.5817404245898</v>
       </c>
       <c r="P42" t="n">
-        <v>339.6412258735647</v>
+        <v>339.6412258735646</v>
       </c>
       <c r="Q42" t="n">
-        <v>173.8110948137341</v>
+        <v>54.37527471535621</v>
       </c>
       <c r="R42" t="n">
         <v>0</v>
@@ -38095,7 +38095,7 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>0</v>
+        <v>76.0173357577069</v>
       </c>
       <c r="K45" t="n">
         <v>257.8255762031298</v>
@@ -38107,7 +38107,7 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N45" t="n">
-        <v>515.9012490932192</v>
+        <v>559.3197334338902</v>
       </c>
       <c r="O45" t="n">
         <v>444.5817404245898</v>
@@ -38116,7 +38116,7 @@
         <v>339.6412258735646</v>
       </c>
       <c r="Q45" t="n">
-        <v>173.8110948137341</v>
+        <v>54.37527471535667</v>
       </c>
       <c r="R45" t="n">
         <v>0</v>
